--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1206,7 +1206,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
         <x:v>41</x:v>
@@ -1235,7 +1235,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>57</x:v>
@@ -9271,7 +9271,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="H295" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I295" s="0" t="n">
         <x:v>0</x:v>
@@ -9300,7 +9300,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="H296" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I296" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8656,7 +8656,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F274" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G274" s="1" t="n">
         <x:v>248</x:v>
@@ -8685,7 +8685,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F275" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
         <x:v>312</x:v>
@@ -8975,7 +8975,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F285" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G285" s="1" t="n">
         <x:v>1</x:v>
@@ -9004,7 +9004,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F286" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G286" s="1" t="n">
         <x:v>0</x:v>
@@ -9033,7 +9033,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F287" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G287" s="1" t="n">
         <x:v>1</x:v>
@@ -10750,7 +10750,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="H346" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I346" s="0" t="n">
         <x:v>0</x:v>
@@ -10779,7 +10779,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="H347" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I347" s="0" t="n">
         <x:v>0</x:v>
@@ -11997,7 +11997,7 @@
         <x:v>1144</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="I389" s="0" t="n">
         <x:v>0</x:v>
@@ -12026,7 +12026,7 @@
         <x:v>1464</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="I390" s="0" t="n">
         <x:v>0</x:v>
@@ -12229,7 +12229,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="H397" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I397" s="0" t="n">
         <x:v>0</x:v>
@@ -12287,7 +12287,7 @@
         <x:v>834</x:v>
       </x:c>
       <x:c r="H399" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="I399" s="0" t="n">
         <x:v>0</x:v>
@@ -22863,7 +22863,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E764" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F764" s="1" t="n">
         <x:v>12</x:v>
@@ -22921,7 +22921,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E766" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F766" s="1" t="n">
         <x:v>44</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1177,7 +1177,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
         <x:v>16</x:v>
@@ -1203,13 +1203,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>146</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1232,13 +1232,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1383,7 +1383,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
         <x:v>0</x:v>
@@ -1412,7 +1412,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
         <x:v>0</x:v>
@@ -1435,7 +1435,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G25" s="1" t="n">
         <x:v>71</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>240</x:v>
@@ -1725,7 +1725,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>39</x:v>
@@ -1754,7 +1754,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>47</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1203,13 +1203,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
         <x:v>0</x:v>
@@ -1232,13 +1232,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1464,13 +1464,13 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>169</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>0</x:v>
@@ -1493,13 +1493,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>240</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>0</x:v>
@@ -1644,7 +1644,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I32" s="0" t="n">
         <x:v>0</x:v>
@@ -1673,7 +1673,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
         <x:v>0</x:v>
@@ -1725,7 +1725,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>39</x:v>
@@ -1754,7 +1754,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>47</x:v>
@@ -5228,7 +5228,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D156" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E156" s="1" t="n">
         <x:v>2</x:v>
@@ -5257,7 +5257,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D157" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E157" s="1" t="n">
         <x:v>4</x:v>
@@ -8630,7 +8630,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G273" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H273" s="1" t="n">
         <x:v>26</x:v>
@@ -8688,7 +8688,7 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H275" s="1" t="n">
         <x:v>115</x:v>
@@ -9265,7 +9265,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F295" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G295" s="1" t="n">
         <x:v>44</x:v>
@@ -9294,7 +9294,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F296" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G296" s="1" t="n">
         <x:v>60</x:v>
@@ -9790,7 +9790,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G313" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H313" s="1" t="n">
         <x:v>26</x:v>
@@ -9819,7 +9819,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G314" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H314" s="1" t="n">
         <x:v>35</x:v>
@@ -11962,13 +11962,13 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="H388" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I388" s="0" t="n">
         <x:v>0</x:v>
@@ -11991,13 +11991,13 @@
         <x:v>625</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
-        <x:v>1144</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="I389" s="0" t="n">
         <x:v>0</x:v>
@@ -12020,13 +12020,13 @@
         <x:v>848</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>1448</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>1464</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="I390" s="0" t="n">
         <x:v>0</x:v>
@@ -28666,10 +28666,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G964" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H964" s="1" t="n">
         <x:v>59</x:v>
@@ -28695,10 +28695,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F965" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G965" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H965" s="1" t="n">
         <x:v>80</x:v>
@@ -29275,10 +29275,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F985" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G985" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H985" s="1" t="n">
         <x:v>19</x:v>
@@ -29304,10 +29304,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F986" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G986" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H986" s="1" t="n">
         <x:v>27</x:v>
@@ -29858,7 +29858,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G1005" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H1005" s="1" t="n">
         <x:v>12</x:v>
@@ -29887,7 +29887,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G1006" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1006" s="1" t="n">
         <x:v>21</x:v>
@@ -30142,7 +30142,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1015" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1015" s="1" t="n">
         <x:v>1</x:v>
@@ -30200,7 +30200,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1017" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1017" s="1" t="n">
         <x:v>5</x:v>
@@ -30528,7 +30528,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
@@ -30586,7 +30586,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8624,7 +8624,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E273" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F273" s="1" t="n">
         <x:v>59</x:v>
@@ -8682,7 +8682,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E275" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F275" s="1" t="n">
         <x:v>265</x:v>
@@ -11962,13 +11962,13 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
         <x:v>322</x:v>
       </x:c>
       <x:c r="H388" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I388" s="0" t="n">
         <x:v>0</x:v>
@@ -11985,16 +11985,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D389" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E389" s="1" t="n">
         <x:v>625</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
-        <x:v>1100</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
-        <x:v>1143</x:v>
+        <x:v>1145</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
         <x:v>515</x:v>
@@ -12014,19 +12014,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D390" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
         <x:v>848</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>1450</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>1465</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="I390" s="0" t="n">
         <x:v>0</x:v>
@@ -12168,7 +12168,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="G395" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H395" s="1" t="n">
         <x:v>92</x:v>
@@ -12197,7 +12197,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="G396" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H396" s="1" t="n">
         <x:v>109</x:v>
@@ -14085,7 +14085,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H461" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I461" s="0" t="n">
         <x:v>0</x:v>
@@ -14143,7 +14143,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H463" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I463" s="0" t="n">
         <x:v>0</x:v>
@@ -28666,7 +28666,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F964" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G964" s="1" t="n">
         <x:v>107</x:v>
@@ -28695,7 +28695,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F965" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G965" s="1" t="n">
         <x:v>138</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1464,7 +1464,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>169</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>240</x:v>
@@ -1635,7 +1635,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>6</x:v>
@@ -1664,7 +1664,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>6</x:v>
@@ -8920,7 +8920,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="G283" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H283" s="1" t="n">
         <x:v>152</x:v>
@@ -8949,7 +8949,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="G284" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="H284" s="1" t="n">
         <x:v>207</x:v>
@@ -30525,7 +30525,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
         <x:v>32</x:v>
@@ -30583,7 +30583,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
         <x:v>115</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8917,7 +8917,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="F283" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="G283" s="1" t="n">
         <x:v>287</x:v>
@@ -8946,7 +8946,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="F284" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G284" s="1" t="n">
         <x:v>388</x:v>
@@ -11988,7 +11988,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="E389" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
         <x:v>1103</x:v>
@@ -12017,7 +12017,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
         <x:v>1454</x:v>
@@ -12510,7 +12510,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E407" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F407" s="1" t="n">
         <x:v>621</x:v>
@@ -12539,7 +12539,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E408" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
         <x:v>740</x:v>
@@ -28672,7 +28672,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="H964" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I964" s="0" t="n">
         <x:v>0</x:v>
@@ -28701,7 +28701,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="H965" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I965" s="0" t="n">
         <x:v>0</x:v>
@@ -30528,7 +30528,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="n">
         <x:v>0</x:v>
@@ -30586,7 +30586,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I1030" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1635,7 +1635,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>6</x:v>
@@ -1664,7 +1664,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
         <x:v>6</x:v>
@@ -3703,7 +3703,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H103" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I103" s="0" t="n">
         <x:v>0</x:v>
@@ -3732,7 +3732,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H104" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I104" s="0" t="n">
         <x:v>0</x:v>
@@ -8659,7 +8659,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="G274" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H274" s="1" t="n">
         <x:v>89</x:v>
@@ -8688,7 +8688,7 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="H275" s="1" t="n">
         <x:v>115</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -11959,10 +11959,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E388" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
         <x:v>322</x:v>
@@ -12017,10 +12017,10 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>1454</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>1467</x:v>
@@ -23072,7 +23072,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G771" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H771" s="1" t="n">
         <x:v>30</x:v>
@@ -23101,7 +23101,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G772" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H772" s="1" t="n">
         <x:v>41</x:v>
@@ -30554,7 +30554,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G1029" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H1029" s="1" t="n">
         <x:v>83</x:v>
@@ -30583,7 +30583,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
         <x:v>116</x:v>
@@ -34640,7 +34640,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1170" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1170" s="1" t="n">
         <x:v>3</x:v>
@@ -34698,7 +34698,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1172" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1172" s="1" t="n">
         <x:v>10</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1461,7 +1461,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
         <x:v>196</x:v>
@@ -1490,7 +1490,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>244</x:v>
@@ -9793,7 +9793,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="H313" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I313" s="0" t="n">
         <x:v>0</x:v>
@@ -9822,7 +9822,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="H314" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I314" s="0" t="n">
         <x:v>0</x:v>
@@ -10744,7 +10744,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F346" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G346" s="1" t="n">
         <x:v>42</x:v>
@@ -10773,7 +10773,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F347" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G347" s="1" t="n">
         <x:v>51</x:v>
@@ -11962,13 +11962,13 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="F388" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
         <x:v>322</x:v>
       </x:c>
       <x:c r="H388" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I388" s="0" t="n">
         <x:v>0</x:v>
@@ -11988,7 +11988,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="E389" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
         <x:v>1103</x:v>
@@ -12017,16 +12017,16 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>1456</x:v>
+        <x:v>1457</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>1467</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="I390" s="0" t="n">
         <x:v>0</x:v>
@@ -12223,7 +12223,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F397" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G397" s="1" t="n">
         <x:v>228</x:v>
@@ -12281,7 +12281,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F399" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
         <x:v>834</x:v>
@@ -12481,7 +12481,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E406" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F406" s="1" t="n">
         <x:v>119</x:v>
@@ -12519,7 +12519,7 @@
         <x:v>469</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I407" s="0" t="n">
         <x:v>0</x:v>
@@ -12539,7 +12539,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E408" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
         <x:v>740</x:v>
@@ -12548,7 +12548,7 @@
         <x:v>625</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I408" s="0" t="n">
         <x:v>0</x:v>
@@ -22776,7 +22776,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E761" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F761" s="1" t="n">
         <x:v>17</x:v>
@@ -22805,7 +22805,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E762" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F762" s="1" t="n">
         <x:v>71</x:v>
@@ -30322,7 +30322,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G1021" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H1021" s="1" t="n">
         <x:v>134</x:v>
@@ -30351,7 +30351,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
         <x:v>184</x:v>
@@ -30458,7 +30458,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1026" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1026" s="1" t="n">
         <x:v>42</x:v>
@@ -30487,7 +30487,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1027" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="n">
         <x:v>58</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12229,7 +12229,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="H397" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I397" s="0" t="n">
         <x:v>0</x:v>
@@ -12287,7 +12287,7 @@
         <x:v>834</x:v>
       </x:c>
       <x:c r="H399" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="I399" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12513,7 +12513,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="F407" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="G407" s="1" t="n">
         <x:v>469</x:v>
@@ -12542,7 +12542,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
         <x:v>625</x:v>
@@ -24812,7 +24812,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G831" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H831" s="1" t="n">
         <x:v>2</x:v>
@@ -24870,7 +24870,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G833" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H833" s="1" t="n">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12165,13 +12165,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F395" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G395" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H395" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I395" s="0" t="n">
         <x:v>0</x:v>
@@ -12194,13 +12194,13 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="F396" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G396" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H396" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I396" s="0" t="n">
         <x:v>0</x:v>
@@ -12252,7 +12252,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F398" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="G398" s="1" t="n">
         <x:v>606</x:v>
@@ -12281,7 +12281,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F399" s="1" t="n">
-        <x:v>874</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
         <x:v>834</x:v>
@@ -12516,7 +12516,7 @@
         <x:v>622</x:v>
       </x:c>
       <x:c r="G407" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
         <x:v>188</x:v>
@@ -12545,7 +12545,7 @@
         <x:v>741</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
         <x:v>234</x:v>
@@ -35136,7 +35136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H1187" s="1" t="n">
         <x:v>19</x:v>
@@ -35156,7 +35156,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1188" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E1188" s="1" t="n">
         <x:v>74</x:v>
@@ -35185,7 +35185,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1189" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E1189" s="1" t="n">
         <x:v>93</x:v>
@@ -35194,7 +35194,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="G1189" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H1189" s="1" t="n">
         <x:v>104</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9091,7 +9091,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F289" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G289" s="1" t="n">
         <x:v>3</x:v>
@@ -9120,7 +9120,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F290" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G290" s="1" t="n">
         <x:v>8</x:v>
@@ -11988,10 +11988,10 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="E389" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="F389" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
         <x:v>1145</x:v>
@@ -12017,10 +12017,10 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>1457</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>1467</x:v>
@@ -12516,7 +12516,7 @@
         <x:v>622</x:v>
       </x:c>
       <x:c r="G407" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
         <x:v>188</x:v>
@@ -12545,7 +12545,7 @@
         <x:v>741</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
         <x:v>234</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -11994,7 +11994,7 @@
         <x:v>1104</x:v>
       </x:c>
       <x:c r="G389" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="H389" s="1" t="n">
         <x:v>515</x:v>
@@ -12023,7 +12023,7 @@
         <x:v>1458</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>1467</x:v>
+        <x:v>1468</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>618</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9764,7 +9764,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H312" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I312" s="0" t="n">
         <x:v>0</x:v>
@@ -9822,7 +9822,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="H314" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I314" s="0" t="n">
         <x:v>0</x:v>
@@ -11965,7 +11965,7 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="G388" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="H388" s="1" t="n">
         <x:v>103</x:v>
@@ -12023,7 +12023,7 @@
         <x:v>1458</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>1468</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>618</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1522,7 +1522,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>169</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>240</x:v>
@@ -12188,7 +12188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D396" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E396" s="1" t="n">
         <x:v>41</x:v>
@@ -12246,7 +12246,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D398" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E398" s="1" t="n">
         <x:v>124</x:v>
@@ -12310,7 +12310,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
         <x:v>606</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F401" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
         <x:v>834</x:v>
@@ -25566,7 +25566,7 @@
         <x:v>1193</x:v>
       </x:c>
       <x:c r="G857" s="1" t="n">
-        <x:v>1639</x:v>
+        <x:v>1640</x:v>
       </x:c>
       <x:c r="H857" s="1" t="n">
         <x:v>1506</x:v>
@@ -25595,7 +25595,7 @@
         <x:v>1389</x:v>
       </x:c>
       <x:c r="G858" s="1" t="n">
-        <x:v>1862</x:v>
+        <x:v>1863</x:v>
       </x:c>
       <x:c r="H858" s="1" t="n">
         <x:v>1635</x:v>
@@ -33019,7 +33019,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G1114" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1114" s="1" t="n">
         <x:v>1</x:v>
@@ -33077,7 +33077,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G1116" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H1116" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1261,10 +1261,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>45</x:v>
@@ -1290,10 +1290,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>61</x:v>
@@ -12049,13 +12049,13 @@
         <x:v>628</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
         <x:v>1145</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12078,13 +12078,13 @@
         <x:v>852</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1458</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
         <x:v>1468</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>
@@ -12284,7 +12284,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H399" s="1" t="n">
         <x:v>148</x:v>
@@ -12342,7 +12342,7 @@
         <x:v>876</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
-        <x:v>834</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="H401" s="1" t="n">
         <x:v>501</x:v>
@@ -13070,7 +13070,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="H426" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I426" s="0" t="n">
         <x:v>0</x:v>
@@ -13099,7 +13099,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="H427" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I427" s="0" t="n">
         <x:v>0</x:v>
@@ -20311,7 +20311,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E676" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F676" s="1" t="n">
         <x:v>8</x:v>
@@ -20340,7 +20340,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E677" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F677" s="1" t="n">
         <x:v>14</x:v>
@@ -31450,7 +31450,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1060" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G1060" s="1" t="n">
         <x:v>36</x:v>
@@ -31508,7 +31508,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G1062" s="1" t="n">
         <x:v>134</x:v>
@@ -37743,7 +37743,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1277" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G1277" s="1" t="n">
         <x:v>2</x:v>
@@ -37801,7 +37801,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1279" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1279" s="1" t="n">
         <x:v>6</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9323,7 +9323,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F297" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G297" s="1" t="n">
         <x:v>44</x:v>
@@ -9352,7 +9352,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F298" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G298" s="1" t="n">
         <x:v>60</x:v>
@@ -12046,7 +12046,7 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
         <x:v>1105</x:v>
@@ -12075,7 +12075,7 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>1459</x:v>
@@ -12458,7 +12458,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G405" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H405" s="1" t="n">
         <x:v>6</x:v>
@@ -12490,7 +12490,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="H406" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I406" s="0" t="n">
         <x:v>0</x:v>
@@ -12516,10 +12516,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G407" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I407" s="0" t="n">
         <x:v>0</x:v>
@@ -12539,7 +12539,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E408" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
         <x:v>119</x:v>
@@ -12574,7 +12574,7 @@
         <x:v>622</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
-        <x:v>471</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="H409" s="1" t="n">
         <x:v>188</x:v>
@@ -12597,13 +12597,13 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E410" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
         <x:v>741</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>234</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8714,7 +8714,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F276" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G276" s="1" t="n">
         <x:v>249</x:v>
@@ -8743,7 +8743,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="F277" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="G277" s="1" t="n">
         <x:v>314</x:v>
@@ -8975,7 +8975,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="F285" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="G285" s="1" t="n">
         <x:v>288</x:v>
@@ -9004,7 +9004,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="F286" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="G286" s="1" t="n">
         <x:v>389</x:v>
@@ -9114,7 +9114,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D290" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E290" s="1" t="n">
         <x:v>4</x:v>
@@ -9172,7 +9172,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D292" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E292" s="1" t="n">
         <x:v>18</x:v>
@@ -9242,7 +9242,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H294" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I294" s="0" t="n">
         <x:v>0</x:v>
@@ -9271,7 +9271,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="H295" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I295" s="0" t="n">
         <x:v>0</x:v>
@@ -12046,10 +12046,10 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1105</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
         <x:v>1145</x:v>
@@ -12075,10 +12075,10 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1459</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
         <x:v>1468</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8711,7 +8711,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E276" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F276" s="1" t="n">
         <x:v>207</x:v>
@@ -8740,7 +8740,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E277" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F277" s="1" t="n">
         <x:v>266</x:v>
@@ -12023,7 +12023,7 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>103</x:v>
@@ -12046,10 +12046,10 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1106</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
         <x:v>1145</x:v>
@@ -12075,13 +12075,13 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1460</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1468</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>619</x:v>
@@ -12223,10 +12223,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F397" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G397" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H397" s="1" t="n">
         <x:v>93</x:v>
@@ -12252,10 +12252,10 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="F398" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G398" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="H398" s="1" t="n">
         <x:v>110</x:v>
@@ -12313,7 +12313,7 @@
         <x:v>627</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="H400" s="1" t="n">
         <x:v>353</x:v>
@@ -12342,7 +12342,7 @@
         <x:v>876</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
-        <x:v>835</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="H401" s="1" t="n">
         <x:v>501</x:v>
@@ -22602,7 +22602,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E755" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F755" s="1" t="n">
         <x:v>33</x:v>
@@ -22660,7 +22660,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E757" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F757" s="1" t="n">
         <x:v>131</x:v>
@@ -22779,7 +22779,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F761" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G761" s="1" t="n">
         <x:v>1</x:v>
@@ -22808,7 +22808,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F762" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G762" s="1" t="n">
         <x:v>2</x:v>
@@ -22947,10 +22947,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D767" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E767" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F767" s="1" t="n">
         <x:v>32</x:v>
@@ -22976,10 +22976,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D768" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E768" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
         <x:v>44</x:v>
@@ -23133,7 +23133,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="H773" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I773" s="0" t="n">
         <x:v>0</x:v>
@@ -23162,7 +23162,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="H774" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I774" s="0" t="n">
         <x:v>0</x:v>
@@ -32935,7 +32935,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H1111" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I1111" s="0" t="n">
         <x:v>0</x:v>
@@ -32961,10 +32961,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1112" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1112" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I1112" s="0" t="n">
         <x:v>0</x:v>
@@ -32990,10 +32990,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1113" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I1113" s="0" t="n">
         <x:v>0</x:v>
@@ -37244,7 +37244,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1260" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E1260" s="1" t="n">
         <x:v>22</x:v>
@@ -37273,7 +37273,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1261" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E1261" s="1" t="n">
         <x:v>63</x:v>
@@ -37302,7 +37302,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1262" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E1262" s="1" t="n">
         <x:v>85</x:v>
@@ -37563,7 +37563,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1271" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E1271" s="1" t="n">
         <x:v>6</x:v>
@@ -37592,10 +37592,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1272" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E1272" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F1272" s="1" t="n">
         <x:v>4</x:v>
@@ -37621,10 +37621,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1273" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E1273" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F1273" s="1" t="n">
         <x:v>6</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12052,7 +12052,7 @@
         <x:v>1108</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1145</x:v>
+        <x:v>1147</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>516</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1462</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1470</x:v>
+        <x:v>1472</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>619</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12188,7 +12188,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D396" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E396" s="1" t="n">
         <x:v>41</x:v>
@@ -12246,7 +12246,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D398" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E398" s="1" t="n">
         <x:v>124</x:v>
@@ -12568,7 +12568,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E409" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
         <x:v>622</x:v>
@@ -12597,7 +12597,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E410" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
         <x:v>741</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1522,7 +1522,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>169</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>240</x:v>
@@ -12020,7 +12020,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>325</x:v>
@@ -12078,7 +12078,7 @@
         <x:v>853</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1462</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
         <x:v>1472</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9288,10 +9288,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D296" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E296" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F296" s="1" t="n">
         <x:v>13</x:v>
@@ -9317,10 +9317,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D297" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E297" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F297" s="1" t="n">
         <x:v>43</x:v>
@@ -9346,10 +9346,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D298" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E298" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F298" s="1" t="n">
         <x:v>56</x:v>
@@ -9845,10 +9845,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F315" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G315" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H315" s="1" t="n">
         <x:v>27</x:v>
@@ -9874,10 +9874,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F316" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G316" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H316" s="1" t="n">
         <x:v>37</x:v>
@@ -9932,7 +9932,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F318" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G318" s="1" t="n">
         <x:v>2</x:v>
@@ -9961,7 +9961,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F319" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G319" s="1" t="n">
         <x:v>3</x:v>
@@ -12316,7 +12316,7 @@
         <x:v>607</x:v>
       </x:c>
       <x:c r="H400" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="I400" s="0" t="n">
         <x:v>0</x:v>
@@ -12345,7 +12345,7 @@
         <x:v>836</x:v>
       </x:c>
       <x:c r="H401" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="I401" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12052,7 +12052,7 @@
         <x:v>1108</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1147</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>516</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1463</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1472</x:v>
+        <x:v>1473</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>619</x:v>
@@ -12136,7 +12136,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F394" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G394" s="1" t="n">
         <x:v>23</x:v>
@@ -12165,7 +12165,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F395" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G395" s="1" t="n">
         <x:v>31</x:v>
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>473</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>741</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>629</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1522,7 +1522,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>169</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>240</x:v>
@@ -8221,7 +8221,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F259" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G259" s="1" t="n">
         <x:v>39</x:v>
@@ -8250,7 +8250,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F260" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G260" s="1" t="n">
         <x:v>46</x:v>
@@ -12020,7 +12020,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>325</x:v>
@@ -12046,16 +12046,16 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1108</x:v>
+        <x:v>1111</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12075,16 +12075,16 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1463</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1473</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>
@@ -12136,7 +12136,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F394" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G394" s="1" t="n">
         <x:v>23</x:v>
@@ -12165,7 +12165,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="F395" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G395" s="1" t="n">
         <x:v>31</x:v>
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>473</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>629</x:v>
@@ -27506,7 +27506,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F924" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
         <x:v>60</x:v>
@@ -27535,7 +27535,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
         <x:v>73</x:v>
@@ -30351,7 +30351,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G1022" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H1022" s="1" t="n">
         <x:v>50</x:v>
@@ -30409,7 +30409,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
         <x:v>184</x:v>
@@ -30609,7 +30609,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
         <x:v>81</x:v>
@@ -30638,7 +30638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
         <x:v>125</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -855,10 +855,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
         <x:v>0</x:v>
@@ -881,13 +881,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
         <x:v>9</x:v>
@@ -910,13 +910,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
         <x:v>9</x:v>
@@ -12046,13 +12046,13 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
         <x:v>1111</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>517</x:v>
@@ -12075,13 +12075,13 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>1467</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1475</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>620</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12052,7 +12052,7 @@
         <x:v>1111</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>517</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1467</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1476</x:v>
+        <x:v>1477</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>620</x:v>
@@ -12310,7 +12310,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
         <x:v>607</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F401" s="1" t="n">
-        <x:v>876</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
         <x:v>836</x:v>
@@ -22347,7 +22347,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G746" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H746" s="1" t="n">
         <x:v>26</x:v>
@@ -22405,7 +22405,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="G748" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H748" s="1" t="n">
         <x:v>129</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9323,13 +9323,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F297" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G297" s="1" t="n">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H297" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I297" s="0" t="n">
         <x:v>0</x:v>
@@ -9352,13 +9352,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F298" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G298" s="1" t="n">
         <x:v>60</x:v>
       </x:c>
       <x:c r="H298" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I298" s="0" t="n">
         <x:v>0</x:v>
@@ -12046,10 +12046,10 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1111</x:v>
+        <x:v>1112</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
         <x:v>1152</x:v>
@@ -12075,10 +12075,10 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>855</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1467</x:v>
+        <x:v>1468</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
         <x:v>1477</x:v>
@@ -12487,7 +12487,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G406" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H406" s="1" t="n">
         <x:v>62</x:v>
@@ -12516,7 +12516,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G407" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
         <x:v>68</x:v>
@@ -13067,7 +13067,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="G426" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H426" s="1" t="n">
         <x:v>61</x:v>
@@ -13096,7 +13096,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="G427" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H427" s="1" t="n">
         <x:v>78</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9320,7 +9320,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E297" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F297" s="1" t="n">
         <x:v>44</x:v>
@@ -9349,7 +9349,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E298" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F298" s="1" t="n">
         <x:v>57</x:v>
@@ -9497,7 +9497,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F303" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G303" s="1" t="n">
         <x:v>8</x:v>
@@ -9526,7 +9526,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F304" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G304" s="1" t="n">
         <x:v>12</x:v>
@@ -11037,7 +11037,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G356" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H356" s="1" t="n">
         <x:v>0</x:v>
@@ -11069,7 +11069,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H357" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I357" s="0" t="n">
         <x:v>0</x:v>
@@ -11095,10 +11095,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G358" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H358" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="H358" s="1" t="n">
-        <x:v>0</x:v>
       </x:c>
       <x:c r="I358" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12014,7 +12014,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D390" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
         <x:v>224</x:v>
@@ -12052,7 +12052,7 @@
         <x:v>1112</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>517</x:v>
@@ -12072,7 +12072,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D392" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
         <x:v>856</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1468</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1477</x:v>
+        <x:v>1478</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>620</x:v>
@@ -28721,7 +28721,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E966" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F966" s="1" t="n">
         <x:v>60</x:v>
@@ -28750,7 +28750,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E967" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F967" s="1" t="n">
         <x:v>76</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9291,7 +9291,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E296" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F296" s="1" t="n">
         <x:v>13</x:v>
@@ -9349,7 +9349,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E298" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F298" s="1" t="n">
         <x:v>57</x:v>
@@ -12049,7 +12049,7 @@
         <x:v>632</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1112</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
         <x:v>1153</x:v>
@@ -12078,7 +12078,7 @@
         <x:v>856</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1468</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
         <x:v>1478</x:v>
@@ -20401,7 +20401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F679" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G679" s="1" t="n">
         <x:v>78</x:v>
@@ -20430,7 +20430,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F680" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G680" s="1" t="n">
         <x:v>104</x:v>
@@ -35220,7 +35220,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F1190" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G1190" s="1" t="n">
         <x:v>183</x:v>
@@ -35249,7 +35249,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F1191" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G1191" s="1" t="n">
         <x:v>223</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8717,7 +8717,7 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="G276" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H276" s="1" t="n">
         <x:v>89</x:v>
@@ -8746,7 +8746,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="G277" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="H277" s="1" t="n">
         <x:v>115</x:v>
@@ -12052,10 +12052,10 @@
         <x:v>1113</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1153</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12081,10 +12081,10 @@
         <x:v>1469</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1478</x:v>
+        <x:v>1479</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>
@@ -12133,7 +12133,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E394" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F394" s="1" t="n">
         <x:v>45</x:v>
@@ -12162,7 +12162,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E395" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F395" s="1" t="n">
         <x:v>52</x:v>
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>473</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>629</x:v>
@@ -17095,7 +17095,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F565" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G565" s="1" t="n">
         <x:v>12</x:v>
@@ -17124,7 +17124,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F566" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G566" s="1" t="n">
         <x:v>18</x:v>
@@ -30380,7 +30380,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
         <x:v>134</x:v>
@@ -30409,7 +30409,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
         <x:v>184</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12017,7 +12017,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
         <x:v>356</x:v>
@@ -12052,10 +12052,10 @@
         <x:v>1113</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1154</x:v>
+        <x:v>1155</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12075,16 +12075,16 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>1469</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1479</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>
@@ -12461,7 +12461,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H405" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I405" s="0" t="n">
         <x:v>0</x:v>
@@ -12519,7 +12519,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I407" s="0" t="n">
         <x:v>0</x:v>
@@ -12539,7 +12539,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E408" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
         <x:v>119</x:v>
@@ -12571,10 +12571,10 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="H409" s="1" t="n">
         <x:v>188</x:v>
@@ -12597,13 +12597,13 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E410" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>234</x:v>
@@ -30867,7 +30867,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="n">
         <x:v>33</x:v>
@@ -30896,7 +30896,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="n">
         <x:v>51</x:v>
@@ -35478,7 +35478,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1199" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F1199" s="1" t="n">
         <x:v>171</x:v>
@@ -35507,7 +35507,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1200" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F1200" s="1" t="n">
         <x:v>251</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8720,7 +8720,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="H276" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I276" s="0" t="n">
         <x:v>0</x:v>
@@ -8749,7 +8749,7 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="H277" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I277" s="0" t="n">
         <x:v>0</x:v>
@@ -8943,7 +8943,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E284" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F284" s="1" t="n">
         <x:v>97</x:v>
@@ -9001,7 +9001,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E286" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F286" s="1" t="n">
         <x:v>415</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8688,7 +8688,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G275" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H275" s="1" t="n">
         <x:v>26</x:v>
@@ -8746,7 +8746,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="G277" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="H277" s="1" t="n">
         <x:v>116</x:v>
@@ -8978,7 +8978,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="G285" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H285" s="1" t="n">
         <x:v>153</x:v>
@@ -9007,7 +9007,7 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="G286" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="H286" s="1" t="n">
         <x:v>208</x:v>
@@ -12017,7 +12017,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
         <x:v>356</x:v>
@@ -12049,10 +12049,10 @@
         <x:v>632</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1113</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1155</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>519</x:v>
@@ -12075,13 +12075,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1469</x:v>
+        <x:v>1471</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1480</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>622</x:v>
@@ -12487,7 +12487,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G406" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H406" s="1" t="n">
         <x:v>62</x:v>
@@ -12516,7 +12516,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G407" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H407" s="1" t="n">
         <x:v>69</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12046,7 +12046,7 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
         <x:v>1115</x:v>
@@ -12075,7 +12075,7 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>859</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>1471</x:v>
@@ -12452,7 +12452,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E405" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F405" s="1" t="n">
         <x:v>20</x:v>
@@ -12510,7 +12510,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E407" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F407" s="1" t="n">
         <x:v>73</x:v>
@@ -12542,10 +12542,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F408" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G408" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H408" s="1" t="n">
         <x:v>46</x:v>
@@ -12574,7 +12574,7 @@
         <x:v>626</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="H409" s="1" t="n">
         <x:v>188</x:v>
@@ -12600,10 +12600,10 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>234</x:v>
@@ -31734,7 +31734,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1070" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E1070" s="1" t="n">
         <x:v>0</x:v>
@@ -31763,7 +31763,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D1071" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1071" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12052,10 +12052,10 @@
         <x:v>1115</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1156</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="I391" s="0" t="n">
         <x:v>0</x:v>
@@ -12081,10 +12081,10 @@
         <x:v>1471</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1481</x:v>
+        <x:v>1482</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12046,13 +12046,13 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
         <x:v>1115</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1157</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12075,13 +12075,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>860</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>1471</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1482</x:v>
+        <x:v>1483</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>623</x:v>
@@ -27509,7 +27509,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G924" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H924" s="1" t="n">
         <x:v>48</x:v>
@@ -27538,7 +27538,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H925" s="1" t="n">
         <x:v>63</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1261,7 +1261,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>149</x:v>
@@ -1290,7 +1290,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>200</x:v>
@@ -30380,7 +30380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
         <x:v>50</x:v>
@@ -30403,13 +30403,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1024" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
         <x:v>168</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
         <x:v>134</x:v>
@@ -30432,13 +30432,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
         <x:v>229</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
         <x:v>184</x:v>
@@ -30638,13 +30638,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="n">
         <x:v>0</x:v>
@@ -30667,13 +30667,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F1033" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
         <x:v>125</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -3665,7 +3665,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E102" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F102" s="1" t="n">
         <x:v>263</x:v>
@@ -3694,7 +3694,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E103" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F103" s="1" t="n">
         <x:v>346</x:v>
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>477</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>634</x:v>
@@ -25592,7 +25592,7 @@
         <x:v>984</x:v>
       </x:c>
       <x:c r="F858" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="G858" s="1" t="n">
         <x:v>1640</x:v>
@@ -25621,7 +25621,7 @@
         <x:v>1106</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
-        <x:v>1389</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
         <x:v>1863</x:v>
@@ -27535,7 +27535,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
         <x:v>61</x:v>
@@ -27564,7 +27564,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
         <x:v>74</x:v>
@@ -30412,7 +30412,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30441,7 +30441,7 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -6429,7 +6429,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H197" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I197" s="0" t="n">
         <x:v>0</x:v>
@@ -6487,7 +6487,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="H199" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I199" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1261,7 +1261,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>149</x:v>
@@ -1290,7 +1290,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>200</x:v>
@@ -6446,7 +6446,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D198" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E198" s="1" t="n">
         <x:v>26</x:v>
@@ -6475,7 +6475,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D199" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E199" s="1" t="n">
         <x:v>30</x:v>
@@ -12310,7 +12310,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
         <x:v>607</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F401" s="1" t="n">
-        <x:v>877</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
         <x:v>836</x:v>
@@ -30406,7 +30406,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
         <x:v>230</x:v>
@@ -30435,7 +30435,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
         <x:v>347</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12020,10 +12020,10 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>103</x:v>
@@ -12049,10 +12049,10 @@
         <x:v>634</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1116</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1159</x:v>
+        <x:v>1160</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12078,7 +12078,7 @@
         <x:v>861</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1472</x:v>
+        <x:v>1474</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
         <x:v>1484</x:v>
@@ -29600,7 +29600,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="H996" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I996" s="0" t="n">
         <x:v>0</x:v>
@@ -29629,7 +29629,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="H997" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I997" s="0" t="n">
         <x:v>0</x:v>
@@ -30406,7 +30406,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
         <x:v>230</x:v>
@@ -30435,7 +30435,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
         <x:v>347</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1264,7 +1264,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>45</x:v>
@@ -1293,7 +1293,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>61</x:v>
@@ -12023,7 +12023,7 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>103</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1474</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1484</x:v>
+        <x:v>1485</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>623</x:v>
@@ -30380,7 +30380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
         <x:v>50</x:v>
@@ -30406,7 +30406,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
         <x:v>230</x:v>
@@ -30435,10 +30435,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
         <x:v>185</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -16344,7 +16344,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G539" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H539" s="1" t="n">
         <x:v>2</x:v>
@@ -16402,7 +16402,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G541" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H541" s="1" t="n">
         <x:v>8</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1235,7 +1235,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
         <x:v>16</x:v>
@@ -1293,7 +1293,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>61</x:v>
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>477</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>747</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>634</x:v>
@@ -22947,10 +22947,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D767" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E767" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F767" s="1" t="n">
         <x:v>32</x:v>
@@ -22976,10 +22976,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D768" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E768" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F768" s="1" t="n">
         <x:v>44</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8882,7 +8882,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D282" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E282" s="1" t="n">
         <x:v>34</x:v>
@@ -8911,7 +8911,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D283" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E283" s="1" t="n">
         <x:v>48</x:v>
@@ -27535,7 +27535,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F925" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G925" s="1" t="n">
         <x:v>61</x:v>
@@ -27564,7 +27564,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F926" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G926" s="1" t="n">
         <x:v>74</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1255,7 +1255,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>41</x:v>
@@ -1284,7 +1284,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>61</x:v>
@@ -1528,7 +1528,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I28" s="0" t="n">
         <x:v>0</x:v>
@@ -1557,7 +1557,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I29" s="0" t="n">
         <x:v>0</x:v>
@@ -1783,7 +1783,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>39</x:v>
@@ -1812,7 +1812,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>47</x:v>
@@ -12574,7 +12574,7 @@
         <x:v>626</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="H409" s="1" t="n">
         <x:v>188</x:v>
@@ -12603,7 +12603,7 @@
         <x:v>746</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>234</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1261,7 +1261,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>150</x:v>
@@ -1290,7 +1290,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>202</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>94</x:v>
@@ -1554,7 +1554,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>119</x:v>
@@ -30380,7 +30380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
         <x:v>50</x:v>
@@ -30409,10 +30409,10 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30438,10 +30438,10 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>
@@ -30525,7 +30525,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="n">
         <x:v>28</x:v>
@@ -30583,7 +30583,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G1030" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H1030" s="1" t="n">
         <x:v>62</x:v>
@@ -30780,7 +30780,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E1037" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F1037" s="1" t="n">
         <x:v>1</x:v>
@@ -30838,7 +30838,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1039" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F1039" s="1" t="n">
         <x:v>3</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1232,7 +1232,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>52</x:v>
@@ -1264,7 +1264,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>45</x:v>
@@ -1290,10 +1290,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>61</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>71</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>94</x:v>
@@ -1551,10 +1551,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>119</x:v>
@@ -9851,7 +9851,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H315" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I315" s="0" t="n">
         <x:v>0</x:v>
@@ -9880,7 +9880,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H316" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I316" s="0" t="n">
         <x:v>0</x:v>
@@ -12046,13 +12046,13 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
         <x:v>1117</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1160</x:v>
+        <x:v>1161</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12075,13 +12075,13 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>861</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>1474</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1485</x:v>
+        <x:v>1486</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>623</x:v>
@@ -12574,7 +12574,7 @@
         <x:v>626</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="H409" s="1" t="n">
         <x:v>188</x:v>
@@ -12603,7 +12603,7 @@
         <x:v>746</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="H410" s="1" t="n">
         <x:v>234</x:v>
@@ -22373,13 +22373,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F747" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G747" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H747" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I747" s="0" t="n">
         <x:v>0</x:v>
@@ -22402,13 +22402,13 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="F748" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="G748" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H748" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I748" s="0" t="n">
         <x:v>0</x:v>
@@ -22605,7 +22605,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F755" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G755" s="1" t="n">
         <x:v>25</x:v>
@@ -22663,7 +22663,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F757" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G757" s="1" t="n">
         <x:v>115</x:v>
@@ -23997,7 +23997,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F803" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G803" s="1" t="n">
         <x:v>15</x:v>
@@ -24026,7 +24026,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F804" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G804" s="1" t="n">
         <x:v>21</x:v>
@@ -24174,7 +24174,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G809" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H809" s="1" t="n">
         <x:v>11</x:v>
@@ -24203,7 +24203,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G810" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H810" s="1" t="n">
         <x:v>14</x:v>
@@ -30380,7 +30380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G1023" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H1023" s="1" t="n">
         <x:v>50</x:v>
@@ -30406,13 +30406,13 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I1024" s="0" t="n">
         <x:v>0</x:v>
@@ -30435,13 +30435,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I1025" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1583,7 +1583,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>0</x:v>
@@ -1641,7 +1641,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
         <x:v>0</x:v>
@@ -9845,7 +9845,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F315" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G315" s="1" t="n">
         <x:v>37</x:v>
@@ -9874,7 +9874,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F316" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G316" s="1" t="n">
         <x:v>53</x:v>
@@ -12052,7 +12052,7 @@
         <x:v>1117</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1161</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1474</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1486</x:v>
+        <x:v>1487</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>623</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -797,7 +797,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>12</x:v>
@@ -826,7 +826,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>12</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>94</x:v>
@@ -1554,7 +1554,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>119</x:v>
@@ -12310,7 +12310,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
         <x:v>607</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F401" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>879</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
         <x:v>836</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1232,7 +1232,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>52</x:v>
@@ -1264,7 +1264,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>45</x:v>
@@ -1290,10 +1290,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>61</x:v>
@@ -1493,7 +1493,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>71</x:v>
@@ -1551,7 +1551,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>243</x:v>
@@ -1673,7 +1673,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
         <x:v>0</x:v>
@@ -1731,7 +1731,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
         <x:v>0</x:v>
@@ -12023,7 +12023,7 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
         <x:v>103</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1474</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1488</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>623</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>479</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>746</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>636</x:v>
@@ -19969,7 +19969,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G664" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H664" s="1" t="n">
         <x:v>15</x:v>
@@ -19998,7 +19998,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G665" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H665" s="1" t="n">
         <x:v>31</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -32378,7 +32378,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1092" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1092" s="1" t="n">
         <x:v>5</x:v>
@@ -32407,7 +32407,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1093" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1093" s="1" t="n">
         <x:v>6</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -8720,7 +8720,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="H276" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I276" s="0" t="n">
         <x:v>0</x:v>
@@ -8749,7 +8749,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="H277" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I277" s="0" t="n">
         <x:v>0</x:v>
@@ -8978,7 +8978,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="G285" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="H285" s="1" t="n">
         <x:v>153</x:v>
@@ -9007,7 +9007,7 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="G286" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="H286" s="1" t="n">
         <x:v>208</x:v>
@@ -25598,7 +25598,7 @@
         <x:v>1640</x:v>
       </x:c>
       <x:c r="H858" s="1" t="n">
-        <x:v>1506</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="I858" s="0" t="n">
         <x:v>0</x:v>
@@ -25627,7 +25627,7 @@
         <x:v>1863</x:v>
       </x:c>
       <x:c r="H859" s="1" t="n">
-        <x:v>1635</x:v>
+        <x:v>1636</x:v>
       </x:c>
       <x:c r="I859" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -4164,7 +4164,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G119" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H119" s="1" t="n">
         <x:v>13</x:v>
@@ -4193,7 +4193,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G120" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H120" s="1" t="n">
         <x:v>15</x:v>
@@ -35217,7 +35217,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E1190" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1190" s="1" t="n">
         <x:v>39</x:v>
@@ -35275,7 +35275,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E1192" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F1192" s="1" t="n">
         <x:v>165</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12014,7 +12014,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D390" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
         <x:v>227</x:v>
@@ -12072,7 +12072,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D392" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
         <x:v>862</x:v>
@@ -12229,7 +12229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H397" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I397" s="0" t="n">
         <x:v>0</x:v>
@@ -12258,7 +12258,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="H398" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I398" s="0" t="n">
         <x:v>0</x:v>
@@ -29011,7 +29011,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E976" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F976" s="1" t="n">
         <x:v>124</x:v>
@@ -29040,7 +29040,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E977" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F977" s="1" t="n">
         <x:v>176</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12229,7 +12229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H397" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I397" s="0" t="n">
         <x:v>0</x:v>
@@ -12258,7 +12258,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="H398" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I398" s="0" t="n">
         <x:v>0</x:v>
@@ -22338,7 +22338,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D746" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E746" s="1" t="n">
         <x:v>37</x:v>
@@ -22347,7 +22347,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G746" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H746" s="1" t="n">
         <x:v>26</x:v>
@@ -22367,16 +22367,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D747" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E747" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F747" s="1" t="n">
         <x:v>228</x:v>
       </x:c>
       <x:c r="G747" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H747" s="1" t="n">
         <x:v>104</x:v>
@@ -22396,16 +22396,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D748" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E748" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F748" s="1" t="n">
         <x:v>292</x:v>
       </x:c>
       <x:c r="G748" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H748" s="1" t="n">
         <x:v>130</x:v>
@@ -22518,10 +22518,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F752" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G752" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H752" s="1" t="n">
         <x:v>6</x:v>
@@ -22544,16 +22544,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E753" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F753" s="1" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="G753" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H753" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I753" s="0" t="n">
         <x:v>0</x:v>
@@ -22573,16 +22573,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E754" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F754" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G754" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H754" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I754" s="0" t="n">
         <x:v>0</x:v>
@@ -22605,13 +22605,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F755" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G755" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H755" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I755" s="0" t="n">
         <x:v>0</x:v>
@@ -22631,16 +22631,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E756" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F756" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G756" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H756" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I756" s="0" t="n">
         <x:v>0</x:v>
@@ -22660,16 +22660,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E757" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F757" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G757" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H757" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I757" s="0" t="n">
         <x:v>0</x:v>
@@ -22782,7 +22782,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G761" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H761" s="1" t="n">
         <x:v>1</x:v>
@@ -22811,7 +22811,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G762" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H762" s="1" t="n">
         <x:v>2</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1226,7 +1226,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>20</x:v>
@@ -1284,7 +1284,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>61</x:v>
@@ -1496,7 +1496,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
         <x:v>25</x:v>
@@ -1554,7 +1554,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>119</x:v>
@@ -8972,7 +8972,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E285" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F285" s="1" t="n">
         <x:v>318</x:v>
@@ -9001,7 +9001,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E286" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F286" s="1" t="n">
         <x:v>415</x:v>
@@ -12229,7 +12229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H397" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I397" s="0" t="n">
         <x:v>0</x:v>
@@ -12258,7 +12258,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="H398" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I398" s="0" t="n">
         <x:v>0</x:v>
@@ -30403,13 +30403,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1024" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F1024" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G1024" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H1024" s="1" t="n">
         <x:v>138</x:v>
@@ -30432,13 +30432,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1025" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F1025" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G1025" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="H1025" s="1" t="n">
         <x:v>188</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12020,7 +12020,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>326</x:v>
@@ -12078,7 +12078,7 @@
         <x:v>862</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1474</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
         <x:v>1488</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12026,7 +12026,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="H390" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I390" s="0" t="n">
         <x:v>0</x:v>
@@ -12052,7 +12052,7 @@
         <x:v>1117</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1162</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12081,10 +12081,10 @@
         <x:v>1475</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="I392" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -9851,7 +9851,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="H315" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I315" s="0" t="n">
         <x:v>0</x:v>
@@ -9880,7 +9880,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H316" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I316" s="0" t="n">
         <x:v>0</x:v>
@@ -12043,7 +12043,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D391" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
         <x:v>635</x:v>
@@ -12072,7 +12072,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D392" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
         <x:v>862</x:v>
@@ -12281,7 +12281,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F399" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
         <x:v>229</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F401" s="1" t="n">
-        <x:v>879</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
         <x:v>836</x:v>
@@ -30609,7 +30609,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F1031" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="n">
         <x:v>44</x:v>
@@ -30638,7 +30638,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="n">
         <x:v>81</x:v>
@@ -30667,7 +30667,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="F1033" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="n">
         <x:v>125</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12043,7 +12043,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D391" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
         <x:v>635</x:v>
@@ -12072,7 +12072,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D392" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
         <x:v>862</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1238,7 +1238,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>0</x:v>
@@ -1296,7 +1296,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
         <x:v>0</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>94</x:v>
@@ -1554,7 +1554,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
         <x:v>119</x:v>
@@ -6127,7 +6127,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D187" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E187" s="1" t="n">
         <x:v>3</x:v>
@@ -6185,7 +6185,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D189" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E189" s="1" t="n">
         <x:v>18</x:v>
@@ -12046,13 +12046,13 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="E391" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="F391" s="1" t="n">
-        <x:v>1117</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1163</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12075,13 +12075,13 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>862</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1475</x:v>
+        <x:v>1476</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1491</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>624</x:v>
@@ -12310,7 +12310,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
         <x:v>607</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F401" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>881</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
         <x:v>836</x:v>
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>479</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>745</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>636</x:v>
@@ -19186,7 +19186,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G637" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H637" s="1" t="n">
         <x:v>6</x:v>
@@ -19244,7 +19244,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="G639" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H639" s="1" t="n">
         <x:v>28</x:v>
@@ -25592,7 +25592,7 @@
         <x:v>984</x:v>
       </x:c>
       <x:c r="F858" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="G858" s="1" t="n">
         <x:v>1640</x:v>
@@ -25621,7 +25621,7 @@
         <x:v>1106</x:v>
       </x:c>
       <x:c r="F859" s="1" t="n">
-        <x:v>1390</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="G859" s="1" t="n">
         <x:v>1863</x:v>
@@ -30725,7 +30725,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="n">
         <x:v>3</x:v>
@@ -30754,7 +30754,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="n">
         <x:v>5</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12017,10 +12017,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="G390" s="1" t="n">
         <x:v>326</x:v>
@@ -12052,7 +12052,7 @@
         <x:v>1118</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1165</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12075,13 +12075,13 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>863</x:v>
+        <x:v>864</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
-        <x:v>1476</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1491</x:v>
+        <x:v>1492</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>624</x:v>
@@ -12284,7 +12284,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="G399" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H399" s="1" t="n">
         <x:v>148</x:v>
@@ -12342,7 +12342,7 @@
         <x:v>881</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
-        <x:v>836</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="H401" s="1" t="n">
         <x:v>502</x:v>
@@ -30986,7 +30986,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="n">
         <x:v>192</x:v>
@@ -31015,7 +31015,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="F1045" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="n">
         <x:v>245</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12571,7 +12571,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="F409" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="G409" s="1" t="n">
         <x:v>479</x:v>
@@ -12600,7 +12600,7 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="F410" s="1" t="n">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="G410" s="1" t="n">
         <x:v>636</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1267,7 +1267,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
         <x:v>0</x:v>
@@ -1296,7 +1296,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
         <x:v>0</x:v>
@@ -12052,7 +12052,7 @@
         <x:v>1118</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1166</x:v>
+        <x:v>1167</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1475</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1492</x:v>
+        <x:v>1493</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>624</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12313,7 +12313,7 @@
         <x:v>631</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="H400" s="1" t="n">
         <x:v>354</x:v>
@@ -12342,7 +12342,7 @@
         <x:v>881</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
-        <x:v>837</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="H401" s="1" t="n">
         <x:v>502</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -12017,7 +12017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E390" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F390" s="1" t="n">
         <x:v>357</x:v>
@@ -12075,7 +12075,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E392" s="1" t="n">
-        <x:v>864</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="F392" s="1" t="n">
         <x:v>1475</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -1264,7 +1264,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
         <x:v>46</x:v>
@@ -1293,7 +1293,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
         <x:v>63</x:v>
@@ -12052,7 +12052,7 @@
         <x:v>1118</x:v>
       </x:c>
       <x:c r="G391" s="1" t="n">
-        <x:v>1167</x:v>
+        <x:v>1168</x:v>
       </x:c>
       <x:c r="H391" s="1" t="n">
         <x:v>520</x:v>
@@ -12081,7 +12081,7 @@
         <x:v>1475</x:v>
       </x:c>
       <x:c r="G392" s="1" t="n">
-        <x:v>1493</x:v>
+        <x:v>1494</x:v>
       </x:c>
       <x:c r="H392" s="1" t="n">
         <x:v>624</x:v>
@@ -12310,7 +12310,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F400" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="G400" s="1" t="n">
         <x:v>609</x:v>
@@ -12339,7 +12339,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="F401" s="1" t="n">
-        <x:v>881</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="G401" s="1" t="n">
         <x:v>839</x:v>
@@ -19215,7 +19215,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G638" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H638" s="1" t="n">
         <x:v>22</x:v>
@@ -19244,7 +19244,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="G639" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H639" s="1" t="n">
         <x:v>28</x:v>
@@ -19563,7 +19563,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G650" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H650" s="1" t="n">
         <x:v>0</x:v>
@@ -19592,7 +19592,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G651" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H651" s="1" t="n">
         <x:v>1</x:v>
@@ -32987,7 +32987,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F1113" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1113" s="1" t="n">
         <x:v>13</x:v>
@@ -33016,7 +33016,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1114" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G1114" s="1" t="n">
         <x:v>13</x:v>
@@ -33167,7 +33167,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H1119" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I1119" s="0" t="n">
         <x:v>0</x:v>
@@ -33196,7 +33196,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H1120" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I1120" s="0" t="n">
         <x:v>0</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -22373,7 +22373,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="F747" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G747" s="1" t="n">
         <x:v>228</x:v>
@@ -22402,7 +22402,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F748" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="G748" s="1" t="n">
         <x:v>311</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -475,19 +475,19 @@
     <x:t>101</x:t>
   </x:si>
   <x:si>
-    <x:t>130</x:t>
+    <x:t>131</x:t>
   </x:si>
   <x:si>
-    <x:t>318</x:t>
+    <x:t>319</x:t>
   </x:si>
   <x:si>
     <x:t>290</x:t>
   </x:si>
   <x:si>
-    <x:t>161</x:t>
+    <x:t>162</x:t>
   </x:si>
   <x:si>
-    <x:t>415</x:t>
+    <x:t>416</x:t>
   </x:si>
   <x:si>
     <x:t>391</x:t>
@@ -575,9 +575,6 @@
   </x:si>
   <x:si>
     <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
@@ -773,6 +770,9 @@
   </x:si>
   <x:si>
     <x:t>311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
   </x:si>
   <x:si>
     <x:t>102</x:t>
@@ -13059,13 +13059,13 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F401" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G401" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="G401" s="1" t="s">
+      <x:c r="H401" s="1" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="H401" s="1" t="s">
-        <x:v>189</x:v>
       </x:c>
       <x:c r="I401" s="0" t="s">
         <x:v>12</x:v>
@@ -13088,10 +13088,10 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="F402" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="G402" s="1" t="s">
         <x:v>190</x:v>
-      </x:c>
-      <x:c r="G402" s="1" t="s">
-        <x:v>191</x:v>
       </x:c>
       <x:c r="H402" s="1" t="s">
         <x:v>111</x:v>
@@ -13114,16 +13114,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E403" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="F403" s="1" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="F403" s="1" t="s">
+      <x:c r="G403" s="1" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="G403" s="1" t="s">
+      <x:c r="H403" s="1" t="s">
         <x:v>194</x:v>
-      </x:c>
-      <x:c r="H403" s="1" t="s">
-        <x:v>195</x:v>
       </x:c>
       <x:c r="I403" s="0" t="s">
         <x:v>12</x:v>
@@ -13143,16 +13143,16 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E404" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="F404" s="1" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="F404" s="1" t="s">
+      <x:c r="G404" s="1" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="G404" s="1" t="s">
+      <x:c r="H404" s="1" t="s">
         <x:v>198</x:v>
-      </x:c>
-      <x:c r="H404" s="1" t="s">
-        <x:v>199</x:v>
       </x:c>
       <x:c r="I404" s="0" t="s">
         <x:v>12</x:v>
@@ -13294,10 +13294,10 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="G409" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="H409" s="1" t="s">
         <x:v>200</x:v>
-      </x:c>
-      <x:c r="H409" s="1" t="s">
-        <x:v>201</x:v>
       </x:c>
       <x:c r="I409" s="0" t="s">
         <x:v>12</x:v>
@@ -13326,7 +13326,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="H410" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I410" s="0" t="s">
         <x:v>12</x:v>
@@ -13352,7 +13352,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="G411" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H411" s="1" t="s">
         <x:v>43</x:v>
@@ -13375,13 +13375,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E412" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="F412" s="1" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="F412" s="1" t="s">
+      <x:c r="G412" s="1" t="s">
         <x:v>205</x:v>
-      </x:c>
-      <x:c r="G412" s="1" t="s">
-        <x:v>206</x:v>
       </x:c>
       <x:c r="H412" s="1" t="s">
         <x:v>185</x:v>
@@ -13401,19 +13401,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D413" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="E413" s="1" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="E413" s="1" t="s">
+      <x:c r="F413" s="1" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="F413" s="1" t="s">
-        <x:v>209</x:v>
       </x:c>
       <x:c r="G413" s="1" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="H413" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I413" s="0" t="s">
         <x:v>12</x:v>
@@ -13421,7 +13421,7 @@
     </x:row>
     <x:row r="414" spans="1:9">
       <x:c r="A414" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B414" s="0" t="s">
         <x:v>10</x:v>
@@ -13450,7 +13450,7 @@
     </x:row>
     <x:row r="415" spans="1:9">
       <x:c r="A415" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B415" s="0" t="s">
         <x:v>10</x:v>
@@ -13479,7 +13479,7 @@
     </x:row>
     <x:row r="416" spans="1:9">
       <x:c r="A416" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B416" s="0" t="s">
         <x:v>10</x:v>
@@ -13497,7 +13497,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G416" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="H416" s="1" t="s">
         <x:v>51</x:v>
@@ -13508,7 +13508,7 @@
     </x:row>
     <x:row r="417" spans="1:9">
       <x:c r="A417" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B417" s="0" t="s">
         <x:v>22</x:v>
@@ -13537,7 +13537,7 @@
     </x:row>
     <x:row r="418" spans="1:9">
       <x:c r="A418" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>22</x:v>
@@ -13566,7 +13566,7 @@
     </x:row>
     <x:row r="419" spans="1:9">
       <x:c r="A419" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>22</x:v>
@@ -13595,7 +13595,7 @@
     </x:row>
     <x:row r="420" spans="1:9">
       <x:c r="A420" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>25</x:v>
@@ -13624,7 +13624,7 @@
     </x:row>
     <x:row r="421" spans="1:9">
       <x:c r="A421" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B421" s="0" t="s">
         <x:v>25</x:v>
@@ -13653,7 +13653,7 @@
     </x:row>
     <x:row r="422" spans="1:9">
       <x:c r="A422" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B422" s="0" t="s">
         <x:v>25</x:v>
@@ -13682,7 +13682,7 @@
     </x:row>
     <x:row r="423" spans="1:9">
       <x:c r="A423" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B423" s="0" t="s">
         <x:v>31</x:v>
@@ -13711,7 +13711,7 @@
     </x:row>
     <x:row r="424" spans="1:9">
       <x:c r="A424" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B424" s="0" t="s">
         <x:v>31</x:v>
@@ -13740,7 +13740,7 @@
     </x:row>
     <x:row r="425" spans="1:9">
       <x:c r="A425" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B425" s="0" t="s">
         <x:v>31</x:v>
@@ -13769,7 +13769,7 @@
     </x:row>
     <x:row r="426" spans="1:9">
       <x:c r="A426" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B426" s="0" t="s">
         <x:v>33</x:v>
@@ -13798,7 +13798,7 @@
     </x:row>
     <x:row r="427" spans="1:9">
       <x:c r="A427" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B427" s="0" t="s">
         <x:v>33</x:v>
@@ -13827,7 +13827,7 @@
     </x:row>
     <x:row r="428" spans="1:9">
       <x:c r="A428" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B428" s="0" t="s">
         <x:v>10</x:v>
@@ -13856,7 +13856,7 @@
     </x:row>
     <x:row r="429" spans="1:9">
       <x:c r="A429" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B429" s="0" t="s">
         <x:v>10</x:v>
@@ -13871,7 +13871,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G429" s="1" t="s">
         <x:v>106</x:v>
@@ -13885,7 +13885,7 @@
     </x:row>
     <x:row r="430" spans="1:9">
       <x:c r="A430" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B430" s="0" t="s">
         <x:v>10</x:v>
@@ -13903,7 +13903,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G430" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H430" s="1" t="s">
         <x:v>119</x:v>
@@ -13914,7 +13914,7 @@
     </x:row>
     <x:row r="431" spans="1:9">
       <x:c r="A431" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B431" s="0" t="s">
         <x:v>22</x:v>
@@ -13943,7 +13943,7 @@
     </x:row>
     <x:row r="432" spans="1:9">
       <x:c r="A432" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B432" s="0" t="s">
         <x:v>22</x:v>
@@ -13972,7 +13972,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>22</x:v>
@@ -14001,7 +14001,7 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>25</x:v>
@@ -14030,7 +14030,7 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>25</x:v>
@@ -14059,7 +14059,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>25</x:v>
@@ -14088,7 +14088,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>31</x:v>
@@ -14117,7 +14117,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>31</x:v>
@@ -14146,7 +14146,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>31</x:v>
@@ -14175,7 +14175,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>33</x:v>
@@ -14204,7 +14204,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>33</x:v>
@@ -14233,7 +14233,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>33</x:v>
@@ -14262,7 +14262,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>10</x:v>
@@ -14291,7 +14291,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>10</x:v>
@@ -14320,7 +14320,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>10</x:v>
@@ -14349,7 +14349,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>49</x:v>
@@ -14378,7 +14378,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>49</x:v>
@@ -14407,7 +14407,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>22</x:v>
@@ -14436,7 +14436,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>22</x:v>
@@ -14465,7 +14465,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>22</x:v>
@@ -14494,7 +14494,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>25</x:v>
@@ -14523,7 +14523,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>25</x:v>
@@ -14552,7 +14552,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>25</x:v>
@@ -14581,7 +14581,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>31</x:v>
@@ -14610,7 +14610,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>31</x:v>
@@ -14639,7 +14639,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>31</x:v>
@@ -14668,7 +14668,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>33</x:v>
@@ -14697,7 +14697,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>33</x:v>
@@ -14726,7 +14726,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>33</x:v>
@@ -14755,7 +14755,7 @@
     </x:row>
     <x:row r="460" spans="1:9">
       <x:c r="A460" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>10</x:v>
@@ -14784,7 +14784,7 @@
     </x:row>
     <x:row r="461" spans="1:9">
       <x:c r="A461" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>10</x:v>
@@ -14813,7 +14813,7 @@
     </x:row>
     <x:row r="462" spans="1:9">
       <x:c r="A462" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>10</x:v>
@@ -14842,7 +14842,7 @@
     </x:row>
     <x:row r="463" spans="1:9">
       <x:c r="A463" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>22</x:v>
@@ -14871,7 +14871,7 @@
     </x:row>
     <x:row r="464" spans="1:9">
       <x:c r="A464" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>22</x:v>
@@ -14900,7 +14900,7 @@
     </x:row>
     <x:row r="465" spans="1:9">
       <x:c r="A465" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>22</x:v>
@@ -14929,7 +14929,7 @@
     </x:row>
     <x:row r="466" spans="1:9">
       <x:c r="A466" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>25</x:v>
@@ -14958,7 +14958,7 @@
     </x:row>
     <x:row r="467" spans="1:9">
       <x:c r="A467" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>25</x:v>
@@ -14987,7 +14987,7 @@
     </x:row>
     <x:row r="468" spans="1:9">
       <x:c r="A468" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>25</x:v>
@@ -15016,7 +15016,7 @@
     </x:row>
     <x:row r="469" spans="1:9">
       <x:c r="A469" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>31</x:v>
@@ -15045,7 +15045,7 @@
     </x:row>
     <x:row r="470" spans="1:9">
       <x:c r="A470" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>31</x:v>
@@ -15074,7 +15074,7 @@
     </x:row>
     <x:row r="471" spans="1:9">
       <x:c r="A471" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>10</x:v>
@@ -15103,7 +15103,7 @@
     </x:row>
     <x:row r="472" spans="1:9">
       <x:c r="A472" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>10</x:v>
@@ -15132,7 +15132,7 @@
     </x:row>
     <x:row r="473" spans="1:9">
       <x:c r="A473" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>25</x:v>
@@ -15161,7 +15161,7 @@
     </x:row>
     <x:row r="474" spans="1:9">
       <x:c r="A474" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>25</x:v>
@@ -15190,7 +15190,7 @@
     </x:row>
     <x:row r="475" spans="1:9">
       <x:c r="A475" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>25</x:v>
@@ -15219,7 +15219,7 @@
     </x:row>
     <x:row r="476" spans="1:9">
       <x:c r="A476" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>10</x:v>
@@ -15248,7 +15248,7 @@
     </x:row>
     <x:row r="477" spans="1:9">
       <x:c r="A477" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>10</x:v>
@@ -15277,7 +15277,7 @@
     </x:row>
     <x:row r="478" spans="1:9">
       <x:c r="A478" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>10</x:v>
@@ -15306,7 +15306,7 @@
     </x:row>
     <x:row r="479" spans="1:9">
       <x:c r="A479" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>22</x:v>
@@ -15335,7 +15335,7 @@
     </x:row>
     <x:row r="480" spans="1:9">
       <x:c r="A480" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>22</x:v>
@@ -15364,7 +15364,7 @@
     </x:row>
     <x:row r="481" spans="1:9">
       <x:c r="A481" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>25</x:v>
@@ -15393,7 +15393,7 @@
     </x:row>
     <x:row r="482" spans="1:9">
       <x:c r="A482" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>25</x:v>
@@ -15422,7 +15422,7 @@
     </x:row>
     <x:row r="483" spans="1:9">
       <x:c r="A483" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>25</x:v>
@@ -15451,7 +15451,7 @@
     </x:row>
     <x:row r="484" spans="1:9">
       <x:c r="A484" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>31</x:v>
@@ -15480,7 +15480,7 @@
     </x:row>
     <x:row r="485" spans="1:9">
       <x:c r="A485" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>31</x:v>
@@ -15509,7 +15509,7 @@
     </x:row>
     <x:row r="486" spans="1:9">
       <x:c r="A486" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>10</x:v>
@@ -15538,7 +15538,7 @@
     </x:row>
     <x:row r="487" spans="1:9">
       <x:c r="A487" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>10</x:v>
@@ -15567,7 +15567,7 @@
     </x:row>
     <x:row r="488" spans="1:9">
       <x:c r="A488" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>10</x:v>
@@ -15596,7 +15596,7 @@
     </x:row>
     <x:row r="489" spans="1:9">
       <x:c r="A489" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>49</x:v>
@@ -15625,7 +15625,7 @@
     </x:row>
     <x:row r="490" spans="1:9">
       <x:c r="A490" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>49</x:v>
@@ -15654,7 +15654,7 @@
     </x:row>
     <x:row r="491" spans="1:9">
       <x:c r="A491" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>49</x:v>
@@ -15683,7 +15683,7 @@
     </x:row>
     <x:row r="492" spans="1:9">
       <x:c r="A492" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>22</x:v>
@@ -15712,7 +15712,7 @@
     </x:row>
     <x:row r="493" spans="1:9">
       <x:c r="A493" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>22</x:v>
@@ -15741,7 +15741,7 @@
     </x:row>
     <x:row r="494" spans="1:9">
       <x:c r="A494" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>22</x:v>
@@ -15770,7 +15770,7 @@
     </x:row>
     <x:row r="495" spans="1:9">
       <x:c r="A495" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>25</x:v>
@@ -15799,7 +15799,7 @@
     </x:row>
     <x:row r="496" spans="1:9">
       <x:c r="A496" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>25</x:v>
@@ -15828,7 +15828,7 @@
     </x:row>
     <x:row r="497" spans="1:9">
       <x:c r="A497" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>25</x:v>
@@ -15857,7 +15857,7 @@
     </x:row>
     <x:row r="498" spans="1:9">
       <x:c r="A498" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>31</x:v>
@@ -15886,7 +15886,7 @@
     </x:row>
     <x:row r="499" spans="1:9">
       <x:c r="A499" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>31</x:v>
@@ -15915,7 +15915,7 @@
     </x:row>
     <x:row r="500" spans="1:9">
       <x:c r="A500" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>31</x:v>
@@ -15944,7 +15944,7 @@
     </x:row>
     <x:row r="501" spans="1:9">
       <x:c r="A501" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>33</x:v>
@@ -15973,7 +15973,7 @@
     </x:row>
     <x:row r="502" spans="1:9">
       <x:c r="A502" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>33</x:v>
@@ -16002,7 +16002,7 @@
     </x:row>
     <x:row r="503" spans="1:9">
       <x:c r="A503" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>33</x:v>
@@ -16031,7 +16031,7 @@
     </x:row>
     <x:row r="504" spans="1:9">
       <x:c r="A504" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>10</x:v>
@@ -16060,7 +16060,7 @@
     </x:row>
     <x:row r="505" spans="1:9">
       <x:c r="A505" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>10</x:v>
@@ -16089,7 +16089,7 @@
     </x:row>
     <x:row r="506" spans="1:9">
       <x:c r="A506" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>25</x:v>
@@ -16118,7 +16118,7 @@
     </x:row>
     <x:row r="507" spans="1:9">
       <x:c r="A507" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>25</x:v>
@@ -16147,7 +16147,7 @@
     </x:row>
     <x:row r="508" spans="1:9">
       <x:c r="A508" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>25</x:v>
@@ -16176,7 +16176,7 @@
     </x:row>
     <x:row r="509" spans="1:9">
       <x:c r="A509" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>10</x:v>
@@ -16205,7 +16205,7 @@
     </x:row>
     <x:row r="510" spans="1:9">
       <x:c r="A510" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>10</x:v>
@@ -16234,7 +16234,7 @@
     </x:row>
     <x:row r="511" spans="1:9">
       <x:c r="A511" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>10</x:v>
@@ -16263,7 +16263,7 @@
     </x:row>
     <x:row r="512" spans="1:9">
       <x:c r="A512" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>22</x:v>
@@ -16292,7 +16292,7 @@
     </x:row>
     <x:row r="513" spans="1:9">
       <x:c r="A513" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>22</x:v>
@@ -16321,7 +16321,7 @@
     </x:row>
     <x:row r="514" spans="1:9">
       <x:c r="A514" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>22</x:v>
@@ -16350,7 +16350,7 @@
     </x:row>
     <x:row r="515" spans="1:9">
       <x:c r="A515" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>25</x:v>
@@ -16379,7 +16379,7 @@
     </x:row>
     <x:row r="516" spans="1:9">
       <x:c r="A516" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>25</x:v>
@@ -16408,7 +16408,7 @@
     </x:row>
     <x:row r="517" spans="1:9">
       <x:c r="A517" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>25</x:v>
@@ -16437,7 +16437,7 @@
     </x:row>
     <x:row r="518" spans="1:9">
       <x:c r="A518" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>31</x:v>
@@ -16466,7 +16466,7 @@
     </x:row>
     <x:row r="519" spans="1:9">
       <x:c r="A519" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>31</x:v>
@@ -16495,7 +16495,7 @@
     </x:row>
     <x:row r="520" spans="1:9">
       <x:c r="A520" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>33</x:v>
@@ -16524,7 +16524,7 @@
     </x:row>
     <x:row r="521" spans="1:9">
       <x:c r="A521" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>33</x:v>
@@ -16553,7 +16553,7 @@
     </x:row>
     <x:row r="522" spans="1:9">
       <x:c r="A522" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>33</x:v>
@@ -16582,7 +16582,7 @@
     </x:row>
     <x:row r="523" spans="1:9">
       <x:c r="A523" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>10</x:v>
@@ -16611,7 +16611,7 @@
     </x:row>
     <x:row r="524" spans="1:9">
       <x:c r="A524" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>10</x:v>
@@ -16640,7 +16640,7 @@
     </x:row>
     <x:row r="525" spans="1:9">
       <x:c r="A525" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
         <x:v>10</x:v>
@@ -16669,7 +16669,7 @@
     </x:row>
     <x:row r="526" spans="1:9">
       <x:c r="A526" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
         <x:v>25</x:v>
@@ -16698,7 +16698,7 @@
     </x:row>
     <x:row r="527" spans="1:9">
       <x:c r="A527" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>25</x:v>
@@ -16727,7 +16727,7 @@
     </x:row>
     <x:row r="528" spans="1:9">
       <x:c r="A528" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>25</x:v>
@@ -16756,7 +16756,7 @@
     </x:row>
     <x:row r="529" spans="1:9">
       <x:c r="A529" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>31</x:v>
@@ -16785,7 +16785,7 @@
     </x:row>
     <x:row r="530" spans="1:9">
       <x:c r="A530" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>31</x:v>
@@ -16814,7 +16814,7 @@
     </x:row>
     <x:row r="531" spans="1:9">
       <x:c r="A531" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>10</x:v>
@@ -16843,7 +16843,7 @@
     </x:row>
     <x:row r="532" spans="1:9">
       <x:c r="A532" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>10</x:v>
@@ -16872,7 +16872,7 @@
     </x:row>
     <x:row r="533" spans="1:9">
       <x:c r="A533" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>10</x:v>
@@ -16901,7 +16901,7 @@
     </x:row>
     <x:row r="534" spans="1:9">
       <x:c r="A534" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>22</x:v>
@@ -16930,7 +16930,7 @@
     </x:row>
     <x:row r="535" spans="1:9">
       <x:c r="A535" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>22</x:v>
@@ -16959,7 +16959,7 @@
     </x:row>
     <x:row r="536" spans="1:9">
       <x:c r="A536" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>25</x:v>
@@ -16988,7 +16988,7 @@
     </x:row>
     <x:row r="537" spans="1:9">
       <x:c r="A537" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>25</x:v>
@@ -17017,7 +17017,7 @@
     </x:row>
     <x:row r="538" spans="1:9">
       <x:c r="A538" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>25</x:v>
@@ -17046,7 +17046,7 @@
     </x:row>
     <x:row r="539" spans="1:9">
       <x:c r="A539" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>33</x:v>
@@ -17075,7 +17075,7 @@
     </x:row>
     <x:row r="540" spans="1:9">
       <x:c r="A540" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>33</x:v>
@@ -17104,7 +17104,7 @@
     </x:row>
     <x:row r="541" spans="1:9">
       <x:c r="A541" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>33</x:v>
@@ -17133,7 +17133,7 @@
     </x:row>
     <x:row r="542" spans="1:9">
       <x:c r="A542" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>10</x:v>
@@ -17162,7 +17162,7 @@
     </x:row>
     <x:row r="543" spans="1:9">
       <x:c r="A543" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>10</x:v>
@@ -17191,7 +17191,7 @@
     </x:row>
     <x:row r="544" spans="1:9">
       <x:c r="A544" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>10</x:v>
@@ -17220,7 +17220,7 @@
     </x:row>
     <x:row r="545" spans="1:9">
       <x:c r="A545" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>22</x:v>
@@ -17249,7 +17249,7 @@
     </x:row>
     <x:row r="546" spans="1:9">
       <x:c r="A546" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>22</x:v>
@@ -17278,7 +17278,7 @@
     </x:row>
     <x:row r="547" spans="1:9">
       <x:c r="A547" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>22</x:v>
@@ -17307,7 +17307,7 @@
     </x:row>
     <x:row r="548" spans="1:9">
       <x:c r="A548" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>25</x:v>
@@ -17336,7 +17336,7 @@
     </x:row>
     <x:row r="549" spans="1:9">
       <x:c r="A549" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>25</x:v>
@@ -17365,7 +17365,7 @@
     </x:row>
     <x:row r="550" spans="1:9">
       <x:c r="A550" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>25</x:v>
@@ -17394,7 +17394,7 @@
     </x:row>
     <x:row r="551" spans="1:9">
       <x:c r="A551" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>30</x:v>
@@ -17423,7 +17423,7 @@
     </x:row>
     <x:row r="552" spans="1:9">
       <x:c r="A552" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>30</x:v>
@@ -17452,7 +17452,7 @@
     </x:row>
     <x:row r="553" spans="1:9">
       <x:c r="A553" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>30</x:v>
@@ -17481,7 +17481,7 @@
     </x:row>
     <x:row r="554" spans="1:9">
       <x:c r="A554" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>31</x:v>
@@ -17510,7 +17510,7 @@
     </x:row>
     <x:row r="555" spans="1:9">
       <x:c r="A555" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>31</x:v>
@@ -17539,7 +17539,7 @@
     </x:row>
     <x:row r="556" spans="1:9">
       <x:c r="A556" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>31</x:v>
@@ -17568,7 +17568,7 @@
     </x:row>
     <x:row r="557" spans="1:9">
       <x:c r="A557" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>33</x:v>
@@ -17597,7 +17597,7 @@
     </x:row>
     <x:row r="558" spans="1:9">
       <x:c r="A558" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>33</x:v>
@@ -17626,7 +17626,7 @@
     </x:row>
     <x:row r="559" spans="1:9">
       <x:c r="A559" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>25</x:v>
@@ -17655,7 +17655,7 @@
     </x:row>
     <x:row r="560" spans="1:9">
       <x:c r="A560" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>25</x:v>
@@ -17684,7 +17684,7 @@
     </x:row>
     <x:row r="561" spans="1:9">
       <x:c r="A561" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>10</x:v>
@@ -17713,7 +17713,7 @@
     </x:row>
     <x:row r="562" spans="1:9">
       <x:c r="A562" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>10</x:v>
@@ -17742,7 +17742,7 @@
     </x:row>
     <x:row r="563" spans="1:9">
       <x:c r="A563" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>10</x:v>
@@ -17771,7 +17771,7 @@
     </x:row>
     <x:row r="564" spans="1:9">
       <x:c r="A564" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>22</x:v>
@@ -17800,7 +17800,7 @@
     </x:row>
     <x:row r="565" spans="1:9">
       <x:c r="A565" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>22</x:v>
@@ -17829,7 +17829,7 @@
     </x:row>
     <x:row r="566" spans="1:9">
       <x:c r="A566" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>22</x:v>
@@ -17858,7 +17858,7 @@
     </x:row>
     <x:row r="567" spans="1:9">
       <x:c r="A567" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>25</x:v>
@@ -17887,7 +17887,7 @@
     </x:row>
     <x:row r="568" spans="1:9">
       <x:c r="A568" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>25</x:v>
@@ -17916,7 +17916,7 @@
     </x:row>
     <x:row r="569" spans="1:9">
       <x:c r="A569" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>25</x:v>
@@ -17945,7 +17945,7 @@
     </x:row>
     <x:row r="570" spans="1:9">
       <x:c r="A570" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>31</x:v>
@@ -17974,7 +17974,7 @@
     </x:row>
     <x:row r="571" spans="1:9">
       <x:c r="A571" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>31</x:v>
@@ -18003,7 +18003,7 @@
     </x:row>
     <x:row r="572" spans="1:9">
       <x:c r="A572" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>31</x:v>
@@ -18032,7 +18032,7 @@
     </x:row>
     <x:row r="573" spans="1:9">
       <x:c r="A573" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>33</x:v>
@@ -18061,7 +18061,7 @@
     </x:row>
     <x:row r="574" spans="1:9">
       <x:c r="A574" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>33</x:v>
@@ -18090,7 +18090,7 @@
     </x:row>
     <x:row r="575" spans="1:9">
       <x:c r="A575" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>10</x:v>
@@ -18119,7 +18119,7 @@
     </x:row>
     <x:row r="576" spans="1:9">
       <x:c r="A576" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>10</x:v>
@@ -18148,7 +18148,7 @@
     </x:row>
     <x:row r="577" spans="1:9">
       <x:c r="A577" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>10</x:v>
@@ -18177,7 +18177,7 @@
     </x:row>
     <x:row r="578" spans="1:9">
       <x:c r="A578" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>22</x:v>
@@ -18206,7 +18206,7 @@
     </x:row>
     <x:row r="579" spans="1:9">
       <x:c r="A579" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>22</x:v>
@@ -18235,7 +18235,7 @@
     </x:row>
     <x:row r="580" spans="1:9">
       <x:c r="A580" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>25</x:v>
@@ -18264,7 +18264,7 @@
     </x:row>
     <x:row r="581" spans="1:9">
       <x:c r="A581" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>25</x:v>
@@ -18293,7 +18293,7 @@
     </x:row>
     <x:row r="582" spans="1:9">
       <x:c r="A582" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>25</x:v>
@@ -18322,7 +18322,7 @@
     </x:row>
     <x:row r="583" spans="1:9">
       <x:c r="A583" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>31</x:v>
@@ -18351,7 +18351,7 @@
     </x:row>
     <x:row r="584" spans="1:9">
       <x:c r="A584" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>31</x:v>
@@ -18380,7 +18380,7 @@
     </x:row>
     <x:row r="585" spans="1:9">
       <x:c r="A585" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>31</x:v>
@@ -18409,7 +18409,7 @@
     </x:row>
     <x:row r="586" spans="1:9">
       <x:c r="A586" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>33</x:v>
@@ -18438,7 +18438,7 @@
     </x:row>
     <x:row r="587" spans="1:9">
       <x:c r="A587" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>33</x:v>
@@ -18467,7 +18467,7 @@
     </x:row>
     <x:row r="588" spans="1:9">
       <x:c r="A588" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>10</x:v>
@@ -18496,7 +18496,7 @@
     </x:row>
     <x:row r="589" spans="1:9">
       <x:c r="A589" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>10</x:v>
@@ -18525,7 +18525,7 @@
     </x:row>
     <x:row r="590" spans="1:9">
       <x:c r="A590" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>10</x:v>
@@ -18554,7 +18554,7 @@
     </x:row>
     <x:row r="591" spans="1:9">
       <x:c r="A591" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>22</x:v>
@@ -18583,7 +18583,7 @@
     </x:row>
     <x:row r="592" spans="1:9">
       <x:c r="A592" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>22</x:v>
@@ -18612,7 +18612,7 @@
     </x:row>
     <x:row r="593" spans="1:9">
       <x:c r="A593" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>25</x:v>
@@ -18641,7 +18641,7 @@
     </x:row>
     <x:row r="594" spans="1:9">
       <x:c r="A594" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>25</x:v>
@@ -18670,7 +18670,7 @@
     </x:row>
     <x:row r="595" spans="1:9">
       <x:c r="A595" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>25</x:v>
@@ -18699,7 +18699,7 @@
     </x:row>
     <x:row r="596" spans="1:9">
       <x:c r="A596" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>10</x:v>
@@ -18728,7 +18728,7 @@
     </x:row>
     <x:row r="597" spans="1:9">
       <x:c r="A597" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>10</x:v>
@@ -18757,7 +18757,7 @@
     </x:row>
     <x:row r="598" spans="1:9">
       <x:c r="A598" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>10</x:v>
@@ -18786,7 +18786,7 @@
     </x:row>
     <x:row r="599" spans="1:9">
       <x:c r="A599" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>22</x:v>
@@ -18815,7 +18815,7 @@
     </x:row>
     <x:row r="600" spans="1:9">
       <x:c r="A600" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>22</x:v>
@@ -18844,7 +18844,7 @@
     </x:row>
     <x:row r="601" spans="1:9">
       <x:c r="A601" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>22</x:v>
@@ -18873,7 +18873,7 @@
     </x:row>
     <x:row r="602" spans="1:9">
       <x:c r="A602" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>25</x:v>
@@ -18902,7 +18902,7 @@
     </x:row>
     <x:row r="603" spans="1:9">
       <x:c r="A603" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>25</x:v>
@@ -18931,7 +18931,7 @@
     </x:row>
     <x:row r="604" spans="1:9">
       <x:c r="A604" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>25</x:v>
@@ -18960,7 +18960,7 @@
     </x:row>
     <x:row r="605" spans="1:9">
       <x:c r="A605" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>30</x:v>
@@ -18989,7 +18989,7 @@
     </x:row>
     <x:row r="606" spans="1:9">
       <x:c r="A606" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>30</x:v>
@@ -19018,7 +19018,7 @@
     </x:row>
     <x:row r="607" spans="1:9">
       <x:c r="A607" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>30</x:v>
@@ -19047,7 +19047,7 @@
     </x:row>
     <x:row r="608" spans="1:9">
       <x:c r="A608" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>31</x:v>
@@ -19076,7 +19076,7 @@
     </x:row>
     <x:row r="609" spans="1:9">
       <x:c r="A609" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>31</x:v>
@@ -19105,7 +19105,7 @@
     </x:row>
     <x:row r="610" spans="1:9">
       <x:c r="A610" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>31</x:v>
@@ -19134,7 +19134,7 @@
     </x:row>
     <x:row r="611" spans="1:9">
       <x:c r="A611" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>33</x:v>
@@ -19163,7 +19163,7 @@
     </x:row>
     <x:row r="612" spans="1:9">
       <x:c r="A612" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>33</x:v>
@@ -19192,7 +19192,7 @@
     </x:row>
     <x:row r="613" spans="1:9">
       <x:c r="A613" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>33</x:v>
@@ -19221,7 +19221,7 @@
     </x:row>
     <x:row r="614" spans="1:9">
       <x:c r="A614" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>10</x:v>
@@ -19250,7 +19250,7 @@
     </x:row>
     <x:row r="615" spans="1:9">
       <x:c r="A615" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>10</x:v>
@@ -19268,7 +19268,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="G615" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H615" s="1" t="s">
         <x:v>107</x:v>
@@ -19279,7 +19279,7 @@
     </x:row>
     <x:row r="616" spans="1:9">
       <x:c r="A616" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>10</x:v>
@@ -19291,13 +19291,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E616" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="F616" s="1" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="F616" s="1" t="s">
+      <x:c r="G616" s="1" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="G616" s="1" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="H616" s="1" t="s">
         <x:v>109</x:v>
@@ -19308,7 +19308,7 @@
     </x:row>
     <x:row r="617" spans="1:9">
       <x:c r="A617" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
         <x:v>22</x:v>
@@ -19337,7 +19337,7 @@
     </x:row>
     <x:row r="618" spans="1:9">
       <x:c r="A618" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>22</x:v>
@@ -19366,7 +19366,7 @@
     </x:row>
     <x:row r="619" spans="1:9">
       <x:c r="A619" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>22</x:v>
@@ -19395,7 +19395,7 @@
     </x:row>
     <x:row r="620" spans="1:9">
       <x:c r="A620" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>25</x:v>
@@ -19424,7 +19424,7 @@
     </x:row>
     <x:row r="621" spans="1:9">
       <x:c r="A621" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>25</x:v>
@@ -19453,7 +19453,7 @@
     </x:row>
     <x:row r="622" spans="1:9">
       <x:c r="A622" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>25</x:v>
@@ -19482,7 +19482,7 @@
     </x:row>
     <x:row r="623" spans="1:9">
       <x:c r="A623" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>31</x:v>
@@ -19511,7 +19511,7 @@
     </x:row>
     <x:row r="624" spans="1:9">
       <x:c r="A624" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>31</x:v>
@@ -19540,7 +19540,7 @@
     </x:row>
     <x:row r="625" spans="1:9">
       <x:c r="A625" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>31</x:v>
@@ -19569,7 +19569,7 @@
     </x:row>
     <x:row r="626" spans="1:9">
       <x:c r="A626" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>33</x:v>
@@ -19598,7 +19598,7 @@
     </x:row>
     <x:row r="627" spans="1:9">
       <x:c r="A627" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>33</x:v>
@@ -19627,7 +19627,7 @@
     </x:row>
     <x:row r="628" spans="1:9">
       <x:c r="A628" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>33</x:v>
@@ -19656,7 +19656,7 @@
     </x:row>
     <x:row r="629" spans="1:9">
       <x:c r="A629" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>10</x:v>
@@ -19685,7 +19685,7 @@
     </x:row>
     <x:row r="630" spans="1:9">
       <x:c r="A630" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>10</x:v>
@@ -19714,7 +19714,7 @@
     </x:row>
     <x:row r="631" spans="1:9">
       <x:c r="A631" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>10</x:v>
@@ -19743,7 +19743,7 @@
     </x:row>
     <x:row r="632" spans="1:9">
       <x:c r="A632" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>22</x:v>
@@ -19772,7 +19772,7 @@
     </x:row>
     <x:row r="633" spans="1:9">
       <x:c r="A633" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>22</x:v>
@@ -19801,7 +19801,7 @@
     </x:row>
     <x:row r="634" spans="1:9">
       <x:c r="A634" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>22</x:v>
@@ -19830,7 +19830,7 @@
     </x:row>
     <x:row r="635" spans="1:9">
       <x:c r="A635" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>25</x:v>
@@ -19859,7 +19859,7 @@
     </x:row>
     <x:row r="636" spans="1:9">
       <x:c r="A636" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>25</x:v>
@@ -19888,7 +19888,7 @@
     </x:row>
     <x:row r="637" spans="1:9">
       <x:c r="A637" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>25</x:v>
@@ -19917,7 +19917,7 @@
     </x:row>
     <x:row r="638" spans="1:9">
       <x:c r="A638" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>31</x:v>
@@ -19946,7 +19946,7 @@
     </x:row>
     <x:row r="639" spans="1:9">
       <x:c r="A639" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>31</x:v>
@@ -19975,7 +19975,7 @@
     </x:row>
     <x:row r="640" spans="1:9">
       <x:c r="A640" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>10</x:v>
@@ -20004,7 +20004,7 @@
     </x:row>
     <x:row r="641" spans="1:9">
       <x:c r="A641" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>10</x:v>
@@ -20019,7 +20019,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F641" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G641" s="1" t="s">
         <x:v>107</x:v>
@@ -20033,7 +20033,7 @@
     </x:row>
     <x:row r="642" spans="1:9">
       <x:c r="A642" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>10</x:v>
@@ -20062,7 +20062,7 @@
     </x:row>
     <x:row r="643" spans="1:9">
       <x:c r="A643" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>22</x:v>
@@ -20091,7 +20091,7 @@
     </x:row>
     <x:row r="644" spans="1:9">
       <x:c r="A644" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>22</x:v>
@@ -20120,7 +20120,7 @@
     </x:row>
     <x:row r="645" spans="1:9">
       <x:c r="A645" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>22</x:v>
@@ -20149,7 +20149,7 @@
     </x:row>
     <x:row r="646" spans="1:9">
       <x:c r="A646" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>25</x:v>
@@ -20178,7 +20178,7 @@
     </x:row>
     <x:row r="647" spans="1:9">
       <x:c r="A647" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>25</x:v>
@@ -20207,7 +20207,7 @@
     </x:row>
     <x:row r="648" spans="1:9">
       <x:c r="A648" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>25</x:v>
@@ -20225,7 +20225,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G648" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H648" s="1" t="s">
         <x:v>40</x:v>
@@ -20236,7 +20236,7 @@
     </x:row>
     <x:row r="649" spans="1:9">
       <x:c r="A649" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>30</x:v>
@@ -20265,7 +20265,7 @@
     </x:row>
     <x:row r="650" spans="1:9">
       <x:c r="A650" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>30</x:v>
@@ -20294,7 +20294,7 @@
     </x:row>
     <x:row r="651" spans="1:9">
       <x:c r="A651" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>30</x:v>
@@ -20323,7 +20323,7 @@
     </x:row>
     <x:row r="652" spans="1:9">
       <x:c r="A652" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>31</x:v>
@@ -20352,7 +20352,7 @@
     </x:row>
     <x:row r="653" spans="1:9">
       <x:c r="A653" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>31</x:v>
@@ -20381,7 +20381,7 @@
     </x:row>
     <x:row r="654" spans="1:9">
       <x:c r="A654" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>31</x:v>
@@ -20410,7 +20410,7 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>33</x:v>
@@ -20439,7 +20439,7 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>33</x:v>
@@ -20468,7 +20468,7 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>33</x:v>
@@ -20497,7 +20497,7 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>10</x:v>
@@ -20526,7 +20526,7 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>10</x:v>
@@ -20555,7 +20555,7 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>10</x:v>
@@ -20584,7 +20584,7 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>49</x:v>
@@ -20613,7 +20613,7 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>49</x:v>
@@ -20642,7 +20642,7 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>22</x:v>
@@ -20671,7 +20671,7 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>22</x:v>
@@ -20700,7 +20700,7 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>22</x:v>
@@ -20729,7 +20729,7 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>25</x:v>
@@ -20758,7 +20758,7 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>25</x:v>
@@ -20787,7 +20787,7 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>25</x:v>
@@ -20816,7 +20816,7 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>31</x:v>
@@ -20845,7 +20845,7 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>31</x:v>
@@ -20874,7 +20874,7 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>31</x:v>
@@ -20903,7 +20903,7 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>33</x:v>
@@ -20932,7 +20932,7 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>33</x:v>
@@ -20961,7 +20961,7 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>33</x:v>
@@ -20990,7 +20990,7 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>10</x:v>
@@ -21005,7 +21005,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F675" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G675" s="1" t="s">
         <x:v>128</x:v>
@@ -21019,7 +21019,7 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>10</x:v>
@@ -21034,13 +21034,13 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="F676" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G676" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H676" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I676" s="0" t="s">
         <x:v>12</x:v>
@@ -21048,7 +21048,7 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>10</x:v>
@@ -21060,13 +21060,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E677" s="1" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="F677" s="1" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="F677" s="1" t="s">
+      <x:c r="G677" s="1" t="s">
         <x:v>242</x:v>
-      </x:c>
-      <x:c r="G677" s="1" t="s">
-        <x:v>243</x:v>
       </x:c>
       <x:c r="H677" s="1" t="s">
         <x:v>87</x:v>
@@ -21077,7 +21077,7 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>22</x:v>
@@ -21106,7 +21106,7 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>22</x:v>
@@ -21135,7 +21135,7 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>22</x:v>
@@ -21164,7 +21164,7 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>25</x:v>
@@ -21193,7 +21193,7 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>25</x:v>
@@ -21208,7 +21208,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F682" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G682" s="1" t="s">
         <x:v>119</x:v>
@@ -21222,7 +21222,7 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>25</x:v>
@@ -21251,7 +21251,7 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>31</x:v>
@@ -21280,7 +21280,7 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>31</x:v>
@@ -21309,7 +21309,7 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>31</x:v>
@@ -21338,7 +21338,7 @@
     </x:row>
     <x:row r="687" spans="1:9">
       <x:c r="A687" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>33</x:v>
@@ -21367,7 +21367,7 @@
     </x:row>
     <x:row r="688" spans="1:9">
       <x:c r="A688" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>33</x:v>
@@ -21396,7 +21396,7 @@
     </x:row>
     <x:row r="689" spans="1:9">
       <x:c r="A689" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>33</x:v>
@@ -21425,7 +21425,7 @@
     </x:row>
     <x:row r="690" spans="1:9">
       <x:c r="A690" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>10</x:v>
@@ -21454,7 +21454,7 @@
     </x:row>
     <x:row r="691" spans="1:9">
       <x:c r="A691" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>10</x:v>
@@ -21483,7 +21483,7 @@
     </x:row>
     <x:row r="692" spans="1:9">
       <x:c r="A692" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>10</x:v>
@@ -21512,7 +21512,7 @@
     </x:row>
     <x:row r="693" spans="1:9">
       <x:c r="A693" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>22</x:v>
@@ -21541,7 +21541,7 @@
     </x:row>
     <x:row r="694" spans="1:9">
       <x:c r="A694" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>22</x:v>
@@ -21570,7 +21570,7 @@
     </x:row>
     <x:row r="695" spans="1:9">
       <x:c r="A695" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>25</x:v>
@@ -21599,7 +21599,7 @@
     </x:row>
     <x:row r="696" spans="1:9">
       <x:c r="A696" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>25</x:v>
@@ -21628,7 +21628,7 @@
     </x:row>
     <x:row r="697" spans="1:9">
       <x:c r="A697" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>25</x:v>
@@ -21657,7 +21657,7 @@
     </x:row>
     <x:row r="698" spans="1:9">
       <x:c r="A698" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>30</x:v>
@@ -21686,7 +21686,7 @@
     </x:row>
     <x:row r="699" spans="1:9">
       <x:c r="A699" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>30</x:v>
@@ -21715,7 +21715,7 @@
     </x:row>
     <x:row r="700" spans="1:9">
       <x:c r="A700" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>31</x:v>
@@ -21744,7 +21744,7 @@
     </x:row>
     <x:row r="701" spans="1:9">
       <x:c r="A701" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
         <x:v>31</x:v>
@@ -21773,7 +21773,7 @@
     </x:row>
     <x:row r="702" spans="1:9">
       <x:c r="A702" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>31</x:v>
@@ -21802,7 +21802,7 @@
     </x:row>
     <x:row r="703" spans="1:9">
       <x:c r="A703" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
         <x:v>33</x:v>
@@ -21831,7 +21831,7 @@
     </x:row>
     <x:row r="704" spans="1:9">
       <x:c r="A704" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
         <x:v>33</x:v>
@@ -21860,7 +21860,7 @@
     </x:row>
     <x:row r="705" spans="1:9">
       <x:c r="A705" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
         <x:v>10</x:v>
@@ -21889,7 +21889,7 @@
     </x:row>
     <x:row r="706" spans="1:9">
       <x:c r="A706" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
         <x:v>10</x:v>
@@ -21918,7 +21918,7 @@
     </x:row>
     <x:row r="707" spans="1:9">
       <x:c r="A707" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
         <x:v>10</x:v>
@@ -21947,7 +21947,7 @@
     </x:row>
     <x:row r="708" spans="1:9">
       <x:c r="A708" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
         <x:v>49</x:v>
@@ -21976,7 +21976,7 @@
     </x:row>
     <x:row r="709" spans="1:9">
       <x:c r="A709" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
         <x:v>49</x:v>
@@ -22005,7 +22005,7 @@
     </x:row>
     <x:row r="710" spans="1:9">
       <x:c r="A710" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
         <x:v>49</x:v>
@@ -22034,7 +22034,7 @@
     </x:row>
     <x:row r="711" spans="1:9">
       <x:c r="A711" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>22</x:v>
@@ -22063,7 +22063,7 @@
     </x:row>
     <x:row r="712" spans="1:9">
       <x:c r="A712" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>22</x:v>
@@ -22092,7 +22092,7 @@
     </x:row>
     <x:row r="713" spans="1:9">
       <x:c r="A713" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>22</x:v>
@@ -22121,7 +22121,7 @@
     </x:row>
     <x:row r="714" spans="1:9">
       <x:c r="A714" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>25</x:v>
@@ -22150,7 +22150,7 @@
     </x:row>
     <x:row r="715" spans="1:9">
       <x:c r="A715" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>25</x:v>
@@ -22179,7 +22179,7 @@
     </x:row>
     <x:row r="716" spans="1:9">
       <x:c r="A716" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>25</x:v>
@@ -22208,7 +22208,7 @@
     </x:row>
     <x:row r="717" spans="1:9">
       <x:c r="A717" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>31</x:v>
@@ -22237,7 +22237,7 @@
     </x:row>
     <x:row r="718" spans="1:9">
       <x:c r="A718" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>31</x:v>
@@ -22266,7 +22266,7 @@
     </x:row>
     <x:row r="719" spans="1:9">
       <x:c r="A719" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>31</x:v>
@@ -22295,7 +22295,7 @@
     </x:row>
     <x:row r="720" spans="1:9">
       <x:c r="A720" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>33</x:v>
@@ -22324,7 +22324,7 @@
     </x:row>
     <x:row r="721" spans="1:9">
       <x:c r="A721" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>33</x:v>
@@ -22353,7 +22353,7 @@
     </x:row>
     <x:row r="722" spans="1:9">
       <x:c r="A722" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>33</x:v>
@@ -22382,7 +22382,7 @@
     </x:row>
     <x:row r="723" spans="1:9">
       <x:c r="A723" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>10</x:v>
@@ -22411,7 +22411,7 @@
     </x:row>
     <x:row r="724" spans="1:9">
       <x:c r="A724" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>10</x:v>
@@ -22440,7 +22440,7 @@
     </x:row>
     <x:row r="725" spans="1:9">
       <x:c r="A725" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>10</x:v>
@@ -22469,7 +22469,7 @@
     </x:row>
     <x:row r="726" spans="1:9">
       <x:c r="A726" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>22</x:v>
@@ -22498,7 +22498,7 @@
     </x:row>
     <x:row r="727" spans="1:9">
       <x:c r="A727" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>22</x:v>
@@ -22527,7 +22527,7 @@
     </x:row>
     <x:row r="728" spans="1:9">
       <x:c r="A728" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>22</x:v>
@@ -22556,7 +22556,7 @@
     </x:row>
     <x:row r="729" spans="1:9">
       <x:c r="A729" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>25</x:v>
@@ -22585,7 +22585,7 @@
     </x:row>
     <x:row r="730" spans="1:9">
       <x:c r="A730" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>25</x:v>
@@ -22600,7 +22600,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F730" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G730" s="1" t="s">
         <x:v>40</x:v>
@@ -22614,7 +22614,7 @@
     </x:row>
     <x:row r="731" spans="1:9">
       <x:c r="A731" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>25</x:v>
@@ -22643,7 +22643,7 @@
     </x:row>
     <x:row r="732" spans="1:9">
       <x:c r="A732" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>30</x:v>
@@ -22672,7 +22672,7 @@
     </x:row>
     <x:row r="733" spans="1:9">
       <x:c r="A733" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>30</x:v>
@@ -22701,7 +22701,7 @@
     </x:row>
     <x:row r="734" spans="1:9">
       <x:c r="A734" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>30</x:v>
@@ -22730,7 +22730,7 @@
     </x:row>
     <x:row r="735" spans="1:9">
       <x:c r="A735" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>31</x:v>
@@ -22759,7 +22759,7 @@
     </x:row>
     <x:row r="736" spans="1:9">
       <x:c r="A736" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>31</x:v>
@@ -22788,7 +22788,7 @@
     </x:row>
     <x:row r="737" spans="1:9">
       <x:c r="A737" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>31</x:v>
@@ -22817,7 +22817,7 @@
     </x:row>
     <x:row r="738" spans="1:9">
       <x:c r="A738" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
         <x:v>33</x:v>
@@ -22846,7 +22846,7 @@
     </x:row>
     <x:row r="739" spans="1:9">
       <x:c r="A739" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
         <x:v>33</x:v>
@@ -22875,7 +22875,7 @@
     </x:row>
     <x:row r="740" spans="1:9">
       <x:c r="A740" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>10</x:v>
@@ -22904,7 +22904,7 @@
     </x:row>
     <x:row r="741" spans="1:9">
       <x:c r="A741" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>10</x:v>
@@ -22933,7 +22933,7 @@
     </x:row>
     <x:row r="742" spans="1:9">
       <x:c r="A742" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>22</x:v>
@@ -22962,7 +22962,7 @@
     </x:row>
     <x:row r="743" spans="1:9">
       <x:c r="A743" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>22</x:v>
@@ -22991,7 +22991,7 @@
     </x:row>
     <x:row r="744" spans="1:9">
       <x:c r="A744" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>25</x:v>
@@ -23020,7 +23020,7 @@
     </x:row>
     <x:row r="745" spans="1:9">
       <x:c r="A745" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>25</x:v>
@@ -23049,7 +23049,7 @@
     </x:row>
     <x:row r="746" spans="1:9">
       <x:c r="A746" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>25</x:v>
@@ -23078,7 +23078,7 @@
     </x:row>
     <x:row r="747" spans="1:9">
       <x:c r="A747" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>33</x:v>
@@ -23107,7 +23107,7 @@
     </x:row>
     <x:row r="748" spans="1:9">
       <x:c r="A748" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>33</x:v>
@@ -23136,7 +23136,7 @@
     </x:row>
     <x:row r="749" spans="1:9">
       <x:c r="A749" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>10</x:v>
@@ -23165,7 +23165,7 @@
     </x:row>
     <x:row r="750" spans="1:9">
       <x:c r="A750" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>10</x:v>
@@ -23177,13 +23177,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E750" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F750" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
       <x:c r="G750" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H750" s="1" t="s">
         <x:v>172</x:v>
@@ -23194,7 +23194,7 @@
     </x:row>
     <x:row r="751" spans="1:9">
       <x:c r="A751" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>10</x:v>
@@ -23209,13 +23209,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F751" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="G751" s="1" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="G751" s="1" t="s">
+      <x:c r="H751" s="1" t="s">
         <x:v>252</x:v>
-      </x:c>
-      <x:c r="H751" s="1" t="s">
-        <x:v>153</x:v>
       </x:c>
       <x:c r="I751" s="0" t="s">
         <x:v>12</x:v>
@@ -23223,7 +23223,7 @@
     </x:row>
     <x:row r="752" spans="1:9">
       <x:c r="A752" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>49</x:v>
@@ -23252,7 +23252,7 @@
     </x:row>
     <x:row r="753" spans="1:9">
       <x:c r="A753" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>49</x:v>
@@ -23281,7 +23281,7 @@
     </x:row>
     <x:row r="754" spans="1:9">
       <x:c r="A754" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>49</x:v>
@@ -23310,7 +23310,7 @@
     </x:row>
     <x:row r="755" spans="1:9">
       <x:c r="A755" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>22</x:v>
@@ -23339,7 +23339,7 @@
     </x:row>
     <x:row r="756" spans="1:9">
       <x:c r="A756" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>22</x:v>
@@ -23368,7 +23368,7 @@
     </x:row>
     <x:row r="757" spans="1:9">
       <x:c r="A757" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>22</x:v>
@@ -23397,7 +23397,7 @@
     </x:row>
     <x:row r="758" spans="1:9">
       <x:c r="A758" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>25</x:v>
@@ -23426,7 +23426,7 @@
     </x:row>
     <x:row r="759" spans="1:9">
       <x:c r="A759" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>25</x:v>
@@ -23455,7 +23455,7 @@
     </x:row>
     <x:row r="760" spans="1:9">
       <x:c r="A760" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>25</x:v>
@@ -23476,7 +23476,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="H760" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I760" s="0" t="s">
         <x:v>12</x:v>
@@ -23484,7 +23484,7 @@
     </x:row>
     <x:row r="761" spans="1:9">
       <x:c r="A761" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>30</x:v>
@@ -23513,7 +23513,7 @@
     </x:row>
     <x:row r="762" spans="1:9">
       <x:c r="A762" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>30</x:v>
@@ -23542,7 +23542,7 @@
     </x:row>
     <x:row r="763" spans="1:9">
       <x:c r="A763" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>31</x:v>
@@ -23571,7 +23571,7 @@
     </x:row>
     <x:row r="764" spans="1:9">
       <x:c r="A764" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>31</x:v>
@@ -23600,7 +23600,7 @@
     </x:row>
     <x:row r="765" spans="1:9">
       <x:c r="A765" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>31</x:v>
@@ -23629,7 +23629,7 @@
     </x:row>
     <x:row r="766" spans="1:9">
       <x:c r="A766" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>33</x:v>
@@ -23647,7 +23647,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G766" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H766" s="1" t="s">
         <x:v>54</x:v>
@@ -23658,7 +23658,7 @@
     </x:row>
     <x:row r="767" spans="1:9">
       <x:c r="A767" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>33</x:v>
@@ -23670,7 +23670,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E767" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F767" s="1" t="s">
         <x:v>97</x:v>
@@ -23687,7 +23687,7 @@
     </x:row>
     <x:row r="768" spans="1:9">
       <x:c r="A768" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>33</x:v>
@@ -23966,7 +23966,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="G777" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H777" s="1" t="s">
         <x:v>51</x:v>
@@ -26895,10 +26895,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G878" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H878" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I878" s="0" t="s">
         <x:v>12</x:v>
@@ -26924,10 +26924,10 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="G879" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H879" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I879" s="0" t="s">
         <x:v>12</x:v>
@@ -29670,7 +29670,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D974" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E974" s="1" t="s">
         <x:v>21</x:v>
@@ -29824,7 +29824,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="G979" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H979" s="1" t="s">
         <x:v>65</x:v>
@@ -30430,7 +30430,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="s">
         <x:v>253</x:v>
@@ -31239,10 +31239,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="s">
         <x:v>306</x:v>
@@ -31361,7 +31361,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="s">
         <x:v>92</x:v>
@@ -31393,7 +31393,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="s">
         <x:v>12</x:v>
@@ -31480,7 +31480,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -32086,7 +32086,7 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
         <x:v>308</x:v>
@@ -32251,7 +32251,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="s">
         <x:v>317</x:v>
@@ -37625,7 +37625,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="G1248" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H1248" s="1" t="s">
         <x:v>51</x:v>
@@ -37941,7 +37941,7 @@
         <x:v>331</x:v>
       </x:c>
       <x:c r="F1259" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G1259" s="1" t="s">
         <x:v>344</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -445,7 +445,7 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>250</x:t>
+    <x:t>251</x:t>
   </x:si>
   <x:si>
     <x:t>91</x:t>
@@ -454,7 +454,7 @@
     <x:t>265</x:t>
   </x:si>
   <x:si>
-    <x:t>316</x:t>
+    <x:t>317</x:t>
   </x:si>
   <x:si>
     <x:t>117</x:t>
@@ -578,9 +578,6 @@
   </x:si>
   <x:si>
     <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251</x:t>
   </x:si>
   <x:si>
     <x:t>230</x:t>
@@ -13088,10 +13085,10 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="F402" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="G402" s="1" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="G402" s="1" t="s">
-        <x:v>189</x:v>
       </x:c>
       <x:c r="H402" s="1" t="s">
         <x:v>110</x:v>
@@ -13114,16 +13111,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E403" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="F403" s="1" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="F403" s="1" t="s">
+      <x:c r="G403" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="G403" s="1" t="s">
+      <x:c r="H403" s="1" t="s">
         <x:v>192</x:v>
-      </x:c>
-      <x:c r="H403" s="1" t="s">
-        <x:v>193</x:v>
       </x:c>
       <x:c r="I403" s="0" t="s">
         <x:v>12</x:v>
@@ -13143,16 +13140,16 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E404" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="F404" s="1" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="F404" s="1" t="s">
+      <x:c r="G404" s="1" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="G404" s="1" t="s">
+      <x:c r="H404" s="1" t="s">
         <x:v>196</x:v>
-      </x:c>
-      <x:c r="H404" s="1" t="s">
-        <x:v>197</x:v>
       </x:c>
       <x:c r="I404" s="0" t="s">
         <x:v>12</x:v>
@@ -13294,10 +13291,10 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="G409" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="H409" s="1" t="s">
         <x:v>198</x:v>
-      </x:c>
-      <x:c r="H409" s="1" t="s">
-        <x:v>199</x:v>
       </x:c>
       <x:c r="I409" s="0" t="s">
         <x:v>12</x:v>
@@ -13326,7 +13323,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="H410" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I410" s="0" t="s">
         <x:v>12</x:v>
@@ -13352,7 +13349,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="G411" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H411" s="1" t="s">
         <x:v>43</x:v>
@@ -13375,13 +13372,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E412" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F412" s="1" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="F412" s="1" t="s">
+      <x:c r="G412" s="1" t="s">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="G412" s="1" t="s">
-        <x:v>204</x:v>
       </x:c>
       <x:c r="H412" s="1" t="s">
         <x:v>184</x:v>
@@ -13401,19 +13398,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D413" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="E413" s="1" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="E413" s="1" t="s">
+      <x:c r="F413" s="1" t="s">
         <x:v>206</x:v>
-      </x:c>
-      <x:c r="F413" s="1" t="s">
-        <x:v>207</x:v>
       </x:c>
       <x:c r="G413" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="H413" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I413" s="0" t="s">
         <x:v>12</x:v>
@@ -13421,7 +13418,7 @@
     </x:row>
     <x:row r="414" spans="1:9">
       <x:c r="A414" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B414" s="0" t="s">
         <x:v>10</x:v>
@@ -13450,7 +13447,7 @@
     </x:row>
     <x:row r="415" spans="1:9">
       <x:c r="A415" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B415" s="0" t="s">
         <x:v>10</x:v>
@@ -13479,7 +13476,7 @@
     </x:row>
     <x:row r="416" spans="1:9">
       <x:c r="A416" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B416" s="0" t="s">
         <x:v>10</x:v>
@@ -13497,7 +13494,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="G416" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="H416" s="1" t="s">
         <x:v>76</x:v>
@@ -13508,7 +13505,7 @@
     </x:row>
     <x:row r="417" spans="1:9">
       <x:c r="A417" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B417" s="0" t="s">
         <x:v>22</x:v>
@@ -13537,7 +13534,7 @@
     </x:row>
     <x:row r="418" spans="1:9">
       <x:c r="A418" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>22</x:v>
@@ -13566,7 +13563,7 @@
     </x:row>
     <x:row r="419" spans="1:9">
       <x:c r="A419" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>22</x:v>
@@ -13595,7 +13592,7 @@
     </x:row>
     <x:row r="420" spans="1:9">
       <x:c r="A420" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>25</x:v>
@@ -13624,7 +13621,7 @@
     </x:row>
     <x:row r="421" spans="1:9">
       <x:c r="A421" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B421" s="0" t="s">
         <x:v>25</x:v>
@@ -13653,7 +13650,7 @@
     </x:row>
     <x:row r="422" spans="1:9">
       <x:c r="A422" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B422" s="0" t="s">
         <x:v>25</x:v>
@@ -13682,7 +13679,7 @@
     </x:row>
     <x:row r="423" spans="1:9">
       <x:c r="A423" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B423" s="0" t="s">
         <x:v>31</x:v>
@@ -13711,7 +13708,7 @@
     </x:row>
     <x:row r="424" spans="1:9">
       <x:c r="A424" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B424" s="0" t="s">
         <x:v>31</x:v>
@@ -13740,7 +13737,7 @@
     </x:row>
     <x:row r="425" spans="1:9">
       <x:c r="A425" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B425" s="0" t="s">
         <x:v>31</x:v>
@@ -13769,7 +13766,7 @@
     </x:row>
     <x:row r="426" spans="1:9">
       <x:c r="A426" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B426" s="0" t="s">
         <x:v>33</x:v>
@@ -13798,7 +13795,7 @@
     </x:row>
     <x:row r="427" spans="1:9">
       <x:c r="A427" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B427" s="0" t="s">
         <x:v>33</x:v>
@@ -13827,7 +13824,7 @@
     </x:row>
     <x:row r="428" spans="1:9">
       <x:c r="A428" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B428" s="0" t="s">
         <x:v>10</x:v>
@@ -13856,7 +13853,7 @@
     </x:row>
     <x:row r="429" spans="1:9">
       <x:c r="A429" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B429" s="0" t="s">
         <x:v>10</x:v>
@@ -13871,7 +13868,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G429" s="1" t="s">
         <x:v>105</x:v>
@@ -13885,7 +13882,7 @@
     </x:row>
     <x:row r="430" spans="1:9">
       <x:c r="A430" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B430" s="0" t="s">
         <x:v>10</x:v>
@@ -13903,7 +13900,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G430" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H430" s="1" t="s">
         <x:v>118</x:v>
@@ -13914,7 +13911,7 @@
     </x:row>
     <x:row r="431" spans="1:9">
       <x:c r="A431" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B431" s="0" t="s">
         <x:v>22</x:v>
@@ -13943,7 +13940,7 @@
     </x:row>
     <x:row r="432" spans="1:9">
       <x:c r="A432" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B432" s="0" t="s">
         <x:v>22</x:v>
@@ -13972,7 +13969,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>22</x:v>
@@ -14001,7 +13998,7 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>25</x:v>
@@ -14030,7 +14027,7 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>25</x:v>
@@ -14059,7 +14056,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>25</x:v>
@@ -14088,7 +14085,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>31</x:v>
@@ -14117,7 +14114,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>31</x:v>
@@ -14146,7 +14143,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>31</x:v>
@@ -14175,7 +14172,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>33</x:v>
@@ -14204,7 +14201,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>33</x:v>
@@ -14233,7 +14230,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>33</x:v>
@@ -14262,7 +14259,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>10</x:v>
@@ -14291,7 +14288,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>10</x:v>
@@ -14320,7 +14317,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>10</x:v>
@@ -14349,7 +14346,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>49</x:v>
@@ -14378,7 +14375,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>49</x:v>
@@ -14407,7 +14404,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>22</x:v>
@@ -14436,7 +14433,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>22</x:v>
@@ -14465,7 +14462,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>22</x:v>
@@ -14494,7 +14491,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>25</x:v>
@@ -14523,7 +14520,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>25</x:v>
@@ -14552,7 +14549,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>25</x:v>
@@ -14581,7 +14578,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>31</x:v>
@@ -14610,7 +14607,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>31</x:v>
@@ -14639,7 +14636,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>31</x:v>
@@ -14668,7 +14665,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>33</x:v>
@@ -14697,7 +14694,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>33</x:v>
@@ -14726,7 +14723,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>33</x:v>
@@ -14755,7 +14752,7 @@
     </x:row>
     <x:row r="460" spans="1:9">
       <x:c r="A460" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>10</x:v>
@@ -14784,7 +14781,7 @@
     </x:row>
     <x:row r="461" spans="1:9">
       <x:c r="A461" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>10</x:v>
@@ -14813,7 +14810,7 @@
     </x:row>
     <x:row r="462" spans="1:9">
       <x:c r="A462" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>10</x:v>
@@ -14842,7 +14839,7 @@
     </x:row>
     <x:row r="463" spans="1:9">
       <x:c r="A463" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>22</x:v>
@@ -14871,7 +14868,7 @@
     </x:row>
     <x:row r="464" spans="1:9">
       <x:c r="A464" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>22</x:v>
@@ -14900,7 +14897,7 @@
     </x:row>
     <x:row r="465" spans="1:9">
       <x:c r="A465" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>22</x:v>
@@ -14929,7 +14926,7 @@
     </x:row>
     <x:row r="466" spans="1:9">
       <x:c r="A466" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>25</x:v>
@@ -14958,7 +14955,7 @@
     </x:row>
     <x:row r="467" spans="1:9">
       <x:c r="A467" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>25</x:v>
@@ -14987,7 +14984,7 @@
     </x:row>
     <x:row r="468" spans="1:9">
       <x:c r="A468" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>25</x:v>
@@ -15016,7 +15013,7 @@
     </x:row>
     <x:row r="469" spans="1:9">
       <x:c r="A469" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>31</x:v>
@@ -15045,7 +15042,7 @@
     </x:row>
     <x:row r="470" spans="1:9">
       <x:c r="A470" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>31</x:v>
@@ -15074,7 +15071,7 @@
     </x:row>
     <x:row r="471" spans="1:9">
       <x:c r="A471" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>10</x:v>
@@ -15103,7 +15100,7 @@
     </x:row>
     <x:row r="472" spans="1:9">
       <x:c r="A472" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>10</x:v>
@@ -15132,7 +15129,7 @@
     </x:row>
     <x:row r="473" spans="1:9">
       <x:c r="A473" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>25</x:v>
@@ -15161,7 +15158,7 @@
     </x:row>
     <x:row r="474" spans="1:9">
       <x:c r="A474" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>25</x:v>
@@ -15190,7 +15187,7 @@
     </x:row>
     <x:row r="475" spans="1:9">
       <x:c r="A475" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>25</x:v>
@@ -15219,7 +15216,7 @@
     </x:row>
     <x:row r="476" spans="1:9">
       <x:c r="A476" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>10</x:v>
@@ -15248,7 +15245,7 @@
     </x:row>
     <x:row r="477" spans="1:9">
       <x:c r="A477" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>10</x:v>
@@ -15277,7 +15274,7 @@
     </x:row>
     <x:row r="478" spans="1:9">
       <x:c r="A478" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>10</x:v>
@@ -15306,7 +15303,7 @@
     </x:row>
     <x:row r="479" spans="1:9">
       <x:c r="A479" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>22</x:v>
@@ -15335,7 +15332,7 @@
     </x:row>
     <x:row r="480" spans="1:9">
       <x:c r="A480" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>22</x:v>
@@ -15364,7 +15361,7 @@
     </x:row>
     <x:row r="481" spans="1:9">
       <x:c r="A481" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>25</x:v>
@@ -15393,7 +15390,7 @@
     </x:row>
     <x:row r="482" spans="1:9">
       <x:c r="A482" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>25</x:v>
@@ -15422,7 +15419,7 @@
     </x:row>
     <x:row r="483" spans="1:9">
       <x:c r="A483" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>25</x:v>
@@ -15451,7 +15448,7 @@
     </x:row>
     <x:row r="484" spans="1:9">
       <x:c r="A484" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>31</x:v>
@@ -15480,7 +15477,7 @@
     </x:row>
     <x:row r="485" spans="1:9">
       <x:c r="A485" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>31</x:v>
@@ -15509,7 +15506,7 @@
     </x:row>
     <x:row r="486" spans="1:9">
       <x:c r="A486" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>10</x:v>
@@ -15538,7 +15535,7 @@
     </x:row>
     <x:row r="487" spans="1:9">
       <x:c r="A487" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>10</x:v>
@@ -15567,7 +15564,7 @@
     </x:row>
     <x:row r="488" spans="1:9">
       <x:c r="A488" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>10</x:v>
@@ -15596,7 +15593,7 @@
     </x:row>
     <x:row r="489" spans="1:9">
       <x:c r="A489" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>49</x:v>
@@ -15625,7 +15622,7 @@
     </x:row>
     <x:row r="490" spans="1:9">
       <x:c r="A490" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>49</x:v>
@@ -15654,7 +15651,7 @@
     </x:row>
     <x:row r="491" spans="1:9">
       <x:c r="A491" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>49</x:v>
@@ -15683,7 +15680,7 @@
     </x:row>
     <x:row r="492" spans="1:9">
       <x:c r="A492" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>22</x:v>
@@ -15712,7 +15709,7 @@
     </x:row>
     <x:row r="493" spans="1:9">
       <x:c r="A493" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>22</x:v>
@@ -15741,7 +15738,7 @@
     </x:row>
     <x:row r="494" spans="1:9">
       <x:c r="A494" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>22</x:v>
@@ -15770,7 +15767,7 @@
     </x:row>
     <x:row r="495" spans="1:9">
       <x:c r="A495" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>25</x:v>
@@ -15799,7 +15796,7 @@
     </x:row>
     <x:row r="496" spans="1:9">
       <x:c r="A496" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>25</x:v>
@@ -15828,7 +15825,7 @@
     </x:row>
     <x:row r="497" spans="1:9">
       <x:c r="A497" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>25</x:v>
@@ -15857,7 +15854,7 @@
     </x:row>
     <x:row r="498" spans="1:9">
       <x:c r="A498" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>31</x:v>
@@ -15886,7 +15883,7 @@
     </x:row>
     <x:row r="499" spans="1:9">
       <x:c r="A499" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>31</x:v>
@@ -15915,7 +15912,7 @@
     </x:row>
     <x:row r="500" spans="1:9">
       <x:c r="A500" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>31</x:v>
@@ -15944,7 +15941,7 @@
     </x:row>
     <x:row r="501" spans="1:9">
       <x:c r="A501" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>33</x:v>
@@ -15973,7 +15970,7 @@
     </x:row>
     <x:row r="502" spans="1:9">
       <x:c r="A502" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>33</x:v>
@@ -16002,7 +15999,7 @@
     </x:row>
     <x:row r="503" spans="1:9">
       <x:c r="A503" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>33</x:v>
@@ -16031,7 +16028,7 @@
     </x:row>
     <x:row r="504" spans="1:9">
       <x:c r="A504" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>10</x:v>
@@ -16060,7 +16057,7 @@
     </x:row>
     <x:row r="505" spans="1:9">
       <x:c r="A505" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>10</x:v>
@@ -16089,7 +16086,7 @@
     </x:row>
     <x:row r="506" spans="1:9">
       <x:c r="A506" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>25</x:v>
@@ -16118,7 +16115,7 @@
     </x:row>
     <x:row r="507" spans="1:9">
       <x:c r="A507" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>25</x:v>
@@ -16147,7 +16144,7 @@
     </x:row>
     <x:row r="508" spans="1:9">
       <x:c r="A508" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>25</x:v>
@@ -16176,7 +16173,7 @@
     </x:row>
     <x:row r="509" spans="1:9">
       <x:c r="A509" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>10</x:v>
@@ -16205,7 +16202,7 @@
     </x:row>
     <x:row r="510" spans="1:9">
       <x:c r="A510" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>10</x:v>
@@ -16234,7 +16231,7 @@
     </x:row>
     <x:row r="511" spans="1:9">
       <x:c r="A511" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>10</x:v>
@@ -16263,7 +16260,7 @@
     </x:row>
     <x:row r="512" spans="1:9">
       <x:c r="A512" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>22</x:v>
@@ -16292,7 +16289,7 @@
     </x:row>
     <x:row r="513" spans="1:9">
       <x:c r="A513" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>22</x:v>
@@ -16321,7 +16318,7 @@
     </x:row>
     <x:row r="514" spans="1:9">
       <x:c r="A514" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>22</x:v>
@@ -16350,7 +16347,7 @@
     </x:row>
     <x:row r="515" spans="1:9">
       <x:c r="A515" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>25</x:v>
@@ -16379,7 +16376,7 @@
     </x:row>
     <x:row r="516" spans="1:9">
       <x:c r="A516" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>25</x:v>
@@ -16408,7 +16405,7 @@
     </x:row>
     <x:row r="517" spans="1:9">
       <x:c r="A517" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>25</x:v>
@@ -16437,7 +16434,7 @@
     </x:row>
     <x:row r="518" spans="1:9">
       <x:c r="A518" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>31</x:v>
@@ -16466,7 +16463,7 @@
     </x:row>
     <x:row r="519" spans="1:9">
       <x:c r="A519" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>31</x:v>
@@ -16495,7 +16492,7 @@
     </x:row>
     <x:row r="520" spans="1:9">
       <x:c r="A520" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>33</x:v>
@@ -16524,7 +16521,7 @@
     </x:row>
     <x:row r="521" spans="1:9">
       <x:c r="A521" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>33</x:v>
@@ -16553,7 +16550,7 @@
     </x:row>
     <x:row r="522" spans="1:9">
       <x:c r="A522" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>33</x:v>
@@ -16582,7 +16579,7 @@
     </x:row>
     <x:row r="523" spans="1:9">
       <x:c r="A523" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>10</x:v>
@@ -16611,7 +16608,7 @@
     </x:row>
     <x:row r="524" spans="1:9">
       <x:c r="A524" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>10</x:v>
@@ -16640,7 +16637,7 @@
     </x:row>
     <x:row r="525" spans="1:9">
       <x:c r="A525" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
         <x:v>10</x:v>
@@ -16669,7 +16666,7 @@
     </x:row>
     <x:row r="526" spans="1:9">
       <x:c r="A526" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
         <x:v>25</x:v>
@@ -16698,7 +16695,7 @@
     </x:row>
     <x:row r="527" spans="1:9">
       <x:c r="A527" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>25</x:v>
@@ -16727,7 +16724,7 @@
     </x:row>
     <x:row r="528" spans="1:9">
       <x:c r="A528" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>25</x:v>
@@ -16756,7 +16753,7 @@
     </x:row>
     <x:row r="529" spans="1:9">
       <x:c r="A529" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>31</x:v>
@@ -16785,7 +16782,7 @@
     </x:row>
     <x:row r="530" spans="1:9">
       <x:c r="A530" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>31</x:v>
@@ -16814,7 +16811,7 @@
     </x:row>
     <x:row r="531" spans="1:9">
       <x:c r="A531" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>10</x:v>
@@ -16843,7 +16840,7 @@
     </x:row>
     <x:row r="532" spans="1:9">
       <x:c r="A532" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>10</x:v>
@@ -16872,7 +16869,7 @@
     </x:row>
     <x:row r="533" spans="1:9">
       <x:c r="A533" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>10</x:v>
@@ -16901,7 +16898,7 @@
     </x:row>
     <x:row r="534" spans="1:9">
       <x:c r="A534" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>22</x:v>
@@ -16930,7 +16927,7 @@
     </x:row>
     <x:row r="535" spans="1:9">
       <x:c r="A535" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>22</x:v>
@@ -16959,7 +16956,7 @@
     </x:row>
     <x:row r="536" spans="1:9">
       <x:c r="A536" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>25</x:v>
@@ -16988,7 +16985,7 @@
     </x:row>
     <x:row r="537" spans="1:9">
       <x:c r="A537" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>25</x:v>
@@ -17017,7 +17014,7 @@
     </x:row>
     <x:row r="538" spans="1:9">
       <x:c r="A538" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>25</x:v>
@@ -17046,7 +17043,7 @@
     </x:row>
     <x:row r="539" spans="1:9">
       <x:c r="A539" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>33</x:v>
@@ -17075,7 +17072,7 @@
     </x:row>
     <x:row r="540" spans="1:9">
       <x:c r="A540" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>33</x:v>
@@ -17104,7 +17101,7 @@
     </x:row>
     <x:row r="541" spans="1:9">
       <x:c r="A541" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>33</x:v>
@@ -17133,7 +17130,7 @@
     </x:row>
     <x:row r="542" spans="1:9">
       <x:c r="A542" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>10</x:v>
@@ -17162,7 +17159,7 @@
     </x:row>
     <x:row r="543" spans="1:9">
       <x:c r="A543" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>10</x:v>
@@ -17191,7 +17188,7 @@
     </x:row>
     <x:row r="544" spans="1:9">
       <x:c r="A544" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>10</x:v>
@@ -17220,7 +17217,7 @@
     </x:row>
     <x:row r="545" spans="1:9">
       <x:c r="A545" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>22</x:v>
@@ -17249,7 +17246,7 @@
     </x:row>
     <x:row r="546" spans="1:9">
       <x:c r="A546" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>22</x:v>
@@ -17278,7 +17275,7 @@
     </x:row>
     <x:row r="547" spans="1:9">
       <x:c r="A547" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>22</x:v>
@@ -17307,7 +17304,7 @@
     </x:row>
     <x:row r="548" spans="1:9">
       <x:c r="A548" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>25</x:v>
@@ -17336,7 +17333,7 @@
     </x:row>
     <x:row r="549" spans="1:9">
       <x:c r="A549" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>25</x:v>
@@ -17365,7 +17362,7 @@
     </x:row>
     <x:row r="550" spans="1:9">
       <x:c r="A550" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>25</x:v>
@@ -17394,7 +17391,7 @@
     </x:row>
     <x:row r="551" spans="1:9">
       <x:c r="A551" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>30</x:v>
@@ -17423,7 +17420,7 @@
     </x:row>
     <x:row r="552" spans="1:9">
       <x:c r="A552" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>30</x:v>
@@ -17452,7 +17449,7 @@
     </x:row>
     <x:row r="553" spans="1:9">
       <x:c r="A553" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>30</x:v>
@@ -17481,7 +17478,7 @@
     </x:row>
     <x:row r="554" spans="1:9">
       <x:c r="A554" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>31</x:v>
@@ -17510,7 +17507,7 @@
     </x:row>
     <x:row r="555" spans="1:9">
       <x:c r="A555" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>31</x:v>
@@ -17539,7 +17536,7 @@
     </x:row>
     <x:row r="556" spans="1:9">
       <x:c r="A556" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>31</x:v>
@@ -17568,7 +17565,7 @@
     </x:row>
     <x:row r="557" spans="1:9">
       <x:c r="A557" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>33</x:v>
@@ -17597,7 +17594,7 @@
     </x:row>
     <x:row r="558" spans="1:9">
       <x:c r="A558" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>33</x:v>
@@ -17626,7 +17623,7 @@
     </x:row>
     <x:row r="559" spans="1:9">
       <x:c r="A559" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>25</x:v>
@@ -17655,7 +17652,7 @@
     </x:row>
     <x:row r="560" spans="1:9">
       <x:c r="A560" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>25</x:v>
@@ -17684,7 +17681,7 @@
     </x:row>
     <x:row r="561" spans="1:9">
       <x:c r="A561" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>10</x:v>
@@ -17713,7 +17710,7 @@
     </x:row>
     <x:row r="562" spans="1:9">
       <x:c r="A562" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>10</x:v>
@@ -17742,7 +17739,7 @@
     </x:row>
     <x:row r="563" spans="1:9">
       <x:c r="A563" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>10</x:v>
@@ -17771,7 +17768,7 @@
     </x:row>
     <x:row r="564" spans="1:9">
       <x:c r="A564" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>22</x:v>
@@ -17800,7 +17797,7 @@
     </x:row>
     <x:row r="565" spans="1:9">
       <x:c r="A565" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>22</x:v>
@@ -17829,7 +17826,7 @@
     </x:row>
     <x:row r="566" spans="1:9">
       <x:c r="A566" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>22</x:v>
@@ -17858,7 +17855,7 @@
     </x:row>
     <x:row r="567" spans="1:9">
       <x:c r="A567" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>25</x:v>
@@ -17887,7 +17884,7 @@
     </x:row>
     <x:row r="568" spans="1:9">
       <x:c r="A568" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>25</x:v>
@@ -17916,7 +17913,7 @@
     </x:row>
     <x:row r="569" spans="1:9">
       <x:c r="A569" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>25</x:v>
@@ -17945,7 +17942,7 @@
     </x:row>
     <x:row r="570" spans="1:9">
       <x:c r="A570" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>31</x:v>
@@ -17974,7 +17971,7 @@
     </x:row>
     <x:row r="571" spans="1:9">
       <x:c r="A571" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>31</x:v>
@@ -18003,7 +18000,7 @@
     </x:row>
     <x:row r="572" spans="1:9">
       <x:c r="A572" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>31</x:v>
@@ -18032,7 +18029,7 @@
     </x:row>
     <x:row r="573" spans="1:9">
       <x:c r="A573" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>33</x:v>
@@ -18061,7 +18058,7 @@
     </x:row>
     <x:row r="574" spans="1:9">
       <x:c r="A574" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>33</x:v>
@@ -18090,7 +18087,7 @@
     </x:row>
     <x:row r="575" spans="1:9">
       <x:c r="A575" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>10</x:v>
@@ -18119,7 +18116,7 @@
     </x:row>
     <x:row r="576" spans="1:9">
       <x:c r="A576" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>10</x:v>
@@ -18148,7 +18145,7 @@
     </x:row>
     <x:row r="577" spans="1:9">
       <x:c r="A577" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>10</x:v>
@@ -18177,7 +18174,7 @@
     </x:row>
     <x:row r="578" spans="1:9">
       <x:c r="A578" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>22</x:v>
@@ -18206,7 +18203,7 @@
     </x:row>
     <x:row r="579" spans="1:9">
       <x:c r="A579" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>22</x:v>
@@ -18235,7 +18232,7 @@
     </x:row>
     <x:row r="580" spans="1:9">
       <x:c r="A580" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>25</x:v>
@@ -18264,7 +18261,7 @@
     </x:row>
     <x:row r="581" spans="1:9">
       <x:c r="A581" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>25</x:v>
@@ -18293,7 +18290,7 @@
     </x:row>
     <x:row r="582" spans="1:9">
       <x:c r="A582" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>25</x:v>
@@ -18322,7 +18319,7 @@
     </x:row>
     <x:row r="583" spans="1:9">
       <x:c r="A583" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>31</x:v>
@@ -18351,7 +18348,7 @@
     </x:row>
     <x:row r="584" spans="1:9">
       <x:c r="A584" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>31</x:v>
@@ -18380,7 +18377,7 @@
     </x:row>
     <x:row r="585" spans="1:9">
       <x:c r="A585" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>31</x:v>
@@ -18409,7 +18406,7 @@
     </x:row>
     <x:row r="586" spans="1:9">
       <x:c r="A586" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>33</x:v>
@@ -18438,7 +18435,7 @@
     </x:row>
     <x:row r="587" spans="1:9">
       <x:c r="A587" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>33</x:v>
@@ -18467,7 +18464,7 @@
     </x:row>
     <x:row r="588" spans="1:9">
       <x:c r="A588" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>10</x:v>
@@ -18496,7 +18493,7 @@
     </x:row>
     <x:row r="589" spans="1:9">
       <x:c r="A589" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>10</x:v>
@@ -18525,7 +18522,7 @@
     </x:row>
     <x:row r="590" spans="1:9">
       <x:c r="A590" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>10</x:v>
@@ -18554,7 +18551,7 @@
     </x:row>
     <x:row r="591" spans="1:9">
       <x:c r="A591" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>22</x:v>
@@ -18583,7 +18580,7 @@
     </x:row>
     <x:row r="592" spans="1:9">
       <x:c r="A592" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>22</x:v>
@@ -18612,7 +18609,7 @@
     </x:row>
     <x:row r="593" spans="1:9">
       <x:c r="A593" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>25</x:v>
@@ -18641,7 +18638,7 @@
     </x:row>
     <x:row r="594" spans="1:9">
       <x:c r="A594" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>25</x:v>
@@ -18670,7 +18667,7 @@
     </x:row>
     <x:row r="595" spans="1:9">
       <x:c r="A595" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>25</x:v>
@@ -18699,7 +18696,7 @@
     </x:row>
     <x:row r="596" spans="1:9">
       <x:c r="A596" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>10</x:v>
@@ -18728,7 +18725,7 @@
     </x:row>
     <x:row r="597" spans="1:9">
       <x:c r="A597" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>10</x:v>
@@ -18757,7 +18754,7 @@
     </x:row>
     <x:row r="598" spans="1:9">
       <x:c r="A598" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>10</x:v>
@@ -18786,7 +18783,7 @@
     </x:row>
     <x:row r="599" spans="1:9">
       <x:c r="A599" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>22</x:v>
@@ -18815,7 +18812,7 @@
     </x:row>
     <x:row r="600" spans="1:9">
       <x:c r="A600" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>22</x:v>
@@ -18844,7 +18841,7 @@
     </x:row>
     <x:row r="601" spans="1:9">
       <x:c r="A601" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>22</x:v>
@@ -18873,7 +18870,7 @@
     </x:row>
     <x:row r="602" spans="1:9">
       <x:c r="A602" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>25</x:v>
@@ -18902,7 +18899,7 @@
     </x:row>
     <x:row r="603" spans="1:9">
       <x:c r="A603" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>25</x:v>
@@ -18931,7 +18928,7 @@
     </x:row>
     <x:row r="604" spans="1:9">
       <x:c r="A604" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>25</x:v>
@@ -18960,7 +18957,7 @@
     </x:row>
     <x:row r="605" spans="1:9">
       <x:c r="A605" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>30</x:v>
@@ -18989,7 +18986,7 @@
     </x:row>
     <x:row r="606" spans="1:9">
       <x:c r="A606" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>30</x:v>
@@ -19018,7 +19015,7 @@
     </x:row>
     <x:row r="607" spans="1:9">
       <x:c r="A607" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>30</x:v>
@@ -19047,7 +19044,7 @@
     </x:row>
     <x:row r="608" spans="1:9">
       <x:c r="A608" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>31</x:v>
@@ -19076,7 +19073,7 @@
     </x:row>
     <x:row r="609" spans="1:9">
       <x:c r="A609" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>31</x:v>
@@ -19105,7 +19102,7 @@
     </x:row>
     <x:row r="610" spans="1:9">
       <x:c r="A610" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>31</x:v>
@@ -19134,7 +19131,7 @@
     </x:row>
     <x:row r="611" spans="1:9">
       <x:c r="A611" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>33</x:v>
@@ -19163,7 +19160,7 @@
     </x:row>
     <x:row r="612" spans="1:9">
       <x:c r="A612" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>33</x:v>
@@ -19192,7 +19189,7 @@
     </x:row>
     <x:row r="613" spans="1:9">
       <x:c r="A613" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>33</x:v>
@@ -19221,7 +19218,7 @@
     </x:row>
     <x:row r="614" spans="1:9">
       <x:c r="A614" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>10</x:v>
@@ -19250,7 +19247,7 @@
     </x:row>
     <x:row r="615" spans="1:9">
       <x:c r="A615" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>10</x:v>
@@ -19279,7 +19276,7 @@
     </x:row>
     <x:row r="616" spans="1:9">
       <x:c r="A616" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>10</x:v>
@@ -19291,13 +19288,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E616" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="F616" s="1" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="F616" s="1" t="s">
+      <x:c r="G616" s="1" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="G616" s="1" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="H616" s="1" t="s">
         <x:v>108</x:v>
@@ -19308,7 +19305,7 @@
     </x:row>
     <x:row r="617" spans="1:9">
       <x:c r="A617" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
         <x:v>22</x:v>
@@ -19337,7 +19334,7 @@
     </x:row>
     <x:row r="618" spans="1:9">
       <x:c r="A618" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>22</x:v>
@@ -19366,7 +19363,7 @@
     </x:row>
     <x:row r="619" spans="1:9">
       <x:c r="A619" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>22</x:v>
@@ -19395,7 +19392,7 @@
     </x:row>
     <x:row r="620" spans="1:9">
       <x:c r="A620" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>25</x:v>
@@ -19424,7 +19421,7 @@
     </x:row>
     <x:row r="621" spans="1:9">
       <x:c r="A621" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>25</x:v>
@@ -19453,7 +19450,7 @@
     </x:row>
     <x:row r="622" spans="1:9">
       <x:c r="A622" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>25</x:v>
@@ -19482,7 +19479,7 @@
     </x:row>
     <x:row r="623" spans="1:9">
       <x:c r="A623" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>31</x:v>
@@ -19511,7 +19508,7 @@
     </x:row>
     <x:row r="624" spans="1:9">
       <x:c r="A624" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>31</x:v>
@@ -19540,7 +19537,7 @@
     </x:row>
     <x:row r="625" spans="1:9">
       <x:c r="A625" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>31</x:v>
@@ -19569,7 +19566,7 @@
     </x:row>
     <x:row r="626" spans="1:9">
       <x:c r="A626" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>33</x:v>
@@ -19598,7 +19595,7 @@
     </x:row>
     <x:row r="627" spans="1:9">
       <x:c r="A627" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>33</x:v>
@@ -19627,7 +19624,7 @@
     </x:row>
     <x:row r="628" spans="1:9">
       <x:c r="A628" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>33</x:v>
@@ -19656,7 +19653,7 @@
     </x:row>
     <x:row r="629" spans="1:9">
       <x:c r="A629" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>10</x:v>
@@ -19685,7 +19682,7 @@
     </x:row>
     <x:row r="630" spans="1:9">
       <x:c r="A630" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>10</x:v>
@@ -19714,7 +19711,7 @@
     </x:row>
     <x:row r="631" spans="1:9">
       <x:c r="A631" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>10</x:v>
@@ -19743,7 +19740,7 @@
     </x:row>
     <x:row r="632" spans="1:9">
       <x:c r="A632" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>22</x:v>
@@ -19772,7 +19769,7 @@
     </x:row>
     <x:row r="633" spans="1:9">
       <x:c r="A633" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>22</x:v>
@@ -19801,7 +19798,7 @@
     </x:row>
     <x:row r="634" spans="1:9">
       <x:c r="A634" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>22</x:v>
@@ -19830,7 +19827,7 @@
     </x:row>
     <x:row r="635" spans="1:9">
       <x:c r="A635" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>25</x:v>
@@ -19859,7 +19856,7 @@
     </x:row>
     <x:row r="636" spans="1:9">
       <x:c r="A636" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>25</x:v>
@@ -19888,7 +19885,7 @@
     </x:row>
     <x:row r="637" spans="1:9">
       <x:c r="A637" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>25</x:v>
@@ -19917,7 +19914,7 @@
     </x:row>
     <x:row r="638" spans="1:9">
       <x:c r="A638" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>31</x:v>
@@ -19946,7 +19943,7 @@
     </x:row>
     <x:row r="639" spans="1:9">
       <x:c r="A639" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>31</x:v>
@@ -19975,7 +19972,7 @@
     </x:row>
     <x:row r="640" spans="1:9">
       <x:c r="A640" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>10</x:v>
@@ -20004,7 +20001,7 @@
     </x:row>
     <x:row r="641" spans="1:9">
       <x:c r="A641" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>10</x:v>
@@ -20019,7 +20016,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F641" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G641" s="1" t="s">
         <x:v>106</x:v>
@@ -20033,7 +20030,7 @@
     </x:row>
     <x:row r="642" spans="1:9">
       <x:c r="A642" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>10</x:v>
@@ -20048,7 +20045,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F642" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G642" s="1" t="s">
         <x:v>115</x:v>
@@ -20062,7 +20059,7 @@
     </x:row>
     <x:row r="643" spans="1:9">
       <x:c r="A643" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>22</x:v>
@@ -20091,7 +20088,7 @@
     </x:row>
     <x:row r="644" spans="1:9">
       <x:c r="A644" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>22</x:v>
@@ -20120,7 +20117,7 @@
     </x:row>
     <x:row r="645" spans="1:9">
       <x:c r="A645" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>22</x:v>
@@ -20149,7 +20146,7 @@
     </x:row>
     <x:row r="646" spans="1:9">
       <x:c r="A646" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>25</x:v>
@@ -20178,7 +20175,7 @@
     </x:row>
     <x:row r="647" spans="1:9">
       <x:c r="A647" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>25</x:v>
@@ -20207,7 +20204,7 @@
     </x:row>
     <x:row r="648" spans="1:9">
       <x:c r="A648" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>25</x:v>
@@ -20225,7 +20222,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="G648" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H648" s="1" t="s">
         <x:v>40</x:v>
@@ -20236,7 +20233,7 @@
     </x:row>
     <x:row r="649" spans="1:9">
       <x:c r="A649" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>30</x:v>
@@ -20265,7 +20262,7 @@
     </x:row>
     <x:row r="650" spans="1:9">
       <x:c r="A650" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>30</x:v>
@@ -20294,7 +20291,7 @@
     </x:row>
     <x:row r="651" spans="1:9">
       <x:c r="A651" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>30</x:v>
@@ -20323,7 +20320,7 @@
     </x:row>
     <x:row r="652" spans="1:9">
       <x:c r="A652" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>31</x:v>
@@ -20352,7 +20349,7 @@
     </x:row>
     <x:row r="653" spans="1:9">
       <x:c r="A653" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>31</x:v>
@@ -20381,7 +20378,7 @@
     </x:row>
     <x:row r="654" spans="1:9">
       <x:c r="A654" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>31</x:v>
@@ -20410,7 +20407,7 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>33</x:v>
@@ -20439,7 +20436,7 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>33</x:v>
@@ -20468,7 +20465,7 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>33</x:v>
@@ -20497,7 +20494,7 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>10</x:v>
@@ -20526,7 +20523,7 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>10</x:v>
@@ -20555,7 +20552,7 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>10</x:v>
@@ -20584,7 +20581,7 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>49</x:v>
@@ -20613,7 +20610,7 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>49</x:v>
@@ -20642,7 +20639,7 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>22</x:v>
@@ -20671,7 +20668,7 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>22</x:v>
@@ -20700,7 +20697,7 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>22</x:v>
@@ -20729,7 +20726,7 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>25</x:v>
@@ -20758,7 +20755,7 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>25</x:v>
@@ -20787,7 +20784,7 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>25</x:v>
@@ -20816,7 +20813,7 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>31</x:v>
@@ -20845,7 +20842,7 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>31</x:v>
@@ -20874,7 +20871,7 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>31</x:v>
@@ -20903,7 +20900,7 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>33</x:v>
@@ -20932,7 +20929,7 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>33</x:v>
@@ -20961,7 +20958,7 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>33</x:v>
@@ -20990,7 +20987,7 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>10</x:v>
@@ -21005,7 +21002,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F675" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G675" s="1" t="s">
         <x:v>127</x:v>
@@ -21019,7 +21016,7 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>10</x:v>
@@ -21034,13 +21031,13 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="F676" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="G676" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="H676" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I676" s="0" t="s">
         <x:v>12</x:v>
@@ -21048,7 +21045,7 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>10</x:v>
@@ -21060,13 +21057,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E677" s="1" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F677" s="1" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="F677" s="1" t="s">
+      <x:c r="G677" s="1" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="G677" s="1" t="s">
-        <x:v>242</x:v>
       </x:c>
       <x:c r="H677" s="1" t="s">
         <x:v>87</x:v>
@@ -21077,7 +21074,7 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>22</x:v>
@@ -21106,7 +21103,7 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>22</x:v>
@@ -21135,7 +21132,7 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>22</x:v>
@@ -21164,7 +21161,7 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>25</x:v>
@@ -21193,7 +21190,7 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>25</x:v>
@@ -21208,7 +21205,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F682" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G682" s="1" t="s">
         <x:v>118</x:v>
@@ -21222,7 +21219,7 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>25</x:v>
@@ -21234,7 +21231,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E683" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F683" s="1" t="s">
         <x:v>151</x:v>
@@ -21251,7 +21248,7 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>31</x:v>
@@ -21280,7 +21277,7 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>31</x:v>
@@ -21309,7 +21306,7 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>31</x:v>
@@ -21338,7 +21335,7 @@
     </x:row>
     <x:row r="687" spans="1:9">
       <x:c r="A687" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>33</x:v>
@@ -21367,7 +21364,7 @@
     </x:row>
     <x:row r="688" spans="1:9">
       <x:c r="A688" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>33</x:v>
@@ -21396,7 +21393,7 @@
     </x:row>
     <x:row r="689" spans="1:9">
       <x:c r="A689" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>33</x:v>
@@ -21425,7 +21422,7 @@
     </x:row>
     <x:row r="690" spans="1:9">
       <x:c r="A690" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>10</x:v>
@@ -21454,7 +21451,7 @@
     </x:row>
     <x:row r="691" spans="1:9">
       <x:c r="A691" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>10</x:v>
@@ -21483,7 +21480,7 @@
     </x:row>
     <x:row r="692" spans="1:9">
       <x:c r="A692" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>10</x:v>
@@ -21512,7 +21509,7 @@
     </x:row>
     <x:row r="693" spans="1:9">
       <x:c r="A693" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>22</x:v>
@@ -21541,7 +21538,7 @@
     </x:row>
     <x:row r="694" spans="1:9">
       <x:c r="A694" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>22</x:v>
@@ -21570,7 +21567,7 @@
     </x:row>
     <x:row r="695" spans="1:9">
       <x:c r="A695" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>25</x:v>
@@ -21599,7 +21596,7 @@
     </x:row>
     <x:row r="696" spans="1:9">
       <x:c r="A696" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>25</x:v>
@@ -21628,7 +21625,7 @@
     </x:row>
     <x:row r="697" spans="1:9">
       <x:c r="A697" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>25</x:v>
@@ -21657,7 +21654,7 @@
     </x:row>
     <x:row r="698" spans="1:9">
       <x:c r="A698" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>30</x:v>
@@ -21686,7 +21683,7 @@
     </x:row>
     <x:row r="699" spans="1:9">
       <x:c r="A699" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>30</x:v>
@@ -21715,7 +21712,7 @@
     </x:row>
     <x:row r="700" spans="1:9">
       <x:c r="A700" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>31</x:v>
@@ -21744,7 +21741,7 @@
     </x:row>
     <x:row r="701" spans="1:9">
       <x:c r="A701" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
         <x:v>31</x:v>
@@ -21773,7 +21770,7 @@
     </x:row>
     <x:row r="702" spans="1:9">
       <x:c r="A702" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>31</x:v>
@@ -21802,7 +21799,7 @@
     </x:row>
     <x:row r="703" spans="1:9">
       <x:c r="A703" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
         <x:v>33</x:v>
@@ -21831,7 +21828,7 @@
     </x:row>
     <x:row r="704" spans="1:9">
       <x:c r="A704" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
         <x:v>33</x:v>
@@ -21860,7 +21857,7 @@
     </x:row>
     <x:row r="705" spans="1:9">
       <x:c r="A705" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
         <x:v>10</x:v>
@@ -21889,7 +21886,7 @@
     </x:row>
     <x:row r="706" spans="1:9">
       <x:c r="A706" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
         <x:v>10</x:v>
@@ -21918,7 +21915,7 @@
     </x:row>
     <x:row r="707" spans="1:9">
       <x:c r="A707" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
         <x:v>10</x:v>
@@ -21947,7 +21944,7 @@
     </x:row>
     <x:row r="708" spans="1:9">
       <x:c r="A708" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
         <x:v>49</x:v>
@@ -21976,7 +21973,7 @@
     </x:row>
     <x:row r="709" spans="1:9">
       <x:c r="A709" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
         <x:v>49</x:v>
@@ -22005,7 +22002,7 @@
     </x:row>
     <x:row r="710" spans="1:9">
       <x:c r="A710" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
         <x:v>49</x:v>
@@ -22034,7 +22031,7 @@
     </x:row>
     <x:row r="711" spans="1:9">
       <x:c r="A711" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>22</x:v>
@@ -22063,7 +22060,7 @@
     </x:row>
     <x:row r="712" spans="1:9">
       <x:c r="A712" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>22</x:v>
@@ -22092,7 +22089,7 @@
     </x:row>
     <x:row r="713" spans="1:9">
       <x:c r="A713" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>22</x:v>
@@ -22121,7 +22118,7 @@
     </x:row>
     <x:row r="714" spans="1:9">
       <x:c r="A714" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>25</x:v>
@@ -22150,7 +22147,7 @@
     </x:row>
     <x:row r="715" spans="1:9">
       <x:c r="A715" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>25</x:v>
@@ -22179,7 +22176,7 @@
     </x:row>
     <x:row r="716" spans="1:9">
       <x:c r="A716" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>25</x:v>
@@ -22208,7 +22205,7 @@
     </x:row>
     <x:row r="717" spans="1:9">
       <x:c r="A717" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>31</x:v>
@@ -22237,7 +22234,7 @@
     </x:row>
     <x:row r="718" spans="1:9">
       <x:c r="A718" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>31</x:v>
@@ -22266,7 +22263,7 @@
     </x:row>
     <x:row r="719" spans="1:9">
       <x:c r="A719" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>31</x:v>
@@ -22295,7 +22292,7 @@
     </x:row>
     <x:row r="720" spans="1:9">
       <x:c r="A720" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>33</x:v>
@@ -22324,7 +22321,7 @@
     </x:row>
     <x:row r="721" spans="1:9">
       <x:c r="A721" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>33</x:v>
@@ -22353,7 +22350,7 @@
     </x:row>
     <x:row r="722" spans="1:9">
       <x:c r="A722" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>33</x:v>
@@ -22382,7 +22379,7 @@
     </x:row>
     <x:row r="723" spans="1:9">
       <x:c r="A723" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>10</x:v>
@@ -22411,7 +22408,7 @@
     </x:row>
     <x:row r="724" spans="1:9">
       <x:c r="A724" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>10</x:v>
@@ -22440,7 +22437,7 @@
     </x:row>
     <x:row r="725" spans="1:9">
       <x:c r="A725" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>10</x:v>
@@ -22469,7 +22466,7 @@
     </x:row>
     <x:row r="726" spans="1:9">
       <x:c r="A726" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>22</x:v>
@@ -22498,7 +22495,7 @@
     </x:row>
     <x:row r="727" spans="1:9">
       <x:c r="A727" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>22</x:v>
@@ -22527,7 +22524,7 @@
     </x:row>
     <x:row r="728" spans="1:9">
       <x:c r="A728" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>22</x:v>
@@ -22556,7 +22553,7 @@
     </x:row>
     <x:row r="729" spans="1:9">
       <x:c r="A729" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>25</x:v>
@@ -22585,7 +22582,7 @@
     </x:row>
     <x:row r="730" spans="1:9">
       <x:c r="A730" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>25</x:v>
@@ -22600,7 +22597,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F730" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G730" s="1" t="s">
         <x:v>40</x:v>
@@ -22614,7 +22611,7 @@
     </x:row>
     <x:row r="731" spans="1:9">
       <x:c r="A731" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>25</x:v>
@@ -22643,7 +22640,7 @@
     </x:row>
     <x:row r="732" spans="1:9">
       <x:c r="A732" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>30</x:v>
@@ -22672,7 +22669,7 @@
     </x:row>
     <x:row r="733" spans="1:9">
       <x:c r="A733" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>30</x:v>
@@ -22701,7 +22698,7 @@
     </x:row>
     <x:row r="734" spans="1:9">
       <x:c r="A734" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>30</x:v>
@@ -22730,7 +22727,7 @@
     </x:row>
     <x:row r="735" spans="1:9">
       <x:c r="A735" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>31</x:v>
@@ -22759,7 +22756,7 @@
     </x:row>
     <x:row r="736" spans="1:9">
       <x:c r="A736" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>31</x:v>
@@ -22788,7 +22785,7 @@
     </x:row>
     <x:row r="737" spans="1:9">
       <x:c r="A737" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>31</x:v>
@@ -22817,7 +22814,7 @@
     </x:row>
     <x:row r="738" spans="1:9">
       <x:c r="A738" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
         <x:v>33</x:v>
@@ -22846,7 +22843,7 @@
     </x:row>
     <x:row r="739" spans="1:9">
       <x:c r="A739" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
         <x:v>33</x:v>
@@ -22875,7 +22872,7 @@
     </x:row>
     <x:row r="740" spans="1:9">
       <x:c r="A740" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>10</x:v>
@@ -22904,7 +22901,7 @@
     </x:row>
     <x:row r="741" spans="1:9">
       <x:c r="A741" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>10</x:v>
@@ -22933,7 +22930,7 @@
     </x:row>
     <x:row r="742" spans="1:9">
       <x:c r="A742" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>22</x:v>
@@ -22962,7 +22959,7 @@
     </x:row>
     <x:row r="743" spans="1:9">
       <x:c r="A743" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>22</x:v>
@@ -22991,7 +22988,7 @@
     </x:row>
     <x:row r="744" spans="1:9">
       <x:c r="A744" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>25</x:v>
@@ -23020,7 +23017,7 @@
     </x:row>
     <x:row r="745" spans="1:9">
       <x:c r="A745" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>25</x:v>
@@ -23049,7 +23046,7 @@
     </x:row>
     <x:row r="746" spans="1:9">
       <x:c r="A746" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>25</x:v>
@@ -23078,7 +23075,7 @@
     </x:row>
     <x:row r="747" spans="1:9">
       <x:c r="A747" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>33</x:v>
@@ -23107,7 +23104,7 @@
     </x:row>
     <x:row r="748" spans="1:9">
       <x:c r="A748" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>33</x:v>
@@ -23136,7 +23133,7 @@
     </x:row>
     <x:row r="749" spans="1:9">
       <x:c r="A749" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>10</x:v>
@@ -23165,7 +23162,7 @@
     </x:row>
     <x:row r="750" spans="1:9">
       <x:c r="A750" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>10</x:v>
@@ -23177,13 +23174,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E750" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F750" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
       <x:c r="G750" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H750" s="1" t="s">
         <x:v>171</x:v>
@@ -23194,7 +23191,7 @@
     </x:row>
     <x:row r="751" spans="1:9">
       <x:c r="A751" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>10</x:v>
@@ -23209,13 +23206,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F751" s="1" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="G751" s="1" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="G751" s="1" t="s">
+      <x:c r="H751" s="1" t="s">
         <x:v>251</x:v>
-      </x:c>
-      <x:c r="H751" s="1" t="s">
-        <x:v>252</x:v>
       </x:c>
       <x:c r="I751" s="0" t="s">
         <x:v>12</x:v>
@@ -23223,7 +23220,7 @@
     </x:row>
     <x:row r="752" spans="1:9">
       <x:c r="A752" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>49</x:v>
@@ -23252,7 +23249,7 @@
     </x:row>
     <x:row r="753" spans="1:9">
       <x:c r="A753" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>49</x:v>
@@ -23281,7 +23278,7 @@
     </x:row>
     <x:row r="754" spans="1:9">
       <x:c r="A754" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>49</x:v>
@@ -23310,7 +23307,7 @@
     </x:row>
     <x:row r="755" spans="1:9">
       <x:c r="A755" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>22</x:v>
@@ -23339,7 +23336,7 @@
     </x:row>
     <x:row r="756" spans="1:9">
       <x:c r="A756" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>22</x:v>
@@ -23368,7 +23365,7 @@
     </x:row>
     <x:row r="757" spans="1:9">
       <x:c r="A757" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>22</x:v>
@@ -23397,7 +23394,7 @@
     </x:row>
     <x:row r="758" spans="1:9">
       <x:c r="A758" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>25</x:v>
@@ -23426,7 +23423,7 @@
     </x:row>
     <x:row r="759" spans="1:9">
       <x:c r="A759" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>25</x:v>
@@ -23441,7 +23438,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="F759" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G759" s="1" t="s">
         <x:v>86</x:v>
@@ -23455,7 +23452,7 @@
     </x:row>
     <x:row r="760" spans="1:9">
       <x:c r="A760" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>25</x:v>
@@ -23473,10 +23470,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="G760" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H760" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I760" s="0" t="s">
         <x:v>12</x:v>
@@ -23484,7 +23481,7 @@
     </x:row>
     <x:row r="761" spans="1:9">
       <x:c r="A761" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>30</x:v>
@@ -23513,7 +23510,7 @@
     </x:row>
     <x:row r="762" spans="1:9">
       <x:c r="A762" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>30</x:v>
@@ -23542,7 +23539,7 @@
     </x:row>
     <x:row r="763" spans="1:9">
       <x:c r="A763" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>31</x:v>
@@ -23571,7 +23568,7 @@
     </x:row>
     <x:row r="764" spans="1:9">
       <x:c r="A764" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>31</x:v>
@@ -23600,7 +23597,7 @@
     </x:row>
     <x:row r="765" spans="1:9">
       <x:c r="A765" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>31</x:v>
@@ -23629,7 +23626,7 @@
     </x:row>
     <x:row r="766" spans="1:9">
       <x:c r="A766" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>33</x:v>
@@ -23647,7 +23644,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G766" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H766" s="1" t="s">
         <x:v>53</x:v>
@@ -23658,7 +23655,7 @@
     </x:row>
     <x:row r="767" spans="1:9">
       <x:c r="A767" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>33</x:v>
@@ -23670,7 +23667,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E767" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F767" s="1" t="s">
         <x:v>52</x:v>
@@ -23687,7 +23684,7 @@
     </x:row>
     <x:row r="768" spans="1:9">
       <x:c r="A768" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>33</x:v>
@@ -23699,7 +23696,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E768" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F768" s="1" t="s">
         <x:v>100</x:v>
@@ -23708,7 +23705,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="H768" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="I768" s="0" t="s">
         <x:v>12</x:v>
@@ -23716,7 +23713,7 @@
     </x:row>
     <x:row r="769" spans="1:9">
       <x:c r="A769" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B769" s="0" t="s">
         <x:v>10</x:v>
@@ -23745,7 +23742,7 @@
     </x:row>
     <x:row r="770" spans="1:9">
       <x:c r="A770" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B770" s="0" t="s">
         <x:v>10</x:v>
@@ -23774,7 +23771,7 @@
     </x:row>
     <x:row r="771" spans="1:9">
       <x:c r="A771" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B771" s="0" t="s">
         <x:v>10</x:v>
@@ -23803,7 +23800,7 @@
     </x:row>
     <x:row r="772" spans="1:9">
       <x:c r="A772" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B772" s="0" t="s">
         <x:v>22</x:v>
@@ -23832,7 +23829,7 @@
     </x:row>
     <x:row r="773" spans="1:9">
       <x:c r="A773" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B773" s="0" t="s">
         <x:v>22</x:v>
@@ -23861,7 +23858,7 @@
     </x:row>
     <x:row r="774" spans="1:9">
       <x:c r="A774" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B774" s="0" t="s">
         <x:v>22</x:v>
@@ -23890,7 +23887,7 @@
     </x:row>
     <x:row r="775" spans="1:9">
       <x:c r="A775" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B775" s="0" t="s">
         <x:v>25</x:v>
@@ -23919,7 +23916,7 @@
     </x:row>
     <x:row r="776" spans="1:9">
       <x:c r="A776" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B776" s="0" t="s">
         <x:v>25</x:v>
@@ -23948,7 +23945,7 @@
     </x:row>
     <x:row r="777" spans="1:9">
       <x:c r="A777" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B777" s="0" t="s">
         <x:v>25</x:v>
@@ -23966,7 +23963,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="G777" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H777" s="1" t="s">
         <x:v>76</x:v>
@@ -23977,7 +23974,7 @@
     </x:row>
     <x:row r="778" spans="1:9">
       <x:c r="A778" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B778" s="0" t="s">
         <x:v>30</x:v>
@@ -24006,7 +24003,7 @@
     </x:row>
     <x:row r="779" spans="1:9">
       <x:c r="A779" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B779" s="0" t="s">
         <x:v>30</x:v>
@@ -24035,7 +24032,7 @@
     </x:row>
     <x:row r="780" spans="1:9">
       <x:c r="A780" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B780" s="0" t="s">
         <x:v>30</x:v>
@@ -24064,7 +24061,7 @@
     </x:row>
     <x:row r="781" spans="1:9">
       <x:c r="A781" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B781" s="0" t="s">
         <x:v>31</x:v>
@@ -24093,7 +24090,7 @@
     </x:row>
     <x:row r="782" spans="1:9">
       <x:c r="A782" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B782" s="0" t="s">
         <x:v>31</x:v>
@@ -24122,7 +24119,7 @@
     </x:row>
     <x:row r="783" spans="1:9">
       <x:c r="A783" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B783" s="0" t="s">
         <x:v>31</x:v>
@@ -24151,7 +24148,7 @@
     </x:row>
     <x:row r="784" spans="1:9">
       <x:c r="A784" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B784" s="0" t="s">
         <x:v>33</x:v>
@@ -24180,7 +24177,7 @@
     </x:row>
     <x:row r="785" spans="1:9">
       <x:c r="A785" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B785" s="0" t="s">
         <x:v>33</x:v>
@@ -24209,7 +24206,7 @@
     </x:row>
     <x:row r="786" spans="1:9">
       <x:c r="A786" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B786" s="0" t="s">
         <x:v>33</x:v>
@@ -24238,7 +24235,7 @@
     </x:row>
     <x:row r="787" spans="1:9">
       <x:c r="A787" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B787" s="0" t="s">
         <x:v>10</x:v>
@@ -24267,7 +24264,7 @@
     </x:row>
     <x:row r="788" spans="1:9">
       <x:c r="A788" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B788" s="0" t="s">
         <x:v>10</x:v>
@@ -24296,7 +24293,7 @@
     </x:row>
     <x:row r="789" spans="1:9">
       <x:c r="A789" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B789" s="0" t="s">
         <x:v>10</x:v>
@@ -24325,7 +24322,7 @@
     </x:row>
     <x:row r="790" spans="1:9">
       <x:c r="A790" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B790" s="0" t="s">
         <x:v>49</x:v>
@@ -24354,7 +24351,7 @@
     </x:row>
     <x:row r="791" spans="1:9">
       <x:c r="A791" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B791" s="0" t="s">
         <x:v>49</x:v>
@@ -24383,7 +24380,7 @@
     </x:row>
     <x:row r="792" spans="1:9">
       <x:c r="A792" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B792" s="0" t="s">
         <x:v>22</x:v>
@@ -24412,7 +24409,7 @@
     </x:row>
     <x:row r="793" spans="1:9">
       <x:c r="A793" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B793" s="0" t="s">
         <x:v>22</x:v>
@@ -24441,7 +24438,7 @@
     </x:row>
     <x:row r="794" spans="1:9">
       <x:c r="A794" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B794" s="0" t="s">
         <x:v>22</x:v>
@@ -24470,7 +24467,7 @@
     </x:row>
     <x:row r="795" spans="1:9">
       <x:c r="A795" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B795" s="0" t="s">
         <x:v>25</x:v>
@@ -24499,7 +24496,7 @@
     </x:row>
     <x:row r="796" spans="1:9">
       <x:c r="A796" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B796" s="0" t="s">
         <x:v>25</x:v>
@@ -24528,7 +24525,7 @@
     </x:row>
     <x:row r="797" spans="1:9">
       <x:c r="A797" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B797" s="0" t="s">
         <x:v>25</x:v>
@@ -24557,7 +24554,7 @@
     </x:row>
     <x:row r="798" spans="1:9">
       <x:c r="A798" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B798" s="0" t="s">
         <x:v>30</x:v>
@@ -24586,7 +24583,7 @@
     </x:row>
     <x:row r="799" spans="1:9">
       <x:c r="A799" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B799" s="0" t="s">
         <x:v>30</x:v>
@@ -24615,7 +24612,7 @@
     </x:row>
     <x:row r="800" spans="1:9">
       <x:c r="A800" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B800" s="0" t="s">
         <x:v>31</x:v>
@@ -24644,7 +24641,7 @@
     </x:row>
     <x:row r="801" spans="1:9">
       <x:c r="A801" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B801" s="0" t="s">
         <x:v>31</x:v>
@@ -24673,7 +24670,7 @@
     </x:row>
     <x:row r="802" spans="1:9">
       <x:c r="A802" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B802" s="0" t="s">
         <x:v>31</x:v>
@@ -24702,7 +24699,7 @@
     </x:row>
     <x:row r="803" spans="1:9">
       <x:c r="A803" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B803" s="0" t="s">
         <x:v>33</x:v>
@@ -24731,7 +24728,7 @@
     </x:row>
     <x:row r="804" spans="1:9">
       <x:c r="A804" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B804" s="0" t="s">
         <x:v>33</x:v>
@@ -24760,7 +24757,7 @@
     </x:row>
     <x:row r="805" spans="1:9">
       <x:c r="A805" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B805" s="0" t="s">
         <x:v>10</x:v>
@@ -24789,7 +24786,7 @@
     </x:row>
     <x:row r="806" spans="1:9">
       <x:c r="A806" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B806" s="0" t="s">
         <x:v>10</x:v>
@@ -24818,7 +24815,7 @@
     </x:row>
     <x:row r="807" spans="1:9">
       <x:c r="A807" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B807" s="0" t="s">
         <x:v>10</x:v>
@@ -24847,7 +24844,7 @@
     </x:row>
     <x:row r="808" spans="1:9">
       <x:c r="A808" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B808" s="0" t="s">
         <x:v>22</x:v>
@@ -24876,7 +24873,7 @@
     </x:row>
     <x:row r="809" spans="1:9">
       <x:c r="A809" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B809" s="0" t="s">
         <x:v>22</x:v>
@@ -24905,7 +24902,7 @@
     </x:row>
     <x:row r="810" spans="1:9">
       <x:c r="A810" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B810" s="0" t="s">
         <x:v>22</x:v>
@@ -24934,7 +24931,7 @@
     </x:row>
     <x:row r="811" spans="1:9">
       <x:c r="A811" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B811" s="0" t="s">
         <x:v>25</x:v>
@@ -24963,7 +24960,7 @@
     </x:row>
     <x:row r="812" spans="1:9">
       <x:c r="A812" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B812" s="0" t="s">
         <x:v>25</x:v>
@@ -24992,7 +24989,7 @@
     </x:row>
     <x:row r="813" spans="1:9">
       <x:c r="A813" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B813" s="0" t="s">
         <x:v>25</x:v>
@@ -25021,7 +25018,7 @@
     </x:row>
     <x:row r="814" spans="1:9">
       <x:c r="A814" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B814" s="0" t="s">
         <x:v>31</x:v>
@@ -25050,7 +25047,7 @@
     </x:row>
     <x:row r="815" spans="1:9">
       <x:c r="A815" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B815" s="0" t="s">
         <x:v>31</x:v>
@@ -25079,7 +25076,7 @@
     </x:row>
     <x:row r="816" spans="1:9">
       <x:c r="A816" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B816" s="0" t="s">
         <x:v>31</x:v>
@@ -25108,7 +25105,7 @@
     </x:row>
     <x:row r="817" spans="1:9">
       <x:c r="A817" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B817" s="0" t="s">
         <x:v>33</x:v>
@@ -25137,7 +25134,7 @@
     </x:row>
     <x:row r="818" spans="1:9">
       <x:c r="A818" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B818" s="0" t="s">
         <x:v>33</x:v>
@@ -25166,7 +25163,7 @@
     </x:row>
     <x:row r="819" spans="1:9">
       <x:c r="A819" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B819" s="0" t="s">
         <x:v>33</x:v>
@@ -25195,7 +25192,7 @@
     </x:row>
     <x:row r="820" spans="1:9">
       <x:c r="A820" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B820" s="0" t="s">
         <x:v>10</x:v>
@@ -25224,7 +25221,7 @@
     </x:row>
     <x:row r="821" spans="1:9">
       <x:c r="A821" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B821" s="0" t="s">
         <x:v>10</x:v>
@@ -25253,7 +25250,7 @@
     </x:row>
     <x:row r="822" spans="1:9">
       <x:c r="A822" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B822" s="0" t="s">
         <x:v>10</x:v>
@@ -25282,7 +25279,7 @@
     </x:row>
     <x:row r="823" spans="1:9">
       <x:c r="A823" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B823" s="0" t="s">
         <x:v>22</x:v>
@@ -25311,7 +25308,7 @@
     </x:row>
     <x:row r="824" spans="1:9">
       <x:c r="A824" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B824" s="0" t="s">
         <x:v>22</x:v>
@@ -25340,7 +25337,7 @@
     </x:row>
     <x:row r="825" spans="1:9">
       <x:c r="A825" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B825" s="0" t="s">
         <x:v>22</x:v>
@@ -25369,7 +25366,7 @@
     </x:row>
     <x:row r="826" spans="1:9">
       <x:c r="A826" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B826" s="0" t="s">
         <x:v>25</x:v>
@@ -25398,7 +25395,7 @@
     </x:row>
     <x:row r="827" spans="1:9">
       <x:c r="A827" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B827" s="0" t="s">
         <x:v>25</x:v>
@@ -25427,7 +25424,7 @@
     </x:row>
     <x:row r="828" spans="1:9">
       <x:c r="A828" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B828" s="0" t="s">
         <x:v>25</x:v>
@@ -25456,7 +25453,7 @@
     </x:row>
     <x:row r="829" spans="1:9">
       <x:c r="A829" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B829" s="0" t="s">
         <x:v>31</x:v>
@@ -25485,7 +25482,7 @@
     </x:row>
     <x:row r="830" spans="1:9">
       <x:c r="A830" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B830" s="0" t="s">
         <x:v>31</x:v>
@@ -25514,7 +25511,7 @@
     </x:row>
     <x:row r="831" spans="1:9">
       <x:c r="A831" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B831" s="0" t="s">
         <x:v>10</x:v>
@@ -25543,7 +25540,7 @@
     </x:row>
     <x:row r="832" spans="1:9">
       <x:c r="A832" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B832" s="0" t="s">
         <x:v>10</x:v>
@@ -25572,7 +25569,7 @@
     </x:row>
     <x:row r="833" spans="1:9">
       <x:c r="A833" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B833" s="0" t="s">
         <x:v>10</x:v>
@@ -25601,7 +25598,7 @@
     </x:row>
     <x:row r="834" spans="1:9">
       <x:c r="A834" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B834" s="0" t="s">
         <x:v>22</x:v>
@@ -25630,7 +25627,7 @@
     </x:row>
     <x:row r="835" spans="1:9">
       <x:c r="A835" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B835" s="0" t="s">
         <x:v>22</x:v>
@@ -25659,7 +25656,7 @@
     </x:row>
     <x:row r="836" spans="1:9">
       <x:c r="A836" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B836" s="0" t="s">
         <x:v>22</x:v>
@@ -25688,7 +25685,7 @@
     </x:row>
     <x:row r="837" spans="1:9">
       <x:c r="A837" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B837" s="0" t="s">
         <x:v>25</x:v>
@@ -25717,7 +25714,7 @@
     </x:row>
     <x:row r="838" spans="1:9">
       <x:c r="A838" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B838" s="0" t="s">
         <x:v>25</x:v>
@@ -25746,7 +25743,7 @@
     </x:row>
     <x:row r="839" spans="1:9">
       <x:c r="A839" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B839" s="0" t="s">
         <x:v>25</x:v>
@@ -25775,7 +25772,7 @@
     </x:row>
     <x:row r="840" spans="1:9">
       <x:c r="A840" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B840" s="0" t="s">
         <x:v>30</x:v>
@@ -25804,7 +25801,7 @@
     </x:row>
     <x:row r="841" spans="1:9">
       <x:c r="A841" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B841" s="0" t="s">
         <x:v>30</x:v>
@@ -25833,7 +25830,7 @@
     </x:row>
     <x:row r="842" spans="1:9">
       <x:c r="A842" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B842" s="0" t="s">
         <x:v>31</x:v>
@@ -25862,7 +25859,7 @@
     </x:row>
     <x:row r="843" spans="1:9">
       <x:c r="A843" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B843" s="0" t="s">
         <x:v>31</x:v>
@@ -25891,7 +25888,7 @@
     </x:row>
     <x:row r="844" spans="1:9">
       <x:c r="A844" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B844" s="0" t="s">
         <x:v>31</x:v>
@@ -25920,7 +25917,7 @@
     </x:row>
     <x:row r="845" spans="1:9">
       <x:c r="A845" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B845" s="0" t="s">
         <x:v>33</x:v>
@@ -25949,7 +25946,7 @@
     </x:row>
     <x:row r="846" spans="1:9">
       <x:c r="A846" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B846" s="0" t="s">
         <x:v>33</x:v>
@@ -25978,7 +25975,7 @@
     </x:row>
     <x:row r="847" spans="1:9">
       <x:c r="A847" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B847" s="0" t="s">
         <x:v>10</x:v>
@@ -26007,7 +26004,7 @@
     </x:row>
     <x:row r="848" spans="1:9">
       <x:c r="A848" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B848" s="0" t="s">
         <x:v>10</x:v>
@@ -26036,7 +26033,7 @@
     </x:row>
     <x:row r="849" spans="1:9">
       <x:c r="A849" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B849" s="0" t="s">
         <x:v>10</x:v>
@@ -26065,7 +26062,7 @@
     </x:row>
     <x:row r="850" spans="1:9">
       <x:c r="A850" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B850" s="0" t="s">
         <x:v>22</x:v>
@@ -26094,7 +26091,7 @@
     </x:row>
     <x:row r="851" spans="1:9">
       <x:c r="A851" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B851" s="0" t="s">
         <x:v>22</x:v>
@@ -26123,7 +26120,7 @@
     </x:row>
     <x:row r="852" spans="1:9">
       <x:c r="A852" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B852" s="0" t="s">
         <x:v>25</x:v>
@@ -26152,7 +26149,7 @@
     </x:row>
     <x:row r="853" spans="1:9">
       <x:c r="A853" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B853" s="0" t="s">
         <x:v>25</x:v>
@@ -26181,7 +26178,7 @@
     </x:row>
     <x:row r="854" spans="1:9">
       <x:c r="A854" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B854" s="0" t="s">
         <x:v>25</x:v>
@@ -26210,7 +26207,7 @@
     </x:row>
     <x:row r="855" spans="1:9">
       <x:c r="A855" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B855" s="0" t="s">
         <x:v>31</x:v>
@@ -26239,7 +26236,7 @@
     </x:row>
     <x:row r="856" spans="1:9">
       <x:c r="A856" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B856" s="0" t="s">
         <x:v>31</x:v>
@@ -26268,7 +26265,7 @@
     </x:row>
     <x:row r="857" spans="1:9">
       <x:c r="A857" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B857" s="0" t="s">
         <x:v>31</x:v>
@@ -26297,7 +26294,7 @@
     </x:row>
     <x:row r="858" spans="1:9">
       <x:c r="A858" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B858" s="0" t="s">
         <x:v>33</x:v>
@@ -26326,7 +26323,7 @@
     </x:row>
     <x:row r="859" spans="1:9">
       <x:c r="A859" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B859" s="0" t="s">
         <x:v>33</x:v>
@@ -26355,7 +26352,7 @@
     </x:row>
     <x:row r="860" spans="1:9">
       <x:c r="A860" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B860" s="0" t="s">
         <x:v>10</x:v>
@@ -26367,16 +26364,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E860" s="1" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="F860" s="1" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="F860" s="1" t="s">
+      <x:c r="G860" s="1" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="G860" s="1" t="s">
+      <x:c r="H860" s="1" t="s">
         <x:v>266</x:v>
-      </x:c>
-      <x:c r="H860" s="1" t="s">
-        <x:v>267</x:v>
       </x:c>
       <x:c r="I860" s="0" t="s">
         <x:v>12</x:v>
@@ -26384,7 +26381,7 @@
     </x:row>
     <x:row r="861" spans="1:9">
       <x:c r="A861" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B861" s="0" t="s">
         <x:v>10</x:v>
@@ -26393,19 +26390,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D861" s="1" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="E861" s="1" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="E861" s="1" t="s">
+      <x:c r="F861" s="1" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="F861" s="1" t="s">
+      <x:c r="G861" s="1" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="G861" s="1" t="s">
+      <x:c r="H861" s="1" t="s">
         <x:v>271</x:v>
-      </x:c>
-      <x:c r="H861" s="1" t="s">
-        <x:v>272</x:v>
       </x:c>
       <x:c r="I861" s="0" t="s">
         <x:v>12</x:v>
@@ -26413,7 +26410,7 @@
     </x:row>
     <x:row r="862" spans="1:9">
       <x:c r="A862" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B862" s="0" t="s">
         <x:v>10</x:v>
@@ -26425,16 +26422,16 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E862" s="1" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="F862" s="1" t="s">
         <x:v>273</x:v>
       </x:c>
-      <x:c r="F862" s="1" t="s">
+      <x:c r="G862" s="1" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="G862" s="1" t="s">
+      <x:c r="H862" s="1" t="s">
         <x:v>275</x:v>
-      </x:c>
-      <x:c r="H862" s="1" t="s">
-        <x:v>276</x:v>
       </x:c>
       <x:c r="I862" s="0" t="s">
         <x:v>12</x:v>
@@ -26442,7 +26439,7 @@
     </x:row>
     <x:row r="863" spans="1:9">
       <x:c r="A863" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B863" s="0" t="s">
         <x:v>49</x:v>
@@ -26471,7 +26468,7 @@
     </x:row>
     <x:row r="864" spans="1:9">
       <x:c r="A864" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B864" s="0" t="s">
         <x:v>49</x:v>
@@ -26500,7 +26497,7 @@
     </x:row>
     <x:row r="865" spans="1:9">
       <x:c r="A865" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B865" s="0" t="s">
         <x:v>22</x:v>
@@ -26529,7 +26526,7 @@
     </x:row>
     <x:row r="866" spans="1:9">
       <x:c r="A866" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B866" s="0" t="s">
         <x:v>22</x:v>
@@ -26558,7 +26555,7 @@
     </x:row>
     <x:row r="867" spans="1:9">
       <x:c r="A867" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B867" s="0" t="s">
         <x:v>22</x:v>
@@ -26587,7 +26584,7 @@
     </x:row>
     <x:row r="868" spans="1:9">
       <x:c r="A868" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B868" s="0" t="s">
         <x:v>25</x:v>
@@ -26602,7 +26599,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F868" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G868" s="1" t="s">
         <x:v>105</x:v>
@@ -26616,7 +26613,7 @@
     </x:row>
     <x:row r="869" spans="1:9">
       <x:c r="A869" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B869" s="0" t="s">
         <x:v>25</x:v>
@@ -26628,16 +26625,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E869" s="1" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="F869" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="F869" s="1" t="s">
+      <x:c r="G869" s="1" t="s">
         <x:v>279</x:v>
       </x:c>
-      <x:c r="G869" s="1" t="s">
+      <x:c r="H869" s="1" t="s">
         <x:v>280</x:v>
-      </x:c>
-      <x:c r="H869" s="1" t="s">
-        <x:v>281</x:v>
       </x:c>
       <x:c r="I869" s="0" t="s">
         <x:v>12</x:v>
@@ -26645,7 +26642,7 @@
     </x:row>
     <x:row r="870" spans="1:9">
       <x:c r="A870" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B870" s="0" t="s">
         <x:v>25</x:v>
@@ -26660,13 +26657,13 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="F870" s="1" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="G870" s="1" t="s">
         <x:v>282</x:v>
       </x:c>
-      <x:c r="G870" s="1" t="s">
+      <x:c r="H870" s="1" t="s">
         <x:v>283</x:v>
-      </x:c>
-      <x:c r="H870" s="1" t="s">
-        <x:v>284</x:v>
       </x:c>
       <x:c r="I870" s="0" t="s">
         <x:v>12</x:v>
@@ -26674,7 +26671,7 @@
     </x:row>
     <x:row r="871" spans="1:9">
       <x:c r="A871" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B871" s="0" t="s">
         <x:v>30</x:v>
@@ -26703,7 +26700,7 @@
     </x:row>
     <x:row r="872" spans="1:9">
       <x:c r="A872" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B872" s="0" t="s">
         <x:v>30</x:v>
@@ -26732,7 +26729,7 @@
     </x:row>
     <x:row r="873" spans="1:9">
       <x:c r="A873" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B873" s="0" t="s">
         <x:v>30</x:v>
@@ -26761,7 +26758,7 @@
     </x:row>
     <x:row r="874" spans="1:9">
       <x:c r="A874" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B874" s="0" t="s">
         <x:v>31</x:v>
@@ -26790,7 +26787,7 @@
     </x:row>
     <x:row r="875" spans="1:9">
       <x:c r="A875" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B875" s="0" t="s">
         <x:v>31</x:v>
@@ -26819,7 +26816,7 @@
     </x:row>
     <x:row r="876" spans="1:9">
       <x:c r="A876" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B876" s="0" t="s">
         <x:v>31</x:v>
@@ -26848,7 +26845,7 @@
     </x:row>
     <x:row r="877" spans="1:9">
       <x:c r="A877" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B877" s="0" t="s">
         <x:v>33</x:v>
@@ -26877,7 +26874,7 @@
     </x:row>
     <x:row r="878" spans="1:9">
       <x:c r="A878" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B878" s="0" t="s">
         <x:v>33</x:v>
@@ -26895,10 +26892,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G878" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H878" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I878" s="0" t="s">
         <x:v>12</x:v>
@@ -26906,7 +26903,7 @@
     </x:row>
     <x:row r="879" spans="1:9">
       <x:c r="A879" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B879" s="0" t="s">
         <x:v>33</x:v>
@@ -26921,13 +26918,13 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="F879" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="G879" s="1" t="s">
         <x:v>186</x:v>
       </x:c>
       <x:c r="H879" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I879" s="0" t="s">
         <x:v>12</x:v>
@@ -26935,7 +26932,7 @@
     </x:row>
     <x:row r="880" spans="1:9">
       <x:c r="A880" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
         <x:v>10</x:v>
@@ -26964,7 +26961,7 @@
     </x:row>
     <x:row r="881" spans="1:9">
       <x:c r="A881" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
         <x:v>10</x:v>
@@ -26993,7 +26990,7 @@
     </x:row>
     <x:row r="882" spans="1:9">
       <x:c r="A882" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
         <x:v>10</x:v>
@@ -27022,7 +27019,7 @@
     </x:row>
     <x:row r="883" spans="1:9">
       <x:c r="A883" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
         <x:v>22</x:v>
@@ -27051,7 +27048,7 @@
     </x:row>
     <x:row r="884" spans="1:9">
       <x:c r="A884" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
         <x:v>22</x:v>
@@ -27080,7 +27077,7 @@
     </x:row>
     <x:row r="885" spans="1:9">
       <x:c r="A885" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
         <x:v>22</x:v>
@@ -27109,7 +27106,7 @@
     </x:row>
     <x:row r="886" spans="1:9">
       <x:c r="A886" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
         <x:v>25</x:v>
@@ -27138,7 +27135,7 @@
     </x:row>
     <x:row r="887" spans="1:9">
       <x:c r="A887" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
         <x:v>25</x:v>
@@ -27167,7 +27164,7 @@
     </x:row>
     <x:row r="888" spans="1:9">
       <x:c r="A888" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
         <x:v>25</x:v>
@@ -27196,7 +27193,7 @@
     </x:row>
     <x:row r="889" spans="1:9">
       <x:c r="A889" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
         <x:v>30</x:v>
@@ -27225,7 +27222,7 @@
     </x:row>
     <x:row r="890" spans="1:9">
       <x:c r="A890" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
         <x:v>30</x:v>
@@ -27254,7 +27251,7 @@
     </x:row>
     <x:row r="891" spans="1:9">
       <x:c r="A891" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
         <x:v>31</x:v>
@@ -27283,7 +27280,7 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>31</x:v>
@@ -27312,7 +27309,7 @@
     </x:row>
     <x:row r="893" spans="1:9">
       <x:c r="A893" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>31</x:v>
@@ -27341,7 +27338,7 @@
     </x:row>
     <x:row r="894" spans="1:9">
       <x:c r="A894" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>33</x:v>
@@ -27370,7 +27367,7 @@
     </x:row>
     <x:row r="895" spans="1:9">
       <x:c r="A895" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>33</x:v>
@@ -27399,7 +27396,7 @@
     </x:row>
     <x:row r="896" spans="1:9">
       <x:c r="A896" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>10</x:v>
@@ -27428,7 +27425,7 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>10</x:v>
@@ -27457,7 +27454,7 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>10</x:v>
@@ -27486,7 +27483,7 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>22</x:v>
@@ -27515,7 +27512,7 @@
     </x:row>
     <x:row r="900" spans="1:9">
       <x:c r="A900" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>22</x:v>
@@ -27544,7 +27541,7 @@
     </x:row>
     <x:row r="901" spans="1:9">
       <x:c r="A901" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>22</x:v>
@@ -27573,7 +27570,7 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>25</x:v>
@@ -27602,7 +27599,7 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>25</x:v>
@@ -27631,7 +27628,7 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>25</x:v>
@@ -27660,7 +27657,7 @@
     </x:row>
     <x:row r="905" spans="1:9">
       <x:c r="A905" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>30</x:v>
@@ -27689,7 +27686,7 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>30</x:v>
@@ -27718,7 +27715,7 @@
     </x:row>
     <x:row r="907" spans="1:9">
       <x:c r="A907" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>31</x:v>
@@ -27747,7 +27744,7 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>31</x:v>
@@ -27776,7 +27773,7 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>31</x:v>
@@ -27805,7 +27802,7 @@
     </x:row>
     <x:row r="910" spans="1:9">
       <x:c r="A910" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>33</x:v>
@@ -27834,7 +27831,7 @@
     </x:row>
     <x:row r="911" spans="1:9">
       <x:c r="A911" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>33</x:v>
@@ -27863,7 +27860,7 @@
     </x:row>
     <x:row r="912" spans="1:9">
       <x:c r="A912" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>33</x:v>
@@ -27892,7 +27889,7 @@
     </x:row>
     <x:row r="913" spans="1:9">
       <x:c r="A913" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>10</x:v>
@@ -27921,7 +27918,7 @@
     </x:row>
     <x:row r="914" spans="1:9">
       <x:c r="A914" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>10</x:v>
@@ -27950,7 +27947,7 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>10</x:v>
@@ -27979,7 +27976,7 @@
     </x:row>
     <x:row r="916" spans="1:9">
       <x:c r="A916" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>22</x:v>
@@ -28008,7 +28005,7 @@
     </x:row>
     <x:row r="917" spans="1:9">
       <x:c r="A917" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>22</x:v>
@@ -28037,7 +28034,7 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>25</x:v>
@@ -28066,7 +28063,7 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>25</x:v>
@@ -28095,7 +28092,7 @@
     </x:row>
     <x:row r="920" spans="1:9">
       <x:c r="A920" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>25</x:v>
@@ -28124,7 +28121,7 @@
     </x:row>
     <x:row r="921" spans="1:9">
       <x:c r="A921" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>30</x:v>
@@ -28153,7 +28150,7 @@
     </x:row>
     <x:row r="922" spans="1:9">
       <x:c r="A922" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>30</x:v>
@@ -28182,7 +28179,7 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>30</x:v>
@@ -28211,7 +28208,7 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>31</x:v>
@@ -28240,7 +28237,7 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>31</x:v>
@@ -28269,7 +28266,7 @@
     </x:row>
     <x:row r="926" spans="1:9">
       <x:c r="A926" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>31</x:v>
@@ -28298,7 +28295,7 @@
     </x:row>
     <x:row r="927" spans="1:9">
       <x:c r="A927" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>10</x:v>
@@ -28327,7 +28324,7 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>10</x:v>
@@ -28356,7 +28353,7 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>10</x:v>
@@ -28374,7 +28371,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G929" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H929" s="1" t="s">
         <x:v>48</x:v>
@@ -28385,7 +28382,7 @@
     </x:row>
     <x:row r="930" spans="1:9">
       <x:c r="A930" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>49</x:v>
@@ -28414,7 +28411,7 @@
     </x:row>
     <x:row r="931" spans="1:9">
       <x:c r="A931" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>49</x:v>
@@ -28443,7 +28440,7 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>49</x:v>
@@ -28472,7 +28469,7 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>22</x:v>
@@ -28501,7 +28498,7 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>22</x:v>
@@ -28530,7 +28527,7 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>22</x:v>
@@ -28559,7 +28556,7 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>25</x:v>
@@ -28588,7 +28585,7 @@
     </x:row>
     <x:row r="937" spans="1:9">
       <x:c r="A937" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>25</x:v>
@@ -28617,7 +28614,7 @@
     </x:row>
     <x:row r="938" spans="1:9">
       <x:c r="A938" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>25</x:v>
@@ -28646,7 +28643,7 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>31</x:v>
@@ -28675,7 +28672,7 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>31</x:v>
@@ -28704,7 +28701,7 @@
     </x:row>
     <x:row r="941" spans="1:9">
       <x:c r="A941" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>31</x:v>
@@ -28733,7 +28730,7 @@
     </x:row>
     <x:row r="942" spans="1:9">
       <x:c r="A942" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>33</x:v>
@@ -28762,7 +28759,7 @@
     </x:row>
     <x:row r="943" spans="1:9">
       <x:c r="A943" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>33</x:v>
@@ -28791,7 +28788,7 @@
     </x:row>
     <x:row r="944" spans="1:9">
       <x:c r="A944" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>33</x:v>
@@ -28820,7 +28817,7 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>10</x:v>
@@ -28849,7 +28846,7 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>10</x:v>
@@ -28878,7 +28875,7 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>22</x:v>
@@ -28907,7 +28904,7 @@
     </x:row>
     <x:row r="948" spans="1:9">
       <x:c r="A948" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>22</x:v>
@@ -28936,7 +28933,7 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>25</x:v>
@@ -28965,7 +28962,7 @@
     </x:row>
     <x:row r="950" spans="1:9">
       <x:c r="A950" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>25</x:v>
@@ -28994,7 +28991,7 @@
     </x:row>
     <x:row r="951" spans="1:9">
       <x:c r="A951" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>25</x:v>
@@ -29023,7 +29020,7 @@
     </x:row>
     <x:row r="952" spans="1:9">
       <x:c r="A952" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>10</x:v>
@@ -29052,7 +29049,7 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>10</x:v>
@@ -29081,7 +29078,7 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>10</x:v>
@@ -29110,7 +29107,7 @@
     </x:row>
     <x:row r="955" spans="1:9">
       <x:c r="A955" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>49</x:v>
@@ -29139,7 +29136,7 @@
     </x:row>
     <x:row r="956" spans="1:9">
       <x:c r="A956" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>49</x:v>
@@ -29168,7 +29165,7 @@
     </x:row>
     <x:row r="957" spans="1:9">
       <x:c r="A957" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>49</x:v>
@@ -29197,7 +29194,7 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>22</x:v>
@@ -29226,7 +29223,7 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>22</x:v>
@@ -29255,7 +29252,7 @@
     </x:row>
     <x:row r="960" spans="1:9">
       <x:c r="A960" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>22</x:v>
@@ -29284,7 +29281,7 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>25</x:v>
@@ -29313,7 +29310,7 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>25</x:v>
@@ -29342,7 +29339,7 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>25</x:v>
@@ -29371,7 +29368,7 @@
     </x:row>
     <x:row r="964" spans="1:9">
       <x:c r="A964" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>31</x:v>
@@ -29400,7 +29397,7 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>31</x:v>
@@ -29429,7 +29426,7 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>31</x:v>
@@ -29458,7 +29455,7 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>33</x:v>
@@ -29487,7 +29484,7 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>33</x:v>
@@ -29516,7 +29513,7 @@
     </x:row>
     <x:row r="969" spans="1:9">
       <x:c r="A969" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>10</x:v>
@@ -29545,7 +29542,7 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>10</x:v>
@@ -29563,7 +29560,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="G970" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H970" s="1" t="s">
         <x:v>119</x:v>
@@ -29574,7 +29571,7 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>10</x:v>
@@ -29589,7 +29586,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="F971" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="G971" s="1" t="s">
         <x:v>97</x:v>
@@ -29603,7 +29600,7 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>49</x:v>
@@ -29632,7 +29629,7 @@
     </x:row>
     <x:row r="973" spans="1:9">
       <x:c r="A973" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>49</x:v>
@@ -29661,7 +29658,7 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>49</x:v>
@@ -29670,7 +29667,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D974" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E974" s="1" t="s">
         <x:v>21</x:v>
@@ -29690,7 +29687,7 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>22</x:v>
@@ -29719,7 +29716,7 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>22</x:v>
@@ -29748,7 +29745,7 @@
     </x:row>
     <x:row r="977" spans="1:9">
       <x:c r="A977" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>22</x:v>
@@ -29777,7 +29774,7 @@
     </x:row>
     <x:row r="978" spans="1:9">
       <x:c r="A978" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>25</x:v>
@@ -29806,7 +29803,7 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>25</x:v>
@@ -29824,7 +29821,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="G979" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H979" s="1" t="s">
         <x:v>64</x:v>
@@ -29835,7 +29832,7 @@
     </x:row>
     <x:row r="980" spans="1:9">
       <x:c r="A980" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>25</x:v>
@@ -29850,13 +29847,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F980" s="1" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="G980" s="1" t="s">
         <x:v>296</x:v>
       </x:c>
-      <x:c r="G980" s="1" t="s">
+      <x:c r="H980" s="1" t="s">
         <x:v>297</x:v>
-      </x:c>
-      <x:c r="H980" s="1" t="s">
-        <x:v>298</x:v>
       </x:c>
       <x:c r="I980" s="0" t="s">
         <x:v>12</x:v>
@@ -29864,7 +29861,7 @@
     </x:row>
     <x:row r="981" spans="1:9">
       <x:c r="A981" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>30</x:v>
@@ -29893,7 +29890,7 @@
     </x:row>
     <x:row r="982" spans="1:9">
       <x:c r="A982" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>30</x:v>
@@ -29922,7 +29919,7 @@
     </x:row>
     <x:row r="983" spans="1:9">
       <x:c r="A983" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>30</x:v>
@@ -29951,7 +29948,7 @@
     </x:row>
     <x:row r="984" spans="1:9">
       <x:c r="A984" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>31</x:v>
@@ -29980,7 +29977,7 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>31</x:v>
@@ -29992,7 +29989,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E985" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F985" s="1" t="s">
         <x:v>16</x:v>
@@ -30009,7 +30006,7 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>31</x:v>
@@ -30021,7 +30018,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E986" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="F986" s="1" t="s">
         <x:v>16</x:v>
@@ -30038,7 +30035,7 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>33</x:v>
@@ -30067,7 +30064,7 @@
     </x:row>
     <x:row r="988" spans="1:9">
       <x:c r="A988" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>33</x:v>
@@ -30096,7 +30093,7 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>33</x:v>
@@ -30111,10 +30108,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G989" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="H989" s="1" t="s">
         <x:v>76</x:v>
@@ -30125,7 +30122,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>10</x:v>
@@ -30154,7 +30151,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>10</x:v>
@@ -30183,7 +30180,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>10</x:v>
@@ -30212,7 +30209,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>49</x:v>
@@ -30241,7 +30238,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>49</x:v>
@@ -30270,7 +30267,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>22</x:v>
@@ -30299,7 +30296,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>22</x:v>
@@ -30328,7 +30325,7 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
         <x:v>22</x:v>
@@ -30357,7 +30354,7 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
         <x:v>25</x:v>
@@ -30386,7 +30383,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>25</x:v>
@@ -30404,7 +30401,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="G999" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="H999" s="1" t="s">
         <x:v>51</x:v>
@@ -30415,7 +30412,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>25</x:v>
@@ -30430,10 +30427,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="s">
         <x:v>55</x:v>
@@ -30444,7 +30441,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>30</x:v>
@@ -30473,7 +30470,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>30</x:v>
@@ -30502,7 +30499,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>30</x:v>
@@ -30531,7 +30528,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>31</x:v>
@@ -30560,7 +30557,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>31</x:v>
@@ -30589,7 +30586,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>31</x:v>
@@ -30618,7 +30615,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>33</x:v>
@@ -30647,7 +30644,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>33</x:v>
@@ -30676,7 +30673,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>33</x:v>
@@ -30705,7 +30702,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>10</x:v>
@@ -30734,7 +30731,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>10</x:v>
@@ -30763,7 +30760,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>10</x:v>
@@ -30792,7 +30789,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>22</x:v>
@@ -30821,7 +30818,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>22</x:v>
@@ -30850,7 +30847,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>22</x:v>
@@ -30879,7 +30876,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>25</x:v>
@@ -30908,7 +30905,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>25</x:v>
@@ -30937,7 +30934,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>25</x:v>
@@ -30966,7 +30963,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>30</x:v>
@@ -30995,7 +30992,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>30</x:v>
@@ -31024,7 +31021,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>31</x:v>
@@ -31053,7 +31050,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>31</x:v>
@@ -31082,7 +31079,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>31</x:v>
@@ -31111,7 +31108,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>33</x:v>
@@ -31140,7 +31137,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>33</x:v>
@@ -31169,7 +31166,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>10</x:v>
@@ -31187,7 +31184,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G1026" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="s">
         <x:v>75</x:v>
@@ -31198,7 +31195,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>10</x:v>
@@ -31213,10 +31210,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="G1027" s="1" t="s">
         <x:v>304</x:v>
-      </x:c>
-      <x:c r="G1027" s="1" t="s">
-        <x:v>305</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="s">
         <x:v>97</x:v>
@@ -31227,7 +31224,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>10</x:v>
@@ -31242,10 +31239,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="s">
         <x:v>184</x:v>
@@ -31256,7 +31253,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>49</x:v>
@@ -31285,7 +31282,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>49</x:v>
@@ -31314,7 +31311,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>22</x:v>
@@ -31343,7 +31340,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>22</x:v>
@@ -31361,7 +31358,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="s">
         <x:v>92</x:v>
@@ -31372,7 +31369,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>22</x:v>
@@ -31393,7 +31390,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="s">
         <x:v>12</x:v>
@@ -31401,7 +31398,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>25</x:v>
@@ -31430,7 +31427,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>25</x:v>
@@ -31445,7 +31442,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>139</x:v>
@@ -31459,7 +31456,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>25</x:v>
@@ -31474,13 +31471,13 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="F1036" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31488,7 +31485,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>30</x:v>
@@ -31517,7 +31514,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>30</x:v>
@@ -31546,7 +31543,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>30</x:v>
@@ -31575,7 +31572,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>31</x:v>
@@ -31604,7 +31601,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>31</x:v>
@@ -31633,7 +31630,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>31</x:v>
@@ -31662,7 +31659,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>33</x:v>
@@ -31691,7 +31688,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>33</x:v>
@@ -31720,7 +31717,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>33</x:v>
@@ -31749,7 +31746,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>10</x:v>
@@ -31778,7 +31775,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>10</x:v>
@@ -31793,10 +31790,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="G1047" s="1" t="s">
         <x:v>310</x:v>
-      </x:c>
-      <x:c r="G1047" s="1" t="s">
-        <x:v>311</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="s">
         <x:v>150</x:v>
@@ -31807,7 +31804,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>10</x:v>
@@ -31822,13 +31819,13 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="G1048" s="1" t="s">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="G1048" s="1" t="s">
+      <x:c r="H1048" s="1" t="s">
         <x:v>313</x:v>
-      </x:c>
-      <x:c r="H1048" s="1" t="s">
-        <x:v>314</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="s">
         <x:v>12</x:v>
@@ -31836,7 +31833,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>49</x:v>
@@ -31865,7 +31862,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>49</x:v>
@@ -31894,7 +31891,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>49</x:v>
@@ -31923,7 +31920,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>22</x:v>
@@ -31952,7 +31949,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>22</x:v>
@@ -31981,7 +31978,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>22</x:v>
@@ -32010,7 +32007,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>25</x:v>
@@ -32039,7 +32036,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>25</x:v>
@@ -32060,7 +32057,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="I1056" s="0" t="s">
         <x:v>12</x:v>
@@ -32068,7 +32065,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>25</x:v>
@@ -32083,13 +32080,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32097,7 +32094,7 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
         <x:v>30</x:v>
@@ -32126,7 +32123,7 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
         <x:v>30</x:v>
@@ -32155,7 +32152,7 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
         <x:v>30</x:v>
@@ -32184,7 +32181,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>31</x:v>
@@ -32213,7 +32210,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>31</x:v>
@@ -32225,7 +32222,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="s">
         <x:v>29</x:v>
@@ -32242,7 +32239,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>31</x:v>
@@ -32251,10 +32248,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="s">
         <x:v>53</x:v>
@@ -32271,7 +32268,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>33</x:v>
@@ -32300,7 +32297,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>33</x:v>
@@ -32318,7 +32315,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="G1065" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="s">
         <x:v>84</x:v>
@@ -32329,7 +32326,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>33</x:v>
@@ -32341,16 +32338,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="F1066" s="1" t="s">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="F1066" s="1" t="s">
+      <x:c r="G1066" s="1" t="s">
         <x:v>319</x:v>
       </x:c>
-      <x:c r="G1066" s="1" t="s">
-        <x:v>320</x:v>
-      </x:c>
       <x:c r="H1066" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="s">
         <x:v>12</x:v>
@@ -32358,7 +32355,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>10</x:v>
@@ -32387,7 +32384,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>10</x:v>
@@ -32416,7 +32413,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>10</x:v>
@@ -32445,7 +32442,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>49</x:v>
@@ -32474,7 +32471,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>49</x:v>
@@ -32503,7 +32500,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>49</x:v>
@@ -32532,7 +32529,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>22</x:v>
@@ -32561,7 +32558,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>22</x:v>
@@ -32590,7 +32587,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>22</x:v>
@@ -32619,7 +32616,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>25</x:v>
@@ -32648,7 +32645,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>25</x:v>
@@ -32677,7 +32674,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>25</x:v>
@@ -32706,7 +32703,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>30</x:v>
@@ -32735,7 +32732,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>30</x:v>
@@ -32764,7 +32761,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>30</x:v>
@@ -32793,7 +32790,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>31</x:v>
@@ -32822,7 +32819,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>31</x:v>
@@ -32851,7 +32848,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>31</x:v>
@@ -32880,7 +32877,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>33</x:v>
@@ -32909,7 +32906,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>33</x:v>
@@ -32938,7 +32935,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>33</x:v>
@@ -32967,7 +32964,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>10</x:v>
@@ -32996,7 +32993,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>10</x:v>
@@ -33025,7 +33022,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>10</x:v>
@@ -33054,7 +33051,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>22</x:v>
@@ -33083,7 +33080,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>22</x:v>
@@ -33112,7 +33109,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>22</x:v>
@@ -33141,7 +33138,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>25</x:v>
@@ -33170,7 +33167,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>25</x:v>
@@ -33199,7 +33196,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>25</x:v>
@@ -33228,7 +33225,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>31</x:v>
@@ -33257,7 +33254,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>31</x:v>
@@ -33286,7 +33283,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>31</x:v>
@@ -33315,7 +33312,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>33</x:v>
@@ -33344,7 +33341,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>33</x:v>
@@ -33373,7 +33370,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>33</x:v>
@@ -33402,7 +33399,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>10</x:v>
@@ -33431,7 +33428,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>10</x:v>
@@ -33460,7 +33457,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>22</x:v>
@@ -33489,7 +33486,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>22</x:v>
@@ -33518,7 +33515,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>25</x:v>
@@ -33547,7 +33544,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>25</x:v>
@@ -33576,7 +33573,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>25</x:v>
@@ -33605,7 +33602,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33634,7 +33631,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>31</x:v>
@@ -33663,7 +33660,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>33</x:v>
@@ -33692,7 +33689,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>33</x:v>
@@ -33721,7 +33718,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>33</x:v>
@@ -33750,7 +33747,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33779,7 +33776,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>10</x:v>
@@ -33808,7 +33805,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>10</x:v>
@@ -33837,7 +33834,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>22</x:v>
@@ -33866,7 +33863,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>22</x:v>
@@ -33895,7 +33892,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>22</x:v>
@@ -33924,7 +33921,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>25</x:v>
@@ -33953,7 +33950,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>25</x:v>
@@ -33982,7 +33979,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>25</x:v>
@@ -34011,7 +34008,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34040,7 +34037,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>31</x:v>
@@ -34069,7 +34066,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>33</x:v>
@@ -34098,7 +34095,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>33</x:v>
@@ -34127,7 +34124,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34156,7 +34153,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34185,7 +34182,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34214,7 +34211,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>22</x:v>
@@ -34243,7 +34240,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>22</x:v>
@@ -34272,7 +34269,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>22</x:v>
@@ -34301,7 +34298,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>25</x:v>
@@ -34330,7 +34327,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>25</x:v>
@@ -34359,7 +34356,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>25</x:v>
@@ -34388,7 +34385,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>10</x:v>
@@ -34417,7 +34414,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>10</x:v>
@@ -34446,7 +34443,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>10</x:v>
@@ -34475,7 +34472,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>22</x:v>
@@ -34504,7 +34501,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>22</x:v>
@@ -34533,7 +34530,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>22</x:v>
@@ -34562,7 +34559,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>25</x:v>
@@ -34591,7 +34588,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>25</x:v>
@@ -34620,7 +34617,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>25</x:v>
@@ -34649,7 +34646,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>30</x:v>
@@ -34678,7 +34675,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>30</x:v>
@@ -34707,7 +34704,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>31</x:v>
@@ -34736,7 +34733,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>31</x:v>
@@ -34765,7 +34762,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>31</x:v>
@@ -34794,7 +34791,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>33</x:v>
@@ -34823,7 +34820,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>33</x:v>
@@ -34852,7 +34849,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>10</x:v>
@@ -34881,7 +34878,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>10</x:v>
@@ -34910,7 +34907,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>10</x:v>
@@ -34939,7 +34936,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>49</x:v>
@@ -34968,7 +34965,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>49</x:v>
@@ -34997,7 +34994,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>49</x:v>
@@ -35026,7 +35023,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>22</x:v>
@@ -35055,7 +35052,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>22</x:v>
@@ -35084,7 +35081,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>22</x:v>
@@ -35113,7 +35110,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>25</x:v>
@@ -35142,7 +35139,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>25</x:v>
@@ -35171,7 +35168,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>25</x:v>
@@ -35200,7 +35197,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>31</x:v>
@@ -35229,7 +35226,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35258,7 +35255,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>33</x:v>
@@ -35287,7 +35284,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>33</x:v>
@@ -35316,7 +35313,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>10</x:v>
@@ -35345,7 +35342,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>10</x:v>
@@ -35374,7 +35371,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>10</x:v>
@@ -35403,7 +35400,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>22</x:v>
@@ -35432,7 +35429,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>22</x:v>
@@ -35461,7 +35458,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>22</x:v>
@@ -35490,7 +35487,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>25</x:v>
@@ -35519,7 +35516,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>25</x:v>
@@ -35548,7 +35545,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>25</x:v>
@@ -35577,7 +35574,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>30</x:v>
@@ -35606,7 +35603,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>30</x:v>
@@ -35635,7 +35632,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>31</x:v>
@@ -35664,7 +35661,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35693,7 +35690,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35722,7 +35719,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>33</x:v>
@@ -35751,7 +35748,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>33</x:v>
@@ -35780,7 +35777,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>33</x:v>
@@ -35809,7 +35806,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>10</x:v>
@@ -35838,7 +35835,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35850,16 +35847,16 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E1187" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F1187" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="H1187" s="1" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="H1187" s="1" t="s">
-        <x:v>331</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="s">
         <x:v>12</x:v>
@@ -35867,7 +35864,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35879,13 +35876,13 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E1188" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H1188" s="1" t="s">
         <x:v>171</x:v>
@@ -35896,7 +35893,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>49</x:v>
@@ -35925,7 +35922,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>49</x:v>
@@ -35954,7 +35951,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>49</x:v>
@@ -35983,7 +35980,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>22</x:v>
@@ -36012,7 +36009,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>22</x:v>
@@ -36041,7 +36038,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>22</x:v>
@@ -36070,7 +36067,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>25</x:v>
@@ -36099,7 +36096,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>25</x:v>
@@ -36114,10 +36111,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="G1196" s="1" t="s">
         <x:v>333</x:v>
-      </x:c>
-      <x:c r="G1196" s="1" t="s">
-        <x:v>334</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="s">
         <x:v>141</x:v>
@@ -36128,7 +36125,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>25</x:v>
@@ -36143,13 +36140,13 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="G1197" s="1" t="s">
         <x:v>335</x:v>
       </x:c>
-      <x:c r="G1197" s="1" t="s">
-        <x:v>336</x:v>
-      </x:c>
       <x:c r="H1197" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="s">
         <x:v>12</x:v>
@@ -36157,7 +36154,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>30</x:v>
@@ -36186,7 +36183,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>30</x:v>
@@ -36215,7 +36212,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>30</x:v>
@@ -36244,7 +36241,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>31</x:v>
@@ -36273,7 +36270,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>31</x:v>
@@ -36302,7 +36299,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>31</x:v>
@@ -36331,7 +36328,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>33</x:v>
@@ -36360,7 +36357,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>33</x:v>
@@ -36389,7 +36386,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>33</x:v>
@@ -36418,7 +36415,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>10</x:v>
@@ -36447,7 +36444,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>10</x:v>
@@ -36476,7 +36473,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>10</x:v>
@@ -36505,7 +36502,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>22</x:v>
@@ -36534,7 +36531,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>22</x:v>
@@ -36563,7 +36560,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>22</x:v>
@@ -36592,7 +36589,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>25</x:v>
@@ -36621,7 +36618,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>25</x:v>
@@ -36650,7 +36647,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>25</x:v>
@@ -36679,7 +36676,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>31</x:v>
@@ -36708,7 +36705,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>31</x:v>
@@ -36737,7 +36734,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>31</x:v>
@@ -36766,7 +36763,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>33</x:v>
@@ -36795,7 +36792,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>33</x:v>
@@ -36824,7 +36821,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>10</x:v>
@@ -36853,7 +36850,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>10</x:v>
@@ -36882,7 +36879,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>10</x:v>
@@ -36911,7 +36908,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>49</x:v>
@@ -36940,7 +36937,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>49</x:v>
@@ -36969,7 +36966,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>22</x:v>
@@ -36998,7 +36995,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>22</x:v>
@@ -37027,7 +37024,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>22</x:v>
@@ -37056,7 +37053,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>25</x:v>
@@ -37085,7 +37082,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>25</x:v>
@@ -37114,7 +37111,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>25</x:v>
@@ -37143,7 +37140,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>31</x:v>
@@ -37172,7 +37169,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>31</x:v>
@@ -37201,7 +37198,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>31</x:v>
@@ -37230,7 +37227,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>33</x:v>
@@ -37259,7 +37256,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>33</x:v>
@@ -37288,7 +37285,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>33</x:v>
@@ -37317,7 +37314,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>10</x:v>
@@ -37346,7 +37343,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>10</x:v>
@@ -37375,7 +37372,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37404,7 +37401,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>49</x:v>
@@ -37433,7 +37430,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>49</x:v>
@@ -37462,7 +37459,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>22</x:v>
@@ -37491,7 +37488,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>22</x:v>
@@ -37520,7 +37517,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>22</x:v>
@@ -37549,7 +37546,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>25</x:v>
@@ -37578,7 +37575,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>25</x:v>
@@ -37590,7 +37587,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1247" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="F1247" s="1" t="s">
         <x:v>43</x:v>
@@ -37607,7 +37604,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>25</x:v>
@@ -37625,7 +37622,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="G1248" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H1248" s="1" t="s">
         <x:v>76</x:v>
@@ -37636,7 +37633,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>30</x:v>
@@ -37665,7 +37662,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>30</x:v>
@@ -37694,7 +37691,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37723,7 +37720,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37752,7 +37749,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37781,7 +37778,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>33</x:v>
@@ -37810,7 +37807,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>33</x:v>
@@ -37839,7 +37836,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>33</x:v>
@@ -37868,7 +37865,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37897,7 +37894,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37912,13 +37909,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F1258" s="1" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="G1258" s="1" t="s">
         <x:v>341</x:v>
       </x:c>
-      <x:c r="G1258" s="1" t="s">
+      <x:c r="H1258" s="1" t="s">
         <x:v>342</x:v>
-      </x:c>
-      <x:c r="H1258" s="1" t="s">
-        <x:v>343</x:v>
       </x:c>
       <x:c r="I1258" s="0" t="s">
         <x:v>12</x:v>
@@ -37926,7 +37923,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>10</x:v>
@@ -37935,19 +37932,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1259" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E1259" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F1259" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="G1259" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="H1259" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="I1259" s="0" t="s">
         <x:v>12</x:v>
@@ -37955,7 +37952,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>22</x:v>
@@ -37984,7 +37981,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>22</x:v>
@@ -37993,7 +37990,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1261" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E1261" s="1" t="s">
         <x:v>32</x:v>
@@ -38013,7 +38010,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>22</x:v>
@@ -38042,7 +38039,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>25</x:v>
@@ -38071,7 +38068,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>25</x:v>
@@ -38100,7 +38097,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>25</x:v>
@@ -38118,7 +38115,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G1265" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H1265" s="1" t="s">
         <x:v>151</x:v>
@@ -38129,7 +38126,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>30</x:v>
@@ -38158,7 +38155,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>30</x:v>
@@ -38187,7 +38184,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>31</x:v>
@@ -38216,7 +38213,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>31</x:v>
@@ -38245,7 +38242,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>31</x:v>
@@ -38274,7 +38271,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>33</x:v>
@@ -38303,7 +38300,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>33</x:v>
@@ -38332,7 +38329,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>33</x:v>
@@ -38361,7 +38358,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>10</x:v>
@@ -38390,7 +38387,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>10</x:v>
@@ -38419,7 +38416,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>10</x:v>
@@ -38448,7 +38445,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>22</x:v>
@@ -38477,7 +38474,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>22</x:v>
@@ -38506,7 +38503,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>22</x:v>
@@ -38535,7 +38532,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>25</x:v>
@@ -38564,7 +38561,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>25</x:v>
@@ -38593,7 +38590,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>25</x:v>
@@ -38622,7 +38619,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38651,7 +38648,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38680,7 +38677,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38709,7 +38706,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>33</x:v>
@@ -38738,7 +38735,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>33</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -901,7 +901,7 @@
     <x:t>76</x:t>
   </x:si>
   <x:si>
-    <x:t>176</x:t>
+    <x:t>175</x:t>
   </x:si>
   <x:si>
     <x:t>215</x:t>
@@ -29789,7 +29789,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F978" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G978" s="1" t="s">
         <x:v>115</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -133,7 +133,7 @@
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>30</x:t>
+    <x:t>33</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
@@ -148,7 +148,7 @@
     <x:t>46</x:t>
   </x:si>
   <x:si>
-    <x:t>39</x:t>
+    <x:t>42</x:t>
   </x:si>
   <x:si>
     <x:t>61</x:t>
@@ -167,6 +167,9 @@
   </x:si>
   <x:si>
     <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -226,6 +229,9 @@
     <x:t>8</x:t>
   </x:si>
   <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
     <x:t>37</x:t>
   </x:si>
   <x:si>
@@ -242,9 +248,6 @@
   </x:si>
   <x:si>
     <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -356,9 +359,6 @@
   </x:si>
   <x:si>
     <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
   </x:si>
   <x:si>
     <x:t>66</x:t>
@@ -544,7 +544,7 @@
     <x:t>1169</x:t>
   </x:si>
   <x:si>
-    <x:t>520</x:t>
+    <x:t>519</x:t>
   </x:si>
   <x:si>
     <x:t>374</x:t>
@@ -559,7 +559,7 @@
     <x:t>1495</x:t>
   </x:si>
   <x:si>
-    <x:t>624</x:t>
+    <x:t>623</x:t>
   </x:si>
   <x:si>
     <x:t>64</x:t>
@@ -619,7 +619,7 @@
     <x:t>157</x:t>
   </x:si>
   <x:si>
-    <x:t>278</x:t>
+    <x:t>277</x:t>
   </x:si>
   <x:si>
     <x:t>625</x:t>
@@ -631,7 +631,7 @@
     <x:t>99</x:t>
   </x:si>
   <x:si>
-    <x:t>367</x:t>
+    <x:t>366</x:t>
   </x:si>
   <x:si>
     <x:t>745</x:t>
@@ -2117,7 +2117,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
         <x:v>26</x:v>
@@ -2155,7 +2155,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G25" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
         <x:v>32</x:v>
@@ -2175,19 +2175,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G26" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
         <x:v>12</x:v>
@@ -2207,16 +2207,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G27" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
         <x:v>12</x:v>
@@ -2236,16 +2236,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H28" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
         <x:v>12</x:v>
@@ -2265,16 +2265,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
         <x:v>12</x:v>
@@ -2326,7 +2326,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
         <x:v>13</x:v>
@@ -2355,7 +2355,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>15</x:v>
@@ -2474,7 +2474,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
         <x:v>15</x:v>
@@ -2500,10 +2500,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G37" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H37" s="1" t="s">
         <x:v>24</x:v>
@@ -2526,13 +2526,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G38" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
         <x:v>18</x:v>
@@ -2543,7 +2543,7 @@
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2552,7 +2552,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>21</x:v>
@@ -2572,7 +2572,7 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>10</x:v>
@@ -2581,16 +2581,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G40" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
         <x:v>24</x:v>
@@ -2601,7 +2601,7 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
@@ -2610,16 +2610,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G41" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
         <x:v>18</x:v>
@@ -2630,7 +2630,7 @@
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>22</x:v>
@@ -2659,7 +2659,7 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>22</x:v>
@@ -2688,7 +2688,7 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>22</x:v>
@@ -2697,10 +2697,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>17</x:v>
@@ -2717,7 +2717,7 @@
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>25</x:v>
@@ -2732,7 +2732,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>38</x:v>
@@ -2746,7 +2746,7 @@
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>25</x:v>
@@ -2758,16 +2758,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>12</x:v>
@@ -2775,7 +2775,7 @@
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>25</x:v>
@@ -2787,13 +2787,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
         <x:v>40</x:v>
@@ -2804,7 +2804,7 @@
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>30</x:v>
@@ -2833,7 +2833,7 @@
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>30</x:v>
@@ -2862,7 +2862,7 @@
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>31</x:v>
@@ -2891,7 +2891,7 @@
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>31</x:v>
@@ -2903,7 +2903,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
         <x:v>13</x:v>
@@ -2920,7 +2920,7 @@
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>31</x:v>
@@ -2929,10 +2929,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E52" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F52" s="1" t="s">
         <x:v>13</x:v>
@@ -2949,7 +2949,7 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>33</x:v>
@@ -2978,7 +2978,7 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>33</x:v>
@@ -3007,7 +3007,7 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>33</x:v>
@@ -3025,7 +3025,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
         <x:v>23</x:v>
@@ -3036,7 +3036,7 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>10</x:v>
@@ -3051,7 +3051,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>19</x:v>
@@ -3065,7 +3065,7 @@
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
@@ -3080,10 +3080,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
         <x:v>27</x:v>
@@ -3094,7 +3094,7 @@
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>10</x:v>
@@ -3103,19 +3103,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
         <x:v>12</x:v>
@@ -3123,7 +3123,7 @@
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>22</x:v>
@@ -3152,7 +3152,7 @@
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>22</x:v>
@@ -3161,16 +3161,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
         <x:v>19</x:v>
@@ -3181,7 +3181,7 @@
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>22</x:v>
@@ -3190,19 +3190,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H61" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="H61" s="1" t="s">
-        <x:v>69</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
         <x:v>12</x:v>
@@ -3210,7 +3210,7 @@
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>25</x:v>
@@ -3222,13 +3222,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
         <x:v>35</x:v>
@@ -3239,7 +3239,7 @@
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>25</x:v>
@@ -3251,16 +3251,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
         <x:v>12</x:v>
@@ -3268,7 +3268,7 @@
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>25</x:v>
@@ -3280,16 +3280,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
         <x:v>12</x:v>
@@ -3297,7 +3297,7 @@
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>30</x:v>
@@ -3326,7 +3326,7 @@
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>30</x:v>
@@ -3355,7 +3355,7 @@
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>31</x:v>
@@ -3364,7 +3364,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
         <x:v>26</x:v>
@@ -3384,7 +3384,7 @@
     </x:row>
     <x:row r="68" spans="1:9">
       <x:c r="A68" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>31</x:v>
@@ -3413,7 +3413,7 @@
     </x:row>
     <x:row r="69" spans="1:9">
       <x:c r="A69" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>31</x:v>
@@ -3425,7 +3425,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E69" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F69" s="1" t="s">
         <x:v>23</x:v>
@@ -3442,7 +3442,7 @@
     </x:row>
     <x:row r="70" spans="1:9">
       <x:c r="A70" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>33</x:v>
@@ -3471,7 +3471,7 @@
     </x:row>
     <x:row r="71" spans="1:9">
       <x:c r="A71" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>33</x:v>
@@ -3489,7 +3489,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G71" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H71" s="1" t="s">
         <x:v>19</x:v>
@@ -3500,7 +3500,7 @@
     </x:row>
     <x:row r="72" spans="1:9">
       <x:c r="A72" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>33</x:v>
@@ -3512,16 +3512,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E72" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F72" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G72" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H72" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
         <x:v>12</x:v>
@@ -3529,7 +3529,7 @@
     </x:row>
     <x:row r="73" spans="1:9">
       <x:c r="A73" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>10</x:v>
@@ -3558,7 +3558,7 @@
     </x:row>
     <x:row r="74" spans="1:9">
       <x:c r="A74" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>10</x:v>
@@ -3567,16 +3567,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E74" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F74" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G74" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H74" s="1" t="s">
         <x:v>17</x:v>
@@ -3587,7 +3587,7 @@
     </x:row>
     <x:row r="75" spans="1:9">
       <x:c r="A75" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>10</x:v>
@@ -3596,7 +3596,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E75" s="1" t="s">
         <x:v>28</x:v>
@@ -3605,7 +3605,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G75" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H75" s="1" t="s">
         <x:v>26</x:v>
@@ -3616,7 +3616,7 @@
     </x:row>
     <x:row r="76" spans="1:9">
       <x:c r="A76" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>49</x:v>
@@ -3645,7 +3645,7 @@
     </x:row>
     <x:row r="77" spans="1:9">
       <x:c r="A77" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>49</x:v>
@@ -3674,7 +3674,7 @@
     </x:row>
     <x:row r="78" spans="1:9">
       <x:c r="A78" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>22</x:v>
@@ -3703,7 +3703,7 @@
     </x:row>
     <x:row r="79" spans="1:9">
       <x:c r="A79" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>22</x:v>
@@ -3732,7 +3732,7 @@
     </x:row>
     <x:row r="80" spans="1:9">
       <x:c r="A80" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
@@ -3750,7 +3750,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G80" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H80" s="1" t="s">
         <x:v>16</x:v>
@@ -3761,7 +3761,7 @@
     </x:row>
     <x:row r="81" spans="1:9">
       <x:c r="A81" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>25</x:v>
@@ -3779,7 +3779,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G81" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H81" s="1" t="s">
         <x:v>21</x:v>
@@ -3790,7 +3790,7 @@
     </x:row>
     <x:row r="82" spans="1:9">
       <x:c r="A82" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>25</x:v>
@@ -3802,7 +3802,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E82" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F82" s="1" t="s">
         <x:v>18</x:v>
@@ -3819,7 +3819,7 @@
     </x:row>
     <x:row r="83" spans="1:9">
       <x:c r="A83" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>25</x:v>
@@ -3834,10 +3834,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F83" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G83" s="1" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="G83" s="1" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="H83" s="1" t="s">
         <x:v>38</x:v>
@@ -3848,7 +3848,7 @@
     </x:row>
     <x:row r="84" spans="1:9">
       <x:c r="A84" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>31</x:v>
@@ -3877,7 +3877,7 @@
     </x:row>
     <x:row r="85" spans="1:9">
       <x:c r="A85" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>31</x:v>
@@ -3906,7 +3906,7 @@
     </x:row>
     <x:row r="86" spans="1:9">
       <x:c r="A86" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>31</x:v>
@@ -3935,7 +3935,7 @@
     </x:row>
     <x:row r="87" spans="1:9">
       <x:c r="A87" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>33</x:v>
@@ -3964,7 +3964,7 @@
     </x:row>
     <x:row r="88" spans="1:9">
       <x:c r="A88" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>33</x:v>
@@ -3993,7 +3993,7 @@
     </x:row>
     <x:row r="89" spans="1:9">
       <x:c r="A89" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>10</x:v>
@@ -4022,7 +4022,7 @@
     </x:row>
     <x:row r="90" spans="1:9">
       <x:c r="A90" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>10</x:v>
@@ -4051,7 +4051,7 @@
     </x:row>
     <x:row r="91" spans="1:9">
       <x:c r="A91" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>10</x:v>
@@ -4080,7 +4080,7 @@
     </x:row>
     <x:row r="92" spans="1:9">
       <x:c r="A92" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>22</x:v>
@@ -4109,7 +4109,7 @@
     </x:row>
     <x:row r="93" spans="1:9">
       <x:c r="A93" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>22</x:v>
@@ -4138,7 +4138,7 @@
     </x:row>
     <x:row r="94" spans="1:9">
       <x:c r="A94" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>22</x:v>
@@ -4167,7 +4167,7 @@
     </x:row>
     <x:row r="95" spans="1:9">
       <x:c r="A95" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>25</x:v>
@@ -4196,7 +4196,7 @@
     </x:row>
     <x:row r="96" spans="1:9">
       <x:c r="A96" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>25</x:v>
@@ -4225,7 +4225,7 @@
     </x:row>
     <x:row r="97" spans="1:9">
       <x:c r="A97" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>25</x:v>
@@ -4240,13 +4240,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F97" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G97" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H97" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
         <x:v>12</x:v>
@@ -4254,7 +4254,7 @@
     </x:row>
     <x:row r="98" spans="1:9">
       <x:c r="A98" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>31</x:v>
@@ -4283,7 +4283,7 @@
     </x:row>
     <x:row r="99" spans="1:9">
       <x:c r="A99" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>31</x:v>
@@ -4312,7 +4312,7 @@
     </x:row>
     <x:row r="100" spans="1:9">
       <x:c r="A100" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>31</x:v>
@@ -4321,7 +4321,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D100" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E100" s="1" t="s">
         <x:v>16</x:v>
@@ -4341,7 +4341,7 @@
     </x:row>
     <x:row r="101" spans="1:9">
       <x:c r="A101" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>10</x:v>
@@ -4356,13 +4356,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F101" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G101" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H101" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
         <x:v>12</x:v>
@@ -4370,7 +4370,7 @@
     </x:row>
     <x:row r="102" spans="1:9">
       <x:c r="A102" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>10</x:v>
@@ -4382,16 +4382,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E102" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F102" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G102" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H102" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
         <x:v>12</x:v>
@@ -4399,7 +4399,7 @@
     </x:row>
     <x:row r="103" spans="1:9">
       <x:c r="A103" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>10</x:v>
@@ -4408,19 +4408,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D103" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E103" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F103" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G103" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H103" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
         <x:v>12</x:v>
@@ -4428,7 +4428,7 @@
     </x:row>
     <x:row r="104" spans="1:9">
       <x:c r="A104" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>22</x:v>
@@ -4443,7 +4443,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F104" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G104" s="1" t="s">
         <x:v>26</x:v>
@@ -4457,7 +4457,7 @@
     </x:row>
     <x:row r="105" spans="1:9">
       <x:c r="A105" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>22</x:v>
@@ -4466,16 +4466,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D105" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E105" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F105" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G105" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H105" s="1" t="s">
         <x:v>24</x:v>
@@ -4486,7 +4486,7 @@
     </x:row>
     <x:row r="106" spans="1:9">
       <x:c r="A106" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>22</x:v>
@@ -4498,13 +4498,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E106" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F106" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G106" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H106" s="1" t="s">
         <x:v>27</x:v>
@@ -4515,7 +4515,7 @@
     </x:row>
     <x:row r="107" spans="1:9">
       <x:c r="A107" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>25</x:v>
@@ -4527,7 +4527,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E107" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F107" s="1" t="s">
         <x:v>27</x:v>
@@ -4544,7 +4544,7 @@
     </x:row>
     <x:row r="108" spans="1:9">
       <x:c r="A108" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>25</x:v>
@@ -4556,16 +4556,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E108" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F108" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G108" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H108" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I108" s="0" t="s">
         <x:v>12</x:v>
@@ -4573,7 +4573,7 @@
     </x:row>
     <x:row r="109" spans="1:9">
       <x:c r="A109" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>25</x:v>
@@ -4585,16 +4585,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E109" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F109" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G109" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H109" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I109" s="0" t="s">
         <x:v>12</x:v>
@@ -4602,7 +4602,7 @@
     </x:row>
     <x:row r="110" spans="1:9">
       <x:c r="A110" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>30</x:v>
@@ -4631,7 +4631,7 @@
     </x:row>
     <x:row r="111" spans="1:9">
       <x:c r="A111" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>30</x:v>
@@ -4660,7 +4660,7 @@
     </x:row>
     <x:row r="112" spans="1:9">
       <x:c r="A112" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>31</x:v>
@@ -4669,10 +4669,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D112" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E112" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F112" s="1" t="s">
         <x:v>15</x:v>
@@ -4689,7 +4689,7 @@
     </x:row>
     <x:row r="113" spans="1:9">
       <x:c r="A113" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>31</x:v>
@@ -4701,7 +4701,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E113" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F113" s="1" t="s">
         <x:v>24</x:v>
@@ -4718,7 +4718,7 @@
     </x:row>
     <x:row r="114" spans="1:9">
       <x:c r="A114" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>31</x:v>
@@ -4727,16 +4727,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D114" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E114" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F114" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G114" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H114" s="1" t="s">
         <x:v>19</x:v>
@@ -4747,7 +4747,7 @@
     </x:row>
     <x:row r="115" spans="1:9">
       <x:c r="A115" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>33</x:v>
@@ -4776,7 +4776,7 @@
     </x:row>
     <x:row r="116" spans="1:9">
       <x:c r="A116" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>33</x:v>
@@ -4788,10 +4788,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E116" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F116" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G116" s="1" t="s">
         <x:v>17</x:v>
@@ -4805,7 +4805,7 @@
     </x:row>
     <x:row r="117" spans="1:9">
       <x:c r="A117" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>33</x:v>
@@ -4823,7 +4823,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G117" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H117" s="1" t="s">
         <x:v>15</x:v>
@@ -4834,7 +4834,7 @@
     </x:row>
     <x:row r="118" spans="1:9">
       <x:c r="A118" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>10</x:v>
@@ -4863,7 +4863,7 @@
     </x:row>
     <x:row r="119" spans="1:9">
       <x:c r="A119" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>10</x:v>
@@ -4892,7 +4892,7 @@
     </x:row>
     <x:row r="120" spans="1:9">
       <x:c r="A120" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>10</x:v>
@@ -4901,7 +4901,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D120" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E120" s="1" t="s">
         <x:v>15</x:v>
@@ -4921,7 +4921,7 @@
     </x:row>
     <x:row r="121" spans="1:9">
       <x:c r="A121" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>22</x:v>
@@ -4950,7 +4950,7 @@
     </x:row>
     <x:row r="122" spans="1:9">
       <x:c r="A122" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>22</x:v>
@@ -4979,7 +4979,7 @@
     </x:row>
     <x:row r="123" spans="1:9">
       <x:c r="A123" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>22</x:v>
@@ -5008,7 +5008,7 @@
     </x:row>
     <x:row r="124" spans="1:9">
       <x:c r="A124" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>25</x:v>
@@ -5023,7 +5023,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F124" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G124" s="1" t="s">
         <x:v>15</x:v>
@@ -5037,7 +5037,7 @@
     </x:row>
     <x:row r="125" spans="1:9">
       <x:c r="A125" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>25</x:v>
@@ -5049,7 +5049,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E125" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F125" s="1" t="s">
         <x:v>19</x:v>
@@ -5066,7 +5066,7 @@
     </x:row>
     <x:row r="126" spans="1:9">
       <x:c r="A126" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>25</x:v>
@@ -5078,7 +5078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E126" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F126" s="1" t="s">
         <x:v>38</x:v>
@@ -5087,7 +5087,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H126" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I126" s="0" t="s">
         <x:v>12</x:v>
@@ -5095,7 +5095,7 @@
     </x:row>
     <x:row r="127" spans="1:9">
       <x:c r="A127" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>31</x:v>
@@ -5124,7 +5124,7 @@
     </x:row>
     <x:row r="128" spans="1:9">
       <x:c r="A128" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>31</x:v>
@@ -5153,7 +5153,7 @@
     </x:row>
     <x:row r="129" spans="1:9">
       <x:c r="A129" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>31</x:v>
@@ -5182,7 +5182,7 @@
     </x:row>
     <x:row r="130" spans="1:9">
       <x:c r="A130" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>33</x:v>
@@ -5211,7 +5211,7 @@
     </x:row>
     <x:row r="131" spans="1:9">
       <x:c r="A131" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>33</x:v>
@@ -5240,7 +5240,7 @@
     </x:row>
     <x:row r="132" spans="1:9">
       <x:c r="A132" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>33</x:v>
@@ -5269,7 +5269,7 @@
     </x:row>
     <x:row r="133" spans="1:9">
       <x:c r="A133" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>10</x:v>
@@ -5284,7 +5284,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F133" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G133" s="1" t="s">
         <x:v>26</x:v>
@@ -5298,7 +5298,7 @@
     </x:row>
     <x:row r="134" spans="1:9">
       <x:c r="A134" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>10</x:v>
@@ -5310,16 +5310,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E134" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F134" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G134" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G134" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="H134" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I134" s="0" t="s">
         <x:v>12</x:v>
@@ -5327,7 +5327,7 @@
     </x:row>
     <x:row r="135" spans="1:9">
       <x:c r="A135" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>10</x:v>
@@ -5342,10 +5342,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F135" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G135" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H135" s="1" t="s">
         <x:v>24</x:v>
@@ -5356,7 +5356,7 @@
     </x:row>
     <x:row r="136" spans="1:9">
       <x:c r="A136" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>22</x:v>
@@ -5385,7 +5385,7 @@
     </x:row>
     <x:row r="137" spans="1:9">
       <x:c r="A137" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>22</x:v>
@@ -5414,7 +5414,7 @@
     </x:row>
     <x:row r="138" spans="1:9">
       <x:c r="A138" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>22</x:v>
@@ -5443,7 +5443,7 @@
     </x:row>
     <x:row r="139" spans="1:9">
       <x:c r="A139" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>25</x:v>
@@ -5461,7 +5461,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G139" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H139" s="1" t="s">
         <x:v>24</x:v>
@@ -5472,7 +5472,7 @@
     </x:row>
     <x:row r="140" spans="1:9">
       <x:c r="A140" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>25</x:v>
@@ -5484,16 +5484,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E140" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F140" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G140" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H140" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I140" s="0" t="s">
         <x:v>12</x:v>
@@ -5501,7 +5501,7 @@
     </x:row>
     <x:row r="141" spans="1:9">
       <x:c r="A141" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>25</x:v>
@@ -5519,7 +5519,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="G141" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H141" s="1" t="s">
         <x:v>43</x:v>
@@ -5530,7 +5530,7 @@
     </x:row>
     <x:row r="142" spans="1:9">
       <x:c r="A142" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>30</x:v>
@@ -5559,7 +5559,7 @@
     </x:row>
     <x:row r="143" spans="1:9">
       <x:c r="A143" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>30</x:v>
@@ -5588,7 +5588,7 @@
     </x:row>
     <x:row r="144" spans="1:9">
       <x:c r="A144" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>30</x:v>
@@ -5617,7 +5617,7 @@
     </x:row>
     <x:row r="145" spans="1:9">
       <x:c r="A145" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>31</x:v>
@@ -5646,7 +5646,7 @@
     </x:row>
     <x:row r="146" spans="1:9">
       <x:c r="A146" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>31</x:v>
@@ -5675,7 +5675,7 @@
     </x:row>
     <x:row r="147" spans="1:9">
       <x:c r="A147" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>31</x:v>
@@ -5704,7 +5704,7 @@
     </x:row>
     <x:row r="148" spans="1:9">
       <x:c r="A148" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>33</x:v>
@@ -5733,7 +5733,7 @@
     </x:row>
     <x:row r="149" spans="1:9">
       <x:c r="A149" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>33</x:v>
@@ -5751,7 +5751,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G149" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H149" s="1" t="s">
         <x:v>12</x:v>
@@ -5762,7 +5762,7 @@
     </x:row>
     <x:row r="150" spans="1:9">
       <x:c r="A150" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>33</x:v>
@@ -5780,7 +5780,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G150" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H150" s="1" t="s">
         <x:v>12</x:v>
@@ -5800,7 +5800,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D151" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E151" s="1" t="s">
         <x:v>21</x:v>
@@ -5809,7 +5809,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G151" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H151" s="1" t="s">
         <x:v>27</x:v>
@@ -5829,19 +5829,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D152" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E152" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F152" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G152" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="H152" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I152" s="0" t="s">
         <x:v>12</x:v>
@@ -5858,19 +5858,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D153" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E153" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F153" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G153" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="H153" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I153" s="0" t="s">
         <x:v>12</x:v>
@@ -5916,7 +5916,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D155" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E155" s="1" t="s">
         <x:v>12</x:v>
@@ -6015,7 +6015,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H158" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I158" s="0" t="s">
         <x:v>12</x:v>
@@ -6032,16 +6032,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D159" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E159" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F159" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G159" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H159" s="1" t="s">
         <x:v>18</x:v>
@@ -6067,10 +6067,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F160" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G160" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H160" s="1" t="s">
         <x:v>38</x:v>
@@ -6093,10 +6093,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E161" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F161" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G161" s="1" t="s">
         <x:v>45</x:v>
@@ -6122,13 +6122,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E162" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F162" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
       <x:c r="G162" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H162" s="1" t="s">
         <x:v>120</x:v>
@@ -6235,7 +6235,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D166" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E166" s="1" t="s">
         <x:v>18</x:v>
@@ -6264,7 +6264,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D167" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E167" s="1" t="s">
         <x:v>27</x:v>
@@ -6296,7 +6296,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E168" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F168" s="1" t="s">
         <x:v>13</x:v>
@@ -6853,10 +6853,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G187" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H187" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I187" s="0" t="s">
         <x:v>12</x:v>
@@ -6879,10 +6879,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F188" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G188" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H188" s="1" t="s">
         <x:v>50</x:v>
@@ -6905,16 +6905,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E189" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F189" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G189" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="H189" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I189" s="0" t="s">
         <x:v>12</x:v>
@@ -7166,10 +7166,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E198" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F198" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G198" s="1" t="s">
         <x:v>119</x:v>
@@ -7195,10 +7195,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E199" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F199" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G199" s="1" t="s">
         <x:v>127</x:v>
@@ -7308,7 +7308,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D203" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E203" s="1" t="s">
         <x:v>19</x:v>
@@ -7453,16 +7453,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D208" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E208" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F208" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G208" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H208" s="1" t="s">
         <x:v>16</x:v>
@@ -7485,7 +7485,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E209" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F209" s="1" t="s">
         <x:v>130</x:v>
@@ -7494,7 +7494,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="H209" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I209" s="0" t="s">
         <x:v>12</x:v>
@@ -7514,7 +7514,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E210" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F210" s="1" t="s">
         <x:v>131</x:v>
@@ -7598,7 +7598,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D213" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E213" s="1" t="s">
         <x:v>26</x:v>
@@ -7607,7 +7607,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G213" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H213" s="1" t="s">
         <x:v>32</x:v>
@@ -7665,10 +7665,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G215" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H215" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I215" s="0" t="s">
         <x:v>12</x:v>
@@ -7688,16 +7688,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E216" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F216" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G216" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="H216" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I216" s="0" t="s">
         <x:v>12</x:v>
@@ -7833,7 +7833,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E221" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F221" s="1" t="s">
         <x:v>12</x:v>
@@ -7865,7 +7865,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F222" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G222" s="1" t="s">
         <x:v>21</x:v>
@@ -7894,7 +7894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F223" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G223" s="1" t="s">
         <x:v>28</x:v>
@@ -7923,10 +7923,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F224" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G224" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H224" s="1" t="s">
         <x:v>28</x:v>
@@ -8071,7 +8071,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G229" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H229" s="1" t="s">
         <x:v>21</x:v>
@@ -8103,7 +8103,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H230" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I230" s="0" t="s">
         <x:v>12</x:v>
@@ -8477,7 +8477,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G243" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H243" s="1" t="s">
         <x:v>19</x:v>
@@ -8648,10 +8648,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F249" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G249" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H249" s="1" t="s">
         <x:v>16</x:v>
@@ -8938,10 +8938,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F259" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G259" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H259" s="1" t="s">
         <x:v>32</x:v>
@@ -8961,10 +8961,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D260" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E260" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F260" s="1" t="s">
         <x:v>36</x:v>
@@ -8973,7 +8973,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="H260" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I260" s="0" t="s">
         <x:v>12</x:v>
@@ -8990,7 +8990,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D261" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E261" s="1" t="s">
         <x:v>12</x:v>
@@ -9019,7 +9019,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D262" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E262" s="1" t="s">
         <x:v>12</x:v>
@@ -9054,10 +9054,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F263" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G263" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H263" s="1" t="s">
         <x:v>23</x:v>
@@ -9077,7 +9077,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D264" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E264" s="1" t="s">
         <x:v>28</x:v>
@@ -9112,10 +9112,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F265" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G265" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H265" s="1" t="s">
         <x:v>24</x:v>
@@ -9144,10 +9144,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G266" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H266" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I266" s="0" t="s">
         <x:v>12</x:v>
@@ -9167,7 +9167,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E267" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F267" s="1" t="s">
         <x:v>45</x:v>
@@ -9193,7 +9193,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D268" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E268" s="1" t="s">
         <x:v>40</x:v>
@@ -9254,7 +9254,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E270" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F270" s="1" t="s">
         <x:v>15</x:v>
@@ -9280,10 +9280,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D271" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E271" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F271" s="1" t="s">
         <x:v>21</x:v>
@@ -9379,7 +9379,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H274" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I274" s="0" t="s">
         <x:v>12</x:v>
@@ -9396,10 +9396,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D275" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E275" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F275" s="1" t="s">
         <x:v>137</x:v>
@@ -9408,7 +9408,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H275" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I275" s="0" t="s">
         <x:v>12</x:v>
@@ -9425,7 +9425,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D276" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E276" s="1" t="s">
         <x:v>141</x:v>
@@ -9512,7 +9512,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D279" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E279" s="1" t="s">
         <x:v>12</x:v>
@@ -9576,13 +9576,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F281" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G281" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H281" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="H281" s="1" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="I281" s="0" t="s">
         <x:v>12</x:v>
@@ -9602,7 +9602,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E282" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F282" s="1" t="s">
         <x:v>149</x:v>
@@ -9611,7 +9611,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="H282" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I282" s="0" t="s">
         <x:v>12</x:v>
@@ -9631,16 +9631,16 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E283" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F283" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G283" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H283" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I283" s="0" t="s">
         <x:v>12</x:v>
@@ -9663,7 +9663,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="F284" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G284" s="1" t="s">
         <x:v>151</x:v>
@@ -9715,7 +9715,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D286" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E286" s="1" t="s">
         <x:v>155</x:v>
@@ -9889,16 +9889,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D292" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E292" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F292" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G292" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H292" s="1" t="s">
         <x:v>16</x:v>
@@ -9930,7 +9930,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H293" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I293" s="0" t="s">
         <x:v>12</x:v>
@@ -9953,10 +9953,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F294" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G294" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H294" s="1" t="s">
         <x:v>50</x:v>
@@ -9979,7 +9979,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E295" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F295" s="1" t="s">
         <x:v>124</x:v>
@@ -9988,7 +9988,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H295" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I295" s="0" t="s">
         <x:v>12</x:v>
@@ -10037,13 +10037,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E297" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F297" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G297" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H297" s="1" t="s">
         <x:v>50</x:v>
@@ -10063,10 +10063,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D298" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E298" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F298" s="1" t="s">
         <x:v>160</x:v>
@@ -10075,7 +10075,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="H298" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I298" s="0" t="s">
         <x:v>12</x:v>
@@ -10214,10 +10214,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F303" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G303" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H303" s="1" t="s">
         <x:v>16</x:v>
@@ -10382,19 +10382,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D309" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E309" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F309" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G309" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H309" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="G309" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H309" s="1" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="I309" s="0" t="s">
         <x:v>12</x:v>
@@ -10411,16 +10411,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D310" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E310" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F310" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G310" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H310" s="1" t="s">
         <x:v>28</x:v>
@@ -10539,7 +10539,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H314" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I314" s="0" t="s">
         <x:v>12</x:v>
@@ -10562,13 +10562,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F315" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G315" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H315" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I315" s="0" t="s">
         <x:v>12</x:v>
@@ -10588,16 +10588,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E316" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F316" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G316" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
       <x:c r="H316" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I316" s="0" t="s">
         <x:v>12</x:v>
@@ -10617,7 +10617,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E317" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F317" s="1" t="s">
         <x:v>12</x:v>
@@ -10675,7 +10675,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E319" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F319" s="1" t="s">
         <x:v>12</x:v>
@@ -11084,7 +11084,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F333" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G333" s="1" t="s">
         <x:v>17</x:v>
@@ -11377,7 +11377,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G343" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H343" s="1" t="s">
         <x:v>19</x:v>
@@ -11409,7 +11409,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H344" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I344" s="0" t="s">
         <x:v>12</x:v>
@@ -11571,7 +11571,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D350" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E350" s="1" t="s">
         <x:v>13</x:v>
@@ -11606,10 +11606,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F351" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G351" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H351" s="1" t="s">
         <x:v>27</x:v>
@@ -11635,7 +11635,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F352" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G352" s="1" t="s">
         <x:v>117</x:v>
@@ -11687,13 +11687,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D354" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E354" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F354" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G354" s="1" t="s">
         <x:v>15</x:v>
@@ -11722,7 +11722,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F355" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G355" s="1" t="s">
         <x:v>21</x:v>
@@ -11780,10 +11780,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F357" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G357" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H357" s="1" t="s">
         <x:v>28</x:v>
@@ -11806,13 +11806,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E358" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F358" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="F358" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="G358" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H358" s="1" t="s">
         <x:v>32</x:v>
@@ -11835,7 +11835,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E359" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F359" s="1" t="s">
         <x:v>12</x:v>
@@ -11861,7 +11861,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D360" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E360" s="1" t="s">
         <x:v>29</x:v>
@@ -11893,7 +11893,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E361" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F361" s="1" t="s">
         <x:v>12</x:v>
@@ -12018,7 +12018,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H365" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I365" s="0" t="s">
         <x:v>12</x:v>
@@ -12035,19 +12035,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D366" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E366" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F366" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G366" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H366" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I366" s="0" t="s">
         <x:v>12</x:v>
@@ -12064,7 +12064,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D367" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E367" s="1" t="s">
         <x:v>50</x:v>
@@ -12073,10 +12073,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G367" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H367" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I367" s="0" t="s">
         <x:v>12</x:v>
@@ -12093,7 +12093,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D368" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E368" s="1" t="s">
         <x:v>12</x:v>
@@ -12122,7 +12122,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D369" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E369" s="1" t="s">
         <x:v>12</x:v>
@@ -12183,7 +12183,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E371" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F371" s="1" t="s">
         <x:v>28</x:v>
@@ -12212,13 +12212,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E372" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F372" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G372" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H372" s="1" t="s">
         <x:v>29</x:v>
@@ -12273,13 +12273,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F374" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G374" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="H374" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I374" s="0" t="s">
         <x:v>12</x:v>
@@ -12299,13 +12299,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E375" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F375" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G375" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H375" s="1" t="s">
         <x:v>126</x:v>
@@ -12415,7 +12415,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E379" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F379" s="1" t="s">
         <x:v>23</x:v>
@@ -12473,7 +12473,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E381" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F381" s="1" t="s">
         <x:v>19</x:v>
@@ -12905,7 +12905,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D396" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E396" s="1" t="s">
         <x:v>35</x:v>
@@ -12914,7 +12914,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G396" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H396" s="1" t="s">
         <x:v>15</x:v>
@@ -12937,13 +12937,13 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E397" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F397" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G397" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H397" s="1" t="s">
         <x:v>29</x:v>
@@ -12975,7 +12975,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="H398" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I398" s="0" t="s">
         <x:v>12</x:v>
@@ -12992,16 +12992,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D399" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E399" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="F399" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G399" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H399" s="1" t="s">
         <x:v>38</x:v>
@@ -13024,7 +13024,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E400" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F400" s="1" t="s">
         <x:v>183</x:v>
@@ -13033,7 +13033,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="H400" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I400" s="0" t="s">
         <x:v>12</x:v>
@@ -13091,7 +13091,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="H402" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I402" s="0" t="s">
         <x:v>12</x:v>
@@ -13137,7 +13137,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D404" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E404" s="1" t="s">
         <x:v>193</x:v>
@@ -13172,7 +13172,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F405" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G405" s="1" t="s">
         <x:v>26</x:v>
@@ -13201,7 +13201,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F406" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G406" s="1" t="s">
         <x:v>19</x:v>
@@ -13230,10 +13230,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F407" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G407" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H407" s="1" t="s">
         <x:v>13</x:v>
@@ -13256,13 +13256,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E408" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F408" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="G408" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H408" s="1" t="s">
         <x:v>19</x:v>
@@ -13282,10 +13282,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D409" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E409" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F409" s="1" t="s">
         <x:v>148</x:v>
@@ -13317,7 +13317,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="F410" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G410" s="1" t="s">
         <x:v>171</x:v>
@@ -13343,7 +13343,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E411" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F411" s="1" t="s">
         <x:v>183</x:v>
@@ -13462,13 +13462,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F415" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G415" s="1" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="H415" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I415" s="0" t="s">
         <x:v>12</x:v>
@@ -13491,13 +13491,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F416" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G416" s="1" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="H416" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I416" s="0" t="s">
         <x:v>12</x:v>
@@ -13665,7 +13665,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F422" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G422" s="1" t="s">
         <x:v>26</x:v>
@@ -13865,13 +13865,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E429" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
         <x:v>211</x:v>
       </x:c>
       <x:c r="G429" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H429" s="1" t="s">
         <x:v>45</x:v>
@@ -13891,7 +13891,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D430" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E430" s="1" t="s">
         <x:v>115</x:v>
@@ -13920,7 +13920,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D431" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E431" s="1" t="s">
         <x:v>13</x:v>
@@ -13958,7 +13958,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G432" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H432" s="1" t="s">
         <x:v>19</x:v>
@@ -14013,13 +14013,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F434" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G434" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H434" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I434" s="0" t="s">
         <x:v>12</x:v>
@@ -14039,16 +14039,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E435" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F435" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G435" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H435" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I435" s="0" t="s">
         <x:v>12</x:v>
@@ -14068,7 +14068,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E436" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F436" s="1" t="s">
         <x:v>128</x:v>
@@ -14077,7 +14077,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="H436" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I436" s="0" t="s">
         <x:v>12</x:v>
@@ -14126,7 +14126,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E438" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F438" s="1" t="s">
         <x:v>17</x:v>
@@ -14306,10 +14306,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G444" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H444" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I444" s="0" t="s">
         <x:v>12</x:v>
@@ -14335,7 +14335,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G445" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H445" s="1" t="s">
         <x:v>26</x:v>
@@ -14355,7 +14355,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D446" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E446" s="1" t="s">
         <x:v>12</x:v>
@@ -14384,7 +14384,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D447" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E447" s="1" t="s">
         <x:v>12</x:v>
@@ -14509,7 +14509,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G451" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H451" s="1" t="s">
         <x:v>17</x:v>
@@ -14535,10 +14535,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F452" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G452" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H452" s="1" t="s">
         <x:v>32</x:v>
@@ -14564,10 +14564,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F453" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G453" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H453" s="1" t="s">
         <x:v>50</x:v>
@@ -14590,7 +14590,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E454" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F454" s="1" t="s">
         <x:v>12</x:v>
@@ -14828,7 +14828,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G462" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H462" s="1" t="s">
         <x:v>17</x:v>
@@ -14941,7 +14941,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F466" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G466" s="1" t="s">
         <x:v>17</x:v>
@@ -14996,16 +14996,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E468" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F468" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G468" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H468" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I468" s="0" t="s">
         <x:v>12</x:v>
@@ -15263,7 +15263,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G477" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H477" s="1" t="s">
         <x:v>12</x:v>
@@ -15411,7 +15411,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H482" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I482" s="0" t="s">
         <x:v>12</x:v>
@@ -15437,7 +15437,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G483" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H483" s="1" t="s">
         <x:v>18</x:v>
@@ -15518,10 +15518,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E486" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F486" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G486" s="1" t="s">
         <x:v>17</x:v>
@@ -15544,16 +15544,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D487" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E487" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F487" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G487" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H487" s="1" t="s">
         <x:v>28</x:v>
@@ -15576,13 +15576,13 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E488" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F488" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G488" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H488" s="1" t="s">
         <x:v>38</x:v>
@@ -15631,7 +15631,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D490" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E490" s="1" t="s">
         <x:v>12</x:v>
@@ -15660,7 +15660,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D491" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E491" s="1" t="s">
         <x:v>12</x:v>
@@ -15782,10 +15782,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F495" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G495" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H495" s="1" t="s">
         <x:v>17</x:v>
@@ -15811,13 +15811,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F496" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G496" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H496" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I496" s="0" t="s">
         <x:v>12</x:v>
@@ -15837,13 +15837,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E497" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F497" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G497" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H497" s="1" t="s">
         <x:v>29</x:v>
@@ -15921,7 +15921,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D500" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E500" s="1" t="s">
         <x:v>38</x:v>
@@ -16011,7 +16011,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E503" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F503" s="1" t="s">
         <x:v>21</x:v>
@@ -16394,7 +16394,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G516" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H516" s="1" t="s">
         <x:v>17</x:v>
@@ -16420,7 +16420,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F517" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G517" s="1" t="s">
         <x:v>24</x:v>
@@ -16887,7 +16887,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G533" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H533" s="1" t="s">
         <x:v>12</x:v>
@@ -17177,7 +17177,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G543" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H543" s="1" t="s">
         <x:v>17</x:v>
@@ -17203,13 +17203,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F544" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G544" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H544" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I544" s="0" t="s">
         <x:v>12</x:v>
@@ -17322,7 +17322,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G548" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H548" s="1" t="s">
         <x:v>19</x:v>
@@ -17354,7 +17354,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H549" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I549" s="0" t="s">
         <x:v>12</x:v>
@@ -17377,10 +17377,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F550" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G550" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H550" s="1" t="s">
         <x:v>38</x:v>
@@ -17728,10 +17728,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G562" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H562" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I562" s="0" t="s">
         <x:v>12</x:v>
@@ -17841,7 +17841,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F566" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G566" s="1" t="s">
         <x:v>17</x:v>
@@ -17905,7 +17905,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H568" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I568" s="0" t="s">
         <x:v>12</x:v>
@@ -17925,16 +17925,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E569" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F569" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G569" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H569" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I569" s="0" t="s">
         <x:v>12</x:v>
@@ -18012,7 +18012,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E572" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F572" s="1" t="s">
         <x:v>23</x:v>
@@ -18102,7 +18102,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F575" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G575" s="1" t="s">
         <x:v>35</x:v>
@@ -18154,19 +18154,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D577" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E577" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F577" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G577" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H577" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I577" s="0" t="s">
         <x:v>12</x:v>
@@ -18305,10 +18305,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F582" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G582" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H582" s="1" t="s">
         <x:v>16</x:v>
@@ -18714,7 +18714,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G596" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H596" s="1" t="s">
         <x:v>15</x:v>
@@ -18734,19 +18734,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D597" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E597" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F597" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G597" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H597" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I597" s="0" t="s">
         <x:v>12</x:v>
@@ -18766,13 +18766,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E598" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F598" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="G598" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H598" s="1" t="s">
         <x:v>26</x:v>
@@ -18792,7 +18792,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D599" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E599" s="1" t="s">
         <x:v>13</x:v>
@@ -18830,7 +18830,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G600" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H600" s="1" t="s">
         <x:v>15</x:v>
@@ -18850,13 +18850,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D601" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E601" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F601" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G601" s="1" t="s">
         <x:v>26</x:v>
@@ -18914,7 +18914,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F603" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G603" s="1" t="s">
         <x:v>16</x:v>
@@ -18943,13 +18943,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F604" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G604" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H604" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I604" s="0" t="s">
         <x:v>12</x:v>
@@ -19230,16 +19230,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E614" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F614" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G614" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H614" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I614" s="0" t="s">
         <x:v>12</x:v>
@@ -19262,13 +19262,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F615" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G615" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="H615" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I615" s="0" t="s">
         <x:v>12</x:v>
@@ -19297,7 +19297,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="H616" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I616" s="0" t="s">
         <x:v>12</x:v>
@@ -19381,7 +19381,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G619" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H619" s="1" t="s">
         <x:v>28</x:v>
@@ -19436,13 +19436,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F621" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G621" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="H621" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I621" s="0" t="s">
         <x:v>12</x:v>
@@ -19462,16 +19462,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E622" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F622" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G622" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H622" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I622" s="0" t="s">
         <x:v>12</x:v>
@@ -19491,7 +19491,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E623" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F623" s="1" t="s">
         <x:v>12</x:v>
@@ -19546,10 +19546,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D625" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E625" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F625" s="1" t="s">
         <x:v>23</x:v>
@@ -19697,10 +19697,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F630" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G630" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H630" s="1" t="s">
         <x:v>15</x:v>
@@ -19729,7 +19729,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G631" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H631" s="1" t="s">
         <x:v>16</x:v>
@@ -19897,7 +19897,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E637" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F637" s="1" t="s">
         <x:v>32</x:v>
@@ -20019,10 +20019,10 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="G641" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H641" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I641" s="0" t="s">
         <x:v>12</x:v>
@@ -20039,7 +20039,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D642" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E642" s="1" t="s">
         <x:v>35</x:v>
@@ -20051,7 +20051,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H642" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I642" s="0" t="s">
         <x:v>12</x:v>
@@ -20126,7 +20126,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D645" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E645" s="1" t="s">
         <x:v>15</x:v>
@@ -20161,13 +20161,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F646" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G646" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H646" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I646" s="0" t="s">
         <x:v>12</x:v>
@@ -20190,13 +20190,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F647" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G647" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H647" s="1" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="G647" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="H647" s="1" t="s">
-        <x:v>114</x:v>
       </x:c>
       <x:c r="I647" s="0" t="s">
         <x:v>12</x:v>
@@ -20216,10 +20216,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E648" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F648" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G648" s="1" t="s">
         <x:v>198</x:v>
@@ -20390,7 +20390,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E654" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F654" s="1" t="s">
         <x:v>12</x:v>
@@ -20532,7 +20532,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D659" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E659" s="1" t="s">
         <x:v>15</x:v>
@@ -20541,7 +20541,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G659" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H659" s="1" t="s">
         <x:v>29</x:v>
@@ -20567,13 +20567,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F660" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G660" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H660" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I660" s="0" t="s">
         <x:v>12</x:v>
@@ -20741,7 +20741,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F666" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G666" s="1" t="s">
         <x:v>50</x:v>
@@ -20767,13 +20767,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E667" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F667" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="G667" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H667" s="1" t="s">
         <x:v>32</x:v>
@@ -20799,7 +20799,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F668" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G668" s="1" t="s">
         <x:v>137</x:v>
@@ -20851,10 +20851,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D670" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E670" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F670" s="1" t="s">
         <x:v>12</x:v>
@@ -20976,7 +20976,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G674" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H674" s="1" t="s">
         <x:v>13</x:v>
@@ -20996,10 +20996,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D675" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E675" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F675" s="1" t="s">
         <x:v>234</x:v>
@@ -21054,7 +21054,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D677" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E677" s="1" t="s">
         <x:v>239</x:v>
@@ -21066,7 +21066,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="H677" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I677" s="0" t="s">
         <x:v>12</x:v>
@@ -21112,16 +21112,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D679" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E679" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F679" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G679" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H679" s="1" t="s">
         <x:v>19</x:v>
@@ -21153,7 +21153,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H680" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I680" s="0" t="s">
         <x:v>12</x:v>
@@ -21176,10 +21176,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F681" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G681" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H681" s="1" t="s">
         <x:v>26</x:v>
@@ -21211,7 +21211,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="H682" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I682" s="0" t="s">
         <x:v>12</x:v>
@@ -21240,7 +21240,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="H683" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I683" s="0" t="s">
         <x:v>12</x:v>
@@ -21901,7 +21901,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F706" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G706" s="1" t="s">
         <x:v>29</x:v>
@@ -21933,7 +21933,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G707" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H707" s="1" t="s">
         <x:v>16</x:v>
@@ -22133,7 +22133,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F714" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G714" s="1" t="s">
         <x:v>17</x:v>
@@ -22159,13 +22159,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E715" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F715" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="G715" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H715" s="1" t="s">
         <x:v>27</x:v>
@@ -22188,13 +22188,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E716" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F716" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G716" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H716" s="1" t="s">
         <x:v>29</x:v>
@@ -22275,7 +22275,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E719" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F719" s="1" t="s">
         <x:v>12</x:v>
@@ -22423,7 +22423,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F724" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G724" s="1" t="s">
         <x:v>50</x:v>
@@ -22452,10 +22452,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F725" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G725" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H725" s="1" t="s">
         <x:v>15</x:v>
@@ -22568,7 +22568,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F729" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G729" s="1" t="s">
         <x:v>29</x:v>
@@ -22594,7 +22594,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E730" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F730" s="1" t="s">
         <x:v>234</x:v>
@@ -22632,7 +22632,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="H731" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I731" s="0" t="s">
         <x:v>12</x:v>
@@ -23145,16 +23145,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E749" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F749" s="1" t="s">
         <x:v>182</x:v>
       </x:c>
       <x:c r="G749" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H749" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I749" s="0" t="s">
         <x:v>12</x:v>
@@ -23171,7 +23171,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D750" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E750" s="1" t="s">
         <x:v>247</x:v>
@@ -23319,13 +23319,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E755" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F755" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G755" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="F755" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G755" s="1" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="H755" s="1" t="s">
         <x:v>17</x:v>
@@ -23351,13 +23351,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F756" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G756" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
       <x:c r="H756" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I756" s="0" t="s">
         <x:v>12</x:v>
@@ -23377,16 +23377,16 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E757" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F757" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G757" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="H757" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I757" s="0" t="s">
         <x:v>12</x:v>
@@ -23406,13 +23406,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E758" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F758" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G758" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H758" s="1" t="s">
         <x:v>50</x:v>
@@ -23441,7 +23441,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="G759" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H759" s="1" t="s">
         <x:v>40</x:v>
@@ -23464,10 +23464,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E760" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F760" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G760" s="1" t="s">
         <x:v>253</x:v>
@@ -23609,7 +23609,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E765" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F765" s="1" t="s">
         <x:v>17</x:v>
@@ -23638,7 +23638,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E766" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F766" s="1" t="s">
         <x:v>38</x:v>
@@ -23647,7 +23647,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="H766" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I766" s="0" t="s">
         <x:v>12</x:v>
@@ -23670,13 +23670,13 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="F767" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G767" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H767" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I767" s="0" t="s">
         <x:v>12</x:v>
@@ -23699,7 +23699,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="F768" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G768" s="1" t="s">
         <x:v>138</x:v>
@@ -23754,16 +23754,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E770" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F770" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="G770" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H770" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I770" s="0" t="s">
         <x:v>12</x:v>
@@ -23786,7 +23786,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F771" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G771" s="1" t="s">
         <x:v>148</x:v>
@@ -23838,7 +23838,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D773" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E773" s="1" t="s">
         <x:v>15</x:v>
@@ -23850,7 +23850,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H773" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I773" s="0" t="s">
         <x:v>12</x:v>
@@ -23879,7 +23879,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H774" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I774" s="0" t="s">
         <x:v>12</x:v>
@@ -23905,7 +23905,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G775" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H775" s="1" t="s">
         <x:v>26</x:v>
@@ -23931,7 +23931,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F776" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G776" s="1" t="s">
         <x:v>37</x:v>
@@ -23957,7 +23957,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E777" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F777" s="1" t="s">
         <x:v>148</x:v>
@@ -23966,7 +23966,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="H777" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I777" s="0" t="s">
         <x:v>12</x:v>
@@ -24128,10 +24128,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D783" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E783" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F783" s="1" t="s">
         <x:v>12</x:v>
@@ -24250,7 +24250,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F787" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G787" s="1" t="s">
         <x:v>13</x:v>
@@ -24279,7 +24279,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F788" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G788" s="1" t="s">
         <x:v>17</x:v>
@@ -24450,7 +24450,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E794" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F794" s="1" t="s">
         <x:v>19</x:v>
@@ -24479,7 +24479,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E795" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F795" s="1" t="s">
         <x:v>17</x:v>
@@ -24511,7 +24511,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F796" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G796" s="1" t="s">
         <x:v>50</x:v>
@@ -24537,13 +24537,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E797" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F797" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G797" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H797" s="1" t="s">
         <x:v>27</x:v>
@@ -24650,7 +24650,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D801" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E801" s="1" t="s">
         <x:v>15</x:v>
@@ -24827,7 +24827,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E807" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F807" s="1" t="s">
         <x:v>35</x:v>
@@ -24836,7 +24836,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H807" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I807" s="0" t="s">
         <x:v>12</x:v>
@@ -24972,7 +24972,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E812" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F812" s="1" t="s">
         <x:v>27</x:v>
@@ -25416,7 +25416,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H827" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I827" s="0" t="s">
         <x:v>12</x:v>
@@ -25436,10 +25436,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E828" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F828" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G828" s="1" t="s">
         <x:v>27</x:v>
@@ -25520,7 +25520,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D831" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E831" s="1" t="s">
         <x:v>16</x:v>
@@ -25558,7 +25558,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G832" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H832" s="1" t="s">
         <x:v>28</x:v>
@@ -25584,10 +25584,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F833" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G833" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H833" s="1" t="s">
         <x:v>27</x:v>
@@ -25703,7 +25703,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G837" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H837" s="1" t="s">
         <x:v>23</x:v>
@@ -25729,13 +25729,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F838" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G838" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H838" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I838" s="0" t="s">
         <x:v>12</x:v>
@@ -25755,16 +25755,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E839" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F839" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G839" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H839" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I839" s="0" t="s">
         <x:v>12</x:v>
@@ -25868,10 +25868,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D843" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E843" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F843" s="1" t="s">
         <x:v>12</x:v>
@@ -26022,7 +26022,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G848" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H848" s="1" t="s">
         <x:v>21</x:v>
@@ -26170,7 +26170,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H853" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I853" s="0" t="s">
         <x:v>12</x:v>
@@ -26199,7 +26199,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="H854" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I854" s="0" t="s">
         <x:v>12</x:v>
@@ -26277,7 +26277,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E857" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F857" s="1" t="s">
         <x:v>23</x:v>
@@ -26509,13 +26509,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E865" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F865" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G865" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H865" s="1" t="s">
         <x:v>21</x:v>
@@ -26567,16 +26567,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E867" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F867" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="G867" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H867" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I867" s="0" t="s">
         <x:v>12</x:v>
@@ -26602,10 +26602,10 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="G868" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H868" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I868" s="0" t="s">
         <x:v>12</x:v>
@@ -26651,7 +26651,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D870" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E870" s="1" t="s">
         <x:v>184</x:v>
@@ -26796,16 +26796,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D875" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E875" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F875" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="G875" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H875" s="1" t="s">
         <x:v>21</x:v>
@@ -26828,7 +26828,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E876" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F876" s="1" t="s">
         <x:v>19</x:v>
@@ -26837,7 +26837,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H876" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I876" s="0" t="s">
         <x:v>12</x:v>
@@ -26863,7 +26863,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="G877" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H877" s="1" t="s">
         <x:v>32</x:v>
@@ -26886,10 +26886,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E878" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F878" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G878" s="1" t="s">
         <x:v>247</x:v>
@@ -27408,16 +27408,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E896" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F896" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="G896" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H896" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I896" s="0" t="s">
         <x:v>12</x:v>
@@ -27434,16 +27434,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D897" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E897" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F897" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G897" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H897" s="1" t="s">
         <x:v>18</x:v>
@@ -27463,10 +27463,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D898" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E898" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F898" s="1" t="s">
         <x:v>148</x:v>
@@ -27475,7 +27475,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="H898" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I898" s="0" t="s">
         <x:v>12</x:v>
@@ -27649,7 +27649,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="H904" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I904" s="0" t="s">
         <x:v>12</x:v>
@@ -27936,7 +27936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G914" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H914" s="1" t="s">
         <x:v>15</x:v>
@@ -28081,10 +28081,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G919" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H919" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I919" s="0" t="s">
         <x:v>12</x:v>
@@ -28104,16 +28104,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E920" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F920" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="G920" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H920" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I920" s="0" t="s">
         <x:v>12</x:v>
@@ -28339,13 +28339,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F928" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G928" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H928" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I928" s="0" t="s">
         <x:v>12</x:v>
@@ -28365,10 +28365,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E929" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F929" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G929" s="1" t="s">
         <x:v>289</x:v>
@@ -28420,7 +28420,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D931" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E931" s="1" t="s">
         <x:v>12</x:v>
@@ -28600,13 +28600,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F937" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G937" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="H937" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I937" s="0" t="s">
         <x:v>12</x:v>
@@ -28626,16 +28626,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E938" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F938" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G938" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H938" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I938" s="0" t="s">
         <x:v>12</x:v>
@@ -29061,13 +29061,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E953" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F953" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G953" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H953" s="1" t="s">
         <x:v>18</x:v>
@@ -29096,7 +29096,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G954" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H954" s="1" t="s">
         <x:v>28</x:v>
@@ -29525,7 +29525,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E969" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F969" s="1" t="s">
         <x:v>29</x:v>
@@ -29551,7 +29551,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D970" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E970" s="1" t="s">
         <x:v>126</x:v>
@@ -29580,16 +29580,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D971" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E971" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F971" s="1" t="s">
         <x:v>294</x:v>
       </x:c>
       <x:c r="G971" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H971" s="1" t="s">
         <x:v>139</x:v>
@@ -29638,7 +29638,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D973" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E973" s="1" t="s">
         <x:v>16</x:v>
@@ -29699,7 +29699,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E975" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F975" s="1" t="s">
         <x:v>24</x:v>
@@ -29725,13 +29725,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D976" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E976" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F976" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G976" s="1" t="s">
         <x:v>36</x:v>
@@ -29754,19 +29754,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D977" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E977" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F977" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G977" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H977" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I977" s="0" t="s">
         <x:v>12</x:v>
@@ -29786,7 +29786,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E978" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F978" s="1" t="s">
         <x:v>117</x:v>
@@ -29795,7 +29795,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="H978" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I978" s="0" t="s">
         <x:v>12</x:v>
@@ -29824,7 +29824,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="H979" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I979" s="0" t="s">
         <x:v>12</x:v>
@@ -29960,7 +29960,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E984" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F984" s="1" t="s">
         <x:v>12</x:v>
@@ -30015,7 +30015,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D986" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E986" s="1" t="s">
         <x:v>298</x:v>
@@ -30050,7 +30050,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F987" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G987" s="1" t="s">
         <x:v>43</x:v>
@@ -30076,16 +30076,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E988" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F988" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G988" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H988" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I988" s="0" t="s">
         <x:v>12</x:v>
@@ -30105,7 +30105,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E989" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F989" s="1" t="s">
         <x:v>253</x:v>
@@ -30114,7 +30114,7 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="H989" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I989" s="0" t="s">
         <x:v>12</x:v>
@@ -30131,7 +30131,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D990" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E990" s="1" t="s">
         <x:v>16</x:v>
@@ -30143,7 +30143,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H990" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I990" s="0" t="s">
         <x:v>12</x:v>
@@ -30160,19 +30160,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D991" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E991" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F991" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G991" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H991" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I991" s="0" t="s">
         <x:v>12</x:v>
@@ -30189,19 +30189,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D992" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E992" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F992" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G992" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="H992" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I992" s="0" t="s">
         <x:v>12</x:v>
@@ -30372,7 +30372,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G998" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H998" s="1" t="s">
         <x:v>18</x:v>
@@ -30395,16 +30395,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E999" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F999" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G999" s="1" t="s">
         <x:v>294</x:v>
       </x:c>
       <x:c r="H999" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I999" s="0" t="s">
         <x:v>12</x:v>
@@ -30424,7 +30424,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E1000" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="s">
         <x:v>198</x:v>
@@ -30433,7 +30433,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="H1000" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I1000" s="0" t="s">
         <x:v>12</x:v>
@@ -30595,10 +30595,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1006" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E1006" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F1006" s="1" t="s">
         <x:v>16</x:v>
@@ -30720,7 +30720,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G1010" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1010" s="1" t="s">
         <x:v>24</x:v>
@@ -30746,10 +30746,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F1011" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1011" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H1011" s="1" t="s">
         <x:v>18</x:v>
@@ -30775,10 +30775,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1012" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G1012" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H1012" s="1" t="s">
         <x:v>50</x:v>
@@ -30952,10 +30952,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G1018" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H1018" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I1018" s="0" t="s">
         <x:v>12</x:v>
@@ -31187,7 +31187,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="H1026" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I1026" s="0" t="s">
         <x:v>12</x:v>
@@ -31216,7 +31216,7 @@
         <x:v>304</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="s">
         <x:v>12</x:v>
@@ -31233,7 +31233,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1028" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="s">
         <x:v>187</x:v>
@@ -31329,10 +31329,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="G1031" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H1031" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I1031" s="0" t="s">
         <x:v>12</x:v>
@@ -31352,7 +31352,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1032" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F1032" s="1" t="s">
         <x:v>40</x:v>
@@ -31361,7 +31361,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I1032" s="0" t="s">
         <x:v>12</x:v>
@@ -31378,7 +31378,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1033" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E1033" s="1" t="s">
         <x:v>120</x:v>
@@ -31387,7 +31387,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G1033" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="s">
         <x:v>198</x:v>
@@ -31410,16 +31410,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1034" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F1034" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1034" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H1034" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I1034" s="0" t="s">
         <x:v>12</x:v>
@@ -31448,7 +31448,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="H1035" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I1035" s="0" t="s">
         <x:v>12</x:v>
@@ -31584,7 +31584,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E1040" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F1040" s="1" t="s">
         <x:v>13</x:v>
@@ -31613,7 +31613,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E1041" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F1041" s="1" t="s">
         <x:v>23</x:v>
@@ -31639,10 +31639,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1042" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E1042" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F1042" s="1" t="s">
         <x:v>15</x:v>
@@ -31674,13 +31674,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F1043" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G1043" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H1043" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I1043" s="0" t="s">
         <x:v>12</x:v>
@@ -31700,13 +31700,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E1044" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F1044" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G1044" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H1044" s="1" t="s">
         <x:v>50</x:v>
@@ -31726,7 +31726,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1045" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E1045" s="1" t="s">
         <x:v>40</x:v>
@@ -31735,7 +31735,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="G1045" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H1045" s="1" t="s">
         <x:v>126</x:v>
@@ -31755,7 +31755,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1046" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E1046" s="1" t="s">
         <x:v>148</x:v>
@@ -31787,7 +31787,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E1047" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="s">
         <x:v>309</x:v>
@@ -31813,10 +31813,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1048" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E1048" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="s">
         <x:v>311</x:v>
@@ -31842,7 +31842,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1049" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E1049" s="1" t="s">
         <x:v>12</x:v>
@@ -31871,7 +31871,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1050" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E1050" s="1" t="s">
         <x:v>12</x:v>
@@ -31900,7 +31900,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1051" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E1051" s="1" t="s">
         <x:v>12</x:v>
@@ -31929,16 +31929,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1052" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E1052" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F1052" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G1052" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H1052" s="1" t="s">
         <x:v>19</x:v>
@@ -31958,19 +31958,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1053" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E1053" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F1053" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1053" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H1053" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I1053" s="0" t="s">
         <x:v>12</x:v>
@@ -31987,19 +31987,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1054" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E1054" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
       <x:c r="F1054" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G1054" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H1054" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I1054" s="0" t="s">
         <x:v>12</x:v>
@@ -32019,10 +32019,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E1055" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F1055" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G1055" s="1" t="s">
         <x:v>37</x:v>
@@ -32045,7 +32045,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1056" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1056" s="1" t="s">
         <x:v>150</x:v>
@@ -32054,7 +32054,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
         <x:v>306</x:v>
@@ -32077,7 +32077,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E1057" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
         <x:v>314</x:v>
@@ -32190,10 +32190,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1061" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E1061" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F1061" s="1" t="s">
         <x:v>19</x:v>
@@ -32219,7 +32219,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1062" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="s">
         <x:v>315</x:v>
@@ -32228,7 +32228,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G1062" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H1062" s="1" t="s">
         <x:v>21</x:v>
@@ -32254,10 +32254,10 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1063" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H1063" s="1" t="s">
         <x:v>19</x:v>
@@ -32280,16 +32280,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1064" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F1064" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G1064" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H1064" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I1064" s="0" t="s">
         <x:v>12</x:v>
@@ -32306,7 +32306,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1065" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1065" s="1" t="s">
         <x:v>119</x:v>
@@ -32318,7 +32318,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="H1065" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I1065" s="0" t="s">
         <x:v>12</x:v>
@@ -32396,7 +32396,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E1068" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F1068" s="1" t="s">
         <x:v>18</x:v>
@@ -32431,10 +32431,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H1069" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="H1069" s="1" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="I1069" s="0" t="s">
         <x:v>12</x:v>
@@ -32567,7 +32567,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1074" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1074" s="1" t="s">
         <x:v>12</x:v>
@@ -32637,7 +32637,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H1076" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I1076" s="0" t="s">
         <x:v>12</x:v>
@@ -32657,13 +32657,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E1077" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F1077" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G1077" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H1077" s="1" t="s">
         <x:v>18</x:v>
@@ -32686,13 +32686,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E1078" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F1078" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G1078" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H1078" s="1" t="s">
         <x:v>35</x:v>
@@ -32857,7 +32857,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1084" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E1084" s="1" t="s">
         <x:v>21</x:v>
@@ -33266,7 +33266,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1098" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F1098" s="1" t="s">
         <x:v>12</x:v>
@@ -33295,7 +33295,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1099" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F1099" s="1" t="s">
         <x:v>12</x:v>
@@ -33785,7 +33785,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1116" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1116" s="1" t="s">
         <x:v>15</x:v>
@@ -33962,7 +33962,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1122" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F1122" s="1" t="s">
         <x:v>18</x:v>
@@ -33997,7 +33997,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G1123" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1123" s="1" t="s">
         <x:v>38</x:v>
@@ -34464,7 +34464,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="H1139" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I1139" s="0" t="s">
         <x:v>12</x:v>
@@ -34600,7 +34600,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E1144" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F1144" s="1" t="s">
         <x:v>38</x:v>
@@ -34922,7 +34922,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F1155" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G1155" s="1" t="s">
         <x:v>50</x:v>
@@ -35096,7 +35096,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1161" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1161" s="1" t="s">
         <x:v>24</x:v>
@@ -35380,7 +35380,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1171" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1171" s="1" t="s">
         <x:v>12</x:v>
@@ -35389,7 +35389,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G1171" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1171" s="1" t="s">
         <x:v>19</x:v>
@@ -35476,7 +35476,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G1174" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1174" s="1" t="s">
         <x:v>19</x:v>
@@ -35534,7 +35534,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G1176" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H1176" s="1" t="s">
         <x:v>16</x:v>
@@ -35818,16 +35818,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E1186" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F1186" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G1186" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H1186" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I1186" s="0" t="s">
         <x:v>12</x:v>
@@ -35844,7 +35844,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1187" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E1187" s="1" t="s">
         <x:v>289</x:v>
@@ -35873,7 +35873,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1188" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E1188" s="1" t="s">
         <x:v>267</x:v>
@@ -35960,7 +35960,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1191" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E1191" s="1" t="s">
         <x:v>12</x:v>
@@ -35989,7 +35989,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1192" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E1192" s="1" t="s">
         <x:v>24</x:v>
@@ -36021,13 +36021,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E1193" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F1193" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G1193" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H1193" s="1" t="s">
         <x:v>29</x:v>
@@ -36047,16 +36047,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1194" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E1194" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F1194" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G1194" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H1194" s="1" t="s">
         <x:v>50</x:v>
@@ -36079,7 +36079,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E1195" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F1195" s="1" t="s">
         <x:v>127</x:v>
@@ -36108,7 +36108,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E1196" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="s">
         <x:v>332</x:v>
@@ -36279,19 +36279,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1202" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1202" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F1202" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="G1202" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1202" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I1202" s="0" t="s">
         <x:v>12</x:v>
@@ -36311,7 +36311,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E1203" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F1203" s="1" t="s">
         <x:v>24</x:v>
@@ -36366,19 +36366,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1205" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1205" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F1205" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G1205" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H1205" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I1205" s="0" t="s">
         <x:v>12</x:v>
@@ -36407,7 +36407,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H1206" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I1206" s="0" t="s">
         <x:v>12</x:v>
@@ -36465,7 +36465,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="H1208" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I1208" s="0" t="s">
         <x:v>12</x:v>
@@ -36491,7 +36491,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G1209" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H1209" s="1" t="s">
         <x:v>28</x:v>
@@ -36630,10 +36630,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1214" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F1214" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G1214" s="1" t="s">
         <x:v>18</x:v>
@@ -36662,7 +36662,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1215" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G1215" s="1" t="s">
         <x:v>29</x:v>
@@ -36839,7 +36839,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G1221" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H1221" s="1" t="s">
         <x:v>16</x:v>
@@ -36868,7 +36868,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G1222" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H1222" s="1" t="s">
         <x:v>21</x:v>
@@ -36897,7 +36897,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G1223" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H1223" s="1" t="s">
         <x:v>24</x:v>
@@ -37097,10 +37097,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F1230" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1230" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H1230" s="1" t="s">
         <x:v>17</x:v>
@@ -37329,7 +37329,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1238" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1238" s="1" t="s">
         <x:v>28</x:v>
@@ -37358,10 +37358,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1239" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1239" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H1239" s="1" t="s">
         <x:v>29</x:v>
@@ -37381,7 +37381,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1240" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E1240" s="1" t="s">
         <x:v>18</x:v>
@@ -37468,7 +37468,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1243" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E1243" s="1" t="s">
         <x:v>15</x:v>
@@ -37503,7 +37503,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F1244" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G1244" s="1" t="s">
         <x:v>19</x:v>
@@ -37538,7 +37538,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H1245" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I1245" s="0" t="s">
         <x:v>12</x:v>
@@ -37558,7 +37558,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E1246" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F1246" s="1" t="s">
         <x:v>35</x:v>
@@ -37596,7 +37596,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H1247" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I1247" s="0" t="s">
         <x:v>12</x:v>
@@ -37625,7 +37625,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="H1248" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I1248" s="0" t="s">
         <x:v>12</x:v>
@@ -37732,7 +37732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E1252" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F1252" s="1" t="s">
         <x:v>12</x:v>
@@ -37761,7 +37761,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E1253" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F1253" s="1" t="s">
         <x:v>12</x:v>
@@ -37822,7 +37822,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F1255" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G1255" s="1" t="s">
         <x:v>26</x:v>
@@ -37851,13 +37851,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F1256" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G1256" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H1256" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I1256" s="0" t="s">
         <x:v>12</x:v>
@@ -37874,19 +37874,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1257" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E1257" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F1257" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G1257" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H1257" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I1257" s="0" t="s">
         <x:v>12</x:v>
@@ -37903,7 +37903,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1258" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E1258" s="1" t="s">
         <x:v>48</x:v>
@@ -37973,7 +37973,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H1260" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I1260" s="0" t="s">
         <x:v>12</x:v>
@@ -37996,13 +37996,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F1261" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G1261" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H1261" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I1261" s="0" t="s">
         <x:v>12</x:v>
@@ -38019,19 +38019,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1262" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E1262" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F1262" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G1262" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H1262" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I1262" s="0" t="s">
         <x:v>12</x:v>
@@ -38054,13 +38054,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F1263" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G1263" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H1263" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I1263" s="0" t="s">
         <x:v>12</x:v>
@@ -38080,16 +38080,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E1264" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F1264" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G1264" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H1264" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I1264" s="0" t="s">
         <x:v>12</x:v>
@@ -38109,10 +38109,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E1265" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F1265" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G1265" s="1" t="s">
         <x:v>253</x:v>
@@ -38193,7 +38193,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D1268" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E1268" s="1" t="s">
         <x:v>17</x:v>
@@ -38225,7 +38225,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E1269" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F1269" s="1" t="s">
         <x:v>16</x:v>
@@ -38251,10 +38251,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1270" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E1270" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F1270" s="1" t="s">
         <x:v>17</x:v>
@@ -38402,7 +38402,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F1275" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G1275" s="1" t="s">
         <x:v>16</x:v>
@@ -38431,7 +38431,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F1276" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G1276" s="1" t="s">
         <x:v>17</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -931,6 +931,9 @@
     <x:t>231</x:t>
   </x:si>
   <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
     <x:t>349</x:t>
   </x:si>
   <x:si>
@@ -31207,7 +31210,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="s">
         <x:v>303</x:v>
@@ -31236,13 +31239,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="s">
         <x:v>188</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="s">
         <x:v>184</x:v>
@@ -31442,7 +31445,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>139</x:v>
@@ -31474,7 +31477,7 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="s">
         <x:v>247</x:v>
@@ -31746,7 +31749,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>10</x:v>
@@ -31775,7 +31778,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>10</x:v>
@@ -31790,10 +31793,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="s">
         <x:v>150</x:v>
@@ -31804,7 +31807,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>10</x:v>
@@ -31819,13 +31822,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="s">
         <x:v>12</x:v>
@@ -31833,7 +31836,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>49</x:v>
@@ -31862,7 +31865,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>49</x:v>
@@ -31891,7 +31894,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>49</x:v>
@@ -31920,7 +31923,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>22</x:v>
@@ -31949,7 +31952,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>22</x:v>
@@ -31978,7 +31981,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>22</x:v>
@@ -32007,7 +32010,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>25</x:v>
@@ -32036,7 +32039,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>25</x:v>
@@ -32057,7 +32060,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I1056" s="0" t="s">
         <x:v>12</x:v>
@@ -32065,7 +32068,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>25</x:v>
@@ -32080,13 +32083,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
         <x:v>212</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32094,7 +32097,7 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
         <x:v>30</x:v>
@@ -32123,7 +32126,7 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
         <x:v>30</x:v>
@@ -32152,7 +32155,7 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
         <x:v>30</x:v>
@@ -32181,7 +32184,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>31</x:v>
@@ -32210,7 +32213,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>31</x:v>
@@ -32222,7 +32225,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="s">
         <x:v>29</x:v>
@@ -32239,7 +32242,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>31</x:v>
@@ -32251,7 +32254,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="s">
         <x:v>54</x:v>
@@ -32268,7 +32271,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>33</x:v>
@@ -32297,7 +32300,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>33</x:v>
@@ -32326,7 +32329,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>33</x:v>
@@ -32338,13 +32341,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="s">
         <x:v>294</x:v>
@@ -32355,7 +32358,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>10</x:v>
@@ -32384,7 +32387,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>10</x:v>
@@ -32413,7 +32416,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>10</x:v>
@@ -32442,7 +32445,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>49</x:v>
@@ -32471,7 +32474,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>49</x:v>
@@ -32500,7 +32503,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>49</x:v>
@@ -32529,7 +32532,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>22</x:v>
@@ -32558,7 +32561,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>22</x:v>
@@ -32587,7 +32590,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>22</x:v>
@@ -32616,7 +32619,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>25</x:v>
@@ -32645,7 +32648,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>25</x:v>
@@ -32674,7 +32677,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>25</x:v>
@@ -32703,7 +32706,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>30</x:v>
@@ -32732,7 +32735,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>30</x:v>
@@ -32761,7 +32764,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>30</x:v>
@@ -32790,7 +32793,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>31</x:v>
@@ -32819,7 +32822,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>31</x:v>
@@ -32848,7 +32851,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>31</x:v>
@@ -32877,7 +32880,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>33</x:v>
@@ -32906,7 +32909,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>33</x:v>
@@ -32935,7 +32938,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>33</x:v>
@@ -32964,7 +32967,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>10</x:v>
@@ -32993,7 +32996,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>10</x:v>
@@ -33022,7 +33025,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>10</x:v>
@@ -33051,7 +33054,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>22</x:v>
@@ -33080,7 +33083,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>22</x:v>
@@ -33109,7 +33112,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>22</x:v>
@@ -33138,7 +33141,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>25</x:v>
@@ -33167,7 +33170,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>25</x:v>
@@ -33196,7 +33199,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>25</x:v>
@@ -33225,7 +33228,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>31</x:v>
@@ -33254,7 +33257,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>31</x:v>
@@ -33283,7 +33286,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>31</x:v>
@@ -33312,7 +33315,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>33</x:v>
@@ -33341,7 +33344,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>33</x:v>
@@ -33370,7 +33373,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>33</x:v>
@@ -33399,7 +33402,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>10</x:v>
@@ -33428,7 +33431,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>10</x:v>
@@ -33457,7 +33460,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>22</x:v>
@@ -33486,7 +33489,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>22</x:v>
@@ -33515,7 +33518,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>25</x:v>
@@ -33544,7 +33547,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>25</x:v>
@@ -33573,7 +33576,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>25</x:v>
@@ -33602,7 +33605,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33631,7 +33634,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>31</x:v>
@@ -33660,7 +33663,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>33</x:v>
@@ -33689,7 +33692,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>33</x:v>
@@ -33718,7 +33721,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>33</x:v>
@@ -33747,7 +33750,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33776,7 +33779,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>10</x:v>
@@ -33805,7 +33808,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>10</x:v>
@@ -33834,7 +33837,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>22</x:v>
@@ -33863,7 +33866,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>22</x:v>
@@ -33892,7 +33895,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>22</x:v>
@@ -33921,7 +33924,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>25</x:v>
@@ -33950,7 +33953,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>25</x:v>
@@ -33979,7 +33982,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>25</x:v>
@@ -34008,7 +34011,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34037,7 +34040,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>31</x:v>
@@ -34066,7 +34069,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>33</x:v>
@@ -34095,7 +34098,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>33</x:v>
@@ -34124,7 +34127,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34153,7 +34156,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34182,7 +34185,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34211,7 +34214,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>22</x:v>
@@ -34240,7 +34243,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>22</x:v>
@@ -34269,7 +34272,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>22</x:v>
@@ -34298,7 +34301,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>25</x:v>
@@ -34327,7 +34330,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>25</x:v>
@@ -34356,7 +34359,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>25</x:v>
@@ -34385,7 +34388,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>10</x:v>
@@ -34414,7 +34417,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>10</x:v>
@@ -34443,7 +34446,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>10</x:v>
@@ -34472,7 +34475,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>22</x:v>
@@ -34501,7 +34504,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>22</x:v>
@@ -34530,7 +34533,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>22</x:v>
@@ -34559,7 +34562,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>25</x:v>
@@ -34588,7 +34591,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>25</x:v>
@@ -34617,7 +34620,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>25</x:v>
@@ -34646,7 +34649,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>30</x:v>
@@ -34675,7 +34678,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>30</x:v>
@@ -34704,7 +34707,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>31</x:v>
@@ -34733,7 +34736,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>31</x:v>
@@ -34762,7 +34765,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>31</x:v>
@@ -34791,7 +34794,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>33</x:v>
@@ -34820,7 +34823,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>33</x:v>
@@ -34849,7 +34852,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>10</x:v>
@@ -34878,7 +34881,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>10</x:v>
@@ -34907,7 +34910,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>10</x:v>
@@ -34936,7 +34939,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>49</x:v>
@@ -34965,7 +34968,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>49</x:v>
@@ -34994,7 +34997,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>49</x:v>
@@ -35023,7 +35026,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>22</x:v>
@@ -35052,7 +35055,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>22</x:v>
@@ -35081,7 +35084,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>22</x:v>
@@ -35110,7 +35113,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>25</x:v>
@@ -35139,7 +35142,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>25</x:v>
@@ -35168,7 +35171,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>25</x:v>
@@ -35197,7 +35200,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>31</x:v>
@@ -35226,7 +35229,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35255,7 +35258,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>33</x:v>
@@ -35284,7 +35287,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>33</x:v>
@@ -35313,7 +35316,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>10</x:v>
@@ -35342,7 +35345,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>10</x:v>
@@ -35371,7 +35374,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>10</x:v>
@@ -35400,7 +35403,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>22</x:v>
@@ -35429,7 +35432,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>22</x:v>
@@ -35458,7 +35461,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>22</x:v>
@@ -35487,7 +35490,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>25</x:v>
@@ -35516,7 +35519,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>25</x:v>
@@ -35545,7 +35548,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>25</x:v>
@@ -35574,7 +35577,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>30</x:v>
@@ -35603,7 +35606,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>30</x:v>
@@ -35632,7 +35635,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>31</x:v>
@@ -35661,7 +35664,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35690,7 +35693,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35719,7 +35722,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>33</x:v>
@@ -35748,7 +35751,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>33</x:v>
@@ -35777,7 +35780,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>33</x:v>
@@ -35806,7 +35809,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>10</x:v>
@@ -35835,7 +35838,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35853,10 +35856,10 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H1187" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="s">
         <x:v>12</x:v>
@@ -35864,7 +35867,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35879,7 +35882,7 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="s">
         <x:v>265</x:v>
@@ -35893,7 +35896,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>49</x:v>
@@ -35922,7 +35925,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>49</x:v>
@@ -35951,7 +35954,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>49</x:v>
@@ -35980,7 +35983,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>22</x:v>
@@ -36009,7 +36012,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>22</x:v>
@@ -36038,7 +36041,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>22</x:v>
@@ -36067,7 +36070,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>25</x:v>
@@ -36096,7 +36099,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>25</x:v>
@@ -36111,10 +36114,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="s">
         <x:v>141</x:v>
@@ -36125,7 +36128,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>25</x:v>
@@ -36140,13 +36143,13 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="G1197" s="1" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="H1197" s="1" t="s">
         <x:v>334</x:v>
-      </x:c>
-      <x:c r="G1197" s="1" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="H1197" s="1" t="s">
-        <x:v>333</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="s">
         <x:v>12</x:v>
@@ -36154,7 +36157,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>30</x:v>
@@ -36183,7 +36186,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>30</x:v>
@@ -36212,7 +36215,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>30</x:v>
@@ -36241,7 +36244,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>31</x:v>
@@ -36270,7 +36273,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>31</x:v>
@@ -36299,7 +36302,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>31</x:v>
@@ -36328,7 +36331,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>33</x:v>
@@ -36357,7 +36360,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>33</x:v>
@@ -36386,7 +36389,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>33</x:v>
@@ -36415,7 +36418,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>10</x:v>
@@ -36444,7 +36447,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>10</x:v>
@@ -36473,7 +36476,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>10</x:v>
@@ -36502,7 +36505,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>22</x:v>
@@ -36531,7 +36534,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>22</x:v>
@@ -36560,7 +36563,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>22</x:v>
@@ -36589,7 +36592,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>25</x:v>
@@ -36618,7 +36621,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>25</x:v>
@@ -36647,7 +36650,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>25</x:v>
@@ -36676,7 +36679,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>31</x:v>
@@ -36705,7 +36708,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>31</x:v>
@@ -36734,7 +36737,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>31</x:v>
@@ -36763,7 +36766,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>33</x:v>
@@ -36792,7 +36795,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>33</x:v>
@@ -36821,7 +36824,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>10</x:v>
@@ -36850,7 +36853,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>10</x:v>
@@ -36879,7 +36882,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>10</x:v>
@@ -36908,7 +36911,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>49</x:v>
@@ -36937,7 +36940,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>49</x:v>
@@ -36966,7 +36969,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>22</x:v>
@@ -36995,7 +36998,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>22</x:v>
@@ -37024,7 +37027,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>22</x:v>
@@ -37053,7 +37056,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>25</x:v>
@@ -37082,7 +37085,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>25</x:v>
@@ -37111,7 +37114,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>25</x:v>
@@ -37140,7 +37143,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>31</x:v>
@@ -37169,7 +37172,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>31</x:v>
@@ -37198,7 +37201,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>31</x:v>
@@ -37227,7 +37230,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>33</x:v>
@@ -37256,7 +37259,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>33</x:v>
@@ -37285,7 +37288,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>33</x:v>
@@ -37314,7 +37317,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>10</x:v>
@@ -37343,7 +37346,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>10</x:v>
@@ -37372,7 +37375,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37401,7 +37404,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>49</x:v>
@@ -37430,7 +37433,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>49</x:v>
@@ -37459,7 +37462,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>22</x:v>
@@ -37488,7 +37491,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>22</x:v>
@@ -37517,7 +37520,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>22</x:v>
@@ -37546,7 +37549,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>25</x:v>
@@ -37575,7 +37578,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>25</x:v>
@@ -37604,7 +37607,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>25</x:v>
@@ -37633,7 +37636,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>30</x:v>
@@ -37662,7 +37665,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>30</x:v>
@@ -37691,7 +37694,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37720,7 +37723,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37749,7 +37752,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37778,7 +37781,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>33</x:v>
@@ -37807,7 +37810,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>33</x:v>
@@ -37836,7 +37839,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>33</x:v>
@@ -37865,7 +37868,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37894,7 +37897,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37909,13 +37912,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F1258" s="1" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="G1258" s="1" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="H1258" s="1" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="I1258" s="0" t="s">
         <x:v>12</x:v>
@@ -37923,7 +37926,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>10</x:v>
@@ -37935,16 +37938,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="E1259" s="1" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="F1259" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="G1259" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="H1259" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I1259" s="0" t="s">
         <x:v>12</x:v>
@@ -37952,7 +37955,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>22</x:v>
@@ -37981,7 +37984,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>22</x:v>
@@ -38010,7 +38013,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>22</x:v>
@@ -38039,7 +38042,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>25</x:v>
@@ -38068,7 +38071,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>25</x:v>
@@ -38097,7 +38100,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>25</x:v>
@@ -38126,7 +38129,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>30</x:v>
@@ -38155,7 +38158,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>30</x:v>
@@ -38184,7 +38187,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>31</x:v>
@@ -38213,7 +38216,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>31</x:v>
@@ -38242,7 +38245,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>31</x:v>
@@ -38271,7 +38274,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>33</x:v>
@@ -38300,7 +38303,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>33</x:v>
@@ -38329,7 +38332,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>33</x:v>
@@ -38358,7 +38361,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>10</x:v>
@@ -38387,7 +38390,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>10</x:v>
@@ -38416,7 +38419,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>10</x:v>
@@ -38445,7 +38448,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>22</x:v>
@@ -38474,7 +38477,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>22</x:v>
@@ -38503,7 +38506,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>22</x:v>
@@ -38532,7 +38535,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>25</x:v>
@@ -38561,7 +38564,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>25</x:v>
@@ -38590,7 +38593,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>25</x:v>
@@ -38619,7 +38622,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38648,7 +38651,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38677,7 +38680,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38706,7 +38709,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>33</x:v>
@@ -38735,7 +38738,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>33</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -619,7 +619,7 @@
     <x:t>157</x:t>
   </x:si>
   <x:si>
-    <x:t>277</x:t>
+    <x:t>278</x:t>
   </x:si>
   <x:si>
     <x:t>625</x:t>
@@ -631,7 +631,7 @@
     <x:t>99</x:t>
   </x:si>
   <x:si>
-    <x:t>366</x:t>
+    <x:t>367</x:t>
   </x:si>
   <x:si>
     <x:t>745</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -310,7 +310,7 @@
     <x:t>83</x:t>
   </x:si>
   <x:si>
-    <x:t>138</x:t>
+    <x:t>139</x:t>
   </x:si>
   <x:si>
     <x:t>263</x:t>
@@ -325,7 +325,7 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>190</x:t>
+    <x:t>191</x:t>
   </x:si>
   <x:si>
     <x:t>346</x:t>
@@ -535,7 +535,7 @@
     <x:t>262</x:t>
   </x:si>
   <x:si>
-    <x:t>637</x:t>
+    <x:t>638</x:t>
   </x:si>
   <x:si>
     <x:t>1119</x:t>
@@ -550,7 +550,7 @@
     <x:t>374</x:t>
   </x:si>
   <x:si>
-    <x:t>865</x:t>
+    <x:t>866</x:t>
   </x:si>
   <x:si>
     <x:t>1478</x:t>
@@ -907,6 +907,9 @@
     <x:t>76</x:t>
   </x:si>
   <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
     <x:t>176</x:t>
   </x:si>
   <x:si>
@@ -956,6 +959,9 @@
   </x:si>
   <x:si>
     <x:t>192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
   </x:si>
   <x:si>
     <x:t>249</x:t>
@@ -29598,7 +29604,7 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="G971" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H971" s="1" t="s">
         <x:v>139</x:v>
@@ -29856,13 +29862,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F980" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="G980" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="H980" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="I980" s="0" t="s">
         <x:v>12</x:v>
@@ -30027,7 +30033,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E986" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F986" s="1" t="s">
         <x:v>16</x:v>
@@ -30120,7 +30126,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="G989" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="H989" s="1" t="s">
         <x:v>44</x:v>
@@ -30131,7 +30137,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>10</x:v>
@@ -30160,7 +30166,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>10</x:v>
@@ -30189,7 +30195,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>10</x:v>
@@ -30218,7 +30224,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>49</x:v>
@@ -30247,7 +30253,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>49</x:v>
@@ -30276,7 +30282,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>22</x:v>
@@ -30305,7 +30311,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>22</x:v>
@@ -30334,7 +30340,7 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
         <x:v>22</x:v>
@@ -30363,7 +30369,7 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
         <x:v>25</x:v>
@@ -30392,7 +30398,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>25</x:v>
@@ -30421,7 +30427,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>25</x:v>
@@ -30450,7 +30456,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>30</x:v>
@@ -30479,7 +30485,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>30</x:v>
@@ -30508,7 +30514,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>30</x:v>
@@ -30537,7 +30543,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>31</x:v>
@@ -30566,7 +30572,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>31</x:v>
@@ -30595,7 +30601,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>31</x:v>
@@ -30624,7 +30630,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>33</x:v>
@@ -30653,7 +30659,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>33</x:v>
@@ -30682,7 +30688,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>33</x:v>
@@ -30711,7 +30717,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>10</x:v>
@@ -30740,7 +30746,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>10</x:v>
@@ -30769,7 +30775,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>10</x:v>
@@ -30798,7 +30804,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>22</x:v>
@@ -30827,7 +30833,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>22</x:v>
@@ -30856,7 +30862,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>22</x:v>
@@ -30885,7 +30891,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>25</x:v>
@@ -30914,7 +30920,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>25</x:v>
@@ -30943,7 +30949,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>25</x:v>
@@ -30972,7 +30978,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>30</x:v>
@@ -31001,7 +31007,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>30</x:v>
@@ -31030,7 +31036,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>31</x:v>
@@ -31059,7 +31065,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>31</x:v>
@@ -31088,7 +31094,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>31</x:v>
@@ -31117,7 +31123,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>33</x:v>
@@ -31146,7 +31152,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>33</x:v>
@@ -31175,7 +31181,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>10</x:v>
@@ -31204,7 +31210,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>10</x:v>
@@ -31219,13 +31225,13 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="s">
         <x:v>12</x:v>
@@ -31233,7 +31239,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>10</x:v>
@@ -31245,13 +31251,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="s">
         <x:v>189</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="s">
         <x:v>184</x:v>
@@ -31262,7 +31268,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>49</x:v>
@@ -31291,7 +31297,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>49</x:v>
@@ -31320,7 +31326,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>22</x:v>
@@ -31349,7 +31355,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>22</x:v>
@@ -31378,7 +31384,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>22</x:v>
@@ -31407,7 +31413,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>25</x:v>
@@ -31436,7 +31442,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>25</x:v>
@@ -31451,7 +31457,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>139</x:v>
@@ -31465,7 +31471,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>25</x:v>
@@ -31483,7 +31489,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="s">
         <x:v>249</x:v>
@@ -31494,7 +31500,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>30</x:v>
@@ -31523,7 +31529,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>30</x:v>
@@ -31552,7 +31558,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>30</x:v>
@@ -31581,7 +31587,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>31</x:v>
@@ -31610,7 +31616,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>31</x:v>
@@ -31639,7 +31645,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>31</x:v>
@@ -31668,7 +31674,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>33</x:v>
@@ -31697,7 +31703,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>33</x:v>
@@ -31726,7 +31732,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>33</x:v>
@@ -31755,7 +31761,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>10</x:v>
@@ -31784,7 +31790,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>10</x:v>
@@ -31799,10 +31805,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="s">
         <x:v>150</x:v>
@@ -31813,7 +31819,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>10</x:v>
@@ -31825,16 +31831,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E1048" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="s">
         <x:v>12</x:v>
@@ -31842,7 +31848,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>49</x:v>
@@ -31871,7 +31877,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>49</x:v>
@@ -31900,7 +31906,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>49</x:v>
@@ -31929,7 +31935,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>22</x:v>
@@ -31958,7 +31964,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>22</x:v>
@@ -31987,7 +31993,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>22</x:v>
@@ -32016,7 +32022,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>25</x:v>
@@ -32045,7 +32051,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>25</x:v>
@@ -32066,7 +32072,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="I1056" s="0" t="s">
         <x:v>12</x:v>
@@ -32074,7 +32080,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>25</x:v>
@@ -32089,13 +32095,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
         <x:v>214</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32103,7 +32109,7 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
         <x:v>30</x:v>
@@ -32132,7 +32138,7 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
         <x:v>30</x:v>
@@ -32161,7 +32167,7 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
         <x:v>30</x:v>
@@ -32190,7 +32196,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>31</x:v>
@@ -32219,7 +32225,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>31</x:v>
@@ -32231,7 +32237,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="s">
         <x:v>29</x:v>
@@ -32248,7 +32254,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>31</x:v>
@@ -32260,7 +32266,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="s">
         <x:v>54</x:v>
@@ -32277,7 +32283,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>33</x:v>
@@ -32306,7 +32312,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>33</x:v>
@@ -32335,7 +32341,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>33</x:v>
@@ -32347,13 +32353,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="s">
         <x:v>296</x:v>
@@ -32364,7 +32370,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>10</x:v>
@@ -32393,7 +32399,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>10</x:v>
@@ -32422,7 +32428,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>10</x:v>
@@ -32451,7 +32457,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>49</x:v>
@@ -32480,7 +32486,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>49</x:v>
@@ -32509,7 +32515,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>49</x:v>
@@ -32538,7 +32544,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>22</x:v>
@@ -32567,7 +32573,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>22</x:v>
@@ -32596,7 +32602,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>22</x:v>
@@ -32625,7 +32631,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>25</x:v>
@@ -32654,7 +32660,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>25</x:v>
@@ -32683,7 +32689,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>25</x:v>
@@ -32712,7 +32718,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>30</x:v>
@@ -32741,7 +32747,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>30</x:v>
@@ -32770,7 +32776,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>30</x:v>
@@ -32799,7 +32805,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>31</x:v>
@@ -32828,7 +32834,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>31</x:v>
@@ -32857,7 +32863,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>31</x:v>
@@ -32886,7 +32892,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>33</x:v>
@@ -32915,7 +32921,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>33</x:v>
@@ -32944,7 +32950,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>33</x:v>
@@ -32973,7 +32979,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>10</x:v>
@@ -33002,7 +33008,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>10</x:v>
@@ -33031,7 +33037,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>10</x:v>
@@ -33060,7 +33066,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>22</x:v>
@@ -33089,7 +33095,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>22</x:v>
@@ -33118,7 +33124,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>22</x:v>
@@ -33147,7 +33153,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>25</x:v>
@@ -33176,7 +33182,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>25</x:v>
@@ -33205,7 +33211,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>25</x:v>
@@ -33234,7 +33240,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>31</x:v>
@@ -33263,7 +33269,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>31</x:v>
@@ -33292,7 +33298,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>31</x:v>
@@ -33321,7 +33327,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>33</x:v>
@@ -33350,7 +33356,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>33</x:v>
@@ -33379,7 +33385,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>33</x:v>
@@ -33408,7 +33414,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>10</x:v>
@@ -33437,7 +33443,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>10</x:v>
@@ -33466,7 +33472,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>22</x:v>
@@ -33495,7 +33501,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>22</x:v>
@@ -33524,7 +33530,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>25</x:v>
@@ -33553,7 +33559,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>25</x:v>
@@ -33582,7 +33588,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>25</x:v>
@@ -33611,7 +33617,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33640,7 +33646,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>31</x:v>
@@ -33669,7 +33675,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>33</x:v>
@@ -33698,7 +33704,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>33</x:v>
@@ -33727,7 +33733,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>33</x:v>
@@ -33756,7 +33762,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33785,7 +33791,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>10</x:v>
@@ -33814,7 +33820,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>10</x:v>
@@ -33843,7 +33849,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>22</x:v>
@@ -33872,7 +33878,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>22</x:v>
@@ -33901,7 +33907,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>22</x:v>
@@ -33930,7 +33936,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>25</x:v>
@@ -33959,7 +33965,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>25</x:v>
@@ -33988,7 +33994,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>25</x:v>
@@ -34017,7 +34023,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34046,7 +34052,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>31</x:v>
@@ -34075,7 +34081,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>33</x:v>
@@ -34104,7 +34110,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>33</x:v>
@@ -34133,7 +34139,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34162,7 +34168,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34191,7 +34197,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34220,7 +34226,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>22</x:v>
@@ -34249,7 +34255,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>22</x:v>
@@ -34278,7 +34284,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>22</x:v>
@@ -34307,7 +34313,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>25</x:v>
@@ -34336,7 +34342,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>25</x:v>
@@ -34365,7 +34371,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>25</x:v>
@@ -34394,7 +34400,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>10</x:v>
@@ -34423,7 +34429,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>10</x:v>
@@ -34452,7 +34458,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>10</x:v>
@@ -34481,7 +34487,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>22</x:v>
@@ -34510,7 +34516,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>22</x:v>
@@ -34539,7 +34545,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>22</x:v>
@@ -34568,7 +34574,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>25</x:v>
@@ -34597,7 +34603,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>25</x:v>
@@ -34626,7 +34632,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>25</x:v>
@@ -34655,7 +34661,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>30</x:v>
@@ -34684,7 +34690,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>30</x:v>
@@ -34713,7 +34719,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>31</x:v>
@@ -34742,7 +34748,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>31</x:v>
@@ -34771,7 +34777,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>31</x:v>
@@ -34800,7 +34806,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>33</x:v>
@@ -34829,7 +34835,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>33</x:v>
@@ -34858,7 +34864,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>10</x:v>
@@ -34887,7 +34893,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>10</x:v>
@@ -34916,7 +34922,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>10</x:v>
@@ -34945,7 +34951,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>49</x:v>
@@ -34974,7 +34980,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>49</x:v>
@@ -35003,7 +35009,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>49</x:v>
@@ -35032,7 +35038,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>22</x:v>
@@ -35061,7 +35067,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>22</x:v>
@@ -35090,7 +35096,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>22</x:v>
@@ -35119,7 +35125,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>25</x:v>
@@ -35148,7 +35154,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>25</x:v>
@@ -35177,7 +35183,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>25</x:v>
@@ -35206,7 +35212,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>31</x:v>
@@ -35235,7 +35241,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35264,7 +35270,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>33</x:v>
@@ -35293,7 +35299,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>33</x:v>
@@ -35322,7 +35328,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>10</x:v>
@@ -35351,7 +35357,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>10</x:v>
@@ -35380,7 +35386,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>10</x:v>
@@ -35409,7 +35415,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>22</x:v>
@@ -35438,7 +35444,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>22</x:v>
@@ -35467,7 +35473,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>22</x:v>
@@ -35496,7 +35502,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>25</x:v>
@@ -35525,7 +35531,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>25</x:v>
@@ -35554,7 +35560,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>25</x:v>
@@ -35583,7 +35589,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>30</x:v>
@@ -35612,7 +35618,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>30</x:v>
@@ -35641,7 +35647,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>31</x:v>
@@ -35670,7 +35676,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35699,7 +35705,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35728,7 +35734,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>33</x:v>
@@ -35757,7 +35763,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>33</x:v>
@@ -35786,7 +35792,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>33</x:v>
@@ -35815,7 +35821,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>10</x:v>
@@ -35844,7 +35850,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35862,10 +35868,10 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="s">
-        <x:v>332</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H1187" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="s">
         <x:v>12</x:v>
@@ -35873,7 +35879,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35888,7 +35894,7 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="s">
         <x:v>267</x:v>
@@ -35902,7 +35908,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>49</x:v>
@@ -35931,7 +35937,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>49</x:v>
@@ -35960,7 +35966,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>49</x:v>
@@ -35989,7 +35995,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>22</x:v>
@@ -36018,7 +36024,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>22</x:v>
@@ -36047,7 +36053,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>22</x:v>
@@ -36076,7 +36082,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>25</x:v>
@@ -36105,7 +36111,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>25</x:v>
@@ -36120,10 +36126,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="s">
         <x:v>141</x:v>
@@ -36134,7 +36140,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>25</x:v>
@@ -36149,13 +36155,13 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="G1197" s="1" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="H1197" s="1" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="H1197" s="1" t="s">
-        <x:v>336</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="s">
         <x:v>12</x:v>
@@ -36163,7 +36169,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>30</x:v>
@@ -36192,7 +36198,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>30</x:v>
@@ -36221,7 +36227,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>30</x:v>
@@ -36250,7 +36256,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>31</x:v>
@@ -36279,7 +36285,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>31</x:v>
@@ -36308,7 +36314,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>31</x:v>
@@ -36337,7 +36343,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>33</x:v>
@@ -36366,7 +36372,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>33</x:v>
@@ -36395,7 +36401,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>33</x:v>
@@ -36424,7 +36430,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>10</x:v>
@@ -36453,7 +36459,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>10</x:v>
@@ -36482,7 +36488,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>10</x:v>
@@ -36511,7 +36517,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>22</x:v>
@@ -36540,7 +36546,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>22</x:v>
@@ -36569,7 +36575,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>22</x:v>
@@ -36598,7 +36604,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>25</x:v>
@@ -36627,7 +36633,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>25</x:v>
@@ -36656,7 +36662,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>25</x:v>
@@ -36685,7 +36691,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>31</x:v>
@@ -36714,7 +36720,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>31</x:v>
@@ -36743,7 +36749,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>31</x:v>
@@ -36772,7 +36778,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>33</x:v>
@@ -36801,7 +36807,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>33</x:v>
@@ -36830,7 +36836,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>10</x:v>
@@ -36859,7 +36865,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>10</x:v>
@@ -36888,7 +36894,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>10</x:v>
@@ -36917,7 +36923,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>49</x:v>
@@ -36946,7 +36952,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>49</x:v>
@@ -36975,7 +36981,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>22</x:v>
@@ -37004,7 +37010,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>22</x:v>
@@ -37033,7 +37039,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>22</x:v>
@@ -37062,7 +37068,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>25</x:v>
@@ -37091,7 +37097,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>25</x:v>
@@ -37120,7 +37126,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>25</x:v>
@@ -37149,7 +37155,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>31</x:v>
@@ -37178,7 +37184,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>31</x:v>
@@ -37207,7 +37213,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>31</x:v>
@@ -37236,7 +37242,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>33</x:v>
@@ -37265,7 +37271,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>33</x:v>
@@ -37294,7 +37300,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>33</x:v>
@@ -37323,7 +37329,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>10</x:v>
@@ -37352,7 +37358,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>10</x:v>
@@ -37381,7 +37387,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37410,7 +37416,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>49</x:v>
@@ -37439,7 +37445,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>49</x:v>
@@ -37468,7 +37474,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>22</x:v>
@@ -37497,7 +37503,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>22</x:v>
@@ -37526,7 +37532,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>22</x:v>
@@ -37555,7 +37561,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>25</x:v>
@@ -37584,7 +37590,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>25</x:v>
@@ -37613,7 +37619,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>25</x:v>
@@ -37642,7 +37648,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>30</x:v>
@@ -37671,7 +37677,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>30</x:v>
@@ -37700,7 +37706,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37729,7 +37735,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37758,7 +37764,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37787,7 +37793,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>33</x:v>
@@ -37816,7 +37822,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>33</x:v>
@@ -37845,7 +37851,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>33</x:v>
@@ -37874,7 +37880,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37903,7 +37909,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37918,13 +37924,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F1258" s="1" t="s">
-        <x:v>343</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="G1258" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="H1258" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="I1258" s="0" t="s">
         <x:v>12</x:v>
@@ -37932,7 +37938,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>10</x:v>
@@ -37944,16 +37950,16 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="E1259" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F1259" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="G1259" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="H1259" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="I1259" s="0" t="s">
         <x:v>12</x:v>
@@ -37961,7 +37967,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>22</x:v>
@@ -37990,7 +37996,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>22</x:v>
@@ -38019,7 +38025,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>22</x:v>
@@ -38048,7 +38054,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>25</x:v>
@@ -38077,7 +38083,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>25</x:v>
@@ -38106,7 +38112,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>25</x:v>
@@ -38135,7 +38141,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>30</x:v>
@@ -38164,7 +38170,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>30</x:v>
@@ -38193,7 +38199,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>31</x:v>
@@ -38222,7 +38228,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>31</x:v>
@@ -38251,7 +38257,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>31</x:v>
@@ -38280,7 +38286,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>33</x:v>
@@ -38309,7 +38315,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>33</x:v>
@@ -38338,7 +38344,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>33</x:v>
@@ -38367,7 +38373,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>10</x:v>
@@ -38396,7 +38402,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>10</x:v>
@@ -38425,7 +38431,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>10</x:v>
@@ -38454,7 +38460,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>22</x:v>
@@ -38483,7 +38489,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>22</x:v>
@@ -38512,7 +38518,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>22</x:v>
@@ -38541,7 +38547,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>25</x:v>
@@ -38570,7 +38576,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>25</x:v>
@@ -38599,7 +38605,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>25</x:v>
@@ -38628,7 +38634,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38657,7 +38663,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38686,7 +38692,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38715,7 +38721,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>33</x:v>
@@ -38744,7 +38750,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>33</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -973,9 +973,6 @@
     <x:t>127</x:t>
   </x:si>
   <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
     <x:t>123</x:t>
   </x:si>
   <x:si>
@@ -32066,7 +32063,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="s">
         <x:v>91</x:v>
@@ -32095,7 +32092,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
         <x:v>214</x:v>
@@ -32237,7 +32234,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="s">
         <x:v>29</x:v>
@@ -32266,7 +32263,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="s">
         <x:v>54</x:v>
@@ -32353,13 +32350,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="F1066" s="1" t="s">
         <x:v>322</x:v>
       </x:c>
-      <x:c r="F1066" s="1" t="s">
+      <x:c r="G1066" s="1" t="s">
         <x:v>323</x:v>
-      </x:c>
-      <x:c r="G1066" s="1" t="s">
-        <x:v>324</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="s">
         <x:v>296</x:v>
@@ -32370,7 +32367,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>10</x:v>
@@ -32399,7 +32396,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>10</x:v>
@@ -32428,7 +32425,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>10</x:v>
@@ -32457,7 +32454,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>49</x:v>
@@ -32486,7 +32483,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>49</x:v>
@@ -32515,7 +32512,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>49</x:v>
@@ -32544,7 +32541,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>22</x:v>
@@ -32573,7 +32570,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>22</x:v>
@@ -32602,7 +32599,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>22</x:v>
@@ -32631,7 +32628,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>25</x:v>
@@ -32660,7 +32657,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>25</x:v>
@@ -32689,7 +32686,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>25</x:v>
@@ -32718,7 +32715,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>30</x:v>
@@ -32747,7 +32744,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>30</x:v>
@@ -32776,7 +32773,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>30</x:v>
@@ -32805,7 +32802,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>31</x:v>
@@ -32834,7 +32831,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>31</x:v>
@@ -32863,7 +32860,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>31</x:v>
@@ -32892,7 +32889,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>33</x:v>
@@ -32921,7 +32918,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>33</x:v>
@@ -32950,7 +32947,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>33</x:v>
@@ -32979,7 +32976,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>10</x:v>
@@ -33008,7 +33005,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>10</x:v>
@@ -33037,7 +33034,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>10</x:v>
@@ -33066,7 +33063,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>22</x:v>
@@ -33095,7 +33092,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>22</x:v>
@@ -33124,7 +33121,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>22</x:v>
@@ -33153,7 +33150,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>25</x:v>
@@ -33182,7 +33179,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>25</x:v>
@@ -33211,7 +33208,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>25</x:v>
@@ -33240,7 +33237,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>31</x:v>
@@ -33269,7 +33266,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>31</x:v>
@@ -33298,7 +33295,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>31</x:v>
@@ -33327,7 +33324,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>33</x:v>
@@ -33356,7 +33353,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>33</x:v>
@@ -33385,7 +33382,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>33</x:v>
@@ -33414,7 +33411,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>10</x:v>
@@ -33443,7 +33440,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>10</x:v>
@@ -33472,7 +33469,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>22</x:v>
@@ -33501,7 +33498,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>22</x:v>
@@ -33530,7 +33527,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>25</x:v>
@@ -33559,7 +33556,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>25</x:v>
@@ -33588,7 +33585,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>25</x:v>
@@ -33617,7 +33614,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33646,7 +33643,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>31</x:v>
@@ -33675,7 +33672,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>33</x:v>
@@ -33704,7 +33701,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>33</x:v>
@@ -33733,7 +33730,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>33</x:v>
@@ -33762,7 +33759,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33791,7 +33788,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>10</x:v>
@@ -33820,7 +33817,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>10</x:v>
@@ -33849,7 +33846,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>22</x:v>
@@ -33878,7 +33875,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>22</x:v>
@@ -33907,7 +33904,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>22</x:v>
@@ -33936,7 +33933,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>25</x:v>
@@ -33965,7 +33962,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>25</x:v>
@@ -33994,7 +33991,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>25</x:v>
@@ -34023,7 +34020,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34052,7 +34049,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>31</x:v>
@@ -34081,7 +34078,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>33</x:v>
@@ -34110,7 +34107,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>33</x:v>
@@ -34139,7 +34136,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34168,7 +34165,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34197,7 +34194,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34226,7 +34223,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>22</x:v>
@@ -34255,7 +34252,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>22</x:v>
@@ -34284,7 +34281,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>22</x:v>
@@ -34313,7 +34310,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>25</x:v>
@@ -34342,7 +34339,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>25</x:v>
@@ -34371,7 +34368,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>25</x:v>
@@ -34400,7 +34397,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>10</x:v>
@@ -34429,7 +34426,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>10</x:v>
@@ -34458,7 +34455,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>10</x:v>
@@ -34487,7 +34484,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>22</x:v>
@@ -34516,7 +34513,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>22</x:v>
@@ -34545,7 +34542,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>22</x:v>
@@ -34574,7 +34571,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>25</x:v>
@@ -34603,7 +34600,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>25</x:v>
@@ -34632,7 +34629,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>25</x:v>
@@ -34661,7 +34658,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>30</x:v>
@@ -34690,7 +34687,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>30</x:v>
@@ -34719,7 +34716,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>31</x:v>
@@ -34748,7 +34745,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>31</x:v>
@@ -34777,7 +34774,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>31</x:v>
@@ -34806,7 +34803,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>33</x:v>
@@ -34835,7 +34832,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>33</x:v>
@@ -34864,7 +34861,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>10</x:v>
@@ -34893,7 +34890,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>10</x:v>
@@ -34922,7 +34919,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>10</x:v>
@@ -34951,7 +34948,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>49</x:v>
@@ -34980,7 +34977,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>49</x:v>
@@ -35009,7 +35006,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>49</x:v>
@@ -35038,7 +35035,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>22</x:v>
@@ -35067,7 +35064,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>22</x:v>
@@ -35096,7 +35093,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>22</x:v>
@@ -35125,7 +35122,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>25</x:v>
@@ -35154,7 +35151,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>25</x:v>
@@ -35183,7 +35180,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>25</x:v>
@@ -35212,7 +35209,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>31</x:v>
@@ -35241,7 +35238,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35270,7 +35267,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>33</x:v>
@@ -35299,7 +35296,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>33</x:v>
@@ -35328,7 +35325,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>10</x:v>
@@ -35357,7 +35354,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>10</x:v>
@@ -35386,7 +35383,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>10</x:v>
@@ -35415,7 +35412,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>22</x:v>
@@ -35444,7 +35441,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>22</x:v>
@@ -35473,7 +35470,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>22</x:v>
@@ -35502,7 +35499,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>25</x:v>
@@ -35531,7 +35528,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>25</x:v>
@@ -35560,7 +35557,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>25</x:v>
@@ -35589,7 +35586,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>30</x:v>
@@ -35618,7 +35615,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>30</x:v>
@@ -35647,7 +35644,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>31</x:v>
@@ -35676,7 +35673,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35705,7 +35702,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35734,7 +35731,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>33</x:v>
@@ -35763,7 +35760,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>33</x:v>
@@ -35792,7 +35789,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>33</x:v>
@@ -35821,7 +35818,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>10</x:v>
@@ -35850,7 +35847,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35868,10 +35865,10 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="H1187" s="1" t="s">
         <x:v>334</x:v>
-      </x:c>
-      <x:c r="H1187" s="1" t="s">
-        <x:v>335</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="s">
         <x:v>12</x:v>
@@ -35879,7 +35876,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35894,7 +35891,7 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="s">
         <x:v>267</x:v>
@@ -35908,7 +35905,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>49</x:v>
@@ -35937,7 +35934,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>49</x:v>
@@ -35966,7 +35963,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>49</x:v>
@@ -35995,7 +35992,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>22</x:v>
@@ -36024,7 +36021,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>22</x:v>
@@ -36053,7 +36050,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>22</x:v>
@@ -36082,7 +36079,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>25</x:v>
@@ -36111,7 +36108,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>25</x:v>
@@ -36126,10 +36123,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="G1196" s="1" t="s">
         <x:v>337</x:v>
-      </x:c>
-      <x:c r="G1196" s="1" t="s">
-        <x:v>338</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="s">
         <x:v>141</x:v>
@@ -36140,7 +36137,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>25</x:v>
@@ -36155,13 +36152,13 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="G1197" s="1" t="s">
         <x:v>339</x:v>
       </x:c>
-      <x:c r="G1197" s="1" t="s">
-        <x:v>340</x:v>
-      </x:c>
       <x:c r="H1197" s="1" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="s">
         <x:v>12</x:v>
@@ -36169,7 +36166,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>30</x:v>
@@ -36198,7 +36195,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>30</x:v>
@@ -36227,7 +36224,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>30</x:v>
@@ -36256,7 +36253,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>31</x:v>
@@ -36285,7 +36282,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>31</x:v>
@@ -36314,7 +36311,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>31</x:v>
@@ -36343,7 +36340,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>33</x:v>
@@ -36372,7 +36369,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>33</x:v>
@@ -36401,7 +36398,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>33</x:v>
@@ -36430,7 +36427,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>10</x:v>
@@ -36459,7 +36456,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>10</x:v>
@@ -36488,7 +36485,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>10</x:v>
@@ -36517,7 +36514,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>22</x:v>
@@ -36546,7 +36543,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>22</x:v>
@@ -36575,7 +36572,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>22</x:v>
@@ -36604,7 +36601,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>25</x:v>
@@ -36633,7 +36630,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>25</x:v>
@@ -36662,7 +36659,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>25</x:v>
@@ -36691,7 +36688,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>31</x:v>
@@ -36720,7 +36717,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>31</x:v>
@@ -36749,7 +36746,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>31</x:v>
@@ -36778,7 +36775,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>33</x:v>
@@ -36807,7 +36804,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>33</x:v>
@@ -36836,7 +36833,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>10</x:v>
@@ -36865,7 +36862,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>10</x:v>
@@ -36894,7 +36891,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>10</x:v>
@@ -36923,7 +36920,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>49</x:v>
@@ -36952,7 +36949,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>49</x:v>
@@ -36981,7 +36978,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>22</x:v>
@@ -37010,7 +37007,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>22</x:v>
@@ -37039,7 +37036,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>22</x:v>
@@ -37068,7 +37065,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>25</x:v>
@@ -37097,7 +37094,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>25</x:v>
@@ -37126,7 +37123,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>25</x:v>
@@ -37155,7 +37152,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>31</x:v>
@@ -37184,7 +37181,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>31</x:v>
@@ -37213,7 +37210,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>31</x:v>
@@ -37242,7 +37239,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>33</x:v>
@@ -37271,7 +37268,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>33</x:v>
@@ -37300,7 +37297,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>33</x:v>
@@ -37329,7 +37326,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>10</x:v>
@@ -37358,7 +37355,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>10</x:v>
@@ -37387,7 +37384,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37416,7 +37413,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>49</x:v>
@@ -37445,7 +37442,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>49</x:v>
@@ -37474,7 +37471,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>22</x:v>
@@ -37503,7 +37500,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>22</x:v>
@@ -37532,7 +37529,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>22</x:v>
@@ -37561,7 +37558,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>25</x:v>
@@ -37590,7 +37587,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>25</x:v>
@@ -37619,7 +37616,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>25</x:v>
@@ -37648,7 +37645,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>30</x:v>
@@ -37677,7 +37674,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>30</x:v>
@@ -37706,7 +37703,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37735,7 +37732,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37764,7 +37761,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37793,7 +37790,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>33</x:v>
@@ -37822,7 +37819,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>33</x:v>
@@ -37851,7 +37848,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>33</x:v>
@@ -37880,7 +37877,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37909,7 +37906,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37924,13 +37921,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F1258" s="1" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="G1258" s="1" t="s">
         <x:v>345</x:v>
       </x:c>
-      <x:c r="G1258" s="1" t="s">
+      <x:c r="H1258" s="1" t="s">
         <x:v>346</x:v>
-      </x:c>
-      <x:c r="H1258" s="1" t="s">
-        <x:v>347</x:v>
       </x:c>
       <x:c r="I1258" s="0" t="s">
         <x:v>12</x:v>
@@ -37938,7 +37935,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>10</x:v>
@@ -37950,16 +37947,16 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="E1259" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F1259" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="G1259" s="1" t="s">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="H1259" s="1" t="s">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="I1259" s="0" t="s">
         <x:v>12</x:v>
@@ -37967,7 +37964,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>22</x:v>
@@ -37996,7 +37993,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>22</x:v>
@@ -38025,7 +38022,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>22</x:v>
@@ -38054,7 +38051,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>25</x:v>
@@ -38083,7 +38080,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>25</x:v>
@@ -38112,7 +38109,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>25</x:v>
@@ -38141,7 +38138,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>30</x:v>
@@ -38170,7 +38167,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>30</x:v>
@@ -38199,7 +38196,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>31</x:v>
@@ -38228,7 +38225,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>31</x:v>
@@ -38257,7 +38254,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>31</x:v>
@@ -38286,7 +38283,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>33</x:v>
@@ -38315,7 +38312,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>33</x:v>
@@ -38344,7 +38341,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>33</x:v>
@@ -38373,7 +38370,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>10</x:v>
@@ -38402,7 +38399,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>10</x:v>
@@ -38431,7 +38428,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>10</x:v>
@@ -38460,7 +38457,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>22</x:v>
@@ -38489,7 +38486,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>22</x:v>
@@ -38518,7 +38515,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>22</x:v>
@@ -38547,7 +38544,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>25</x:v>
@@ -38576,7 +38573,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>25</x:v>
@@ -38605,7 +38602,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>25</x:v>
@@ -38634,7 +38631,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38663,7 +38660,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38692,7 +38689,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38721,7 +38718,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>33</x:v>
@@ -38750,7 +38747,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>33</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -538,13 +538,13 @@
     <x:t>638</x:t>
   </x:si>
   <x:si>
-    <x:t>1119</x:t>
+    <x:t>1120</x:t>
   </x:si>
   <x:si>
     <x:t>1170</x:t>
   </x:si>
   <x:si>
-    <x:t>519</x:t>
+    <x:t>520</x:t>
   </x:si>
   <x:si>
     <x:t>374</x:t>
@@ -553,13 +553,13 @@
     <x:t>866</x:t>
   </x:si>
   <x:si>
-    <x:t>1478</x:t>
+    <x:t>1479</x:t>
   </x:si>
   <x:si>
     <x:t>1498</x:t>
   </x:si>
   <x:si>
-    <x:t>623</x:t>
+    <x:t>624</x:t>
   </x:si>
   <x:si>
     <x:t>64</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -535,7 +535,7 @@
     <x:t>262</x:t>
   </x:si>
   <x:si>
-    <x:t>638</x:t>
+    <x:t>639</x:t>
   </x:si>
   <x:si>
     <x:t>1120</x:t>
@@ -550,7 +550,7 @@
     <x:t>374</x:t>
   </x:si>
   <x:si>
-    <x:t>866</x:t>
+    <x:t>867</x:t>
   </x:si>
   <x:si>
     <x:t>1479</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -32414,7 +32414,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G1068" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H1068" s="1" t="s">
         <x:v>17</x:v>
@@ -32443,7 +32443,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G1069" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H1069" s="1" t="s">
         <x:v>78</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -541,7 +541,7 @@
     <x:t>1120</x:t>
   </x:si>
   <x:si>
-    <x:t>1170</x:t>
+    <x:t>1172</x:t>
   </x:si>
   <x:si>
     <x:t>520</x:t>
@@ -556,7 +556,7 @@
     <x:t>1479</x:t>
   </x:si>
   <x:si>
-    <x:t>1498</x:t>
+    <x:t>1500</x:t>
   </x:si>
   <x:si>
     <x:t>624</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexCountyDownloadData_ReportYear_2023.xlsx
@@ -568,13 +568,16 @@
     <x:t>120</x:t>
   </x:si>
   <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
     <x:t>188</x:t>
   </x:si>
   <x:si>
     <x:t>124</x:t>
   </x:si>
   <x:si>
-    <x:t>160</x:t>
+    <x:t>161</x:t>
   </x:si>
   <x:si>
     <x:t>113</x:t>
@@ -763,9 +766,6 @@
     <x:t>Olmsted</x:t>
   </x:si>
   <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
     <x:t>227</x:t>
   </x:si>
   <x:si>
@@ -875,6 +875,9 @@
   </x:si>
   <x:si>
     <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
   </x:si>
   <x:si>
     <x:t>Red Lake</x:t>
@@ -13042,7 +13045,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="G400" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H400" s="1" t="s">
         <x:v>110</x:v>
@@ -13062,19 +13065,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D401" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E401" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F401" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="G401" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H401" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I401" s="0" t="s">
         <x:v>12</x:v>
@@ -13097,10 +13100,10 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="F402" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G402" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H402" s="1" t="s">
         <x:v>111</x:v>
@@ -13123,16 +13126,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E403" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F403" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G403" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H403" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I403" s="0" t="s">
         <x:v>12</x:v>
@@ -13152,16 +13155,16 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E404" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F404" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G404" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H404" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I404" s="0" t="s">
         <x:v>12</x:v>
@@ -13303,10 +13306,10 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="G409" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="H409" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I409" s="0" t="s">
         <x:v>12</x:v>
@@ -13335,7 +13338,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="H410" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I410" s="0" t="s">
         <x:v>12</x:v>
@@ -13361,7 +13364,7 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="G411" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H411" s="1" t="s">
         <x:v>43</x:v>
@@ -13384,16 +13387,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E412" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F412" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G412" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="H412" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I412" s="0" t="s">
         <x:v>12</x:v>
@@ -13410,19 +13413,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D413" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E413" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F413" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G413" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="H413" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I413" s="0" t="s">
         <x:v>12</x:v>
@@ -13430,7 +13433,7 @@
     </x:row>
     <x:row r="414" spans="1:9">
       <x:c r="A414" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B414" s="0" t="s">
         <x:v>10</x:v>
@@ -13459,7 +13462,7 @@
     </x:row>
     <x:row r="415" spans="1:9">
       <x:c r="A415" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B415" s="0" t="s">
         <x:v>10</x:v>
@@ -13488,7 +13491,7 @@
     </x:row>
     <x:row r="416" spans="1:9">
       <x:c r="A416" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B416" s="0" t="s">
         <x:v>10</x:v>
@@ -13506,7 +13509,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="G416" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="H416" s="1" t="s">
         <x:v>44</x:v>
@@ -13517,7 +13520,7 @@
     </x:row>
     <x:row r="417" spans="1:9">
       <x:c r="A417" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B417" s="0" t="s">
         <x:v>22</x:v>
@@ -13546,7 +13549,7 @@
     </x:row>
     <x:row r="418" spans="1:9">
       <x:c r="A418" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B418" s="0" t="s">
         <x:v>22</x:v>
@@ -13575,7 +13578,7 @@
     </x:row>
     <x:row r="419" spans="1:9">
       <x:c r="A419" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B419" s="0" t="s">
         <x:v>22</x:v>
@@ -13604,7 +13607,7 @@
     </x:row>
     <x:row r="420" spans="1:9">
       <x:c r="A420" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B420" s="0" t="s">
         <x:v>25</x:v>
@@ -13633,7 +13636,7 @@
     </x:row>
     <x:row r="421" spans="1:9">
       <x:c r="A421" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B421" s="0" t="s">
         <x:v>25</x:v>
@@ -13662,7 +13665,7 @@
     </x:row>
     <x:row r="422" spans="1:9">
       <x:c r="A422" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B422" s="0" t="s">
         <x:v>25</x:v>
@@ -13691,7 +13694,7 @@
     </x:row>
     <x:row r="423" spans="1:9">
       <x:c r="A423" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B423" s="0" t="s">
         <x:v>31</x:v>
@@ -13720,7 +13723,7 @@
     </x:row>
     <x:row r="424" spans="1:9">
       <x:c r="A424" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B424" s="0" t="s">
         <x:v>31</x:v>
@@ -13749,7 +13752,7 @@
     </x:row>
     <x:row r="425" spans="1:9">
       <x:c r="A425" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B425" s="0" t="s">
         <x:v>31</x:v>
@@ -13778,7 +13781,7 @@
     </x:row>
     <x:row r="426" spans="1:9">
       <x:c r="A426" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B426" s="0" t="s">
         <x:v>33</x:v>
@@ -13807,7 +13810,7 @@
     </x:row>
     <x:row r="427" spans="1:9">
       <x:c r="A427" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B427" s="0" t="s">
         <x:v>33</x:v>
@@ -13836,7 +13839,7 @@
     </x:row>
     <x:row r="428" spans="1:9">
       <x:c r="A428" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B428" s="0" t="s">
         <x:v>10</x:v>
@@ -13865,7 +13868,7 @@
     </x:row>
     <x:row r="429" spans="1:9">
       <x:c r="A429" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B429" s="0" t="s">
         <x:v>10</x:v>
@@ -13880,7 +13883,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F429" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G429" s="1" t="s">
         <x:v>106</x:v>
@@ -13894,7 +13897,7 @@
     </x:row>
     <x:row r="430" spans="1:9">
       <x:c r="A430" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B430" s="0" t="s">
         <x:v>10</x:v>
@@ -13912,7 +13915,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="G430" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H430" s="1" t="s">
         <x:v>118</x:v>
@@ -13923,7 +13926,7 @@
     </x:row>
     <x:row r="431" spans="1:9">
       <x:c r="A431" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B431" s="0" t="s">
         <x:v>22</x:v>
@@ -13952,7 +13955,7 @@
     </x:row>
     <x:row r="432" spans="1:9">
       <x:c r="A432" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B432" s="0" t="s">
         <x:v>22</x:v>
@@ -13981,7 +13984,7 @@
     </x:row>
     <x:row r="433" spans="1:9">
       <x:c r="A433" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B433" s="0" t="s">
         <x:v>22</x:v>
@@ -14010,7 +14013,7 @@
     </x:row>
     <x:row r="434" spans="1:9">
       <x:c r="A434" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B434" s="0" t="s">
         <x:v>25</x:v>
@@ -14039,7 +14042,7 @@
     </x:row>
     <x:row r="435" spans="1:9">
       <x:c r="A435" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B435" s="0" t="s">
         <x:v>25</x:v>
@@ -14068,7 +14071,7 @@
     </x:row>
     <x:row r="436" spans="1:9">
       <x:c r="A436" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B436" s="0" t="s">
         <x:v>25</x:v>
@@ -14097,7 +14100,7 @@
     </x:row>
     <x:row r="437" spans="1:9">
       <x:c r="A437" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B437" s="0" t="s">
         <x:v>31</x:v>
@@ -14126,7 +14129,7 @@
     </x:row>
     <x:row r="438" spans="1:9">
       <x:c r="A438" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B438" s="0" t="s">
         <x:v>31</x:v>
@@ -14155,7 +14158,7 @@
     </x:row>
     <x:row r="439" spans="1:9">
       <x:c r="A439" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B439" s="0" t="s">
         <x:v>31</x:v>
@@ -14184,7 +14187,7 @@
     </x:row>
     <x:row r="440" spans="1:9">
       <x:c r="A440" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B440" s="0" t="s">
         <x:v>33</x:v>
@@ -14213,7 +14216,7 @@
     </x:row>
     <x:row r="441" spans="1:9">
       <x:c r="A441" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B441" s="0" t="s">
         <x:v>33</x:v>
@@ -14242,7 +14245,7 @@
     </x:row>
     <x:row r="442" spans="1:9">
       <x:c r="A442" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B442" s="0" t="s">
         <x:v>33</x:v>
@@ -14271,7 +14274,7 @@
     </x:row>
     <x:row r="443" spans="1:9">
       <x:c r="A443" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B443" s="0" t="s">
         <x:v>10</x:v>
@@ -14300,7 +14303,7 @@
     </x:row>
     <x:row r="444" spans="1:9">
       <x:c r="A444" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B444" s="0" t="s">
         <x:v>10</x:v>
@@ -14329,7 +14332,7 @@
     </x:row>
     <x:row r="445" spans="1:9">
       <x:c r="A445" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B445" s="0" t="s">
         <x:v>10</x:v>
@@ -14358,7 +14361,7 @@
     </x:row>
     <x:row r="446" spans="1:9">
       <x:c r="A446" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B446" s="0" t="s">
         <x:v>49</x:v>
@@ -14387,7 +14390,7 @@
     </x:row>
     <x:row r="447" spans="1:9">
       <x:c r="A447" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B447" s="0" t="s">
         <x:v>49</x:v>
@@ -14416,7 +14419,7 @@
     </x:row>
     <x:row r="448" spans="1:9">
       <x:c r="A448" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B448" s="0" t="s">
         <x:v>22</x:v>
@@ -14445,7 +14448,7 @@
     </x:row>
     <x:row r="449" spans="1:9">
       <x:c r="A449" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B449" s="0" t="s">
         <x:v>22</x:v>
@@ -14474,7 +14477,7 @@
     </x:row>
     <x:row r="450" spans="1:9">
       <x:c r="A450" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B450" s="0" t="s">
         <x:v>22</x:v>
@@ -14503,7 +14506,7 @@
     </x:row>
     <x:row r="451" spans="1:9">
       <x:c r="A451" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B451" s="0" t="s">
         <x:v>25</x:v>
@@ -14532,7 +14535,7 @@
     </x:row>
     <x:row r="452" spans="1:9">
       <x:c r="A452" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B452" s="0" t="s">
         <x:v>25</x:v>
@@ -14561,7 +14564,7 @@
     </x:row>
     <x:row r="453" spans="1:9">
       <x:c r="A453" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B453" s="0" t="s">
         <x:v>25</x:v>
@@ -14590,7 +14593,7 @@
     </x:row>
     <x:row r="454" spans="1:9">
       <x:c r="A454" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B454" s="0" t="s">
         <x:v>31</x:v>
@@ -14619,7 +14622,7 @@
     </x:row>
     <x:row r="455" spans="1:9">
       <x:c r="A455" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B455" s="0" t="s">
         <x:v>31</x:v>
@@ -14648,7 +14651,7 @@
     </x:row>
     <x:row r="456" spans="1:9">
       <x:c r="A456" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B456" s="0" t="s">
         <x:v>31</x:v>
@@ -14677,7 +14680,7 @@
     </x:row>
     <x:row r="457" spans="1:9">
       <x:c r="A457" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B457" s="0" t="s">
         <x:v>33</x:v>
@@ -14706,7 +14709,7 @@
     </x:row>
     <x:row r="458" spans="1:9">
       <x:c r="A458" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B458" s="0" t="s">
         <x:v>33</x:v>
@@ -14735,7 +14738,7 @@
     </x:row>
     <x:row r="459" spans="1:9">
       <x:c r="A459" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B459" s="0" t="s">
         <x:v>33</x:v>
@@ -14764,7 +14767,7 @@
     </x:row>
     <x:row r="460" spans="1:9">
       <x:c r="A460" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B460" s="0" t="s">
         <x:v>10</x:v>
@@ -14793,7 +14796,7 @@
     </x:row>
     <x:row r="461" spans="1:9">
       <x:c r="A461" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B461" s="0" t="s">
         <x:v>10</x:v>
@@ -14822,7 +14825,7 @@
     </x:row>
     <x:row r="462" spans="1:9">
       <x:c r="A462" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B462" s="0" t="s">
         <x:v>10</x:v>
@@ -14851,7 +14854,7 @@
     </x:row>
     <x:row r="463" spans="1:9">
       <x:c r="A463" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B463" s="0" t="s">
         <x:v>22</x:v>
@@ -14880,7 +14883,7 @@
     </x:row>
     <x:row r="464" spans="1:9">
       <x:c r="A464" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B464" s="0" t="s">
         <x:v>22</x:v>
@@ -14909,7 +14912,7 @@
     </x:row>
     <x:row r="465" spans="1:9">
       <x:c r="A465" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B465" s="0" t="s">
         <x:v>22</x:v>
@@ -14938,7 +14941,7 @@
     </x:row>
     <x:row r="466" spans="1:9">
       <x:c r="A466" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B466" s="0" t="s">
         <x:v>25</x:v>
@@ -14967,7 +14970,7 @@
     </x:row>
     <x:row r="467" spans="1:9">
       <x:c r="A467" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B467" s="0" t="s">
         <x:v>25</x:v>
@@ -14996,7 +14999,7 @@
     </x:row>
     <x:row r="468" spans="1:9">
       <x:c r="A468" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B468" s="0" t="s">
         <x:v>25</x:v>
@@ -15025,7 +15028,7 @@
     </x:row>
     <x:row r="469" spans="1:9">
       <x:c r="A469" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B469" s="0" t="s">
         <x:v>31</x:v>
@@ -15054,7 +15057,7 @@
     </x:row>
     <x:row r="470" spans="1:9">
       <x:c r="A470" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B470" s="0" t="s">
         <x:v>31</x:v>
@@ -15083,7 +15086,7 @@
     </x:row>
     <x:row r="471" spans="1:9">
       <x:c r="A471" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B471" s="0" t="s">
         <x:v>10</x:v>
@@ -15112,7 +15115,7 @@
     </x:row>
     <x:row r="472" spans="1:9">
       <x:c r="A472" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B472" s="0" t="s">
         <x:v>10</x:v>
@@ -15141,7 +15144,7 @@
     </x:row>
     <x:row r="473" spans="1:9">
       <x:c r="A473" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B473" s="0" t="s">
         <x:v>25</x:v>
@@ -15170,7 +15173,7 @@
     </x:row>
     <x:row r="474" spans="1:9">
       <x:c r="A474" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B474" s="0" t="s">
         <x:v>25</x:v>
@@ -15199,7 +15202,7 @@
     </x:row>
     <x:row r="475" spans="1:9">
       <x:c r="A475" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B475" s="0" t="s">
         <x:v>25</x:v>
@@ -15228,7 +15231,7 @@
     </x:row>
     <x:row r="476" spans="1:9">
       <x:c r="A476" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B476" s="0" t="s">
         <x:v>10</x:v>
@@ -15257,7 +15260,7 @@
     </x:row>
     <x:row r="477" spans="1:9">
       <x:c r="A477" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B477" s="0" t="s">
         <x:v>10</x:v>
@@ -15286,7 +15289,7 @@
     </x:row>
     <x:row r="478" spans="1:9">
       <x:c r="A478" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B478" s="0" t="s">
         <x:v>10</x:v>
@@ -15315,7 +15318,7 @@
     </x:row>
     <x:row r="479" spans="1:9">
       <x:c r="A479" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B479" s="0" t="s">
         <x:v>22</x:v>
@@ -15344,7 +15347,7 @@
     </x:row>
     <x:row r="480" spans="1:9">
       <x:c r="A480" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B480" s="0" t="s">
         <x:v>22</x:v>
@@ -15373,7 +15376,7 @@
     </x:row>
     <x:row r="481" spans="1:9">
       <x:c r="A481" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B481" s="0" t="s">
         <x:v>25</x:v>
@@ -15402,7 +15405,7 @@
     </x:row>
     <x:row r="482" spans="1:9">
       <x:c r="A482" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B482" s="0" t="s">
         <x:v>25</x:v>
@@ -15431,7 +15434,7 @@
     </x:row>
     <x:row r="483" spans="1:9">
       <x:c r="A483" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B483" s="0" t="s">
         <x:v>25</x:v>
@@ -15460,7 +15463,7 @@
     </x:row>
     <x:row r="484" spans="1:9">
       <x:c r="A484" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B484" s="0" t="s">
         <x:v>31</x:v>
@@ -15489,7 +15492,7 @@
     </x:row>
     <x:row r="485" spans="1:9">
       <x:c r="A485" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B485" s="0" t="s">
         <x:v>31</x:v>
@@ -15518,7 +15521,7 @@
     </x:row>
     <x:row r="486" spans="1:9">
       <x:c r="A486" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B486" s="0" t="s">
         <x:v>10</x:v>
@@ -15547,7 +15550,7 @@
     </x:row>
     <x:row r="487" spans="1:9">
       <x:c r="A487" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B487" s="0" t="s">
         <x:v>10</x:v>
@@ -15576,7 +15579,7 @@
     </x:row>
     <x:row r="488" spans="1:9">
       <x:c r="A488" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B488" s="0" t="s">
         <x:v>10</x:v>
@@ -15605,7 +15608,7 @@
     </x:row>
     <x:row r="489" spans="1:9">
       <x:c r="A489" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B489" s="0" t="s">
         <x:v>49</x:v>
@@ -15634,7 +15637,7 @@
     </x:row>
     <x:row r="490" spans="1:9">
       <x:c r="A490" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B490" s="0" t="s">
         <x:v>49</x:v>
@@ -15663,7 +15666,7 @@
     </x:row>
     <x:row r="491" spans="1:9">
       <x:c r="A491" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B491" s="0" t="s">
         <x:v>49</x:v>
@@ -15692,7 +15695,7 @@
     </x:row>
     <x:row r="492" spans="1:9">
       <x:c r="A492" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B492" s="0" t="s">
         <x:v>22</x:v>
@@ -15721,7 +15724,7 @@
     </x:row>
     <x:row r="493" spans="1:9">
       <x:c r="A493" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B493" s="0" t="s">
         <x:v>22</x:v>
@@ -15750,7 +15753,7 @@
     </x:row>
     <x:row r="494" spans="1:9">
       <x:c r="A494" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B494" s="0" t="s">
         <x:v>22</x:v>
@@ -15779,7 +15782,7 @@
     </x:row>
     <x:row r="495" spans="1:9">
       <x:c r="A495" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B495" s="0" t="s">
         <x:v>25</x:v>
@@ -15808,7 +15811,7 @@
     </x:row>
     <x:row r="496" spans="1:9">
       <x:c r="A496" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B496" s="0" t="s">
         <x:v>25</x:v>
@@ -15837,7 +15840,7 @@
     </x:row>
     <x:row r="497" spans="1:9">
       <x:c r="A497" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B497" s="0" t="s">
         <x:v>25</x:v>
@@ -15866,7 +15869,7 @@
     </x:row>
     <x:row r="498" spans="1:9">
       <x:c r="A498" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B498" s="0" t="s">
         <x:v>31</x:v>
@@ -15895,7 +15898,7 @@
     </x:row>
     <x:row r="499" spans="1:9">
       <x:c r="A499" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B499" s="0" t="s">
         <x:v>31</x:v>
@@ -15924,7 +15927,7 @@
     </x:row>
     <x:row r="500" spans="1:9">
       <x:c r="A500" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B500" s="0" t="s">
         <x:v>31</x:v>
@@ -15953,7 +15956,7 @@
     </x:row>
     <x:row r="501" spans="1:9">
       <x:c r="A501" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B501" s="0" t="s">
         <x:v>33</x:v>
@@ -15982,7 +15985,7 @@
     </x:row>
     <x:row r="502" spans="1:9">
       <x:c r="A502" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B502" s="0" t="s">
         <x:v>33</x:v>
@@ -16011,7 +16014,7 @@
     </x:row>
     <x:row r="503" spans="1:9">
       <x:c r="A503" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B503" s="0" t="s">
         <x:v>33</x:v>
@@ -16040,7 +16043,7 @@
     </x:row>
     <x:row r="504" spans="1:9">
       <x:c r="A504" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B504" s="0" t="s">
         <x:v>10</x:v>
@@ -16069,7 +16072,7 @@
     </x:row>
     <x:row r="505" spans="1:9">
       <x:c r="A505" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B505" s="0" t="s">
         <x:v>10</x:v>
@@ -16098,7 +16101,7 @@
     </x:row>
     <x:row r="506" spans="1:9">
       <x:c r="A506" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B506" s="0" t="s">
         <x:v>25</x:v>
@@ -16127,7 +16130,7 @@
     </x:row>
     <x:row r="507" spans="1:9">
       <x:c r="A507" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B507" s="0" t="s">
         <x:v>25</x:v>
@@ -16156,7 +16159,7 @@
     </x:row>
     <x:row r="508" spans="1:9">
       <x:c r="A508" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B508" s="0" t="s">
         <x:v>25</x:v>
@@ -16185,7 +16188,7 @@
     </x:row>
     <x:row r="509" spans="1:9">
       <x:c r="A509" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B509" s="0" t="s">
         <x:v>10</x:v>
@@ -16214,7 +16217,7 @@
     </x:row>
     <x:row r="510" spans="1:9">
       <x:c r="A510" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B510" s="0" t="s">
         <x:v>10</x:v>
@@ -16243,7 +16246,7 @@
     </x:row>
     <x:row r="511" spans="1:9">
       <x:c r="A511" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B511" s="0" t="s">
         <x:v>10</x:v>
@@ -16272,7 +16275,7 @@
     </x:row>
     <x:row r="512" spans="1:9">
       <x:c r="A512" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B512" s="0" t="s">
         <x:v>22</x:v>
@@ -16301,7 +16304,7 @@
     </x:row>
     <x:row r="513" spans="1:9">
       <x:c r="A513" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B513" s="0" t="s">
         <x:v>22</x:v>
@@ -16330,7 +16333,7 @@
     </x:row>
     <x:row r="514" spans="1:9">
       <x:c r="A514" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B514" s="0" t="s">
         <x:v>22</x:v>
@@ -16359,7 +16362,7 @@
     </x:row>
     <x:row r="515" spans="1:9">
       <x:c r="A515" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B515" s="0" t="s">
         <x:v>25</x:v>
@@ -16388,7 +16391,7 @@
     </x:row>
     <x:row r="516" spans="1:9">
       <x:c r="A516" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B516" s="0" t="s">
         <x:v>25</x:v>
@@ -16417,7 +16420,7 @@
     </x:row>
     <x:row r="517" spans="1:9">
       <x:c r="A517" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B517" s="0" t="s">
         <x:v>25</x:v>
@@ -16446,7 +16449,7 @@
     </x:row>
     <x:row r="518" spans="1:9">
       <x:c r="A518" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B518" s="0" t="s">
         <x:v>31</x:v>
@@ -16475,7 +16478,7 @@
     </x:row>
     <x:row r="519" spans="1:9">
       <x:c r="A519" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B519" s="0" t="s">
         <x:v>31</x:v>
@@ -16504,7 +16507,7 @@
     </x:row>
     <x:row r="520" spans="1:9">
       <x:c r="A520" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B520" s="0" t="s">
         <x:v>33</x:v>
@@ -16533,7 +16536,7 @@
     </x:row>
     <x:row r="521" spans="1:9">
       <x:c r="A521" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B521" s="0" t="s">
         <x:v>33</x:v>
@@ -16562,7 +16565,7 @@
     </x:row>
     <x:row r="522" spans="1:9">
       <x:c r="A522" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B522" s="0" t="s">
         <x:v>33</x:v>
@@ -16591,7 +16594,7 @@
     </x:row>
     <x:row r="523" spans="1:9">
       <x:c r="A523" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B523" s="0" t="s">
         <x:v>10</x:v>
@@ -16620,7 +16623,7 @@
     </x:row>
     <x:row r="524" spans="1:9">
       <x:c r="A524" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B524" s="0" t="s">
         <x:v>10</x:v>
@@ -16649,7 +16652,7 @@
     </x:row>
     <x:row r="525" spans="1:9">
       <x:c r="A525" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B525" s="0" t="s">
         <x:v>10</x:v>
@@ -16678,7 +16681,7 @@
     </x:row>
     <x:row r="526" spans="1:9">
       <x:c r="A526" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B526" s="0" t="s">
         <x:v>25</x:v>
@@ -16707,7 +16710,7 @@
     </x:row>
     <x:row r="527" spans="1:9">
       <x:c r="A527" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B527" s="0" t="s">
         <x:v>25</x:v>
@@ -16736,7 +16739,7 @@
     </x:row>
     <x:row r="528" spans="1:9">
       <x:c r="A528" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B528" s="0" t="s">
         <x:v>25</x:v>
@@ -16765,7 +16768,7 @@
     </x:row>
     <x:row r="529" spans="1:9">
       <x:c r="A529" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B529" s="0" t="s">
         <x:v>31</x:v>
@@ -16794,7 +16797,7 @@
     </x:row>
     <x:row r="530" spans="1:9">
       <x:c r="A530" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B530" s="0" t="s">
         <x:v>31</x:v>
@@ -16823,7 +16826,7 @@
     </x:row>
     <x:row r="531" spans="1:9">
       <x:c r="A531" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B531" s="0" t="s">
         <x:v>10</x:v>
@@ -16852,7 +16855,7 @@
     </x:row>
     <x:row r="532" spans="1:9">
       <x:c r="A532" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B532" s="0" t="s">
         <x:v>10</x:v>
@@ -16881,7 +16884,7 @@
     </x:row>
     <x:row r="533" spans="1:9">
       <x:c r="A533" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B533" s="0" t="s">
         <x:v>10</x:v>
@@ -16910,7 +16913,7 @@
     </x:row>
     <x:row r="534" spans="1:9">
       <x:c r="A534" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B534" s="0" t="s">
         <x:v>22</x:v>
@@ -16939,7 +16942,7 @@
     </x:row>
     <x:row r="535" spans="1:9">
       <x:c r="A535" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B535" s="0" t="s">
         <x:v>22</x:v>
@@ -16968,7 +16971,7 @@
     </x:row>
     <x:row r="536" spans="1:9">
       <x:c r="A536" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B536" s="0" t="s">
         <x:v>25</x:v>
@@ -16997,7 +17000,7 @@
     </x:row>
     <x:row r="537" spans="1:9">
       <x:c r="A537" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B537" s="0" t="s">
         <x:v>25</x:v>
@@ -17026,7 +17029,7 @@
     </x:row>
     <x:row r="538" spans="1:9">
       <x:c r="A538" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B538" s="0" t="s">
         <x:v>25</x:v>
@@ -17055,7 +17058,7 @@
     </x:row>
     <x:row r="539" spans="1:9">
       <x:c r="A539" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B539" s="0" t="s">
         <x:v>33</x:v>
@@ -17084,7 +17087,7 @@
     </x:row>
     <x:row r="540" spans="1:9">
       <x:c r="A540" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B540" s="0" t="s">
         <x:v>33</x:v>
@@ -17113,7 +17116,7 @@
     </x:row>
     <x:row r="541" spans="1:9">
       <x:c r="A541" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B541" s="0" t="s">
         <x:v>33</x:v>
@@ -17142,7 +17145,7 @@
     </x:row>
     <x:row r="542" spans="1:9">
       <x:c r="A542" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B542" s="0" t="s">
         <x:v>10</x:v>
@@ -17171,7 +17174,7 @@
     </x:row>
     <x:row r="543" spans="1:9">
       <x:c r="A543" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B543" s="0" t="s">
         <x:v>10</x:v>
@@ -17200,7 +17203,7 @@
     </x:row>
     <x:row r="544" spans="1:9">
       <x:c r="A544" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B544" s="0" t="s">
         <x:v>10</x:v>
@@ -17229,7 +17232,7 @@
     </x:row>
     <x:row r="545" spans="1:9">
       <x:c r="A545" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B545" s="0" t="s">
         <x:v>22</x:v>
@@ -17258,7 +17261,7 @@
     </x:row>
     <x:row r="546" spans="1:9">
       <x:c r="A546" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B546" s="0" t="s">
         <x:v>22</x:v>
@@ -17287,7 +17290,7 @@
     </x:row>
     <x:row r="547" spans="1:9">
       <x:c r="A547" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B547" s="0" t="s">
         <x:v>22</x:v>
@@ -17316,7 +17319,7 @@
     </x:row>
     <x:row r="548" spans="1:9">
       <x:c r="A548" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B548" s="0" t="s">
         <x:v>25</x:v>
@@ -17345,7 +17348,7 @@
     </x:row>
     <x:row r="549" spans="1:9">
       <x:c r="A549" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B549" s="0" t="s">
         <x:v>25</x:v>
@@ -17374,7 +17377,7 @@
     </x:row>
     <x:row r="550" spans="1:9">
       <x:c r="A550" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B550" s="0" t="s">
         <x:v>25</x:v>
@@ -17403,7 +17406,7 @@
     </x:row>
     <x:row r="551" spans="1:9">
       <x:c r="A551" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B551" s="0" t="s">
         <x:v>30</x:v>
@@ -17432,7 +17435,7 @@
     </x:row>
     <x:row r="552" spans="1:9">
       <x:c r="A552" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B552" s="0" t="s">
         <x:v>30</x:v>
@@ -17461,7 +17464,7 @@
     </x:row>
     <x:row r="553" spans="1:9">
       <x:c r="A553" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B553" s="0" t="s">
         <x:v>30</x:v>
@@ -17490,7 +17493,7 @@
     </x:row>
     <x:row r="554" spans="1:9">
       <x:c r="A554" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B554" s="0" t="s">
         <x:v>31</x:v>
@@ -17519,7 +17522,7 @@
     </x:row>
     <x:row r="555" spans="1:9">
       <x:c r="A555" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B555" s="0" t="s">
         <x:v>31</x:v>
@@ -17548,7 +17551,7 @@
     </x:row>
     <x:row r="556" spans="1:9">
       <x:c r="A556" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B556" s="0" t="s">
         <x:v>31</x:v>
@@ -17577,7 +17580,7 @@
     </x:row>
     <x:row r="557" spans="1:9">
       <x:c r="A557" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B557" s="0" t="s">
         <x:v>33</x:v>
@@ -17606,7 +17609,7 @@
     </x:row>
     <x:row r="558" spans="1:9">
       <x:c r="A558" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B558" s="0" t="s">
         <x:v>33</x:v>
@@ -17635,7 +17638,7 @@
     </x:row>
     <x:row r="559" spans="1:9">
       <x:c r="A559" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B559" s="0" t="s">
         <x:v>25</x:v>
@@ -17664,7 +17667,7 @@
     </x:row>
     <x:row r="560" spans="1:9">
       <x:c r="A560" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B560" s="0" t="s">
         <x:v>25</x:v>
@@ -17693,7 +17696,7 @@
     </x:row>
     <x:row r="561" spans="1:9">
       <x:c r="A561" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B561" s="0" t="s">
         <x:v>10</x:v>
@@ -17722,7 +17725,7 @@
     </x:row>
     <x:row r="562" spans="1:9">
       <x:c r="A562" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B562" s="0" t="s">
         <x:v>10</x:v>
@@ -17751,7 +17754,7 @@
     </x:row>
     <x:row r="563" spans="1:9">
       <x:c r="A563" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B563" s="0" t="s">
         <x:v>10</x:v>
@@ -17780,7 +17783,7 @@
     </x:row>
     <x:row r="564" spans="1:9">
       <x:c r="A564" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B564" s="0" t="s">
         <x:v>22</x:v>
@@ -17809,7 +17812,7 @@
     </x:row>
     <x:row r="565" spans="1:9">
       <x:c r="A565" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B565" s="0" t="s">
         <x:v>22</x:v>
@@ -17838,7 +17841,7 @@
     </x:row>
     <x:row r="566" spans="1:9">
       <x:c r="A566" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B566" s="0" t="s">
         <x:v>22</x:v>
@@ -17867,7 +17870,7 @@
     </x:row>
     <x:row r="567" spans="1:9">
       <x:c r="A567" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B567" s="0" t="s">
         <x:v>25</x:v>
@@ -17896,7 +17899,7 @@
     </x:row>
     <x:row r="568" spans="1:9">
       <x:c r="A568" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B568" s="0" t="s">
         <x:v>25</x:v>
@@ -17925,7 +17928,7 @@
     </x:row>
     <x:row r="569" spans="1:9">
       <x:c r="A569" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B569" s="0" t="s">
         <x:v>25</x:v>
@@ -17954,7 +17957,7 @@
     </x:row>
     <x:row r="570" spans="1:9">
       <x:c r="A570" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B570" s="0" t="s">
         <x:v>31</x:v>
@@ -17983,7 +17986,7 @@
     </x:row>
     <x:row r="571" spans="1:9">
       <x:c r="A571" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B571" s="0" t="s">
         <x:v>31</x:v>
@@ -18012,7 +18015,7 @@
     </x:row>
     <x:row r="572" spans="1:9">
       <x:c r="A572" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B572" s="0" t="s">
         <x:v>31</x:v>
@@ -18041,7 +18044,7 @@
     </x:row>
     <x:row r="573" spans="1:9">
       <x:c r="A573" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B573" s="0" t="s">
         <x:v>33</x:v>
@@ -18070,7 +18073,7 @@
     </x:row>
     <x:row r="574" spans="1:9">
       <x:c r="A574" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B574" s="0" t="s">
         <x:v>33</x:v>
@@ -18099,7 +18102,7 @@
     </x:row>
     <x:row r="575" spans="1:9">
       <x:c r="A575" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B575" s="0" t="s">
         <x:v>10</x:v>
@@ -18128,7 +18131,7 @@
     </x:row>
     <x:row r="576" spans="1:9">
       <x:c r="A576" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B576" s="0" t="s">
         <x:v>10</x:v>
@@ -18157,7 +18160,7 @@
     </x:row>
     <x:row r="577" spans="1:9">
       <x:c r="A577" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B577" s="0" t="s">
         <x:v>10</x:v>
@@ -18186,7 +18189,7 @@
     </x:row>
     <x:row r="578" spans="1:9">
       <x:c r="A578" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B578" s="0" t="s">
         <x:v>22</x:v>
@@ -18215,7 +18218,7 @@
     </x:row>
     <x:row r="579" spans="1:9">
       <x:c r="A579" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B579" s="0" t="s">
         <x:v>22</x:v>
@@ -18244,7 +18247,7 @@
     </x:row>
     <x:row r="580" spans="1:9">
       <x:c r="A580" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B580" s="0" t="s">
         <x:v>25</x:v>
@@ -18273,7 +18276,7 @@
     </x:row>
     <x:row r="581" spans="1:9">
       <x:c r="A581" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B581" s="0" t="s">
         <x:v>25</x:v>
@@ -18302,7 +18305,7 @@
     </x:row>
     <x:row r="582" spans="1:9">
       <x:c r="A582" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B582" s="0" t="s">
         <x:v>25</x:v>
@@ -18331,7 +18334,7 @@
     </x:row>
     <x:row r="583" spans="1:9">
       <x:c r="A583" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B583" s="0" t="s">
         <x:v>31</x:v>
@@ -18360,7 +18363,7 @@
     </x:row>
     <x:row r="584" spans="1:9">
       <x:c r="A584" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B584" s="0" t="s">
         <x:v>31</x:v>
@@ -18389,7 +18392,7 @@
     </x:row>
     <x:row r="585" spans="1:9">
       <x:c r="A585" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B585" s="0" t="s">
         <x:v>31</x:v>
@@ -18418,7 +18421,7 @@
     </x:row>
     <x:row r="586" spans="1:9">
       <x:c r="A586" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B586" s="0" t="s">
         <x:v>33</x:v>
@@ -18447,7 +18450,7 @@
     </x:row>
     <x:row r="587" spans="1:9">
       <x:c r="A587" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B587" s="0" t="s">
         <x:v>33</x:v>
@@ -18476,7 +18479,7 @@
     </x:row>
     <x:row r="588" spans="1:9">
       <x:c r="A588" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B588" s="0" t="s">
         <x:v>10</x:v>
@@ -18505,7 +18508,7 @@
     </x:row>
     <x:row r="589" spans="1:9">
       <x:c r="A589" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B589" s="0" t="s">
         <x:v>10</x:v>
@@ -18534,7 +18537,7 @@
     </x:row>
     <x:row r="590" spans="1:9">
       <x:c r="A590" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B590" s="0" t="s">
         <x:v>10</x:v>
@@ -18563,7 +18566,7 @@
     </x:row>
     <x:row r="591" spans="1:9">
       <x:c r="A591" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B591" s="0" t="s">
         <x:v>22</x:v>
@@ -18592,7 +18595,7 @@
     </x:row>
     <x:row r="592" spans="1:9">
       <x:c r="A592" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B592" s="0" t="s">
         <x:v>22</x:v>
@@ -18621,7 +18624,7 @@
     </x:row>
     <x:row r="593" spans="1:9">
       <x:c r="A593" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B593" s="0" t="s">
         <x:v>25</x:v>
@@ -18650,7 +18653,7 @@
     </x:row>
     <x:row r="594" spans="1:9">
       <x:c r="A594" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B594" s="0" t="s">
         <x:v>25</x:v>
@@ -18679,7 +18682,7 @@
     </x:row>
     <x:row r="595" spans="1:9">
       <x:c r="A595" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B595" s="0" t="s">
         <x:v>25</x:v>
@@ -18708,7 +18711,7 @@
     </x:row>
     <x:row r="596" spans="1:9">
       <x:c r="A596" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B596" s="0" t="s">
         <x:v>10</x:v>
@@ -18737,7 +18740,7 @@
     </x:row>
     <x:row r="597" spans="1:9">
       <x:c r="A597" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B597" s="0" t="s">
         <x:v>10</x:v>
@@ -18766,7 +18769,7 @@
     </x:row>
     <x:row r="598" spans="1:9">
       <x:c r="A598" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B598" s="0" t="s">
         <x:v>10</x:v>
@@ -18795,7 +18798,7 @@
     </x:row>
     <x:row r="599" spans="1:9">
       <x:c r="A599" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B599" s="0" t="s">
         <x:v>22</x:v>
@@ -18824,7 +18827,7 @@
     </x:row>
     <x:row r="600" spans="1:9">
       <x:c r="A600" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B600" s="0" t="s">
         <x:v>22</x:v>
@@ -18853,7 +18856,7 @@
     </x:row>
     <x:row r="601" spans="1:9">
       <x:c r="A601" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B601" s="0" t="s">
         <x:v>22</x:v>
@@ -18882,7 +18885,7 @@
     </x:row>
     <x:row r="602" spans="1:9">
       <x:c r="A602" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B602" s="0" t="s">
         <x:v>25</x:v>
@@ -18911,7 +18914,7 @@
     </x:row>
     <x:row r="603" spans="1:9">
       <x:c r="A603" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B603" s="0" t="s">
         <x:v>25</x:v>
@@ -18940,7 +18943,7 @@
     </x:row>
     <x:row r="604" spans="1:9">
       <x:c r="A604" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B604" s="0" t="s">
         <x:v>25</x:v>
@@ -18969,7 +18972,7 @@
     </x:row>
     <x:row r="605" spans="1:9">
       <x:c r="A605" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B605" s="0" t="s">
         <x:v>30</x:v>
@@ -18998,7 +19001,7 @@
     </x:row>
     <x:row r="606" spans="1:9">
       <x:c r="A606" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B606" s="0" t="s">
         <x:v>30</x:v>
@@ -19027,7 +19030,7 @@
     </x:row>
     <x:row r="607" spans="1:9">
       <x:c r="A607" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B607" s="0" t="s">
         <x:v>30</x:v>
@@ -19056,7 +19059,7 @@
     </x:row>
     <x:row r="608" spans="1:9">
       <x:c r="A608" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B608" s="0" t="s">
         <x:v>31</x:v>
@@ -19085,7 +19088,7 @@
     </x:row>
     <x:row r="609" spans="1:9">
       <x:c r="A609" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B609" s="0" t="s">
         <x:v>31</x:v>
@@ -19114,7 +19117,7 @@
     </x:row>
     <x:row r="610" spans="1:9">
       <x:c r="A610" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B610" s="0" t="s">
         <x:v>31</x:v>
@@ -19143,7 +19146,7 @@
     </x:row>
     <x:row r="611" spans="1:9">
       <x:c r="A611" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B611" s="0" t="s">
         <x:v>33</x:v>
@@ -19172,7 +19175,7 @@
     </x:row>
     <x:row r="612" spans="1:9">
       <x:c r="A612" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B612" s="0" t="s">
         <x:v>33</x:v>
@@ -19201,7 +19204,7 @@
     </x:row>
     <x:row r="613" spans="1:9">
       <x:c r="A613" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B613" s="0" t="s">
         <x:v>33</x:v>
@@ -19230,7 +19233,7 @@
     </x:row>
     <x:row r="614" spans="1:9">
       <x:c r="A614" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B614" s="0" t="s">
         <x:v>10</x:v>
@@ -19259,7 +19262,7 @@
     </x:row>
     <x:row r="615" spans="1:9">
       <x:c r="A615" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B615" s="0" t="s">
         <x:v>10</x:v>
@@ -19277,7 +19280,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="G615" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H615" s="1" t="s">
         <x:v>107</x:v>
@@ -19288,7 +19291,7 @@
     </x:row>
     <x:row r="616" spans="1:9">
       <x:c r="A616" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B616" s="0" t="s">
         <x:v>10</x:v>
@@ -19300,13 +19303,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E616" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F616" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G616" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H616" s="1" t="s">
         <x:v>109</x:v>
@@ -19317,7 +19320,7 @@
     </x:row>
     <x:row r="617" spans="1:9">
       <x:c r="A617" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B617" s="0" t="s">
         <x:v>22</x:v>
@@ -19346,7 +19349,7 @@
     </x:row>
     <x:row r="618" spans="1:9">
       <x:c r="A618" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B618" s="0" t="s">
         <x:v>22</x:v>
@@ -19375,7 +19378,7 @@
     </x:row>
     <x:row r="619" spans="1:9">
       <x:c r="A619" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B619" s="0" t="s">
         <x:v>22</x:v>
@@ -19404,7 +19407,7 @@
     </x:row>
     <x:row r="620" spans="1:9">
       <x:c r="A620" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B620" s="0" t="s">
         <x:v>25</x:v>
@@ -19433,7 +19436,7 @@
     </x:row>
     <x:row r="621" spans="1:9">
       <x:c r="A621" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B621" s="0" t="s">
         <x:v>25</x:v>
@@ -19462,7 +19465,7 @@
     </x:row>
     <x:row r="622" spans="1:9">
       <x:c r="A622" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B622" s="0" t="s">
         <x:v>25</x:v>
@@ -19491,7 +19494,7 @@
     </x:row>
     <x:row r="623" spans="1:9">
       <x:c r="A623" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B623" s="0" t="s">
         <x:v>31</x:v>
@@ -19520,7 +19523,7 @@
     </x:row>
     <x:row r="624" spans="1:9">
       <x:c r="A624" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B624" s="0" t="s">
         <x:v>31</x:v>
@@ -19549,7 +19552,7 @@
     </x:row>
     <x:row r="625" spans="1:9">
       <x:c r="A625" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B625" s="0" t="s">
         <x:v>31</x:v>
@@ -19578,7 +19581,7 @@
     </x:row>
     <x:row r="626" spans="1:9">
       <x:c r="A626" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B626" s="0" t="s">
         <x:v>33</x:v>
@@ -19607,7 +19610,7 @@
     </x:row>
     <x:row r="627" spans="1:9">
       <x:c r="A627" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B627" s="0" t="s">
         <x:v>33</x:v>
@@ -19636,7 +19639,7 @@
     </x:row>
     <x:row r="628" spans="1:9">
       <x:c r="A628" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B628" s="0" t="s">
         <x:v>33</x:v>
@@ -19665,7 +19668,7 @@
     </x:row>
     <x:row r="629" spans="1:9">
       <x:c r="A629" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B629" s="0" t="s">
         <x:v>10</x:v>
@@ -19694,7 +19697,7 @@
     </x:row>
     <x:row r="630" spans="1:9">
       <x:c r="A630" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B630" s="0" t="s">
         <x:v>10</x:v>
@@ -19723,7 +19726,7 @@
     </x:row>
     <x:row r="631" spans="1:9">
       <x:c r="A631" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B631" s="0" t="s">
         <x:v>10</x:v>
@@ -19752,7 +19755,7 @@
     </x:row>
     <x:row r="632" spans="1:9">
       <x:c r="A632" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B632" s="0" t="s">
         <x:v>22</x:v>
@@ -19781,7 +19784,7 @@
     </x:row>
     <x:row r="633" spans="1:9">
       <x:c r="A633" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B633" s="0" t="s">
         <x:v>22</x:v>
@@ -19810,7 +19813,7 @@
     </x:row>
     <x:row r="634" spans="1:9">
       <x:c r="A634" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B634" s="0" t="s">
         <x:v>22</x:v>
@@ -19839,7 +19842,7 @@
     </x:row>
     <x:row r="635" spans="1:9">
       <x:c r="A635" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B635" s="0" t="s">
         <x:v>25</x:v>
@@ -19868,7 +19871,7 @@
     </x:row>
     <x:row r="636" spans="1:9">
       <x:c r="A636" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B636" s="0" t="s">
         <x:v>25</x:v>
@@ -19897,7 +19900,7 @@
     </x:row>
     <x:row r="637" spans="1:9">
       <x:c r="A637" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B637" s="0" t="s">
         <x:v>25</x:v>
@@ -19926,7 +19929,7 @@
     </x:row>
     <x:row r="638" spans="1:9">
       <x:c r="A638" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B638" s="0" t="s">
         <x:v>31</x:v>
@@ -19955,7 +19958,7 @@
     </x:row>
     <x:row r="639" spans="1:9">
       <x:c r="A639" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B639" s="0" t="s">
         <x:v>31</x:v>
@@ -19984,7 +19987,7 @@
     </x:row>
     <x:row r="640" spans="1:9">
       <x:c r="A640" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B640" s="0" t="s">
         <x:v>10</x:v>
@@ -20013,7 +20016,7 @@
     </x:row>
     <x:row r="641" spans="1:9">
       <x:c r="A641" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B641" s="0" t="s">
         <x:v>10</x:v>
@@ -20028,7 +20031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F641" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G641" s="1" t="s">
         <x:v>149</x:v>
@@ -20042,7 +20045,7 @@
     </x:row>
     <x:row r="642" spans="1:9">
       <x:c r="A642" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B642" s="0" t="s">
         <x:v>10</x:v>
@@ -20057,7 +20060,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F642" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="G642" s="1" t="s">
         <x:v>86</x:v>
@@ -20071,7 +20074,7 @@
     </x:row>
     <x:row r="643" spans="1:9">
       <x:c r="A643" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B643" s="0" t="s">
         <x:v>22</x:v>
@@ -20100,7 +20103,7 @@
     </x:row>
     <x:row r="644" spans="1:9">
       <x:c r="A644" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B644" s="0" t="s">
         <x:v>22</x:v>
@@ -20129,7 +20132,7 @@
     </x:row>
     <x:row r="645" spans="1:9">
       <x:c r="A645" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B645" s="0" t="s">
         <x:v>22</x:v>
@@ -20158,7 +20161,7 @@
     </x:row>
     <x:row r="646" spans="1:9">
       <x:c r="A646" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B646" s="0" t="s">
         <x:v>25</x:v>
@@ -20187,7 +20190,7 @@
     </x:row>
     <x:row r="647" spans="1:9">
       <x:c r="A647" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B647" s="0" t="s">
         <x:v>25</x:v>
@@ -20216,7 +20219,7 @@
     </x:row>
     <x:row r="648" spans="1:9">
       <x:c r="A648" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B648" s="0" t="s">
         <x:v>25</x:v>
@@ -20234,7 +20237,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G648" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H648" s="1" t="s">
         <x:v>40</x:v>
@@ -20245,7 +20248,7 @@
     </x:row>
     <x:row r="649" spans="1:9">
       <x:c r="A649" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B649" s="0" t="s">
         <x:v>30</x:v>
@@ -20274,7 +20277,7 @@
     </x:row>
     <x:row r="650" spans="1:9">
       <x:c r="A650" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B650" s="0" t="s">
         <x:v>30</x:v>
@@ -20303,7 +20306,7 @@
     </x:row>
     <x:row r="651" spans="1:9">
       <x:c r="A651" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B651" s="0" t="s">
         <x:v>30</x:v>
@@ -20332,7 +20335,7 @@
     </x:row>
     <x:row r="652" spans="1:9">
       <x:c r="A652" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B652" s="0" t="s">
         <x:v>31</x:v>
@@ -20361,7 +20364,7 @@
     </x:row>
     <x:row r="653" spans="1:9">
       <x:c r="A653" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B653" s="0" t="s">
         <x:v>31</x:v>
@@ -20390,7 +20393,7 @@
     </x:row>
     <x:row r="654" spans="1:9">
       <x:c r="A654" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B654" s="0" t="s">
         <x:v>31</x:v>
@@ -20419,7 +20422,7 @@
     </x:row>
     <x:row r="655" spans="1:9">
       <x:c r="A655" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B655" s="0" t="s">
         <x:v>33</x:v>
@@ -20448,7 +20451,7 @@
     </x:row>
     <x:row r="656" spans="1:9">
       <x:c r="A656" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B656" s="0" t="s">
         <x:v>33</x:v>
@@ -20477,7 +20480,7 @@
     </x:row>
     <x:row r="657" spans="1:9">
       <x:c r="A657" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B657" s="0" t="s">
         <x:v>33</x:v>
@@ -20506,7 +20509,7 @@
     </x:row>
     <x:row r="658" spans="1:9">
       <x:c r="A658" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B658" s="0" t="s">
         <x:v>10</x:v>
@@ -20535,7 +20538,7 @@
     </x:row>
     <x:row r="659" spans="1:9">
       <x:c r="A659" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B659" s="0" t="s">
         <x:v>10</x:v>
@@ -20564,7 +20567,7 @@
     </x:row>
     <x:row r="660" spans="1:9">
       <x:c r="A660" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B660" s="0" t="s">
         <x:v>10</x:v>
@@ -20593,7 +20596,7 @@
     </x:row>
     <x:row r="661" spans="1:9">
       <x:c r="A661" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B661" s="0" t="s">
         <x:v>49</x:v>
@@ -20622,7 +20625,7 @@
     </x:row>
     <x:row r="662" spans="1:9">
       <x:c r="A662" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B662" s="0" t="s">
         <x:v>49</x:v>
@@ -20651,7 +20654,7 @@
     </x:row>
     <x:row r="663" spans="1:9">
       <x:c r="A663" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B663" s="0" t="s">
         <x:v>22</x:v>
@@ -20680,7 +20683,7 @@
     </x:row>
     <x:row r="664" spans="1:9">
       <x:c r="A664" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B664" s="0" t="s">
         <x:v>22</x:v>
@@ -20709,7 +20712,7 @@
     </x:row>
     <x:row r="665" spans="1:9">
       <x:c r="A665" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B665" s="0" t="s">
         <x:v>22</x:v>
@@ -20738,7 +20741,7 @@
     </x:row>
     <x:row r="666" spans="1:9">
       <x:c r="A666" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B666" s="0" t="s">
         <x:v>25</x:v>
@@ -20767,7 +20770,7 @@
     </x:row>
     <x:row r="667" spans="1:9">
       <x:c r="A667" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B667" s="0" t="s">
         <x:v>25</x:v>
@@ -20796,7 +20799,7 @@
     </x:row>
     <x:row r="668" spans="1:9">
       <x:c r="A668" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B668" s="0" t="s">
         <x:v>25</x:v>
@@ -20825,7 +20828,7 @@
     </x:row>
     <x:row r="669" spans="1:9">
       <x:c r="A669" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B669" s="0" t="s">
         <x:v>31</x:v>
@@ -20854,7 +20857,7 @@
     </x:row>
     <x:row r="670" spans="1:9">
       <x:c r="A670" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B670" s="0" t="s">
         <x:v>31</x:v>
@@ -20883,7 +20886,7 @@
     </x:row>
     <x:row r="671" spans="1:9">
       <x:c r="A671" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B671" s="0" t="s">
         <x:v>31</x:v>
@@ -20912,7 +20915,7 @@
     </x:row>
     <x:row r="672" spans="1:9">
       <x:c r="A672" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B672" s="0" t="s">
         <x:v>33</x:v>
@@ -20941,7 +20944,7 @@
     </x:row>
     <x:row r="673" spans="1:9">
       <x:c r="A673" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B673" s="0" t="s">
         <x:v>33</x:v>
@@ -20970,7 +20973,7 @@
     </x:row>
     <x:row r="674" spans="1:9">
       <x:c r="A674" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B674" s="0" t="s">
         <x:v>33</x:v>
@@ -20999,7 +21002,7 @@
     </x:row>
     <x:row r="675" spans="1:9">
       <x:c r="A675" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B675" s="0" t="s">
         <x:v>10</x:v>
@@ -21014,7 +21017,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F675" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G675" s="1" t="s">
         <x:v>127</x:v>
@@ -21028,7 +21031,7 @@
     </x:row>
     <x:row r="676" spans="1:9">
       <x:c r="A676" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B676" s="0" t="s">
         <x:v>10</x:v>
@@ -21043,13 +21046,13 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="F676" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G676" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
       <x:c r="H676" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I676" s="0" t="s">
         <x:v>12</x:v>
@@ -21057,7 +21060,7 @@
     </x:row>
     <x:row r="677" spans="1:9">
       <x:c r="A677" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B677" s="0" t="s">
         <x:v>10</x:v>
@@ -21069,13 +21072,13 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E677" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F677" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G677" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="H677" s="1" t="s">
         <x:v>88</x:v>
@@ -21086,7 +21089,7 @@
     </x:row>
     <x:row r="678" spans="1:9">
       <x:c r="A678" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B678" s="0" t="s">
         <x:v>22</x:v>
@@ -21115,7 +21118,7 @@
     </x:row>
     <x:row r="679" spans="1:9">
       <x:c r="A679" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B679" s="0" t="s">
         <x:v>22</x:v>
@@ -21144,7 +21147,7 @@
     </x:row>
     <x:row r="680" spans="1:9">
       <x:c r="A680" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B680" s="0" t="s">
         <x:v>22</x:v>
@@ -21173,7 +21176,7 @@
     </x:row>
     <x:row r="681" spans="1:9">
       <x:c r="A681" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B681" s="0" t="s">
         <x:v>25</x:v>
@@ -21202,7 +21205,7 @@
     </x:row>
     <x:row r="682" spans="1:9">
       <x:c r="A682" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B682" s="0" t="s">
         <x:v>25</x:v>
@@ -21217,7 +21220,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F682" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="G682" s="1" t="s">
         <x:v>118</x:v>
@@ -21231,7 +21234,7 @@
     </x:row>
     <x:row r="683" spans="1:9">
       <x:c r="A683" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B683" s="0" t="s">
         <x:v>25</x:v>
@@ -21243,7 +21246,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E683" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F683" s="1" t="s">
         <x:v>151</x:v>
@@ -21260,7 +21263,7 @@
     </x:row>
     <x:row r="684" spans="1:9">
       <x:c r="A684" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B684" s="0" t="s">
         <x:v>31</x:v>
@@ -21289,7 +21292,7 @@
     </x:row>
     <x:row r="685" spans="1:9">
       <x:c r="A685" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B685" s="0" t="s">
         <x:v>31</x:v>
@@ -21318,7 +21321,7 @@
     </x:row>
     <x:row r="686" spans="1:9">
       <x:c r="A686" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B686" s="0" t="s">
         <x:v>31</x:v>
@@ -21347,7 +21350,7 @@
     </x:row>
     <x:row r="687" spans="1:9">
       <x:c r="A687" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B687" s="0" t="s">
         <x:v>33</x:v>
@@ -21376,7 +21379,7 @@
     </x:row>
     <x:row r="688" spans="1:9">
       <x:c r="A688" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B688" s="0" t="s">
         <x:v>33</x:v>
@@ -21405,7 +21408,7 @@
     </x:row>
     <x:row r="689" spans="1:9">
       <x:c r="A689" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B689" s="0" t="s">
         <x:v>33</x:v>
@@ -21434,7 +21437,7 @@
     </x:row>
     <x:row r="690" spans="1:9">
       <x:c r="A690" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B690" s="0" t="s">
         <x:v>10</x:v>
@@ -21463,7 +21466,7 @@
     </x:row>
     <x:row r="691" spans="1:9">
       <x:c r="A691" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B691" s="0" t="s">
         <x:v>10</x:v>
@@ -21492,7 +21495,7 @@
     </x:row>
     <x:row r="692" spans="1:9">
       <x:c r="A692" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B692" s="0" t="s">
         <x:v>10</x:v>
@@ -21521,7 +21524,7 @@
     </x:row>
     <x:row r="693" spans="1:9">
       <x:c r="A693" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B693" s="0" t="s">
         <x:v>22</x:v>
@@ -21550,7 +21553,7 @@
     </x:row>
     <x:row r="694" spans="1:9">
       <x:c r="A694" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B694" s="0" t="s">
         <x:v>22</x:v>
@@ -21579,7 +21582,7 @@
     </x:row>
     <x:row r="695" spans="1:9">
       <x:c r="A695" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B695" s="0" t="s">
         <x:v>25</x:v>
@@ -21608,7 +21611,7 @@
     </x:row>
     <x:row r="696" spans="1:9">
       <x:c r="A696" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B696" s="0" t="s">
         <x:v>25</x:v>
@@ -21637,7 +21640,7 @@
     </x:row>
     <x:row r="697" spans="1:9">
       <x:c r="A697" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B697" s="0" t="s">
         <x:v>25</x:v>
@@ -21666,7 +21669,7 @@
     </x:row>
     <x:row r="698" spans="1:9">
       <x:c r="A698" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B698" s="0" t="s">
         <x:v>30</x:v>
@@ -21695,7 +21698,7 @@
     </x:row>
     <x:row r="699" spans="1:9">
       <x:c r="A699" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B699" s="0" t="s">
         <x:v>30</x:v>
@@ -21724,7 +21727,7 @@
     </x:row>
     <x:row r="700" spans="1:9">
       <x:c r="A700" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B700" s="0" t="s">
         <x:v>31</x:v>
@@ -21753,7 +21756,7 @@
     </x:row>
     <x:row r="701" spans="1:9">
       <x:c r="A701" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B701" s="0" t="s">
         <x:v>31</x:v>
@@ -21782,7 +21785,7 @@
     </x:row>
     <x:row r="702" spans="1:9">
       <x:c r="A702" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B702" s="0" t="s">
         <x:v>31</x:v>
@@ -21811,7 +21814,7 @@
     </x:row>
     <x:row r="703" spans="1:9">
       <x:c r="A703" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B703" s="0" t="s">
         <x:v>33</x:v>
@@ -21840,7 +21843,7 @@
     </x:row>
     <x:row r="704" spans="1:9">
       <x:c r="A704" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B704" s="0" t="s">
         <x:v>33</x:v>
@@ -21869,7 +21872,7 @@
     </x:row>
     <x:row r="705" spans="1:9">
       <x:c r="A705" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B705" s="0" t="s">
         <x:v>10</x:v>
@@ -21898,7 +21901,7 @@
     </x:row>
     <x:row r="706" spans="1:9">
       <x:c r="A706" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B706" s="0" t="s">
         <x:v>10</x:v>
@@ -21927,7 +21930,7 @@
     </x:row>
     <x:row r="707" spans="1:9">
       <x:c r="A707" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B707" s="0" t="s">
         <x:v>10</x:v>
@@ -21956,7 +21959,7 @@
     </x:row>
     <x:row r="708" spans="1:9">
       <x:c r="A708" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B708" s="0" t="s">
         <x:v>49</x:v>
@@ -21985,7 +21988,7 @@
     </x:row>
     <x:row r="709" spans="1:9">
       <x:c r="A709" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B709" s="0" t="s">
         <x:v>49</x:v>
@@ -22014,7 +22017,7 @@
     </x:row>
     <x:row r="710" spans="1:9">
       <x:c r="A710" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B710" s="0" t="s">
         <x:v>49</x:v>
@@ -22043,7 +22046,7 @@
     </x:row>
     <x:row r="711" spans="1:9">
       <x:c r="A711" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B711" s="0" t="s">
         <x:v>22</x:v>
@@ -22072,7 +22075,7 @@
     </x:row>
     <x:row r="712" spans="1:9">
       <x:c r="A712" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B712" s="0" t="s">
         <x:v>22</x:v>
@@ -22101,7 +22104,7 @@
     </x:row>
     <x:row r="713" spans="1:9">
       <x:c r="A713" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B713" s="0" t="s">
         <x:v>22</x:v>
@@ -22130,7 +22133,7 @@
     </x:row>
     <x:row r="714" spans="1:9">
       <x:c r="A714" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B714" s="0" t="s">
         <x:v>25</x:v>
@@ -22159,7 +22162,7 @@
     </x:row>
     <x:row r="715" spans="1:9">
       <x:c r="A715" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B715" s="0" t="s">
         <x:v>25</x:v>
@@ -22188,7 +22191,7 @@
     </x:row>
     <x:row r="716" spans="1:9">
       <x:c r="A716" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B716" s="0" t="s">
         <x:v>25</x:v>
@@ -22217,7 +22220,7 @@
     </x:row>
     <x:row r="717" spans="1:9">
       <x:c r="A717" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B717" s="0" t="s">
         <x:v>31</x:v>
@@ -22246,7 +22249,7 @@
     </x:row>
     <x:row r="718" spans="1:9">
       <x:c r="A718" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B718" s="0" t="s">
         <x:v>31</x:v>
@@ -22275,7 +22278,7 @@
     </x:row>
     <x:row r="719" spans="1:9">
       <x:c r="A719" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B719" s="0" t="s">
         <x:v>31</x:v>
@@ -22304,7 +22307,7 @@
     </x:row>
     <x:row r="720" spans="1:9">
       <x:c r="A720" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B720" s="0" t="s">
         <x:v>33</x:v>
@@ -22333,7 +22336,7 @@
     </x:row>
     <x:row r="721" spans="1:9">
       <x:c r="A721" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B721" s="0" t="s">
         <x:v>33</x:v>
@@ -22362,7 +22365,7 @@
     </x:row>
     <x:row r="722" spans="1:9">
       <x:c r="A722" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B722" s="0" t="s">
         <x:v>33</x:v>
@@ -22391,7 +22394,7 @@
     </x:row>
     <x:row r="723" spans="1:9">
       <x:c r="A723" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B723" s="0" t="s">
         <x:v>10</x:v>
@@ -22420,7 +22423,7 @@
     </x:row>
     <x:row r="724" spans="1:9">
       <x:c r="A724" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B724" s="0" t="s">
         <x:v>10</x:v>
@@ -22449,7 +22452,7 @@
     </x:row>
     <x:row r="725" spans="1:9">
       <x:c r="A725" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B725" s="0" t="s">
         <x:v>10</x:v>
@@ -22478,7 +22481,7 @@
     </x:row>
     <x:row r="726" spans="1:9">
       <x:c r="A726" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B726" s="0" t="s">
         <x:v>22</x:v>
@@ -22507,7 +22510,7 @@
     </x:row>
     <x:row r="727" spans="1:9">
       <x:c r="A727" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B727" s="0" t="s">
         <x:v>22</x:v>
@@ -22536,7 +22539,7 @@
     </x:row>
     <x:row r="728" spans="1:9">
       <x:c r="A728" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B728" s="0" t="s">
         <x:v>22</x:v>
@@ -22565,7 +22568,7 @@
     </x:row>
     <x:row r="729" spans="1:9">
       <x:c r="A729" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B729" s="0" t="s">
         <x:v>25</x:v>
@@ -22594,7 +22597,7 @@
     </x:row>
     <x:row r="730" spans="1:9">
       <x:c r="A730" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B730" s="0" t="s">
         <x:v>25</x:v>
@@ -22609,7 +22612,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="F730" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G730" s="1" t="s">
         <x:v>40</x:v>
@@ -22623,7 +22626,7 @@
     </x:row>
     <x:row r="731" spans="1:9">
       <x:c r="A731" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B731" s="0" t="s">
         <x:v>25</x:v>
@@ -22652,7 +22655,7 @@
     </x:row>
     <x:row r="732" spans="1:9">
       <x:c r="A732" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B732" s="0" t="s">
         <x:v>30</x:v>
@@ -22681,7 +22684,7 @@
     </x:row>
     <x:row r="733" spans="1:9">
       <x:c r="A733" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B733" s="0" t="s">
         <x:v>30</x:v>
@@ -22710,7 +22713,7 @@
     </x:row>
     <x:row r="734" spans="1:9">
       <x:c r="A734" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B734" s="0" t="s">
         <x:v>30</x:v>
@@ -22739,7 +22742,7 @@
     </x:row>
     <x:row r="735" spans="1:9">
       <x:c r="A735" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B735" s="0" t="s">
         <x:v>31</x:v>
@@ -22768,7 +22771,7 @@
     </x:row>
     <x:row r="736" spans="1:9">
       <x:c r="A736" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B736" s="0" t="s">
         <x:v>31</x:v>
@@ -22797,7 +22800,7 @@
     </x:row>
     <x:row r="737" spans="1:9">
       <x:c r="A737" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B737" s="0" t="s">
         <x:v>31</x:v>
@@ -22826,7 +22829,7 @@
     </x:row>
     <x:row r="738" spans="1:9">
       <x:c r="A738" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B738" s="0" t="s">
         <x:v>33</x:v>
@@ -22855,7 +22858,7 @@
     </x:row>
     <x:row r="739" spans="1:9">
       <x:c r="A739" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B739" s="0" t="s">
         <x:v>33</x:v>
@@ -22884,7 +22887,7 @@
     </x:row>
     <x:row r="740" spans="1:9">
       <x:c r="A740" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B740" s="0" t="s">
         <x:v>10</x:v>
@@ -22913,7 +22916,7 @@
     </x:row>
     <x:row r="741" spans="1:9">
       <x:c r="A741" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B741" s="0" t="s">
         <x:v>10</x:v>
@@ -22942,7 +22945,7 @@
     </x:row>
     <x:row r="742" spans="1:9">
       <x:c r="A742" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B742" s="0" t="s">
         <x:v>22</x:v>
@@ -22971,7 +22974,7 @@
     </x:row>
     <x:row r="743" spans="1:9">
       <x:c r="A743" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B743" s="0" t="s">
         <x:v>22</x:v>
@@ -23000,7 +23003,7 @@
     </x:row>
     <x:row r="744" spans="1:9">
       <x:c r="A744" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B744" s="0" t="s">
         <x:v>25</x:v>
@@ -23029,7 +23032,7 @@
     </x:row>
     <x:row r="745" spans="1:9">
       <x:c r="A745" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B745" s="0" t="s">
         <x:v>25</x:v>
@@ -23058,7 +23061,7 @@
     </x:row>
     <x:row r="746" spans="1:9">
       <x:c r="A746" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B746" s="0" t="s">
         <x:v>25</x:v>
@@ -23087,7 +23090,7 @@
     </x:row>
     <x:row r="747" spans="1:9">
       <x:c r="A747" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B747" s="0" t="s">
         <x:v>33</x:v>
@@ -23116,7 +23119,7 @@
     </x:row>
     <x:row r="748" spans="1:9">
       <x:c r="A748" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B748" s="0" t="s">
         <x:v>33</x:v>
@@ -23145,7 +23148,7 @@
     </x:row>
     <x:row r="749" spans="1:9">
       <x:c r="A749" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B749" s="0" t="s">
         <x:v>10</x:v>
@@ -23174,7 +23177,7 @@
     </x:row>
     <x:row r="750" spans="1:9">
       <x:c r="A750" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B750" s="0" t="s">
         <x:v>10</x:v>
@@ -23186,7 +23189,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E750" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F750" s="1" t="s">
         <x:v>250</x:v>
@@ -23203,7 +23206,7 @@
     </x:row>
     <x:row r="751" spans="1:9">
       <x:c r="A751" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B751" s="0" t="s">
         <x:v>10</x:v>
@@ -23232,7 +23235,7 @@
     </x:row>
     <x:row r="752" spans="1:9">
       <x:c r="A752" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B752" s="0" t="s">
         <x:v>49</x:v>
@@ -23261,7 +23264,7 @@
     </x:row>
     <x:row r="753" spans="1:9">
       <x:c r="A753" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B753" s="0" t="s">
         <x:v>49</x:v>
@@ -23290,7 +23293,7 @@
     </x:row>
     <x:row r="754" spans="1:9">
       <x:c r="A754" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B754" s="0" t="s">
         <x:v>49</x:v>
@@ -23319,7 +23322,7 @@
     </x:row>
     <x:row r="755" spans="1:9">
       <x:c r="A755" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B755" s="0" t="s">
         <x:v>22</x:v>
@@ -23348,7 +23351,7 @@
     </x:row>
     <x:row r="756" spans="1:9">
       <x:c r="A756" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B756" s="0" t="s">
         <x:v>22</x:v>
@@ -23377,7 +23380,7 @@
     </x:row>
     <x:row r="757" spans="1:9">
       <x:c r="A757" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B757" s="0" t="s">
         <x:v>22</x:v>
@@ -23406,7 +23409,7 @@
     </x:row>
     <x:row r="758" spans="1:9">
       <x:c r="A758" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B758" s="0" t="s">
         <x:v>25</x:v>
@@ -23435,7 +23438,7 @@
     </x:row>
     <x:row r="759" spans="1:9">
       <x:c r="A759" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B759" s="0" t="s">
         <x:v>25</x:v>
@@ -23464,7 +23467,7 @@
     </x:row>
     <x:row r="760" spans="1:9">
       <x:c r="A760" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B760" s="0" t="s">
         <x:v>25</x:v>
@@ -23485,7 +23488,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="H760" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I760" s="0" t="s">
         <x:v>12</x:v>
@@ -23493,7 +23496,7 @@
     </x:row>
     <x:row r="761" spans="1:9">
       <x:c r="A761" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B761" s="0" t="s">
         <x:v>30</x:v>
@@ -23522,7 +23525,7 @@
     </x:row>
     <x:row r="762" spans="1:9">
       <x:c r="A762" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B762" s="0" t="s">
         <x:v>30</x:v>
@@ -23551,7 +23554,7 @@
     </x:row>
     <x:row r="763" spans="1:9">
       <x:c r="A763" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B763" s="0" t="s">
         <x:v>31</x:v>
@@ -23580,7 +23583,7 @@
     </x:row>
     <x:row r="764" spans="1:9">
       <x:c r="A764" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B764" s="0" t="s">
         <x:v>31</x:v>
@@ -23609,7 +23612,7 @@
     </x:row>
     <x:row r="765" spans="1:9">
       <x:c r="A765" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B765" s="0" t="s">
         <x:v>31</x:v>
@@ -23638,7 +23641,7 @@
     </x:row>
     <x:row r="766" spans="1:9">
       <x:c r="A766" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B766" s="0" t="s">
         <x:v>33</x:v>
@@ -23656,7 +23659,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G766" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H766" s="1" t="s">
         <x:v>54</x:v>
@@ -23667,7 +23670,7 @@
     </x:row>
     <x:row r="767" spans="1:9">
       <x:c r="A767" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B767" s="0" t="s">
         <x:v>33</x:v>
@@ -23679,7 +23682,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E767" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F767" s="1" t="s">
         <x:v>53</x:v>
@@ -23696,7 +23699,7 @@
     </x:row>
     <x:row r="768" spans="1:9">
       <x:c r="A768" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B768" s="0" t="s">
         <x:v>33</x:v>
@@ -23975,7 +23978,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="G777" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H777" s="1" t="s">
         <x:v>44</x:v>
@@ -26666,7 +26669,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E870" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F870" s="1" t="s">
         <x:v>283</x:v>
@@ -26904,10 +26907,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="G878" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H878" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I878" s="0" t="s">
         <x:v>12</x:v>
@@ -26933,10 +26936,10 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="G879" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="H879" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I879" s="0" t="s">
         <x:v>12</x:v>
@@ -26944,7 +26947,7 @@
     </x:row>
     <x:row r="880" spans="1:9">
       <x:c r="A880" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B880" s="0" t="s">
         <x:v>10</x:v>
@@ -26973,7 +26976,7 @@
     </x:row>
     <x:row r="881" spans="1:9">
       <x:c r="A881" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B881" s="0" t="s">
         <x:v>10</x:v>
@@ -27002,7 +27005,7 @@
     </x:row>
     <x:row r="882" spans="1:9">
       <x:c r="A882" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B882" s="0" t="s">
         <x:v>10</x:v>
@@ -27031,7 +27034,7 @@
     </x:row>
     <x:row r="883" spans="1:9">
       <x:c r="A883" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B883" s="0" t="s">
         <x:v>22</x:v>
@@ -27060,7 +27063,7 @@
     </x:row>
     <x:row r="884" spans="1:9">
       <x:c r="A884" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B884" s="0" t="s">
         <x:v>22</x:v>
@@ -27089,7 +27092,7 @@
     </x:row>
     <x:row r="885" spans="1:9">
       <x:c r="A885" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B885" s="0" t="s">
         <x:v>22</x:v>
@@ -27118,7 +27121,7 @@
     </x:row>
     <x:row r="886" spans="1:9">
       <x:c r="A886" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B886" s="0" t="s">
         <x:v>25</x:v>
@@ -27147,7 +27150,7 @@
     </x:row>
     <x:row r="887" spans="1:9">
       <x:c r="A887" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B887" s="0" t="s">
         <x:v>25</x:v>
@@ -27176,7 +27179,7 @@
     </x:row>
     <x:row r="888" spans="1:9">
       <x:c r="A888" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B888" s="0" t="s">
         <x:v>25</x:v>
@@ -27205,7 +27208,7 @@
     </x:row>
     <x:row r="889" spans="1:9">
       <x:c r="A889" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B889" s="0" t="s">
         <x:v>30</x:v>
@@ -27234,7 +27237,7 @@
     </x:row>
     <x:row r="890" spans="1:9">
       <x:c r="A890" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B890" s="0" t="s">
         <x:v>30</x:v>
@@ -27263,7 +27266,7 @@
     </x:row>
     <x:row r="891" spans="1:9">
       <x:c r="A891" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B891" s="0" t="s">
         <x:v>31</x:v>
@@ -27292,7 +27295,7 @@
     </x:row>
     <x:row r="892" spans="1:9">
       <x:c r="A892" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B892" s="0" t="s">
         <x:v>31</x:v>
@@ -27321,7 +27324,7 @@
     </x:row>
     <x:row r="893" spans="1:9">
       <x:c r="A893" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B893" s="0" t="s">
         <x:v>31</x:v>
@@ -27350,7 +27353,7 @@
     </x:row>
     <x:row r="894" spans="1:9">
       <x:c r="A894" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B894" s="0" t="s">
         <x:v>33</x:v>
@@ -27379,7 +27382,7 @@
     </x:row>
     <x:row r="895" spans="1:9">
       <x:c r="A895" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B895" s="0" t="s">
         <x:v>33</x:v>
@@ -27408,7 +27411,7 @@
     </x:row>
     <x:row r="896" spans="1:9">
       <x:c r="A896" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B896" s="0" t="s">
         <x:v>10</x:v>
@@ -27437,7 +27440,7 @@
     </x:row>
     <x:row r="897" spans="1:9">
       <x:c r="A897" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B897" s="0" t="s">
         <x:v>10</x:v>
@@ -27466,7 +27469,7 @@
     </x:row>
     <x:row r="898" spans="1:9">
       <x:c r="A898" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B898" s="0" t="s">
         <x:v>10</x:v>
@@ -27495,7 +27498,7 @@
     </x:row>
     <x:row r="899" spans="1:9">
       <x:c r="A899" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B899" s="0" t="s">
         <x:v>22</x:v>
@@ -27524,7 +27527,7 @@
     </x:row>
     <x:row r="900" spans="1:9">
       <x:c r="A900" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B900" s="0" t="s">
         <x:v>22</x:v>
@@ -27553,7 +27556,7 @@
     </x:row>
     <x:row r="901" spans="1:9">
       <x:c r="A901" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B901" s="0" t="s">
         <x:v>22</x:v>
@@ -27582,7 +27585,7 @@
     </x:row>
     <x:row r="902" spans="1:9">
       <x:c r="A902" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B902" s="0" t="s">
         <x:v>25</x:v>
@@ -27611,7 +27614,7 @@
     </x:row>
     <x:row r="903" spans="1:9">
       <x:c r="A903" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B903" s="0" t="s">
         <x:v>25</x:v>
@@ -27640,7 +27643,7 @@
     </x:row>
     <x:row r="904" spans="1:9">
       <x:c r="A904" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B904" s="0" t="s">
         <x:v>25</x:v>
@@ -27669,7 +27672,7 @@
     </x:row>
     <x:row r="905" spans="1:9">
       <x:c r="A905" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B905" s="0" t="s">
         <x:v>30</x:v>
@@ -27698,7 +27701,7 @@
     </x:row>
     <x:row r="906" spans="1:9">
       <x:c r="A906" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B906" s="0" t="s">
         <x:v>30</x:v>
@@ -27727,7 +27730,7 @@
     </x:row>
     <x:row r="907" spans="1:9">
       <x:c r="A907" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B907" s="0" t="s">
         <x:v>31</x:v>
@@ -27756,7 +27759,7 @@
     </x:row>
     <x:row r="908" spans="1:9">
       <x:c r="A908" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B908" s="0" t="s">
         <x:v>31</x:v>
@@ -27785,7 +27788,7 @@
     </x:row>
     <x:row r="909" spans="1:9">
       <x:c r="A909" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B909" s="0" t="s">
         <x:v>31</x:v>
@@ -27814,7 +27817,7 @@
     </x:row>
     <x:row r="910" spans="1:9">
       <x:c r="A910" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B910" s="0" t="s">
         <x:v>33</x:v>
@@ -27843,7 +27846,7 @@
     </x:row>
     <x:row r="911" spans="1:9">
       <x:c r="A911" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B911" s="0" t="s">
         <x:v>33</x:v>
@@ -27872,7 +27875,7 @@
     </x:row>
     <x:row r="912" spans="1:9">
       <x:c r="A912" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B912" s="0" t="s">
         <x:v>33</x:v>
@@ -27901,7 +27904,7 @@
     </x:row>
     <x:row r="913" spans="1:9">
       <x:c r="A913" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B913" s="0" t="s">
         <x:v>10</x:v>
@@ -27930,7 +27933,7 @@
     </x:row>
     <x:row r="914" spans="1:9">
       <x:c r="A914" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B914" s="0" t="s">
         <x:v>10</x:v>
@@ -27959,7 +27962,7 @@
     </x:row>
     <x:row r="915" spans="1:9">
       <x:c r="A915" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B915" s="0" t="s">
         <x:v>10</x:v>
@@ -27988,7 +27991,7 @@
     </x:row>
     <x:row r="916" spans="1:9">
       <x:c r="A916" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B916" s="0" t="s">
         <x:v>22</x:v>
@@ -28017,7 +28020,7 @@
     </x:row>
     <x:row r="917" spans="1:9">
       <x:c r="A917" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B917" s="0" t="s">
         <x:v>22</x:v>
@@ -28046,7 +28049,7 @@
     </x:row>
     <x:row r="918" spans="1:9">
       <x:c r="A918" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B918" s="0" t="s">
         <x:v>25</x:v>
@@ -28075,7 +28078,7 @@
     </x:row>
     <x:row r="919" spans="1:9">
       <x:c r="A919" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B919" s="0" t="s">
         <x:v>25</x:v>
@@ -28104,7 +28107,7 @@
     </x:row>
     <x:row r="920" spans="1:9">
       <x:c r="A920" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B920" s="0" t="s">
         <x:v>25</x:v>
@@ -28133,7 +28136,7 @@
     </x:row>
     <x:row r="921" spans="1:9">
       <x:c r="A921" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B921" s="0" t="s">
         <x:v>30</x:v>
@@ -28162,7 +28165,7 @@
     </x:row>
     <x:row r="922" spans="1:9">
       <x:c r="A922" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B922" s="0" t="s">
         <x:v>30</x:v>
@@ -28191,7 +28194,7 @@
     </x:row>
     <x:row r="923" spans="1:9">
       <x:c r="A923" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B923" s="0" t="s">
         <x:v>30</x:v>
@@ -28220,7 +28223,7 @@
     </x:row>
     <x:row r="924" spans="1:9">
       <x:c r="A924" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B924" s="0" t="s">
         <x:v>31</x:v>
@@ -28249,7 +28252,7 @@
     </x:row>
     <x:row r="925" spans="1:9">
       <x:c r="A925" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B925" s="0" t="s">
         <x:v>31</x:v>
@@ -28278,7 +28281,7 @@
     </x:row>
     <x:row r="926" spans="1:9">
       <x:c r="A926" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B926" s="0" t="s">
         <x:v>31</x:v>
@@ -28307,7 +28310,7 @@
     </x:row>
     <x:row r="927" spans="1:9">
       <x:c r="A927" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B927" s="0" t="s">
         <x:v>10</x:v>
@@ -28336,7 +28339,7 @@
     </x:row>
     <x:row r="928" spans="1:9">
       <x:c r="A928" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B928" s="0" t="s">
         <x:v>10</x:v>
@@ -28365,7 +28368,7 @@
     </x:row>
     <x:row r="929" spans="1:9">
       <x:c r="A929" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B929" s="0" t="s">
         <x:v>10</x:v>
@@ -28383,7 +28386,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G929" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="H929" s="1" t="s">
         <x:v>48</x:v>
@@ -28394,7 +28397,7 @@
     </x:row>
     <x:row r="930" spans="1:9">
       <x:c r="A930" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B930" s="0" t="s">
         <x:v>49</x:v>
@@ -28423,7 +28426,7 @@
     </x:row>
     <x:row r="931" spans="1:9">
       <x:c r="A931" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B931" s="0" t="s">
         <x:v>49</x:v>
@@ -28452,7 +28455,7 @@
     </x:row>
     <x:row r="932" spans="1:9">
       <x:c r="A932" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B932" s="0" t="s">
         <x:v>49</x:v>
@@ -28481,7 +28484,7 @@
     </x:row>
     <x:row r="933" spans="1:9">
       <x:c r="A933" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B933" s="0" t="s">
         <x:v>22</x:v>
@@ -28510,7 +28513,7 @@
     </x:row>
     <x:row r="934" spans="1:9">
       <x:c r="A934" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B934" s="0" t="s">
         <x:v>22</x:v>
@@ -28539,7 +28542,7 @@
     </x:row>
     <x:row r="935" spans="1:9">
       <x:c r="A935" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B935" s="0" t="s">
         <x:v>22</x:v>
@@ -28568,7 +28571,7 @@
     </x:row>
     <x:row r="936" spans="1:9">
       <x:c r="A936" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B936" s="0" t="s">
         <x:v>25</x:v>
@@ -28597,7 +28600,7 @@
     </x:row>
     <x:row r="937" spans="1:9">
       <x:c r="A937" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B937" s="0" t="s">
         <x:v>25</x:v>
@@ -28626,7 +28629,7 @@
     </x:row>
     <x:row r="938" spans="1:9">
       <x:c r="A938" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B938" s="0" t="s">
         <x:v>25</x:v>
@@ -28655,7 +28658,7 @@
     </x:row>
     <x:row r="939" spans="1:9">
       <x:c r="A939" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B939" s="0" t="s">
         <x:v>31</x:v>
@@ -28684,7 +28687,7 @@
     </x:row>
     <x:row r="940" spans="1:9">
       <x:c r="A940" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B940" s="0" t="s">
         <x:v>31</x:v>
@@ -28713,7 +28716,7 @@
     </x:row>
     <x:row r="941" spans="1:9">
       <x:c r="A941" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B941" s="0" t="s">
         <x:v>31</x:v>
@@ -28742,7 +28745,7 @@
     </x:row>
     <x:row r="942" spans="1:9">
       <x:c r="A942" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B942" s="0" t="s">
         <x:v>33</x:v>
@@ -28771,7 +28774,7 @@
     </x:row>
     <x:row r="943" spans="1:9">
       <x:c r="A943" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B943" s="0" t="s">
         <x:v>33</x:v>
@@ -28800,7 +28803,7 @@
     </x:row>
     <x:row r="944" spans="1:9">
       <x:c r="A944" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B944" s="0" t="s">
         <x:v>33</x:v>
@@ -28829,7 +28832,7 @@
     </x:row>
     <x:row r="945" spans="1:9">
       <x:c r="A945" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B945" s="0" t="s">
         <x:v>10</x:v>
@@ -28858,7 +28861,7 @@
     </x:row>
     <x:row r="946" spans="1:9">
       <x:c r="A946" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B946" s="0" t="s">
         <x:v>10</x:v>
@@ -28887,7 +28890,7 @@
     </x:row>
     <x:row r="947" spans="1:9">
       <x:c r="A947" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B947" s="0" t="s">
         <x:v>22</x:v>
@@ -28916,7 +28919,7 @@
     </x:row>
     <x:row r="948" spans="1:9">
       <x:c r="A948" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B948" s="0" t="s">
         <x:v>22</x:v>
@@ -28945,7 +28948,7 @@
     </x:row>
     <x:row r="949" spans="1:9">
       <x:c r="A949" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B949" s="0" t="s">
         <x:v>25</x:v>
@@ -28974,7 +28977,7 @@
     </x:row>
     <x:row r="950" spans="1:9">
       <x:c r="A950" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B950" s="0" t="s">
         <x:v>25</x:v>
@@ -29003,7 +29006,7 @@
     </x:row>
     <x:row r="951" spans="1:9">
       <x:c r="A951" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B951" s="0" t="s">
         <x:v>25</x:v>
@@ -29032,7 +29035,7 @@
     </x:row>
     <x:row r="952" spans="1:9">
       <x:c r="A952" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B952" s="0" t="s">
         <x:v>10</x:v>
@@ -29061,7 +29064,7 @@
     </x:row>
     <x:row r="953" spans="1:9">
       <x:c r="A953" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B953" s="0" t="s">
         <x:v>10</x:v>
@@ -29090,7 +29093,7 @@
     </x:row>
     <x:row r="954" spans="1:9">
       <x:c r="A954" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B954" s="0" t="s">
         <x:v>10</x:v>
@@ -29119,7 +29122,7 @@
     </x:row>
     <x:row r="955" spans="1:9">
       <x:c r="A955" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B955" s="0" t="s">
         <x:v>49</x:v>
@@ -29148,7 +29151,7 @@
     </x:row>
     <x:row r="956" spans="1:9">
       <x:c r="A956" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B956" s="0" t="s">
         <x:v>49</x:v>
@@ -29177,7 +29180,7 @@
     </x:row>
     <x:row r="957" spans="1:9">
       <x:c r="A957" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B957" s="0" t="s">
         <x:v>49</x:v>
@@ -29206,7 +29209,7 @@
     </x:row>
     <x:row r="958" spans="1:9">
       <x:c r="A958" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B958" s="0" t="s">
         <x:v>22</x:v>
@@ -29235,7 +29238,7 @@
     </x:row>
     <x:row r="959" spans="1:9">
       <x:c r="A959" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B959" s="0" t="s">
         <x:v>22</x:v>
@@ -29264,7 +29267,7 @@
     </x:row>
     <x:row r="960" spans="1:9">
       <x:c r="A960" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B960" s="0" t="s">
         <x:v>22</x:v>
@@ -29293,7 +29296,7 @@
     </x:row>
     <x:row r="961" spans="1:9">
       <x:c r="A961" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B961" s="0" t="s">
         <x:v>25</x:v>
@@ -29322,7 +29325,7 @@
     </x:row>
     <x:row r="962" spans="1:9">
       <x:c r="A962" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B962" s="0" t="s">
         <x:v>25</x:v>
@@ -29351,7 +29354,7 @@
     </x:row>
     <x:row r="963" spans="1:9">
       <x:c r="A963" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B963" s="0" t="s">
         <x:v>25</x:v>
@@ -29380,7 +29383,7 @@
     </x:row>
     <x:row r="964" spans="1:9">
       <x:c r="A964" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B964" s="0" t="s">
         <x:v>31</x:v>
@@ -29409,7 +29412,7 @@
     </x:row>
     <x:row r="965" spans="1:9">
       <x:c r="A965" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B965" s="0" t="s">
         <x:v>31</x:v>
@@ -29438,7 +29441,7 @@
     </x:row>
     <x:row r="966" spans="1:9">
       <x:c r="A966" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B966" s="0" t="s">
         <x:v>31</x:v>
@@ -29467,7 +29470,7 @@
     </x:row>
     <x:row r="967" spans="1:9">
       <x:c r="A967" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B967" s="0" t="s">
         <x:v>33</x:v>
@@ -29496,7 +29499,7 @@
     </x:row>
     <x:row r="968" spans="1:9">
       <x:c r="A968" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B968" s="0" t="s">
         <x:v>33</x:v>
@@ -29525,7 +29528,7 @@
     </x:row>
     <x:row r="969" spans="1:9">
       <x:c r="A969" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B969" s="0" t="s">
         <x:v>10</x:v>
@@ -29554,7 +29557,7 @@
     </x:row>
     <x:row r="970" spans="1:9">
       <x:c r="A970" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B970" s="0" t="s">
         <x:v>10</x:v>
@@ -29572,7 +29575,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="G970" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H970" s="1" t="s">
         <x:v>119</x:v>
@@ -29583,7 +29586,7 @@
     </x:row>
     <x:row r="971" spans="1:9">
       <x:c r="A971" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B971" s="0" t="s">
         <x:v>10</x:v>
@@ -29598,10 +29601,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F971" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G971" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="H971" s="1" t="s">
         <x:v>139</x:v>
@@ -29612,7 +29615,7 @@
     </x:row>
     <x:row r="972" spans="1:9">
       <x:c r="A972" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B972" s="0" t="s">
         <x:v>49</x:v>
@@ -29641,7 +29644,7 @@
     </x:row>
     <x:row r="973" spans="1:9">
       <x:c r="A973" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B973" s="0" t="s">
         <x:v>49</x:v>
@@ -29670,7 +29673,7 @@
     </x:row>
     <x:row r="974" spans="1:9">
       <x:c r="A974" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B974" s="0" t="s">
         <x:v>49</x:v>
@@ -29679,7 +29682,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D974" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E974" s="1" t="s">
         <x:v>21</x:v>
@@ -29699,7 +29702,7 @@
     </x:row>
     <x:row r="975" spans="1:9">
       <x:c r="A975" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B975" s="0" t="s">
         <x:v>22</x:v>
@@ -29728,7 +29731,7 @@
     </x:row>
     <x:row r="976" spans="1:9">
       <x:c r="A976" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B976" s="0" t="s">
         <x:v>22</x:v>
@@ -29757,7 +29760,7 @@
     </x:row>
     <x:row r="977" spans="1:9">
       <x:c r="A977" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B977" s="0" t="s">
         <x:v>22</x:v>
@@ -29786,7 +29789,7 @@
     </x:row>
     <x:row r="978" spans="1:9">
       <x:c r="A978" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B978" s="0" t="s">
         <x:v>25</x:v>
@@ -29815,7 +29818,7 @@
     </x:row>
     <x:row r="979" spans="1:9">
       <x:c r="A979" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B979" s="0" t="s">
         <x:v>25</x:v>
@@ -29830,10 +29833,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="F979" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G979" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="H979" s="1" t="s">
         <x:v>65</x:v>
@@ -29844,7 +29847,7 @@
     </x:row>
     <x:row r="980" spans="1:9">
       <x:c r="A980" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B980" s="0" t="s">
         <x:v>25</x:v>
@@ -29859,13 +29862,13 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F980" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G980" s="1" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="H980" s="1" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="I980" s="0" t="s">
         <x:v>12</x:v>
@@ -29873,7 +29876,7 @@
     </x:row>
     <x:row r="981" spans="1:9">
       <x:c r="A981" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B981" s="0" t="s">
         <x:v>30</x:v>
@@ -29902,7 +29905,7 @@
     </x:row>
     <x:row r="982" spans="1:9">
       <x:c r="A982" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B982" s="0" t="s">
         <x:v>30</x:v>
@@ -29931,7 +29934,7 @@
     </x:row>
     <x:row r="983" spans="1:9">
       <x:c r="A983" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B983" s="0" t="s">
         <x:v>30</x:v>
@@ -29960,7 +29963,7 @@
     </x:row>
     <x:row r="984" spans="1:9">
       <x:c r="A984" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B984" s="0" t="s">
         <x:v>31</x:v>
@@ -29989,7 +29992,7 @@
     </x:row>
     <x:row r="985" spans="1:9">
       <x:c r="A985" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B985" s="0" t="s">
         <x:v>31</x:v>
@@ -30018,7 +30021,7 @@
     </x:row>
     <x:row r="986" spans="1:9">
       <x:c r="A986" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B986" s="0" t="s">
         <x:v>31</x:v>
@@ -30030,7 +30033,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E986" s="1" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="F986" s="1" t="s">
         <x:v>16</x:v>
@@ -30047,7 +30050,7 @@
     </x:row>
     <x:row r="987" spans="1:9">
       <x:c r="A987" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B987" s="0" t="s">
         <x:v>33</x:v>
@@ -30076,7 +30079,7 @@
     </x:row>
     <x:row r="988" spans="1:9">
       <x:c r="A988" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B988" s="0" t="s">
         <x:v>33</x:v>
@@ -30105,7 +30108,7 @@
     </x:row>
     <x:row r="989" spans="1:9">
       <x:c r="A989" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B989" s="0" t="s">
         <x:v>33</x:v>
@@ -30123,7 +30126,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="G989" s="1" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="H989" s="1" t="s">
         <x:v>44</x:v>
@@ -30134,7 +30137,7 @@
     </x:row>
     <x:row r="990" spans="1:9">
       <x:c r="A990" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B990" s="0" t="s">
         <x:v>10</x:v>
@@ -30163,7 +30166,7 @@
     </x:row>
     <x:row r="991" spans="1:9">
       <x:c r="A991" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B991" s="0" t="s">
         <x:v>10</x:v>
@@ -30192,7 +30195,7 @@
     </x:row>
     <x:row r="992" spans="1:9">
       <x:c r="A992" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B992" s="0" t="s">
         <x:v>10</x:v>
@@ -30221,7 +30224,7 @@
     </x:row>
     <x:row r="993" spans="1:9">
       <x:c r="A993" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B993" s="0" t="s">
         <x:v>49</x:v>
@@ -30250,7 +30253,7 @@
     </x:row>
     <x:row r="994" spans="1:9">
       <x:c r="A994" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B994" s="0" t="s">
         <x:v>49</x:v>
@@ -30279,7 +30282,7 @@
     </x:row>
     <x:row r="995" spans="1:9">
       <x:c r="A995" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B995" s="0" t="s">
         <x:v>22</x:v>
@@ -30308,7 +30311,7 @@
     </x:row>
     <x:row r="996" spans="1:9">
       <x:c r="A996" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B996" s="0" t="s">
         <x:v>22</x:v>
@@ -30337,7 +30340,7 @@
     </x:row>
     <x:row r="997" spans="1:9">
       <x:c r="A997" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B997" s="0" t="s">
         <x:v>22</x:v>
@@ -30366,7 +30369,7 @@
     </x:row>
     <x:row r="998" spans="1:9">
       <x:c r="A998" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B998" s="0" t="s">
         <x:v>25</x:v>
@@ -30395,7 +30398,7 @@
     </x:row>
     <x:row r="999" spans="1:9">
       <x:c r="A999" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B999" s="0" t="s">
         <x:v>25</x:v>
@@ -30413,7 +30416,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="G999" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H999" s="1" t="s">
         <x:v>52</x:v>
@@ -30424,7 +30427,7 @@
     </x:row>
     <x:row r="1000" spans="1:9">
       <x:c r="A1000" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1000" s="0" t="s">
         <x:v>25</x:v>
@@ -30439,7 +30442,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="F1000" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G1000" s="1" t="s">
         <x:v>254</x:v>
@@ -30453,7 +30456,7 @@
     </x:row>
     <x:row r="1001" spans="1:9">
       <x:c r="A1001" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1001" s="0" t="s">
         <x:v>30</x:v>
@@ -30482,7 +30485,7 @@
     </x:row>
     <x:row r="1002" spans="1:9">
       <x:c r="A1002" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1002" s="0" t="s">
         <x:v>30</x:v>
@@ -30511,7 +30514,7 @@
     </x:row>
     <x:row r="1003" spans="1:9">
       <x:c r="A1003" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1003" s="0" t="s">
         <x:v>30</x:v>
@@ -30540,7 +30543,7 @@
     </x:row>
     <x:row r="1004" spans="1:9">
       <x:c r="A1004" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1004" s="0" t="s">
         <x:v>31</x:v>
@@ -30569,7 +30572,7 @@
     </x:row>
     <x:row r="1005" spans="1:9">
       <x:c r="A1005" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1005" s="0" t="s">
         <x:v>31</x:v>
@@ -30598,7 +30601,7 @@
     </x:row>
     <x:row r="1006" spans="1:9">
       <x:c r="A1006" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1006" s="0" t="s">
         <x:v>31</x:v>
@@ -30627,7 +30630,7 @@
     </x:row>
     <x:row r="1007" spans="1:9">
       <x:c r="A1007" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1007" s="0" t="s">
         <x:v>33</x:v>
@@ -30656,7 +30659,7 @@
     </x:row>
     <x:row r="1008" spans="1:9">
       <x:c r="A1008" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1008" s="0" t="s">
         <x:v>33</x:v>
@@ -30685,7 +30688,7 @@
     </x:row>
     <x:row r="1009" spans="1:9">
       <x:c r="A1009" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B1009" s="0" t="s">
         <x:v>33</x:v>
@@ -30714,7 +30717,7 @@
     </x:row>
     <x:row r="1010" spans="1:9">
       <x:c r="A1010" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1010" s="0" t="s">
         <x:v>10</x:v>
@@ -30743,7 +30746,7 @@
     </x:row>
     <x:row r="1011" spans="1:9">
       <x:c r="A1011" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1011" s="0" t="s">
         <x:v>10</x:v>
@@ -30772,7 +30775,7 @@
     </x:row>
     <x:row r="1012" spans="1:9">
       <x:c r="A1012" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1012" s="0" t="s">
         <x:v>10</x:v>
@@ -30801,7 +30804,7 @@
     </x:row>
     <x:row r="1013" spans="1:9">
       <x:c r="A1013" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1013" s="0" t="s">
         <x:v>22</x:v>
@@ -30830,7 +30833,7 @@
     </x:row>
     <x:row r="1014" spans="1:9">
       <x:c r="A1014" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1014" s="0" t="s">
         <x:v>22</x:v>
@@ -30859,7 +30862,7 @@
     </x:row>
     <x:row r="1015" spans="1:9">
       <x:c r="A1015" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1015" s="0" t="s">
         <x:v>22</x:v>
@@ -30888,7 +30891,7 @@
     </x:row>
     <x:row r="1016" spans="1:9">
       <x:c r="A1016" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1016" s="0" t="s">
         <x:v>25</x:v>
@@ -30917,7 +30920,7 @@
     </x:row>
     <x:row r="1017" spans="1:9">
       <x:c r="A1017" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1017" s="0" t="s">
         <x:v>25</x:v>
@@ -30946,7 +30949,7 @@
     </x:row>
     <x:row r="1018" spans="1:9">
       <x:c r="A1018" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1018" s="0" t="s">
         <x:v>25</x:v>
@@ -30975,7 +30978,7 @@
     </x:row>
     <x:row r="1019" spans="1:9">
       <x:c r="A1019" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1019" s="0" t="s">
         <x:v>30</x:v>
@@ -31004,7 +31007,7 @@
     </x:row>
     <x:row r="1020" spans="1:9">
       <x:c r="A1020" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1020" s="0" t="s">
         <x:v>30</x:v>
@@ -31033,7 +31036,7 @@
     </x:row>
     <x:row r="1021" spans="1:9">
       <x:c r="A1021" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1021" s="0" t="s">
         <x:v>31</x:v>
@@ -31062,7 +31065,7 @@
     </x:row>
     <x:row r="1022" spans="1:9">
       <x:c r="A1022" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1022" s="0" t="s">
         <x:v>31</x:v>
@@ -31091,7 +31094,7 @@
     </x:row>
     <x:row r="1023" spans="1:9">
       <x:c r="A1023" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1023" s="0" t="s">
         <x:v>31</x:v>
@@ -31120,7 +31123,7 @@
     </x:row>
     <x:row r="1024" spans="1:9">
       <x:c r="A1024" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1024" s="0" t="s">
         <x:v>33</x:v>
@@ -31149,7 +31152,7 @@
     </x:row>
     <x:row r="1025" spans="1:9">
       <x:c r="A1025" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B1025" s="0" t="s">
         <x:v>33</x:v>
@@ -31178,7 +31181,7 @@
     </x:row>
     <x:row r="1026" spans="1:9">
       <x:c r="A1026" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1026" s="0" t="s">
         <x:v>10</x:v>
@@ -31207,7 +31210,7 @@
     </x:row>
     <x:row r="1027" spans="1:9">
       <x:c r="A1027" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1027" s="0" t="s">
         <x:v>10</x:v>
@@ -31219,16 +31222,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E1027" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F1027" s="1" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="G1027" s="1" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="H1027" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="I1027" s="0" t="s">
         <x:v>12</x:v>
@@ -31236,7 +31239,7 @@
     </x:row>
     <x:row r="1028" spans="1:9">
       <x:c r="A1028" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1028" s="0" t="s">
         <x:v>10</x:v>
@@ -31248,16 +31251,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E1028" s="1" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F1028" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G1028" s="1" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="H1028" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I1028" s="0" t="s">
         <x:v>12</x:v>
@@ -31265,7 +31268,7 @@
     </x:row>
     <x:row r="1029" spans="1:9">
       <x:c r="A1029" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1029" s="0" t="s">
         <x:v>49</x:v>
@@ -31294,7 +31297,7 @@
     </x:row>
     <x:row r="1030" spans="1:9">
       <x:c r="A1030" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1030" s="0" t="s">
         <x:v>49</x:v>
@@ -31323,7 +31326,7 @@
     </x:row>
     <x:row r="1031" spans="1:9">
       <x:c r="A1031" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1031" s="0" t="s">
         <x:v>22</x:v>
@@ -31352,7 +31355,7 @@
     </x:row>
     <x:row r="1032" spans="1:9">
       <x:c r="A1032" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1032" s="0" t="s">
         <x:v>22</x:v>
@@ -31370,7 +31373,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G1032" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H1032" s="1" t="s">
         <x:v>93</x:v>
@@ -31381,7 +31384,7 @@
     </x:row>
     <x:row r="1033" spans="1:9">
       <x:c r="A1033" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1033" s="0" t="s">
         <x:v>22</x:v>
@@ -31402,7 +31405,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="H1033" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I1033" s="0" t="s">
         <x:v>12</x:v>
@@ -31410,7 +31413,7 @@
     </x:row>
     <x:row r="1034" spans="1:9">
       <x:c r="A1034" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1034" s="0" t="s">
         <x:v>25</x:v>
@@ -31439,7 +31442,7 @@
     </x:row>
     <x:row r="1035" spans="1:9">
       <x:c r="A1035" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1035" s="0" t="s">
         <x:v>25</x:v>
@@ -31454,7 +31457,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F1035" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G1035" s="1" t="s">
         <x:v>139</x:v>
@@ -31468,7 +31471,7 @@
     </x:row>
     <x:row r="1036" spans="1:9">
       <x:c r="A1036" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1036" s="0" t="s">
         <x:v>25</x:v>
@@ -31486,10 +31489,10 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="G1036" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="H1036" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="I1036" s="0" t="s">
         <x:v>12</x:v>
@@ -31497,7 +31500,7 @@
     </x:row>
     <x:row r="1037" spans="1:9">
       <x:c r="A1037" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1037" s="0" t="s">
         <x:v>30</x:v>
@@ -31526,7 +31529,7 @@
     </x:row>
     <x:row r="1038" spans="1:9">
       <x:c r="A1038" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1038" s="0" t="s">
         <x:v>30</x:v>
@@ -31555,7 +31558,7 @@
     </x:row>
     <x:row r="1039" spans="1:9">
       <x:c r="A1039" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1039" s="0" t="s">
         <x:v>30</x:v>
@@ -31584,7 +31587,7 @@
     </x:row>
     <x:row r="1040" spans="1:9">
       <x:c r="A1040" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1040" s="0" t="s">
         <x:v>31</x:v>
@@ -31613,7 +31616,7 @@
     </x:row>
     <x:row r="1041" spans="1:9">
       <x:c r="A1041" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1041" s="0" t="s">
         <x:v>31</x:v>
@@ -31642,7 +31645,7 @@
     </x:row>
     <x:row r="1042" spans="1:9">
       <x:c r="A1042" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1042" s="0" t="s">
         <x:v>31</x:v>
@@ -31671,7 +31674,7 @@
     </x:row>
     <x:row r="1043" spans="1:9">
       <x:c r="A1043" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1043" s="0" t="s">
         <x:v>33</x:v>
@@ -31700,7 +31703,7 @@
     </x:row>
     <x:row r="1044" spans="1:9">
       <x:c r="A1044" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1044" s="0" t="s">
         <x:v>33</x:v>
@@ -31729,7 +31732,7 @@
     </x:row>
     <x:row r="1045" spans="1:9">
       <x:c r="A1045" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B1045" s="0" t="s">
         <x:v>33</x:v>
@@ -31758,7 +31761,7 @@
     </x:row>
     <x:row r="1046" spans="1:9">
       <x:c r="A1046" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1046" s="0" t="s">
         <x:v>10</x:v>
@@ -31787,7 +31790,7 @@
     </x:row>
     <x:row r="1047" spans="1:9">
       <x:c r="A1047" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1047" s="0" t="s">
         <x:v>10</x:v>
@@ -31802,10 +31805,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F1047" s="1" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G1047" s="1" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="H1047" s="1" t="s">
         <x:v>150</x:v>
@@ -31816,7 +31819,7 @@
     </x:row>
     <x:row r="1048" spans="1:9">
       <x:c r="A1048" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1048" s="0" t="s">
         <x:v>10</x:v>
@@ -31828,16 +31831,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E1048" s="1" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="F1048" s="1" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="G1048" s="1" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="H1048" s="1" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="I1048" s="0" t="s">
         <x:v>12</x:v>
@@ -31845,7 +31848,7 @@
     </x:row>
     <x:row r="1049" spans="1:9">
       <x:c r="A1049" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1049" s="0" t="s">
         <x:v>49</x:v>
@@ -31874,7 +31877,7 @@
     </x:row>
     <x:row r="1050" spans="1:9">
       <x:c r="A1050" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1050" s="0" t="s">
         <x:v>49</x:v>
@@ -31903,7 +31906,7 @@
     </x:row>
     <x:row r="1051" spans="1:9">
       <x:c r="A1051" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1051" s="0" t="s">
         <x:v>49</x:v>
@@ -31932,7 +31935,7 @@
     </x:row>
     <x:row r="1052" spans="1:9">
       <x:c r="A1052" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1052" s="0" t="s">
         <x:v>22</x:v>
@@ -31961,7 +31964,7 @@
     </x:row>
     <x:row r="1053" spans="1:9">
       <x:c r="A1053" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1053" s="0" t="s">
         <x:v>22</x:v>
@@ -31990,7 +31993,7 @@
     </x:row>
     <x:row r="1054" spans="1:9">
       <x:c r="A1054" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1054" s="0" t="s">
         <x:v>22</x:v>
@@ -32019,7 +32022,7 @@
     </x:row>
     <x:row r="1055" spans="1:9">
       <x:c r="A1055" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1055" s="0" t="s">
         <x:v>25</x:v>
@@ -32048,7 +32051,7 @@
     </x:row>
     <x:row r="1056" spans="1:9">
       <x:c r="A1056" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1056" s="0" t="s">
         <x:v>25</x:v>
@@ -32063,13 +32066,13 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F1056" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G1056" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="H1056" s="1" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="I1056" s="0" t="s">
         <x:v>12</x:v>
@@ -32077,7 +32080,7 @@
     </x:row>
     <x:row r="1057" spans="1:9">
       <x:c r="A1057" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1057" s="0" t="s">
         <x:v>25</x:v>
@@ -32092,13 +32095,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="F1057" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G1057" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H1057" s="1" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="I1057" s="0" t="s">
         <x:v>12</x:v>
@@ -32106,7 +32109,7 @@
     </x:row>
     <x:row r="1058" spans="1:9">
       <x:c r="A1058" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1058" s="0" t="s">
         <x:v>30</x:v>
@@ -32135,7 +32138,7 @@
     </x:row>
     <x:row r="1059" spans="1:9">
       <x:c r="A1059" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1059" s="0" t="s">
         <x:v>30</x:v>
@@ -32164,7 +32167,7 @@
     </x:row>
     <x:row r="1060" spans="1:9">
       <x:c r="A1060" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1060" s="0" t="s">
         <x:v>30</x:v>
@@ -32193,7 +32196,7 @@
     </x:row>
     <x:row r="1061" spans="1:9">
       <x:c r="A1061" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1061" s="0" t="s">
         <x:v>31</x:v>
@@ -32222,7 +32225,7 @@
     </x:row>
     <x:row r="1062" spans="1:9">
       <x:c r="A1062" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1062" s="0" t="s">
         <x:v>31</x:v>
@@ -32234,7 +32237,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E1062" s="1" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F1062" s="1" t="s">
         <x:v>29</x:v>
@@ -32251,7 +32254,7 @@
     </x:row>
     <x:row r="1063" spans="1:9">
       <x:c r="A1063" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1063" s="0" t="s">
         <x:v>31</x:v>
@@ -32260,10 +32263,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1063" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E1063" s="1" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="F1063" s="1" t="s">
         <x:v>54</x:v>
@@ -32280,7 +32283,7 @@
     </x:row>
     <x:row r="1064" spans="1:9">
       <x:c r="A1064" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1064" s="0" t="s">
         <x:v>33</x:v>
@@ -32309,7 +32312,7 @@
     </x:row>
     <x:row r="1065" spans="1:9">
       <x:c r="A1065" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1065" s="0" t="s">
         <x:v>33</x:v>
@@ -32338,7 +32341,7 @@
     </x:row>
     <x:row r="1066" spans="1:9">
       <x:c r="A1066" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B1066" s="0" t="s">
         <x:v>33</x:v>
@@ -32350,16 +32353,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E1066" s="1" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="F1066" s="1" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G1066" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="H1066" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="I1066" s="0" t="s">
         <x:v>12</x:v>
@@ -32367,7 +32370,7 @@
     </x:row>
     <x:row r="1067" spans="1:9">
       <x:c r="A1067" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1067" s="0" t="s">
         <x:v>10</x:v>
@@ -32396,7 +32399,7 @@
     </x:row>
     <x:row r="1068" spans="1:9">
       <x:c r="A1068" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1068" s="0" t="s">
         <x:v>10</x:v>
@@ -32425,7 +32428,7 @@
     </x:row>
     <x:row r="1069" spans="1:9">
       <x:c r="A1069" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1069" s="0" t="s">
         <x:v>10</x:v>
@@ -32454,7 +32457,7 @@
     </x:row>
     <x:row r="1070" spans="1:9">
       <x:c r="A1070" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1070" s="0" t="s">
         <x:v>49</x:v>
@@ -32483,7 +32486,7 @@
     </x:row>
     <x:row r="1071" spans="1:9">
       <x:c r="A1071" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1071" s="0" t="s">
         <x:v>49</x:v>
@@ -32512,7 +32515,7 @@
     </x:row>
     <x:row r="1072" spans="1:9">
       <x:c r="A1072" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1072" s="0" t="s">
         <x:v>49</x:v>
@@ -32541,7 +32544,7 @@
     </x:row>
     <x:row r="1073" spans="1:9">
       <x:c r="A1073" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1073" s="0" t="s">
         <x:v>22</x:v>
@@ -32570,7 +32573,7 @@
     </x:row>
     <x:row r="1074" spans="1:9">
       <x:c r="A1074" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1074" s="0" t="s">
         <x:v>22</x:v>
@@ -32599,7 +32602,7 @@
     </x:row>
     <x:row r="1075" spans="1:9">
       <x:c r="A1075" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1075" s="0" t="s">
         <x:v>22</x:v>
@@ -32628,7 +32631,7 @@
     </x:row>
     <x:row r="1076" spans="1:9">
       <x:c r="A1076" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1076" s="0" t="s">
         <x:v>25</x:v>
@@ -32657,7 +32660,7 @@
     </x:row>
     <x:row r="1077" spans="1:9">
       <x:c r="A1077" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1077" s="0" t="s">
         <x:v>25</x:v>
@@ -32686,7 +32689,7 @@
     </x:row>
     <x:row r="1078" spans="1:9">
       <x:c r="A1078" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1078" s="0" t="s">
         <x:v>25</x:v>
@@ -32715,7 +32718,7 @@
     </x:row>
     <x:row r="1079" spans="1:9">
       <x:c r="A1079" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1079" s="0" t="s">
         <x:v>30</x:v>
@@ -32744,7 +32747,7 @@
     </x:row>
     <x:row r="1080" spans="1:9">
       <x:c r="A1080" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1080" s="0" t="s">
         <x:v>30</x:v>
@@ -32773,7 +32776,7 @@
     </x:row>
     <x:row r="1081" spans="1:9">
       <x:c r="A1081" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1081" s="0" t="s">
         <x:v>30</x:v>
@@ -32802,7 +32805,7 @@
     </x:row>
     <x:row r="1082" spans="1:9">
       <x:c r="A1082" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1082" s="0" t="s">
         <x:v>31</x:v>
@@ -32831,7 +32834,7 @@
     </x:row>
     <x:row r="1083" spans="1:9">
       <x:c r="A1083" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1083" s="0" t="s">
         <x:v>31</x:v>
@@ -32860,7 +32863,7 @@
     </x:row>
     <x:row r="1084" spans="1:9">
       <x:c r="A1084" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1084" s="0" t="s">
         <x:v>31</x:v>
@@ -32889,7 +32892,7 @@
     </x:row>
     <x:row r="1085" spans="1:9">
       <x:c r="A1085" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1085" s="0" t="s">
         <x:v>33</x:v>
@@ -32918,7 +32921,7 @@
     </x:row>
     <x:row r="1086" spans="1:9">
       <x:c r="A1086" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1086" s="0" t="s">
         <x:v>33</x:v>
@@ -32947,7 +32950,7 @@
     </x:row>
     <x:row r="1087" spans="1:9">
       <x:c r="A1087" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B1087" s="0" t="s">
         <x:v>33</x:v>
@@ -32976,7 +32979,7 @@
     </x:row>
     <x:row r="1088" spans="1:9">
       <x:c r="A1088" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1088" s="0" t="s">
         <x:v>10</x:v>
@@ -33005,7 +33008,7 @@
     </x:row>
     <x:row r="1089" spans="1:9">
       <x:c r="A1089" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1089" s="0" t="s">
         <x:v>10</x:v>
@@ -33034,7 +33037,7 @@
     </x:row>
     <x:row r="1090" spans="1:9">
       <x:c r="A1090" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1090" s="0" t="s">
         <x:v>10</x:v>
@@ -33063,7 +33066,7 @@
     </x:row>
     <x:row r="1091" spans="1:9">
       <x:c r="A1091" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1091" s="0" t="s">
         <x:v>22</x:v>
@@ -33092,7 +33095,7 @@
     </x:row>
     <x:row r="1092" spans="1:9">
       <x:c r="A1092" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1092" s="0" t="s">
         <x:v>22</x:v>
@@ -33121,7 +33124,7 @@
     </x:row>
     <x:row r="1093" spans="1:9">
       <x:c r="A1093" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1093" s="0" t="s">
         <x:v>22</x:v>
@@ -33150,7 +33153,7 @@
     </x:row>
     <x:row r="1094" spans="1:9">
       <x:c r="A1094" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1094" s="0" t="s">
         <x:v>25</x:v>
@@ -33179,7 +33182,7 @@
     </x:row>
     <x:row r="1095" spans="1:9">
       <x:c r="A1095" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1095" s="0" t="s">
         <x:v>25</x:v>
@@ -33208,7 +33211,7 @@
     </x:row>
     <x:row r="1096" spans="1:9">
       <x:c r="A1096" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1096" s="0" t="s">
         <x:v>25</x:v>
@@ -33237,7 +33240,7 @@
     </x:row>
     <x:row r="1097" spans="1:9">
       <x:c r="A1097" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1097" s="0" t="s">
         <x:v>31</x:v>
@@ -33266,7 +33269,7 @@
     </x:row>
     <x:row r="1098" spans="1:9">
       <x:c r="A1098" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1098" s="0" t="s">
         <x:v>31</x:v>
@@ -33295,7 +33298,7 @@
     </x:row>
     <x:row r="1099" spans="1:9">
       <x:c r="A1099" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1099" s="0" t="s">
         <x:v>31</x:v>
@@ -33324,7 +33327,7 @@
     </x:row>
     <x:row r="1100" spans="1:9">
       <x:c r="A1100" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1100" s="0" t="s">
         <x:v>33</x:v>
@@ -33353,7 +33356,7 @@
     </x:row>
     <x:row r="1101" spans="1:9">
       <x:c r="A1101" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1101" s="0" t="s">
         <x:v>33</x:v>
@@ -33382,7 +33385,7 @@
     </x:row>
     <x:row r="1102" spans="1:9">
       <x:c r="A1102" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B1102" s="0" t="s">
         <x:v>33</x:v>
@@ -33411,7 +33414,7 @@
     </x:row>
     <x:row r="1103" spans="1:9">
       <x:c r="A1103" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1103" s="0" t="s">
         <x:v>10</x:v>
@@ -33440,7 +33443,7 @@
     </x:row>
     <x:row r="1104" spans="1:9">
       <x:c r="A1104" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1104" s="0" t="s">
         <x:v>10</x:v>
@@ -33469,7 +33472,7 @@
     </x:row>
     <x:row r="1105" spans="1:9">
       <x:c r="A1105" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1105" s="0" t="s">
         <x:v>22</x:v>
@@ -33498,7 +33501,7 @@
     </x:row>
     <x:row r="1106" spans="1:9">
       <x:c r="A1106" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1106" s="0" t="s">
         <x:v>22</x:v>
@@ -33527,7 +33530,7 @@
     </x:row>
     <x:row r="1107" spans="1:9">
       <x:c r="A1107" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1107" s="0" t="s">
         <x:v>25</x:v>
@@ -33556,7 +33559,7 @@
     </x:row>
     <x:row r="1108" spans="1:9">
       <x:c r="A1108" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1108" s="0" t="s">
         <x:v>25</x:v>
@@ -33585,7 +33588,7 @@
     </x:row>
     <x:row r="1109" spans="1:9">
       <x:c r="A1109" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1109" s="0" t="s">
         <x:v>25</x:v>
@@ -33614,7 +33617,7 @@
     </x:row>
     <x:row r="1110" spans="1:9">
       <x:c r="A1110" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1110" s="0" t="s">
         <x:v>31</x:v>
@@ -33643,7 +33646,7 @@
     </x:row>
     <x:row r="1111" spans="1:9">
       <x:c r="A1111" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1111" s="0" t="s">
         <x:v>31</x:v>
@@ -33672,7 +33675,7 @@
     </x:row>
     <x:row r="1112" spans="1:9">
       <x:c r="A1112" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1112" s="0" t="s">
         <x:v>33</x:v>
@@ -33701,7 +33704,7 @@
     </x:row>
     <x:row r="1113" spans="1:9">
       <x:c r="A1113" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1113" s="0" t="s">
         <x:v>33</x:v>
@@ -33730,7 +33733,7 @@
     </x:row>
     <x:row r="1114" spans="1:9">
       <x:c r="A1114" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B1114" s="0" t="s">
         <x:v>33</x:v>
@@ -33759,7 +33762,7 @@
     </x:row>
     <x:row r="1115" spans="1:9">
       <x:c r="A1115" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1115" s="0" t="s">
         <x:v>10</x:v>
@@ -33788,7 +33791,7 @@
     </x:row>
     <x:row r="1116" spans="1:9">
       <x:c r="A1116" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1116" s="0" t="s">
         <x:v>10</x:v>
@@ -33817,7 +33820,7 @@
     </x:row>
     <x:row r="1117" spans="1:9">
       <x:c r="A1117" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1117" s="0" t="s">
         <x:v>10</x:v>
@@ -33846,7 +33849,7 @@
     </x:row>
     <x:row r="1118" spans="1:9">
       <x:c r="A1118" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1118" s="0" t="s">
         <x:v>22</x:v>
@@ -33875,7 +33878,7 @@
     </x:row>
     <x:row r="1119" spans="1:9">
       <x:c r="A1119" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1119" s="0" t="s">
         <x:v>22</x:v>
@@ -33904,7 +33907,7 @@
     </x:row>
     <x:row r="1120" spans="1:9">
       <x:c r="A1120" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1120" s="0" t="s">
         <x:v>22</x:v>
@@ -33933,7 +33936,7 @@
     </x:row>
     <x:row r="1121" spans="1:9">
       <x:c r="A1121" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1121" s="0" t="s">
         <x:v>25</x:v>
@@ -33962,7 +33965,7 @@
     </x:row>
     <x:row r="1122" spans="1:9">
       <x:c r="A1122" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1122" s="0" t="s">
         <x:v>25</x:v>
@@ -33991,7 +33994,7 @@
     </x:row>
     <x:row r="1123" spans="1:9">
       <x:c r="A1123" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1123" s="0" t="s">
         <x:v>25</x:v>
@@ -34020,7 +34023,7 @@
     </x:row>
     <x:row r="1124" spans="1:9">
       <x:c r="A1124" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1124" s="0" t="s">
         <x:v>31</x:v>
@@ -34049,7 +34052,7 @@
     </x:row>
     <x:row r="1125" spans="1:9">
       <x:c r="A1125" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1125" s="0" t="s">
         <x:v>31</x:v>
@@ -34078,7 +34081,7 @@
     </x:row>
     <x:row r="1126" spans="1:9">
       <x:c r="A1126" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1126" s="0" t="s">
         <x:v>33</x:v>
@@ -34107,7 +34110,7 @@
     </x:row>
     <x:row r="1127" spans="1:9">
       <x:c r="A1127" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B1127" s="0" t="s">
         <x:v>33</x:v>
@@ -34136,7 +34139,7 @@
     </x:row>
     <x:row r="1128" spans="1:9">
       <x:c r="A1128" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1128" s="0" t="s">
         <x:v>10</x:v>
@@ -34165,7 +34168,7 @@
     </x:row>
     <x:row r="1129" spans="1:9">
       <x:c r="A1129" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1129" s="0" t="s">
         <x:v>10</x:v>
@@ -34194,7 +34197,7 @@
     </x:row>
     <x:row r="1130" spans="1:9">
       <x:c r="A1130" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1130" s="0" t="s">
         <x:v>10</x:v>
@@ -34223,7 +34226,7 @@
     </x:row>
     <x:row r="1131" spans="1:9">
       <x:c r="A1131" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1131" s="0" t="s">
         <x:v>22</x:v>
@@ -34252,7 +34255,7 @@
     </x:row>
     <x:row r="1132" spans="1:9">
       <x:c r="A1132" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1132" s="0" t="s">
         <x:v>22</x:v>
@@ -34281,7 +34284,7 @@
     </x:row>
     <x:row r="1133" spans="1:9">
       <x:c r="A1133" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1133" s="0" t="s">
         <x:v>22</x:v>
@@ -34310,7 +34313,7 @@
     </x:row>
     <x:row r="1134" spans="1:9">
       <x:c r="A1134" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1134" s="0" t="s">
         <x:v>25</x:v>
@@ -34339,7 +34342,7 @@
     </x:row>
     <x:row r="1135" spans="1:9">
       <x:c r="A1135" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1135" s="0" t="s">
         <x:v>25</x:v>
@@ -34368,7 +34371,7 @@
     </x:row>
     <x:row r="1136" spans="1:9">
       <x:c r="A1136" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B1136" s="0" t="s">
         <x:v>25</x:v>
@@ -34397,7 +34400,7 @@
     </x:row>
     <x:row r="1137" spans="1:9">
       <x:c r="A1137" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1137" s="0" t="s">
         <x:v>10</x:v>
@@ -34426,7 +34429,7 @@
     </x:row>
     <x:row r="1138" spans="1:9">
       <x:c r="A1138" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1138" s="0" t="s">
         <x:v>10</x:v>
@@ -34455,7 +34458,7 @@
     </x:row>
     <x:row r="1139" spans="1:9">
       <x:c r="A1139" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1139" s="0" t="s">
         <x:v>10</x:v>
@@ -34484,7 +34487,7 @@
     </x:row>
     <x:row r="1140" spans="1:9">
       <x:c r="A1140" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1140" s="0" t="s">
         <x:v>22</x:v>
@@ -34513,7 +34516,7 @@
     </x:row>
     <x:row r="1141" spans="1:9">
       <x:c r="A1141" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1141" s="0" t="s">
         <x:v>22</x:v>
@@ -34542,7 +34545,7 @@
     </x:row>
     <x:row r="1142" spans="1:9">
       <x:c r="A1142" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1142" s="0" t="s">
         <x:v>22</x:v>
@@ -34571,7 +34574,7 @@
     </x:row>
     <x:row r="1143" spans="1:9">
       <x:c r="A1143" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1143" s="0" t="s">
         <x:v>25</x:v>
@@ -34600,7 +34603,7 @@
     </x:row>
     <x:row r="1144" spans="1:9">
       <x:c r="A1144" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1144" s="0" t="s">
         <x:v>25</x:v>
@@ -34629,7 +34632,7 @@
     </x:row>
     <x:row r="1145" spans="1:9">
       <x:c r="A1145" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1145" s="0" t="s">
         <x:v>25</x:v>
@@ -34658,7 +34661,7 @@
     </x:row>
     <x:row r="1146" spans="1:9">
       <x:c r="A1146" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1146" s="0" t="s">
         <x:v>30</x:v>
@@ -34687,7 +34690,7 @@
     </x:row>
     <x:row r="1147" spans="1:9">
       <x:c r="A1147" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1147" s="0" t="s">
         <x:v>30</x:v>
@@ -34716,7 +34719,7 @@
     </x:row>
     <x:row r="1148" spans="1:9">
       <x:c r="A1148" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1148" s="0" t="s">
         <x:v>31</x:v>
@@ -34745,7 +34748,7 @@
     </x:row>
     <x:row r="1149" spans="1:9">
       <x:c r="A1149" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1149" s="0" t="s">
         <x:v>31</x:v>
@@ -34774,7 +34777,7 @@
     </x:row>
     <x:row r="1150" spans="1:9">
       <x:c r="A1150" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1150" s="0" t="s">
         <x:v>31</x:v>
@@ -34803,7 +34806,7 @@
     </x:row>
     <x:row r="1151" spans="1:9">
       <x:c r="A1151" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1151" s="0" t="s">
         <x:v>33</x:v>
@@ -34832,7 +34835,7 @@
     </x:row>
     <x:row r="1152" spans="1:9">
       <x:c r="A1152" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B1152" s="0" t="s">
         <x:v>33</x:v>
@@ -34861,7 +34864,7 @@
     </x:row>
     <x:row r="1153" spans="1:9">
       <x:c r="A1153" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1153" s="0" t="s">
         <x:v>10</x:v>
@@ -34890,7 +34893,7 @@
     </x:row>
     <x:row r="1154" spans="1:9">
       <x:c r="A1154" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1154" s="0" t="s">
         <x:v>10</x:v>
@@ -34919,7 +34922,7 @@
     </x:row>
     <x:row r="1155" spans="1:9">
       <x:c r="A1155" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1155" s="0" t="s">
         <x:v>10</x:v>
@@ -34948,7 +34951,7 @@
     </x:row>
     <x:row r="1156" spans="1:9">
       <x:c r="A1156" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1156" s="0" t="s">
         <x:v>49</x:v>
@@ -34977,7 +34980,7 @@
     </x:row>
     <x:row r="1157" spans="1:9">
       <x:c r="A1157" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1157" s="0" t="s">
         <x:v>49</x:v>
@@ -35006,7 +35009,7 @@
     </x:row>
     <x:row r="1158" spans="1:9">
       <x:c r="A1158" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1158" s="0" t="s">
         <x:v>49</x:v>
@@ -35035,7 +35038,7 @@
     </x:row>
     <x:row r="1159" spans="1:9">
       <x:c r="A1159" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1159" s="0" t="s">
         <x:v>22</x:v>
@@ -35064,7 +35067,7 @@
     </x:row>
     <x:row r="1160" spans="1:9">
       <x:c r="A1160" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1160" s="0" t="s">
         <x:v>22</x:v>
@@ -35093,7 +35096,7 @@
     </x:row>
     <x:row r="1161" spans="1:9">
       <x:c r="A1161" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1161" s="0" t="s">
         <x:v>22</x:v>
@@ -35122,7 +35125,7 @@
     </x:row>
     <x:row r="1162" spans="1:9">
       <x:c r="A1162" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1162" s="0" t="s">
         <x:v>25</x:v>
@@ -35151,7 +35154,7 @@
     </x:row>
     <x:row r="1163" spans="1:9">
       <x:c r="A1163" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1163" s="0" t="s">
         <x:v>25</x:v>
@@ -35180,7 +35183,7 @@
     </x:row>
     <x:row r="1164" spans="1:9">
       <x:c r="A1164" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1164" s="0" t="s">
         <x:v>25</x:v>
@@ -35209,7 +35212,7 @@
     </x:row>
     <x:row r="1165" spans="1:9">
       <x:c r="A1165" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1165" s="0" t="s">
         <x:v>31</x:v>
@@ -35238,7 +35241,7 @@
     </x:row>
     <x:row r="1166" spans="1:9">
       <x:c r="A1166" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1166" s="0" t="s">
         <x:v>31</x:v>
@@ -35267,7 +35270,7 @@
     </x:row>
     <x:row r="1167" spans="1:9">
       <x:c r="A1167" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1167" s="0" t="s">
         <x:v>33</x:v>
@@ -35296,7 +35299,7 @@
     </x:row>
     <x:row r="1168" spans="1:9">
       <x:c r="A1168" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B1168" s="0" t="s">
         <x:v>33</x:v>
@@ -35325,7 +35328,7 @@
     </x:row>
     <x:row r="1169" spans="1:9">
       <x:c r="A1169" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1169" s="0" t="s">
         <x:v>10</x:v>
@@ -35354,7 +35357,7 @@
     </x:row>
     <x:row r="1170" spans="1:9">
       <x:c r="A1170" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1170" s="0" t="s">
         <x:v>10</x:v>
@@ -35383,7 +35386,7 @@
     </x:row>
     <x:row r="1171" spans="1:9">
       <x:c r="A1171" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1171" s="0" t="s">
         <x:v>10</x:v>
@@ -35412,7 +35415,7 @@
     </x:row>
     <x:row r="1172" spans="1:9">
       <x:c r="A1172" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1172" s="0" t="s">
         <x:v>22</x:v>
@@ -35441,7 +35444,7 @@
     </x:row>
     <x:row r="1173" spans="1:9">
       <x:c r="A1173" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1173" s="0" t="s">
         <x:v>22</x:v>
@@ -35470,7 +35473,7 @@
     </x:row>
     <x:row r="1174" spans="1:9">
       <x:c r="A1174" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1174" s="0" t="s">
         <x:v>22</x:v>
@@ -35499,7 +35502,7 @@
     </x:row>
     <x:row r="1175" spans="1:9">
       <x:c r="A1175" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1175" s="0" t="s">
         <x:v>25</x:v>
@@ -35528,7 +35531,7 @@
     </x:row>
     <x:row r="1176" spans="1:9">
       <x:c r="A1176" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1176" s="0" t="s">
         <x:v>25</x:v>
@@ -35557,7 +35560,7 @@
     </x:row>
     <x:row r="1177" spans="1:9">
       <x:c r="A1177" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1177" s="0" t="s">
         <x:v>25</x:v>
@@ -35586,7 +35589,7 @@
     </x:row>
     <x:row r="1178" spans="1:9">
       <x:c r="A1178" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1178" s="0" t="s">
         <x:v>30</x:v>
@@ -35615,7 +35618,7 @@
     </x:row>
     <x:row r="1179" spans="1:9">
       <x:c r="A1179" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1179" s="0" t="s">
         <x:v>30</x:v>
@@ -35644,7 +35647,7 @@
     </x:row>
     <x:row r="1180" spans="1:9">
       <x:c r="A1180" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1180" s="0" t="s">
         <x:v>31</x:v>
@@ -35673,7 +35676,7 @@
     </x:row>
     <x:row r="1181" spans="1:9">
       <x:c r="A1181" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1181" s="0" t="s">
         <x:v>31</x:v>
@@ -35702,7 +35705,7 @@
     </x:row>
     <x:row r="1182" spans="1:9">
       <x:c r="A1182" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1182" s="0" t="s">
         <x:v>31</x:v>
@@ -35731,7 +35734,7 @@
     </x:row>
     <x:row r="1183" spans="1:9">
       <x:c r="A1183" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1183" s="0" t="s">
         <x:v>33</x:v>
@@ -35760,7 +35763,7 @@
     </x:row>
     <x:row r="1184" spans="1:9">
       <x:c r="A1184" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1184" s="0" t="s">
         <x:v>33</x:v>
@@ -35789,7 +35792,7 @@
     </x:row>
     <x:row r="1185" spans="1:9">
       <x:c r="A1185" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B1185" s="0" t="s">
         <x:v>33</x:v>
@@ -35818,7 +35821,7 @@
     </x:row>
     <x:row r="1186" spans="1:9">
       <x:c r="A1186" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1186" s="0" t="s">
         <x:v>10</x:v>
@@ -35847,7 +35850,7 @@
     </x:row>
     <x:row r="1187" spans="1:9">
       <x:c r="A1187" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1187" s="0" t="s">
         <x:v>10</x:v>
@@ -35859,16 +35862,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E1187" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F1187" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
       <x:c r="G1187" s="1" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="H1187" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I1187" s="0" t="s">
         <x:v>12</x:v>
@@ -35876,7 +35879,7 @@
     </x:row>
     <x:row r="1188" spans="1:9">
       <x:c r="A1188" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1188" s="0" t="s">
         <x:v>10</x:v>
@@ -35891,7 +35894,7 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="F1188" s="1" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="G1188" s="1" t="s">
         <x:v>267</x:v>
@@ -35905,7 +35908,7 @@
     </x:row>
     <x:row r="1189" spans="1:9">
       <x:c r="A1189" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1189" s="0" t="s">
         <x:v>49</x:v>
@@ -35934,7 +35937,7 @@
     </x:row>
     <x:row r="1190" spans="1:9">
       <x:c r="A1190" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1190" s="0" t="s">
         <x:v>49</x:v>
@@ -35963,7 +35966,7 @@
     </x:row>
     <x:row r="1191" spans="1:9">
       <x:c r="A1191" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1191" s="0" t="s">
         <x:v>49</x:v>
@@ -35992,7 +35995,7 @@
     </x:row>
     <x:row r="1192" spans="1:9">
       <x:c r="A1192" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1192" s="0" t="s">
         <x:v>22</x:v>
@@ -36021,7 +36024,7 @@
     </x:row>
     <x:row r="1193" spans="1:9">
       <x:c r="A1193" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1193" s="0" t="s">
         <x:v>22</x:v>
@@ -36050,7 +36053,7 @@
     </x:row>
     <x:row r="1194" spans="1:9">
       <x:c r="A1194" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1194" s="0" t="s">
         <x:v>22</x:v>
@@ -36079,7 +36082,7 @@
     </x:row>
     <x:row r="1195" spans="1:9">
       <x:c r="A1195" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1195" s="0" t="s">
         <x:v>25</x:v>
@@ -36108,7 +36111,7 @@
     </x:row>
     <x:row r="1196" spans="1:9">
       <x:c r="A1196" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1196" s="0" t="s">
         <x:v>25</x:v>
@@ -36123,10 +36126,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F1196" s="1" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="G1196" s="1" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="H1196" s="1" t="s">
         <x:v>141</x:v>
@@ -36137,7 +36140,7 @@
     </x:row>
     <x:row r="1197" spans="1:9">
       <x:c r="A1197" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1197" s="0" t="s">
         <x:v>25</x:v>
@@ -36149,16 +36152,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E1197" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F1197" s="1" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="G1197" s="1" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="H1197" s="1" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="G1197" s="1" t="s">
-        <x:v>339</x:v>
-      </x:c>
-      <x:c r="H1197" s="1" t="s">
-        <x:v>337</x:v>
       </x:c>
       <x:c r="I1197" s="0" t="s">
         <x:v>12</x:v>
@@ -36166,7 +36169,7 @@
     </x:row>
     <x:row r="1198" spans="1:9">
       <x:c r="A1198" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1198" s="0" t="s">
         <x:v>30</x:v>
@@ -36195,7 +36198,7 @@
     </x:row>
     <x:row r="1199" spans="1:9">
       <x:c r="A1199" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1199" s="0" t="s">
         <x:v>30</x:v>
@@ -36224,7 +36227,7 @@
     </x:row>
     <x:row r="1200" spans="1:9">
       <x:c r="A1200" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1200" s="0" t="s">
         <x:v>30</x:v>
@@ -36253,7 +36256,7 @@
     </x:row>
     <x:row r="1201" spans="1:9">
       <x:c r="A1201" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1201" s="0" t="s">
         <x:v>31</x:v>
@@ -36282,7 +36285,7 @@
     </x:row>
     <x:row r="1202" spans="1:9">
       <x:c r="A1202" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1202" s="0" t="s">
         <x:v>31</x:v>
@@ -36311,7 +36314,7 @@
     </x:row>
     <x:row r="1203" spans="1:9">
       <x:c r="A1203" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1203" s="0" t="s">
         <x:v>31</x:v>
@@ -36340,7 +36343,7 @@
     </x:row>
     <x:row r="1204" spans="1:9">
       <x:c r="A1204" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1204" s="0" t="s">
         <x:v>33</x:v>
@@ -36369,7 +36372,7 @@
     </x:row>
     <x:row r="1205" spans="1:9">
       <x:c r="A1205" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1205" s="0" t="s">
         <x:v>33</x:v>
@@ -36398,7 +36401,7 @@
     </x:row>
     <x:row r="1206" spans="1:9">
       <x:c r="A1206" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B1206" s="0" t="s">
         <x:v>33</x:v>
@@ -36427,7 +36430,7 @@
     </x:row>
     <x:row r="1207" spans="1:9">
       <x:c r="A1207" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1207" s="0" t="s">
         <x:v>10</x:v>
@@ -36456,7 +36459,7 @@
     </x:row>
     <x:row r="1208" spans="1:9">
       <x:c r="A1208" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1208" s="0" t="s">
         <x:v>10</x:v>
@@ -36485,7 +36488,7 @@
     </x:row>
     <x:row r="1209" spans="1:9">
       <x:c r="A1209" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1209" s="0" t="s">
         <x:v>10</x:v>
@@ -36514,7 +36517,7 @@
     </x:row>
     <x:row r="1210" spans="1:9">
       <x:c r="A1210" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1210" s="0" t="s">
         <x:v>22</x:v>
@@ -36543,7 +36546,7 @@
     </x:row>
     <x:row r="1211" spans="1:9">
       <x:c r="A1211" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1211" s="0" t="s">
         <x:v>22</x:v>
@@ -36572,7 +36575,7 @@
     </x:row>
     <x:row r="1212" spans="1:9">
       <x:c r="A1212" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1212" s="0" t="s">
         <x:v>22</x:v>
@@ -36601,7 +36604,7 @@
     </x:row>
     <x:row r="1213" spans="1:9">
       <x:c r="A1213" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1213" s="0" t="s">
         <x:v>25</x:v>
@@ -36630,7 +36633,7 @@
     </x:row>
     <x:row r="1214" spans="1:9">
       <x:c r="A1214" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1214" s="0" t="s">
         <x:v>25</x:v>
@@ -36659,7 +36662,7 @@
     </x:row>
     <x:row r="1215" spans="1:9">
       <x:c r="A1215" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1215" s="0" t="s">
         <x:v>25</x:v>
@@ -36688,7 +36691,7 @@
     </x:row>
     <x:row r="1216" spans="1:9">
       <x:c r="A1216" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1216" s="0" t="s">
         <x:v>31</x:v>
@@ -36717,7 +36720,7 @@
     </x:row>
     <x:row r="1217" spans="1:9">
       <x:c r="A1217" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1217" s="0" t="s">
         <x:v>31</x:v>
@@ -36746,7 +36749,7 @@
     </x:row>
     <x:row r="1218" spans="1:9">
       <x:c r="A1218" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1218" s="0" t="s">
         <x:v>31</x:v>
@@ -36775,7 +36778,7 @@
     </x:row>
     <x:row r="1219" spans="1:9">
       <x:c r="A1219" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1219" s="0" t="s">
         <x:v>33</x:v>
@@ -36804,7 +36807,7 @@
     </x:row>
     <x:row r="1220" spans="1:9">
       <x:c r="A1220" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B1220" s="0" t="s">
         <x:v>33</x:v>
@@ -36833,7 +36836,7 @@
     </x:row>
     <x:row r="1221" spans="1:9">
       <x:c r="A1221" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1221" s="0" t="s">
         <x:v>10</x:v>
@@ -36862,7 +36865,7 @@
     </x:row>
     <x:row r="1222" spans="1:9">
       <x:c r="A1222" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1222" s="0" t="s">
         <x:v>10</x:v>
@@ -36891,7 +36894,7 @@
     </x:row>
     <x:row r="1223" spans="1:9">
       <x:c r="A1223" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1223" s="0" t="s">
         <x:v>10</x:v>
@@ -36920,7 +36923,7 @@
     </x:row>
     <x:row r="1224" spans="1:9">
       <x:c r="A1224" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1224" s="0" t="s">
         <x:v>49</x:v>
@@ -36949,7 +36952,7 @@
     </x:row>
     <x:row r="1225" spans="1:9">
       <x:c r="A1225" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1225" s="0" t="s">
         <x:v>49</x:v>
@@ -36978,7 +36981,7 @@
     </x:row>
     <x:row r="1226" spans="1:9">
       <x:c r="A1226" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1226" s="0" t="s">
         <x:v>22</x:v>
@@ -37007,7 +37010,7 @@
     </x:row>
     <x:row r="1227" spans="1:9">
       <x:c r="A1227" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1227" s="0" t="s">
         <x:v>22</x:v>
@@ -37036,7 +37039,7 @@
     </x:row>
     <x:row r="1228" spans="1:9">
       <x:c r="A1228" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1228" s="0" t="s">
         <x:v>22</x:v>
@@ -37065,7 +37068,7 @@
     </x:row>
     <x:row r="1229" spans="1:9">
       <x:c r="A1229" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1229" s="0" t="s">
         <x:v>25</x:v>
@@ -37094,7 +37097,7 @@
     </x:row>
     <x:row r="1230" spans="1:9">
       <x:c r="A1230" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1230" s="0" t="s">
         <x:v>25</x:v>
@@ -37123,7 +37126,7 @@
     </x:row>
     <x:row r="1231" spans="1:9">
       <x:c r="A1231" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1231" s="0" t="s">
         <x:v>25</x:v>
@@ -37152,7 +37155,7 @@
     </x:row>
     <x:row r="1232" spans="1:9">
       <x:c r="A1232" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1232" s="0" t="s">
         <x:v>31</x:v>
@@ -37181,7 +37184,7 @@
     </x:row>
     <x:row r="1233" spans="1:9">
       <x:c r="A1233" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1233" s="0" t="s">
         <x:v>31</x:v>
@@ -37210,7 +37213,7 @@
     </x:row>
     <x:row r="1234" spans="1:9">
       <x:c r="A1234" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1234" s="0" t="s">
         <x:v>31</x:v>
@@ -37239,7 +37242,7 @@
     </x:row>
     <x:row r="1235" spans="1:9">
       <x:c r="A1235" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1235" s="0" t="s">
         <x:v>33</x:v>
@@ -37268,7 +37271,7 @@
     </x:row>
     <x:row r="1236" spans="1:9">
       <x:c r="A1236" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1236" s="0" t="s">
         <x:v>33</x:v>
@@ -37297,7 +37300,7 @@
     </x:row>
     <x:row r="1237" spans="1:9">
       <x:c r="A1237" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B1237" s="0" t="s">
         <x:v>33</x:v>
@@ -37326,7 +37329,7 @@
     </x:row>
     <x:row r="1238" spans="1:9">
       <x:c r="A1238" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1238" s="0" t="s">
         <x:v>10</x:v>
@@ -37355,7 +37358,7 @@
     </x:row>
     <x:row r="1239" spans="1:9">
       <x:c r="A1239" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1239" s="0" t="s">
         <x:v>10</x:v>
@@ -37384,7 +37387,7 @@
     </x:row>
     <x:row r="1240" spans="1:9">
       <x:c r="A1240" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1240" s="0" t="s">
         <x:v>10</x:v>
@@ -37413,7 +37416,7 @@
     </x:row>
     <x:row r="1241" spans="1:9">
       <x:c r="A1241" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1241" s="0" t="s">
         <x:v>49</x:v>
@@ -37442,7 +37445,7 @@
     </x:row>
     <x:row r="1242" spans="1:9">
       <x:c r="A1242" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1242" s="0" t="s">
         <x:v>49</x:v>
@@ -37471,7 +37474,7 @@
     </x:row>
     <x:row r="1243" spans="1:9">
       <x:c r="A1243" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1243" s="0" t="s">
         <x:v>22</x:v>
@@ -37500,7 +37503,7 @@
     </x:row>
     <x:row r="1244" spans="1:9">
       <x:c r="A1244" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1244" s="0" t="s">
         <x:v>22</x:v>
@@ -37529,7 +37532,7 @@
     </x:row>
     <x:row r="1245" spans="1:9">
       <x:c r="A1245" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1245" s="0" t="s">
         <x:v>22</x:v>
@@ -37558,7 +37561,7 @@
     </x:row>
     <x:row r="1246" spans="1:9">
       <x:c r="A1246" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1246" s="0" t="s">
         <x:v>25</x:v>
@@ -37587,7 +37590,7 @@
     </x:row>
     <x:row r="1247" spans="1:9">
       <x:c r="A1247" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1247" s="0" t="s">
         <x:v>25</x:v>
@@ -37599,7 +37602,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E1247" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F1247" s="1" t="s">
         <x:v>43</x:v>
@@ -37616,7 +37619,7 @@
     </x:row>
     <x:row r="1248" spans="1:9">
       <x:c r="A1248" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1248" s="0" t="s">
         <x:v>25</x:v>
@@ -37634,7 +37637,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="G1248" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H1248" s="1" t="s">
         <x:v>44</x:v>
@@ -37645,7 +37648,7 @@
     </x:row>
     <x:row r="1249" spans="1:9">
       <x:c r="A1249" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1249" s="0" t="s">
         <x:v>30</x:v>
@@ -37674,7 +37677,7 @@
     </x:row>
     <x:row r="1250" spans="1:9">
       <x:c r="A1250" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1250" s="0" t="s">
         <x:v>30</x:v>
@@ -37703,7 +37706,7 @@
     </x:row>
     <x:row r="1251" spans="1:9">
       <x:c r="A1251" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1251" s="0" t="s">
         <x:v>31</x:v>
@@ -37732,7 +37735,7 @@
     </x:row>
     <x:row r="1252" spans="1:9">
       <x:c r="A1252" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1252" s="0" t="s">
         <x:v>31</x:v>
@@ -37761,7 +37764,7 @@
     </x:row>
     <x:row r="1253" spans="1:9">
       <x:c r="A1253" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1253" s="0" t="s">
         <x:v>31</x:v>
@@ -37790,7 +37793,7 @@
     </x:row>
     <x:row r="1254" spans="1:9">
       <x:c r="A1254" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1254" s="0" t="s">
         <x:v>33</x:v>
@@ -37819,7 +37822,7 @@
     </x:row>
     <x:row r="1255" spans="1:9">
       <x:c r="A1255" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1255" s="0" t="s">
         <x:v>33</x:v>
@@ -37848,7 +37851,7 @@
     </x:row>
     <x:row r="1256" spans="1:9">
       <x:c r="A1256" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B1256" s="0" t="s">
         <x:v>33</x:v>
@@ -37877,7 +37880,7 @@
     </x:row>
     <x:row r="1257" spans="1:9">
       <x:c r="A1257" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1257" s="0" t="s">
         <x:v>10</x:v>
@@ -37906,7 +37909,7 @@
     </x:row>
     <x:row r="1258" spans="1:9">
       <x:c r="A1258" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1258" s="0" t="s">
         <x:v>10</x:v>
@@ -37921,13 +37924,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F1258" s="1" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="G1258" s="1" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="H1258" s="1" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="I1258" s="0" t="s">
         <x:v>12</x:v>
@@ -37935,7 +37938,7 @@
     </x:row>
     <x:row r="1259" spans="1:9">
       <x:c r="A1259" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1259" s="0" t="s">
         <x:v>10</x:v>
@@ -37944,19 +37947,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D1259" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E1259" s="1" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="F1259" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G1259" s="1" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="H1259" s="1" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="I1259" s="0" t="s">
         <x:v>12</x:v>
@@ -37964,7 +37967,7 @@
     </x:row>
     <x:row r="1260" spans="1:9">
       <x:c r="A1260" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1260" s="0" t="s">
         <x:v>22</x:v>
@@ -37993,7 +37996,7 @@
     </x:row>
     <x:row r="1261" spans="1:9">
       <x:c r="A1261" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1261" s="0" t="s">
         <x:v>22</x:v>
@@ -38002,7 +38005,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1261" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E1261" s="1" t="s">
         <x:v>32</x:v>
@@ -38022,7 +38025,7 @@
     </x:row>
     <x:row r="1262" spans="1:9">
       <x:c r="A1262" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1262" s="0" t="s">
         <x:v>22</x:v>
@@ -38051,7 +38054,7 @@
     </x:row>
     <x:row r="1263" spans="1:9">
       <x:c r="A1263" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1263" s="0" t="s">
         <x:v>25</x:v>
@@ -38080,7 +38083,7 @@
     </x:row>
     <x:row r="1264" spans="1:9">
       <x:c r="A1264" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1264" s="0" t="s">
         <x:v>25</x:v>
@@ -38109,7 +38112,7 @@
     </x:row>
     <x:row r="1265" spans="1:9">
       <x:c r="A1265" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1265" s="0" t="s">
         <x:v>25</x:v>
@@ -38138,7 +38141,7 @@
     </x:row>
     <x:row r="1266" spans="1:9">
       <x:c r="A1266" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1266" s="0" t="s">
         <x:v>30</x:v>
@@ -38167,7 +38170,7 @@
     </x:row>
     <x:row r="1267" spans="1:9">
       <x:c r="A1267" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1267" s="0" t="s">
         <x:v>30</x:v>
@@ -38196,7 +38199,7 @@
     </x:row>
     <x:row r="1268" spans="1:9">
       <x:c r="A1268" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1268" s="0" t="s">
         <x:v>31</x:v>
@@ -38225,7 +38228,7 @@
     </x:row>
     <x:row r="1269" spans="1:9">
       <x:c r="A1269" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1269" s="0" t="s">
         <x:v>31</x:v>
@@ -38254,7 +38257,7 @@
     </x:row>
     <x:row r="1270" spans="1:9">
       <x:c r="A1270" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1270" s="0" t="s">
         <x:v>31</x:v>
@@ -38283,7 +38286,7 @@
     </x:row>
     <x:row r="1271" spans="1:9">
       <x:c r="A1271" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1271" s="0" t="s">
         <x:v>33</x:v>
@@ -38312,7 +38315,7 @@
     </x:row>
     <x:row r="1272" spans="1:9">
       <x:c r="A1272" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1272" s="0" t="s">
         <x:v>33</x:v>
@@ -38341,7 +38344,7 @@
     </x:row>
     <x:row r="1273" spans="1:9">
       <x:c r="A1273" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B1273" s="0" t="s">
         <x:v>33</x:v>
@@ -38370,7 +38373,7 @@
     </x:row>
     <x:row r="1274" spans="1:9">
       <x:c r="A1274" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1274" s="0" t="s">
         <x:v>10</x:v>
@@ -38399,7 +38402,7 @@
     </x:row>
     <x:row r="1275" spans="1:9">
       <x:c r="A1275" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1275" s="0" t="s">
         <x:v>10</x:v>
@@ -38428,7 +38431,7 @@
     </x:row>
     <x:row r="1276" spans="1:9">
       <x:c r="A1276" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1276" s="0" t="s">
         <x:v>10</x:v>
@@ -38457,7 +38460,7 @@
     </x:row>
     <x:row r="1277" spans="1:9">
       <x:c r="A1277" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1277" s="0" t="s">
         <x:v>22</x:v>
@@ -38486,7 +38489,7 @@
     </x:row>
     <x:row r="1278" spans="1:9">
       <x:c r="A1278" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1278" s="0" t="s">
         <x:v>22</x:v>
@@ -38515,7 +38518,7 @@
     </x:row>
     <x:row r="1279" spans="1:9">
       <x:c r="A1279" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1279" s="0" t="s">
         <x:v>22</x:v>
@@ -38544,7 +38547,7 @@
     </x:row>
     <x:row r="1280" spans="1:9">
       <x:c r="A1280" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1280" s="0" t="s">
         <x:v>25</x:v>
@@ -38573,7 +38576,7 @@
     </x:row>
     <x:row r="1281" spans="1:9">
       <x:c r="A1281" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1281" s="0" t="s">
         <x:v>25</x:v>
@@ -38602,7 +38605,7 @@
     </x:row>
     <x:row r="1282" spans="1:9">
       <x:c r="A1282" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1282" s="0" t="s">
         <x:v>25</x:v>
@@ -38631,7 +38634,7 @@
     </x:row>
     <x:row r="1283" spans="1:9">
       <x:c r="A1283" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1283" s="0" t="s">
         <x:v>31</x:v>
@@ -38660,7 +38663,7 @@
     </x:row>
     <x:row r="1284" spans="1:9">
       <x:c r="A1284" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1284" s="0" t="s">
         <x:v>31</x:v>
@@ -38689,7 +38692,7 @@
     </x:row>
     <x:row r="1285" spans="1:9">
       <x:c r="A1285" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1285" s="0" t="s">
         <x:v>31</x:v>
@@ -38718,7 +38721,7 @@
     </x:row>
     <x:row r="1286" spans="1:9">
       <x:c r="A1286" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1286" s="0" t="s">
         <x:v>33</x:v>
@@ -38747,7 +38750,7 @@
     </x:row>
     <x:row r="1287" spans="1:9">
       <x:c r="A1287" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B1287" s="0" t="s">
         <x:v>33</x:v>
